--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>['15', '78']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2858,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4509,7 +4515,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4918,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.75</v>
@@ -5333,7 +5339,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6360,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -8011,7 +8017,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8835,7 +8841,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9450,7 +9456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -10892,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11925,7 +11931,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12131,7 +12137,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12206,6 +12212,418 @@
         <v>0</v>
       </c>
       <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7332410</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45416.08333333334</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56">
+        <v>3.47</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>3.74</v>
+      </c>
+      <c r="T56">
+        <v>1.52</v>
+      </c>
+      <c r="U56">
+        <v>2.44</v>
+      </c>
+      <c r="V56">
+        <v>3.54</v>
+      </c>
+      <c r="W56">
+        <v>1.27</v>
+      </c>
+      <c r="X56">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>1.03</v>
+      </c>
+      <c r="Z56">
+        <v>2.4</v>
+      </c>
+      <c r="AA56">
+        <v>2.9</v>
+      </c>
+      <c r="AB56">
+        <v>2.75</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>6.55</v>
+      </c>
+      <c r="AE56">
+        <v>1.48</v>
+      </c>
+      <c r="AF56">
+        <v>2.45</v>
+      </c>
+      <c r="AG56">
+        <v>2.37</v>
+      </c>
+      <c r="AH56">
+        <v>1.53</v>
+      </c>
+      <c r="AI56">
+        <v>2.01</v>
+      </c>
+      <c r="AJ56">
+        <v>1.68</v>
+      </c>
+      <c r="AK56">
+        <v>1.38</v>
+      </c>
+      <c r="AL56">
+        <v>1.33</v>
+      </c>
+      <c r="AM56">
+        <v>1.45</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0.67</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>1.25</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>1.57</v>
+      </c>
+      <c r="AT56">
+        <v>1.57</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
+        <v>6</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BD56">
+        <v>1.89</v>
+      </c>
+      <c r="BE56">
+        <v>7.8</v>
+      </c>
+      <c r="BF56">
+        <v>2.17</v>
+      </c>
+      <c r="BG56">
+        <v>1.56</v>
+      </c>
+      <c r="BH56">
+        <v>2.37</v>
+      </c>
+      <c r="BI56">
+        <v>1.96</v>
+      </c>
+      <c r="BJ56">
+        <v>1.84</v>
+      </c>
+      <c r="BK56">
+        <v>2.53</v>
+      </c>
+      <c r="BL56">
+        <v>1.5</v>
+      </c>
+      <c r="BM56">
+        <v>3.48</v>
+      </c>
+      <c r="BN56">
+        <v>1.24</v>
+      </c>
+      <c r="BO56">
+        <v>4.33</v>
+      </c>
+      <c r="BP56">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7332411</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45416.1875</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>3.25</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>3.1</v>
+      </c>
+      <c r="T57">
+        <v>1.36</v>
+      </c>
+      <c r="U57">
+        <v>2.9</v>
+      </c>
+      <c r="V57">
+        <v>2.55</v>
+      </c>
+      <c r="W57">
+        <v>1.45</v>
+      </c>
+      <c r="X57">
+        <v>6.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.09</v>
+      </c>
+      <c r="Z57">
+        <v>2.6</v>
+      </c>
+      <c r="AA57">
+        <v>3.2</v>
+      </c>
+      <c r="AB57">
+        <v>2.4</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.65</v>
+      </c>
+      <c r="AG57">
+        <v>1.75</v>
+      </c>
+      <c r="AH57">
+        <v>1.95</v>
+      </c>
+      <c r="AI57">
+        <v>1.57</v>
+      </c>
+      <c r="AJ57">
+        <v>2.15</v>
+      </c>
+      <c r="AK57">
+        <v>1.5</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.44</v>
+      </c>
+      <c r="AN57">
+        <v>1.4</v>
+      </c>
+      <c r="AO57">
+        <v>2.5</v>
+      </c>
+      <c r="AP57">
+        <v>1.33</v>
+      </c>
+      <c r="AQ57">
+        <v>2.2</v>
+      </c>
+      <c r="AR57">
+        <v>1.56</v>
+      </c>
+      <c r="AS57">
+        <v>1.35</v>
+      </c>
+      <c r="AT57">
+        <v>2.91</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>4</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>1.57</v>
+      </c>
+      <c r="BH57">
+        <v>2.36</v>
+      </c>
+      <c r="BI57">
+        <v>1.98</v>
+      </c>
+      <c r="BJ57">
+        <v>1.82</v>
+      </c>
+      <c r="BK57">
+        <v>2.54</v>
+      </c>
+      <c r="BL57">
+        <v>1.5</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,9 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['34', '90+8']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -518,6 +521,12 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
+  </si>
+  <si>
+    <t>['34', '52', '71']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1147,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1219,7 +1228,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1550,7 +1559,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1962,7 +1971,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2168,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2374,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2658,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -2786,7 +2795,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2992,7 +3001,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3073,7 +3082,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3198,7 +3207,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3404,7 +3413,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3482,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4022,7 +4031,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4228,7 +4237,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4434,7 +4443,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4640,7 +4649,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4721,7 +4730,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5052,7 +5061,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5130,7 +5139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5258,7 +5267,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5545,7 +5554,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5748,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5876,7 +5885,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6288,7 +6297,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6494,7 +6503,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6700,7 +6709,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6781,7 +6790,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -6906,7 +6915,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7112,7 +7121,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7193,7 +7202,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7318,7 +7327,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7730,7 +7739,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7808,7 +7817,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8348,7 +8357,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8760,7 +8769,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8966,7 +8975,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9172,7 +9181,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9250,7 +9259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9378,7 +9387,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9584,7 +9593,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9790,7 +9799,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9996,7 +10005,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10074,7 +10083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10202,7 +10211,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10283,7 +10292,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10408,7 +10417,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10614,7 +10623,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11232,7 +11241,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11438,7 +11447,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11644,7 +11653,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11725,7 +11734,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -11850,7 +11859,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -11928,7 +11937,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>2.2</v>
@@ -12262,7 +12271,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12468,7 +12477,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12567,13 +12576,13 @@
         <v>3</v>
       </c>
       <c r="AW57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX57">
         <v>6</v>
       </c>
       <c r="AY57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
         <v>9</v>
@@ -12625,6 +12634,418 @@
       </c>
       <c r="BP57">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7332412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45417.08333333334</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>128</v>
+      </c>
+      <c r="P58" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q58">
+        <v>4</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>2.6</v>
+      </c>
+      <c r="T58">
+        <v>1.34</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.62</v>
+      </c>
+      <c r="W58">
+        <v>1.45</v>
+      </c>
+      <c r="X58">
+        <v>6.33</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>3.72</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>1.85</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>8.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>3.65</v>
+      </c>
+      <c r="AG58">
+        <v>1.9</v>
+      </c>
+      <c r="AH58">
+        <v>1.8</v>
+      </c>
+      <c r="AI58">
+        <v>1.6</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.82</v>
+      </c>
+      <c r="AL58">
+        <v>1.24</v>
+      </c>
+      <c r="AM58">
+        <v>1.24</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>2.25</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
+        <v>1.84</v>
+      </c>
+      <c r="AT58">
+        <v>3.38</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>3</v>
+      </c>
+      <c r="AZ58">
+        <v>2</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>9</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>2.54</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.65</v>
+      </c>
+      <c r="BG58">
+        <v>1.36</v>
+      </c>
+      <c r="BH58">
+        <v>2.9</v>
+      </c>
+      <c r="BI58">
+        <v>1.63</v>
+      </c>
+      <c r="BJ58">
+        <v>2.25</v>
+      </c>
+      <c r="BK58">
+        <v>2.02</v>
+      </c>
+      <c r="BL58">
+        <v>1.78</v>
+      </c>
+      <c r="BM58">
+        <v>2.5</v>
+      </c>
+      <c r="BN58">
+        <v>1.48</v>
+      </c>
+      <c r="BO58">
+        <v>3.3</v>
+      </c>
+      <c r="BP58">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7332413</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45417.1875</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59">
+        <v>3.1</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>3.2</v>
+      </c>
+      <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>2.54</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.54</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>9</v>
+      </c>
+      <c r="AE59">
+        <v>1.28</v>
+      </c>
+      <c r="AF59">
+        <v>3.5</v>
+      </c>
+      <c r="AG59">
+        <v>1.86</v>
+      </c>
+      <c r="AH59">
+        <v>1.84</v>
+      </c>
+      <c r="AI59">
+        <v>1.68</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>1.4</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.42</v>
+      </c>
+      <c r="AN59">
+        <v>1.75</v>
+      </c>
+      <c r="AO59">
+        <v>1.25</v>
+      </c>
+      <c r="AP59">
+        <v>1.4</v>
+      </c>
+      <c r="AQ59">
+        <v>1.6</v>
+      </c>
+      <c r="AR59">
+        <v>1.61</v>
+      </c>
+      <c r="AS59">
+        <v>1.82</v>
+      </c>
+      <c r="AT59">
+        <v>3.43</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>2</v>
+      </c>
+      <c r="BD59">
+        <v>1.79</v>
+      </c>
+      <c r="BE59">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF59">
+        <v>2.25</v>
+      </c>
+      <c r="BG59">
+        <v>1.19</v>
+      </c>
+      <c r="BH59">
+        <v>3.92</v>
+      </c>
+      <c r="BI59">
+        <v>1.38</v>
+      </c>
+      <c r="BJ59">
+        <v>2.71</v>
+      </c>
+      <c r="BK59">
+        <v>1.74</v>
+      </c>
+      <c r="BL59">
+        <v>2.08</v>
+      </c>
+      <c r="BM59">
+        <v>2.17</v>
+      </c>
+      <c r="BN59">
+        <v>1.68</v>
+      </c>
+      <c r="BO59">
+        <v>2.79</v>
+      </c>
+      <c r="BP59">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['34', '90+8']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
   </si>
   <si>
     <t>['34', '52', '71']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1153,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1559,7 +1565,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1971,7 +1977,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2177,7 +2183,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2383,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2795,7 +2801,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3001,7 +3007,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>1.8</v>
@@ -3207,7 +3213,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3285,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3697,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4031,7 +4037,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4237,7 +4243,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4443,7 +4449,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4649,7 +4655,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4936,7 +4942,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5061,7 +5067,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5267,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5345,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>2.2</v>
@@ -5885,7 +5891,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6297,7 +6303,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6503,7 +6509,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6581,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -6709,7 +6715,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6787,7 +6793,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -6915,7 +6921,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7121,7 +7127,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7327,7 +7333,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7739,7 +7745,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8357,7 +8363,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8435,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8769,7 +8775,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8975,7 +8981,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9181,7 +9187,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9387,7 +9393,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9593,7 +9599,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9799,7 +9805,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10005,7 +10011,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10086,7 +10092,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10211,7 +10217,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10417,7 +10423,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10623,7 +10629,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11113,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>0.75</v>
@@ -11241,7 +11247,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11447,7 +11453,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11525,7 +11531,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -11653,7 +11659,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11859,7 +11865,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12271,7 +12277,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12477,7 +12483,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12683,7 +12689,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12776,22 +12782,22 @@
         <v>3.38</v>
       </c>
       <c r="AU58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AZ58">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BA58">
         <v>3</v>
@@ -12889,7 +12895,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -12982,22 +12988,22 @@
         <v>3.43</v>
       </c>
       <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>9</v>
+      </c>
+      <c r="AW59">
         <v>5</v>
-      </c>
-      <c r="AV59">
-        <v>5</v>
-      </c>
-      <c r="AW59">
-        <v>4</v>
       </c>
       <c r="AX59">
         <v>4</v>
       </c>
       <c r="AY59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA59">
         <v>0</v>
@@ -13046,6 +13052,418 @@
       </c>
       <c r="BP59">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7332414</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q60">
+        <v>2.6</v>
+      </c>
+      <c r="R60">
+        <v>2.15</v>
+      </c>
+      <c r="S60">
+        <v>3.8</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>1.9</v>
+      </c>
+      <c r="AA60">
+        <v>3.6</v>
+      </c>
+      <c r="AB60">
+        <v>3.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.28</v>
+      </c>
+      <c r="AF60">
+        <v>3.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.91</v>
+      </c>
+      <c r="AH60">
+        <v>1.85</v>
+      </c>
+      <c r="AI60">
+        <v>1.72</v>
+      </c>
+      <c r="AJ60">
+        <v>2.05</v>
+      </c>
+      <c r="AK60">
+        <v>1.28</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.63</v>
+      </c>
+      <c r="AN60">
+        <v>0.4</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.58</v>
+      </c>
+      <c r="AS60">
+        <v>1.15</v>
+      </c>
+      <c r="AT60">
+        <v>2.73</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>2</v>
+      </c>
+      <c r="BD60">
+        <v>1.66</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.51</v>
+      </c>
+      <c r="BG60">
+        <v>1.25</v>
+      </c>
+      <c r="BH60">
+        <v>3.42</v>
+      </c>
+      <c r="BI60">
+        <v>1.53</v>
+      </c>
+      <c r="BJ60">
+        <v>2.46</v>
+      </c>
+      <c r="BK60">
+        <v>1.88</v>
+      </c>
+      <c r="BL60">
+        <v>1.92</v>
+      </c>
+      <c r="BM60">
+        <v>2.38</v>
+      </c>
+      <c r="BN60">
+        <v>1.56</v>
+      </c>
+      <c r="BO60">
+        <v>3.18</v>
+      </c>
+      <c r="BP60">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7332415</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45418.1875</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>2.2</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>1.38</v>
+      </c>
+      <c r="U61">
+        <v>2.9</v>
+      </c>
+      <c r="V61">
+        <v>2.77</v>
+      </c>
+      <c r="W61">
+        <v>1.41</v>
+      </c>
+      <c r="X61">
+        <v>6.78</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>1.9</v>
+      </c>
+      <c r="AA61">
+        <v>3.4</v>
+      </c>
+      <c r="AB61">
+        <v>3.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>11.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.27</v>
+      </c>
+      <c r="AF61">
+        <v>3.4</v>
+      </c>
+      <c r="AG61">
+        <v>2.08</v>
+      </c>
+      <c r="AH61">
+        <v>1.71</v>
+      </c>
+      <c r="AI61">
+        <v>1.7</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.27</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.71</v>
+      </c>
+      <c r="AN61">
+        <v>1.75</v>
+      </c>
+      <c r="AO61">
+        <v>1.75</v>
+      </c>
+      <c r="AP61">
+        <v>1.6</v>
+      </c>
+      <c r="AQ61">
+        <v>1.6</v>
+      </c>
+      <c r="AR61">
+        <v>1.45</v>
+      </c>
+      <c r="AS61">
+        <v>1.75</v>
+      </c>
+      <c r="AT61">
+        <v>3.2</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>8</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>1.63</v>
+      </c>
+      <c r="BE61">
+        <v>6.65</v>
+      </c>
+      <c r="BF61">
+        <v>3.14</v>
+      </c>
+      <c r="BG61">
+        <v>1.58</v>
+      </c>
+      <c r="BH61">
+        <v>2.32</v>
+      </c>
+      <c r="BI61">
+        <v>2</v>
+      </c>
+      <c r="BJ61">
+        <v>1.8</v>
+      </c>
+      <c r="BK61">
+        <v>2.6</v>
+      </c>
+      <c r="BL61">
+        <v>1.48</v>
+      </c>
+      <c r="BM61">
+        <v>3.3</v>
+      </c>
+      <c r="BN61">
+        <v>1.29</v>
+      </c>
+      <c r="BO61">
+        <v>4.5</v>
+      </c>
+      <c r="BP61">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -13400,7 +13400,7 @@
         <v>3.2</v>
       </c>
       <c r="AU61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV61">
         <v>5</v>
@@ -13412,7 +13412,7 @@
         <v>5</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ61">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['57', '78']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['35', '75', '88']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1159,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1565,7 +1571,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1977,7 +1983,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2058,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2183,7 +2189,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2261,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2389,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2801,7 +2807,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3007,7 +3013,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3213,7 +3219,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3419,7 +3425,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4037,7 +4043,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4243,7 +4249,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4321,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4449,7 +4455,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4655,7 +4661,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5067,7 +5073,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5273,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5891,7 +5897,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6303,7 +6309,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6509,7 +6515,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6715,7 +6721,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6921,7 +6927,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -6999,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7127,7 +7133,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7333,7 +7339,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7745,7 +7751,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8238,7 +8244,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8363,7 +8369,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8775,7 +8781,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8853,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>2.2</v>
@@ -8981,7 +8987,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9187,7 +9193,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9393,7 +9399,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9599,7 +9605,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9805,7 +9811,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10011,7 +10017,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10217,7 +10223,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10423,7 +10429,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10629,7 +10635,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11122,7 +11128,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11247,7 +11253,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11325,7 +11331,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11453,7 +11459,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11659,7 +11665,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11865,7 +11871,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12277,7 +12283,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12483,7 +12489,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12689,7 +12695,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12895,7 +12901,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13101,7 +13107,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13464,6 +13470,212 @@
       </c>
       <c r="BP61">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7332416</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45423.1875</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q62">
+        <v>2.45</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.75</v>
+      </c>
+      <c r="V62">
+        <v>2.8</v>
+      </c>
+      <c r="W62">
+        <v>1.38</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.8</v>
+      </c>
+      <c r="AA62">
+        <v>3.3</v>
+      </c>
+      <c r="AB62">
+        <v>3.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.35</v>
+      </c>
+      <c r="AG62">
+        <v>1.87</v>
+      </c>
+      <c r="AH62">
+        <v>1.83</v>
+      </c>
+      <c r="AI62">
+        <v>1.73</v>
+      </c>
+      <c r="AJ62">
+        <v>1.93</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.85</v>
+      </c>
+      <c r="AN62">
+        <v>0.6</v>
+      </c>
+      <c r="AO62">
+        <v>0.75</v>
+      </c>
+      <c r="AP62">
+        <v>0.5</v>
+      </c>
+      <c r="AQ62">
+        <v>1.2</v>
+      </c>
+      <c r="AR62">
+        <v>1.93</v>
+      </c>
+      <c r="AS62">
+        <v>1.29</v>
+      </c>
+      <c r="AT62">
+        <v>3.22</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>3</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>['35', '75', '88']</t>
+  </si>
+  <si>
+    <t>['64', '90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ2">
         <v>1.6</v>
@@ -1652,7 +1655,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2270,7 +2273,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3918,7 +3921,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4739,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -5772,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -5975,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>3</v>
@@ -7417,7 +7420,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7832,7 +7835,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8241,7 +8244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -9480,7 +9483,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9683,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10507,7 +10510,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ47">
         <v>1.38</v>
@@ -10716,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11743,7 +11746,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -13612,22 +13615,22 @@
         <v>3.22</v>
       </c>
       <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
         <v>5</v>
       </c>
-      <c r="AV62">
-        <v>2</v>
-      </c>
-      <c r="AW62">
-        <v>4</v>
-      </c>
       <c r="AX62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY62">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ62">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BA62">
         <v>6</v>
@@ -13675,6 +13678,418 @@
         <v>0</v>
       </c>
       <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7332417</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45423.29166666666</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q63">
+        <v>1.91</v>
+      </c>
+      <c r="R63">
+        <v>2.31</v>
+      </c>
+      <c r="S63">
+        <v>6.2</v>
+      </c>
+      <c r="T63">
+        <v>1.34</v>
+      </c>
+      <c r="U63">
+        <v>3.1</v>
+      </c>
+      <c r="V63">
+        <v>2.6</v>
+      </c>
+      <c r="W63">
+        <v>1.46</v>
+      </c>
+      <c r="X63">
+        <v>6.3</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>1.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.7</v>
+      </c>
+      <c r="AB63">
+        <v>5.5</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10.25</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>3.65</v>
+      </c>
+      <c r="AG63">
+        <v>1.91</v>
+      </c>
+      <c r="AH63">
+        <v>1.8</v>
+      </c>
+      <c r="AI63">
+        <v>1.92</v>
+      </c>
+      <c r="AJ63">
+        <v>1.75</v>
+      </c>
+      <c r="AK63">
+        <v>1.07</v>
+      </c>
+      <c r="AL63">
+        <v>1.17</v>
+      </c>
+      <c r="AM63">
+        <v>2.64</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>1.67</v>
+      </c>
+      <c r="AQ63">
+        <v>1.75</v>
+      </c>
+      <c r="AR63">
+        <v>2.02</v>
+      </c>
+      <c r="AS63">
+        <v>1.6</v>
+      </c>
+      <c r="AT63">
+        <v>3.62</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>11</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>14</v>
+      </c>
+      <c r="AZ63">
+        <v>4</v>
+      </c>
+      <c r="BA63">
+        <v>11</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>13</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7332418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45423.29166666666</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>2.15</v>
+      </c>
+      <c r="S64">
+        <v>2.5</v>
+      </c>
+      <c r="T64">
+        <v>1.38</v>
+      </c>
+      <c r="U64">
+        <v>3.03</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>6.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>3.6</v>
+      </c>
+      <c r="AA64">
+        <v>3.3</v>
+      </c>
+      <c r="AB64">
+        <v>1.85</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.28</v>
+      </c>
+      <c r="AF64">
+        <v>3.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.87</v>
+      </c>
+      <c r="AH64">
+        <v>1.83</v>
+      </c>
+      <c r="AI64">
+        <v>1.75</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.85</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.2</v>
+      </c>
+      <c r="AN64">
+        <v>0.75</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>0.6</v>
+      </c>
+      <c r="AQ64">
+        <v>1.4</v>
+      </c>
+      <c r="AR64">
+        <v>1.24</v>
+      </c>
+      <c r="AS64">
+        <v>1.77</v>
+      </c>
+      <c r="AT64">
+        <v>3.01</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['57', '78']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['5', '53', '64']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -542,6 +548,12 @@
   </si>
   <si>
     <t>['64', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '47', '86', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1174,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1446,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1574,7 +1586,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1652,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1861,7 +1873,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1986,7 +1998,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2192,7 +2204,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2398,7 +2410,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2476,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2685,7 +2697,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2810,7 +2822,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3016,7 +3028,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3222,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3428,7 +3440,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3715,7 +3727,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -3918,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4046,7 +4058,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4124,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4252,7 +4264,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4333,7 +4345,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.92</v>
@@ -4458,7 +4470,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4664,7 +4676,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5076,7 +5088,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5157,7 +5169,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5282,7 +5294,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5566,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5900,7 +5912,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6184,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6312,7 +6324,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6393,7 +6405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6518,7 +6530,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6599,7 +6611,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6724,7 +6736,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6930,7 +6942,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7011,7 +7023,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7136,7 +7148,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7342,7 +7354,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7423,7 +7435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7629,7 +7641,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.05</v>
@@ -7754,7 +7766,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8038,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8372,7 +8384,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8656,7 +8668,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -8784,7 +8796,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8990,7 +9002,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9068,10 +9080,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9196,7 +9208,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9402,7 +9414,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9608,7 +9620,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9689,7 +9701,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.95</v>
@@ -9814,7 +9826,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9892,7 +9904,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>3</v>
@@ -10020,7 +10032,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10226,7 +10238,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10304,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.8</v>
@@ -10432,7 +10444,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10513,7 +10525,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.04</v>
@@ -10638,7 +10650,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10716,7 +10728,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -10925,7 +10937,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11256,7 +11268,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11462,7 +11474,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11543,7 +11555,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.73</v>
@@ -11668,7 +11680,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11874,7 +11886,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12286,7 +12298,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12492,7 +12504,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12698,7 +12710,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12904,7 +12916,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13110,7 +13122,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13522,7 +13534,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13728,7 +13740,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13934,7 +13946,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14091,6 +14103,624 @@
       </c>
       <c r="BP64">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7332419</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45424.1875</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>131</v>
+      </c>
+      <c r="P65" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q65">
+        <v>2.58</v>
+      </c>
+      <c r="R65">
+        <v>2.09</v>
+      </c>
+      <c r="S65">
+        <v>3.98</v>
+      </c>
+      <c r="T65">
+        <v>1.4</v>
+      </c>
+      <c r="U65">
+        <v>2.81</v>
+      </c>
+      <c r="V65">
+        <v>2.85</v>
+      </c>
+      <c r="W65">
+        <v>1.39</v>
+      </c>
+      <c r="X65">
+        <v>7.3</v>
+      </c>
+      <c r="Y65">
+        <v>1.07</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>3.3</v>
+      </c>
+      <c r="AC65">
+        <v>1.02</v>
+      </c>
+      <c r="AD65">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE65">
+        <v>1.28</v>
+      </c>
+      <c r="AF65">
+        <v>3.2</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.75</v>
+      </c>
+      <c r="AI65">
+        <v>1.75</v>
+      </c>
+      <c r="AJ65">
+        <v>1.92</v>
+      </c>
+      <c r="AK65">
+        <v>1.27</v>
+      </c>
+      <c r="AL65">
+        <v>1.27</v>
+      </c>
+      <c r="AM65">
+        <v>1.69</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>0.75</v>
+      </c>
+      <c r="AP65">
+        <v>0.8</v>
+      </c>
+      <c r="AQ65">
+        <v>1.2</v>
+      </c>
+      <c r="AR65">
+        <v>1.9</v>
+      </c>
+      <c r="AS65">
+        <v>1.27</v>
+      </c>
+      <c r="AT65">
+        <v>3.17</v>
+      </c>
+      <c r="AU65">
+        <v>10</v>
+      </c>
+      <c r="AV65">
+        <v>9</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>18</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>6</v>
+      </c>
+      <c r="BD65">
+        <v>1.68</v>
+      </c>
+      <c r="BE65">
+        <v>9</v>
+      </c>
+      <c r="BF65">
+        <v>2.43</v>
+      </c>
+      <c r="BG65">
+        <v>1.21</v>
+      </c>
+      <c r="BH65">
+        <v>3.9</v>
+      </c>
+      <c r="BI65">
+        <v>1.35</v>
+      </c>
+      <c r="BJ65">
+        <v>2.84</v>
+      </c>
+      <c r="BK65">
+        <v>1.7</v>
+      </c>
+      <c r="BL65">
+        <v>2.13</v>
+      </c>
+      <c r="BM65">
+        <v>2.12</v>
+      </c>
+      <c r="BN65">
+        <v>1.71</v>
+      </c>
+      <c r="BO65">
+        <v>2.67</v>
+      </c>
+      <c r="BP65">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7332420</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45424.1875</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q66">
+        <v>2.33</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>1.44</v>
+      </c>
+      <c r="U66">
+        <v>2.65</v>
+      </c>
+      <c r="V66">
+        <v>3.1</v>
+      </c>
+      <c r="W66">
+        <v>1.34</v>
+      </c>
+      <c r="X66">
+        <v>8.1</v>
+      </c>
+      <c r="Y66">
+        <v>1.06</v>
+      </c>
+      <c r="Z66">
+        <v>1.75</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>4.33</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>7.9</v>
+      </c>
+      <c r="AE66">
+        <v>1.34</v>
+      </c>
+      <c r="AF66">
+        <v>2.88</v>
+      </c>
+      <c r="AG66">
+        <v>2.05</v>
+      </c>
+      <c r="AH66">
+        <v>1.61</v>
+      </c>
+      <c r="AI66">
+        <v>1.95</v>
+      </c>
+      <c r="AJ66">
+        <v>1.73</v>
+      </c>
+      <c r="AK66">
+        <v>1.16</v>
+      </c>
+      <c r="AL66">
+        <v>1.26</v>
+      </c>
+      <c r="AM66">
+        <v>1.95</v>
+      </c>
+      <c r="AN66">
+        <v>2.25</v>
+      </c>
+      <c r="AO66">
+        <v>1.38</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>1.33</v>
+      </c>
+      <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
+        <v>1.14</v>
+      </c>
+      <c r="AT66">
+        <v>3</v>
+      </c>
+      <c r="AU66">
+        <v>10</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>14</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>24</v>
+      </c>
+      <c r="AZ66">
+        <v>7</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.59</v>
+      </c>
+      <c r="BE66">
+        <v>8.1</v>
+      </c>
+      <c r="BF66">
+        <v>2.74</v>
+      </c>
+      <c r="BG66">
+        <v>1.61</v>
+      </c>
+      <c r="BH66">
+        <v>2.3</v>
+      </c>
+      <c r="BI66">
+        <v>2.03</v>
+      </c>
+      <c r="BJ66">
+        <v>1.78</v>
+      </c>
+      <c r="BK66">
+        <v>2.64</v>
+      </c>
+      <c r="BL66">
+        <v>1.4</v>
+      </c>
+      <c r="BM66">
+        <v>3.74</v>
+      </c>
+      <c r="BN66">
+        <v>1.21</v>
+      </c>
+      <c r="BO66">
+        <v>4.98</v>
+      </c>
+      <c r="BP66">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7332421</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45424.29166666666</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>7</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q67">
+        <v>2.84</v>
+      </c>
+      <c r="R67">
+        <v>2.01</v>
+      </c>
+      <c r="S67">
+        <v>3.74</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.66</v>
+      </c>
+      <c r="V67">
+        <v>3.04</v>
+      </c>
+      <c r="W67">
+        <v>1.35</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.25</v>
+      </c>
+      <c r="AA67">
+        <v>3.25</v>
+      </c>
+      <c r="AB67">
+        <v>3</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>2.93</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>1.67</v>
+      </c>
+      <c r="AI67">
+        <v>1.82</v>
+      </c>
+      <c r="AJ67">
+        <v>1.84</v>
+      </c>
+      <c r="AK67">
+        <v>1.33</v>
+      </c>
+      <c r="AL67">
+        <v>1.29</v>
+      </c>
+      <c r="AM67">
+        <v>1.58</v>
+      </c>
+      <c r="AN67">
+        <v>1.4</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.17</v>
+      </c>
+      <c r="AQ67">
+        <v>1.4</v>
+      </c>
+      <c r="AR67">
+        <v>1.64</v>
+      </c>
+      <c r="AS67">
+        <v>1.47</v>
+      </c>
+      <c r="AT67">
+        <v>3.11</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>5</v>
+      </c>
+      <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>9</v>
+      </c>
+      <c r="BD67">
+        <v>1.86</v>
+      </c>
+      <c r="BE67">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF67">
+        <v>2.18</v>
+      </c>
+      <c r="BG67">
+        <v>1.36</v>
+      </c>
+      <c r="BH67">
+        <v>2.79</v>
+      </c>
+      <c r="BI67">
+        <v>1.72</v>
+      </c>
+      <c r="BJ67">
+        <v>2.08</v>
+      </c>
+      <c r="BK67">
+        <v>2.17</v>
+      </c>
+      <c r="BL67">
+        <v>1.66</v>
+      </c>
+      <c r="BM67">
+        <v>2.88</v>
+      </c>
+      <c r="BN67">
+        <v>1.34</v>
+      </c>
+      <c r="BO67">
+        <v>3.6</v>
+      </c>
+      <c r="BP67">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14657,22 +14657,22 @@
         <v>3.11</v>
       </c>
       <c r="AU67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW67">
         <v>1</v>
       </c>
       <c r="AX67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY67">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA67">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,15 @@
     <t>['5', '53', '64']</t>
   </si>
   <si>
+    <t>['39', '45+2']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -514,9 +523,6 @@
     <t>['6', '45+3']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -554,6 +560,12 @@
   </si>
   <si>
     <t>['22', '47', '86', '90+9']</t>
+  </si>
+  <si>
+    <t>['75', '79']</t>
+  </si>
+  <si>
+    <t>['7', '19', '50', '84']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1186,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1255,7 +1267,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1458,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1586,7 +1598,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1870,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -1998,7 +2010,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2204,7 +2216,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2285,7 +2297,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2410,7 +2422,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2491,7 +2503,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2694,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2822,7 +2834,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2900,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3028,7 +3040,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3234,7 +3246,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3312,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ12">
         <v>1.6</v>
@@ -3440,7 +3452,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3724,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -3930,10 +3942,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4058,7 +4070,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4264,7 +4276,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4345,7 +4357,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.92</v>
@@ -4470,7 +4482,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4548,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
         <v>2.2</v>
@@ -4676,7 +4688,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4960,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
         <v>1.6</v>
@@ -5088,7 +5100,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5169,7 +5181,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5294,7 +5306,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5578,10 +5590,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5784,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5912,7 +5924,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -5993,7 +6005,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6196,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6324,7 +6336,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6402,10 +6414,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6530,7 +6542,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6611,7 +6623,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6736,7 +6748,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6814,10 +6826,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -6942,7 +6954,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7148,7 +7160,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7226,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.8</v>
@@ -7354,7 +7366,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7638,10 +7650,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.05</v>
@@ -7766,7 +7778,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7847,7 +7859,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8050,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8384,7 +8396,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8462,10 +8474,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8796,7 +8808,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9002,7 +9014,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9080,10 +9092,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9208,7 +9220,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9286,7 +9298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9414,7 +9426,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9492,7 +9504,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9620,7 +9632,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9701,7 +9713,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.95</v>
@@ -9826,7 +9838,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9904,10 +9916,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ44">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10032,7 +10044,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10238,7 +10250,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10316,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1.8</v>
@@ -10444,7 +10456,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10525,7 +10537,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.04</v>
@@ -10650,7 +10662,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10731,7 +10743,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -10934,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11268,7 +11280,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11474,7 +11486,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11552,10 +11564,10 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.73</v>
@@ -11680,7 +11692,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11761,7 +11773,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -11886,7 +11898,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -11964,7 +11976,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>2.2</v>
@@ -12170,7 +12182,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12298,7 +12310,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12504,7 +12516,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12582,7 +12594,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>2.2</v>
@@ -12710,7 +12722,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12916,7 +12928,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -12994,10 +13006,10 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13122,7 +13134,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13200,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13534,7 +13546,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13740,7 +13752,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13946,7 +13958,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14027,7 +14039,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14152,7 +14164,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14233,7 +14245,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14436,10 +14448,10 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14564,7 +14576,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14642,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -14720,6 +14732,1242 @@
         <v>3.6</v>
       </c>
       <c r="BP67">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7332422</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45427.1875</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q68">
+        <v>2.35</v>
+      </c>
+      <c r="R68">
+        <v>2.29</v>
+      </c>
+      <c r="S68">
+        <v>5.13</v>
+      </c>
+      <c r="T68">
+        <v>1.38</v>
+      </c>
+      <c r="U68">
+        <v>3.03</v>
+      </c>
+      <c r="V68">
+        <v>2.92</v>
+      </c>
+      <c r="W68">
+        <v>1.41</v>
+      </c>
+      <c r="X68">
+        <v>7.1</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>1.73</v>
+      </c>
+      <c r="AA68">
+        <v>3.5</v>
+      </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.27</v>
+      </c>
+      <c r="AF68">
+        <v>3.28</v>
+      </c>
+      <c r="AG68">
+        <v>1.9</v>
+      </c>
+      <c r="AH68">
+        <v>1.9</v>
+      </c>
+      <c r="AI68">
+        <v>1.9</v>
+      </c>
+      <c r="AJ68">
+        <v>1.9</v>
+      </c>
+      <c r="AK68">
+        <v>1.22</v>
+      </c>
+      <c r="AL68">
+        <v>1.27</v>
+      </c>
+      <c r="AM68">
+        <v>2.09</v>
+      </c>
+      <c r="AN68">
+        <v>1.17</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1.14</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1.62</v>
+      </c>
+      <c r="AS68">
+        <v>1.12</v>
+      </c>
+      <c r="AT68">
+        <v>2.74</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>1</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>4</v>
+      </c>
+      <c r="AZ68">
+        <v>5</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>5</v>
+      </c>
+      <c r="BD68">
+        <v>1.53</v>
+      </c>
+      <c r="BE68">
+        <v>8.6</v>
+      </c>
+      <c r="BF68">
+        <v>2.88</v>
+      </c>
+      <c r="BG68">
+        <v>1.3</v>
+      </c>
+      <c r="BH68">
+        <v>3.08</v>
+      </c>
+      <c r="BI68">
+        <v>1.61</v>
+      </c>
+      <c r="BJ68">
+        <v>2.27</v>
+      </c>
+      <c r="BK68">
+        <v>2.01</v>
+      </c>
+      <c r="BL68">
+        <v>1.78</v>
+      </c>
+      <c r="BM68">
+        <v>2.6</v>
+      </c>
+      <c r="BN68">
+        <v>1.41</v>
+      </c>
+      <c r="BO68">
+        <v>3.56</v>
+      </c>
+      <c r="BP68">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7332423</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45427.1875</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q69">
+        <v>2.9</v>
+      </c>
+      <c r="R69">
+        <v>2.24</v>
+      </c>
+      <c r="S69">
+        <v>3.79</v>
+      </c>
+      <c r="T69">
+        <v>1.38</v>
+      </c>
+      <c r="U69">
+        <v>3.03</v>
+      </c>
+      <c r="V69">
+        <v>2.92</v>
+      </c>
+      <c r="W69">
+        <v>1.41</v>
+      </c>
+      <c r="X69">
+        <v>7.1</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>2</v>
+      </c>
+      <c r="AA69">
+        <v>3.25</v>
+      </c>
+      <c r="AB69">
+        <v>3.25</v>
+      </c>
+      <c r="AC69">
+        <v>1.02</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.27</v>
+      </c>
+      <c r="AF69">
+        <v>3.28</v>
+      </c>
+      <c r="AG69">
+        <v>1.9</v>
+      </c>
+      <c r="AH69">
+        <v>1.9</v>
+      </c>
+      <c r="AI69">
+        <v>1.76</v>
+      </c>
+      <c r="AJ69">
+        <v>2.07</v>
+      </c>
+      <c r="AK69">
+        <v>1.37</v>
+      </c>
+      <c r="AL69">
+        <v>1.32</v>
+      </c>
+      <c r="AM69">
+        <v>1.64</v>
+      </c>
+      <c r="AN69">
+        <v>1.4</v>
+      </c>
+      <c r="AO69">
+        <v>1.2</v>
+      </c>
+      <c r="AP69">
+        <v>1.67</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.66</v>
+      </c>
+      <c r="AS69">
+        <v>1.37</v>
+      </c>
+      <c r="AT69">
+        <v>3.03</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>5</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.8</v>
+      </c>
+      <c r="BE69">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF69">
+        <v>2.27</v>
+      </c>
+      <c r="BG69">
+        <v>1.35</v>
+      </c>
+      <c r="BH69">
+        <v>2.84</v>
+      </c>
+      <c r="BI69">
+        <v>1.7</v>
+      </c>
+      <c r="BJ69">
+        <v>2.13</v>
+      </c>
+      <c r="BK69">
+        <v>2.14</v>
+      </c>
+      <c r="BL69">
+        <v>1.69</v>
+      </c>
+      <c r="BM69">
+        <v>2.79</v>
+      </c>
+      <c r="BN69">
+        <v>1.36</v>
+      </c>
+      <c r="BO69">
+        <v>3.6</v>
+      </c>
+      <c r="BP69">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7332424</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45427.1875</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>2.8</v>
+      </c>
+      <c r="R70">
+        <v>1.93</v>
+      </c>
+      <c r="S70">
+        <v>4.15</v>
+      </c>
+      <c r="T70">
+        <v>1.5</v>
+      </c>
+      <c r="U70">
+        <v>2.48</v>
+      </c>
+      <c r="V70">
+        <v>3.26</v>
+      </c>
+      <c r="W70">
+        <v>1.31</v>
+      </c>
+      <c r="X70">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>2.08</v>
+      </c>
+      <c r="AA70">
+        <v>3.17</v>
+      </c>
+      <c r="AB70">
+        <v>3.43</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>7.1</v>
+      </c>
+      <c r="AE70">
+        <v>1.38</v>
+      </c>
+      <c r="AF70">
+        <v>2.71</v>
+      </c>
+      <c r="AG70">
+        <v>2.23</v>
+      </c>
+      <c r="AH70">
+        <v>1.61</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.76</v>
+      </c>
+      <c r="AK70">
+        <v>1.28</v>
+      </c>
+      <c r="AL70">
+        <v>1.32</v>
+      </c>
+      <c r="AM70">
+        <v>1.61</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>1.33</v>
+      </c>
+      <c r="AP70">
+        <v>1.14</v>
+      </c>
+      <c r="AQ70">
+        <v>1.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.59</v>
+      </c>
+      <c r="AS70">
+        <v>1.1</v>
+      </c>
+      <c r="AT70">
+        <v>2.69</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>9</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>17</v>
+      </c>
+      <c r="AZ70">
+        <v>9</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>9</v>
+      </c>
+      <c r="BD70">
+        <v>1.67</v>
+      </c>
+      <c r="BE70">
+        <v>7.7</v>
+      </c>
+      <c r="BF70">
+        <v>2.58</v>
+      </c>
+      <c r="BG70">
+        <v>1.76</v>
+      </c>
+      <c r="BH70">
+        <v>2.04</v>
+      </c>
+      <c r="BI70">
+        <v>2.27</v>
+      </c>
+      <c r="BJ70">
+        <v>1.62</v>
+      </c>
+      <c r="BK70">
+        <v>3.14</v>
+      </c>
+      <c r="BL70">
+        <v>1.31</v>
+      </c>
+      <c r="BM70">
+        <v>3.8</v>
+      </c>
+      <c r="BN70">
+        <v>1.22</v>
+      </c>
+      <c r="BO70">
+        <v>5.5</v>
+      </c>
+      <c r="BP70">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7332425</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>135</v>
+      </c>
+      <c r="P71" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q71">
+        <v>2.55</v>
+      </c>
+      <c r="R71">
+        <v>2.15</v>
+      </c>
+      <c r="S71">
+        <v>3.9</v>
+      </c>
+      <c r="T71">
+        <v>1.38</v>
+      </c>
+      <c r="U71">
+        <v>2.85</v>
+      </c>
+      <c r="V71">
+        <v>2.65</v>
+      </c>
+      <c r="W71">
+        <v>1.42</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>1.09</v>
+      </c>
+      <c r="Z71">
+        <v>1.91</v>
+      </c>
+      <c r="AA71">
+        <v>3.2</v>
+      </c>
+      <c r="AB71">
+        <v>3.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+      <c r="AE71">
+        <v>1.25</v>
+      </c>
+      <c r="AF71">
+        <v>3.6</v>
+      </c>
+      <c r="AG71">
+        <v>1.85</v>
+      </c>
+      <c r="AH71">
+        <v>1.95</v>
+      </c>
+      <c r="AI71">
+        <v>1.7</v>
+      </c>
+      <c r="AJ71">
+        <v>2.05</v>
+      </c>
+      <c r="AK71">
+        <v>1.28</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.75</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>1.6</v>
+      </c>
+      <c r="AP71">
+        <v>2.17</v>
+      </c>
+      <c r="AQ71">
+        <v>1.33</v>
+      </c>
+      <c r="AR71">
+        <v>2.08</v>
+      </c>
+      <c r="AS71">
+        <v>1.88</v>
+      </c>
+      <c r="AT71">
+        <v>3.96</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>14</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>8</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.63</v>
+      </c>
+      <c r="BE71">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF71">
+        <v>2.56</v>
+      </c>
+      <c r="BG71">
+        <v>1.21</v>
+      </c>
+      <c r="BH71">
+        <v>3.74</v>
+      </c>
+      <c r="BI71">
+        <v>1.4</v>
+      </c>
+      <c r="BJ71">
+        <v>2.64</v>
+      </c>
+      <c r="BK71">
+        <v>1.77</v>
+      </c>
+      <c r="BL71">
+        <v>2.03</v>
+      </c>
+      <c r="BM71">
+        <v>2.23</v>
+      </c>
+      <c r="BN71">
+        <v>1.64</v>
+      </c>
+      <c r="BO71">
+        <v>2.88</v>
+      </c>
+      <c r="BP71">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7332426</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>2.7</v>
+      </c>
+      <c r="T72">
+        <v>1.45</v>
+      </c>
+      <c r="U72">
+        <v>2.55</v>
+      </c>
+      <c r="V72">
+        <v>3.2</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>9.25</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>3.4</v>
+      </c>
+      <c r="AA72">
+        <v>3.1</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>1.06</v>
+      </c>
+      <c r="AD72">
+        <v>8</v>
+      </c>
+      <c r="AE72">
+        <v>1.36</v>
+      </c>
+      <c r="AF72">
+        <v>2.95</v>
+      </c>
+      <c r="AG72">
+        <v>2.1</v>
+      </c>
+      <c r="AH72">
+        <v>1.65</v>
+      </c>
+      <c r="AI72">
+        <v>1.85</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.73</v>
+      </c>
+      <c r="AL72">
+        <v>1.25</v>
+      </c>
+      <c r="AM72">
+        <v>1.28</v>
+      </c>
+      <c r="AN72">
+        <v>1.2</v>
+      </c>
+      <c r="AO72">
+        <v>3</v>
+      </c>
+      <c r="AP72">
+        <v>1.17</v>
+      </c>
+      <c r="AQ72">
+        <v>2.6</v>
+      </c>
+      <c r="AR72">
+        <v>1.07</v>
+      </c>
+      <c r="AS72">
+        <v>2.16</v>
+      </c>
+      <c r="AT72">
+        <v>3.23</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>2.22</v>
+      </c>
+      <c r="BE72">
+        <v>7.9</v>
+      </c>
+      <c r="BF72">
+        <v>1.85</v>
+      </c>
+      <c r="BG72">
+        <v>1.51</v>
+      </c>
+      <c r="BH72">
+        <v>2.5</v>
+      </c>
+      <c r="BI72">
+        <v>1.87</v>
+      </c>
+      <c r="BJ72">
+        <v>1.92</v>
+      </c>
+      <c r="BK72">
+        <v>2.38</v>
+      </c>
+      <c r="BL72">
+        <v>1.56</v>
+      </c>
+      <c r="BM72">
+        <v>3</v>
+      </c>
+      <c r="BN72">
+        <v>1.33</v>
+      </c>
+      <c r="BO72">
+        <v>4</v>
+      </c>
+      <c r="BP72">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7332427</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q73">
+        <v>4.16</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>2.7</v>
+      </c>
+      <c r="T73">
+        <v>1.39</v>
+      </c>
+      <c r="U73">
+        <v>3.02</v>
+      </c>
+      <c r="V73">
+        <v>2.92</v>
+      </c>
+      <c r="W73">
+        <v>1.41</v>
+      </c>
+      <c r="X73">
+        <v>7.1</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>3.5</v>
+      </c>
+      <c r="AA73">
+        <v>3.25</v>
+      </c>
+      <c r="AB73">
+        <v>1.91</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>8.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.28</v>
+      </c>
+      <c r="AF73">
+        <v>3.4</v>
+      </c>
+      <c r="AG73">
+        <v>1.93</v>
+      </c>
+      <c r="AH73">
+        <v>1.88</v>
+      </c>
+      <c r="AI73">
+        <v>1.7</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>1.75</v>
+      </c>
+      <c r="AL73">
+        <v>1.25</v>
+      </c>
+      <c r="AM73">
+        <v>1.3</v>
+      </c>
+      <c r="AN73">
+        <v>0.5</v>
+      </c>
+      <c r="AO73">
+        <v>1.4</v>
+      </c>
+      <c r="AP73">
+        <v>0.43</v>
+      </c>
+      <c r="AQ73">
+        <v>1.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.53</v>
+      </c>
+      <c r="AS73">
+        <v>1.72</v>
+      </c>
+      <c r="AT73">
+        <v>3.25</v>
+      </c>
+      <c r="AU73">
+        <v>2</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>2</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>11</v>
+      </c>
+      <c r="BD73">
+        <v>2.28</v>
+      </c>
+      <c r="BE73">
+        <v>8.1</v>
+      </c>
+      <c r="BF73">
+        <v>1.8</v>
+      </c>
+      <c r="BG73">
+        <v>1.42</v>
+      </c>
+      <c r="BH73">
+        <v>2.62</v>
+      </c>
+      <c r="BI73">
+        <v>1.76</v>
+      </c>
+      <c r="BJ73">
+        <v>2.03</v>
+      </c>
+      <c r="BK73">
+        <v>2.23</v>
+      </c>
+      <c r="BL73">
+        <v>1.63</v>
+      </c>
+      <c r="BM73">
+        <v>2.8</v>
+      </c>
+      <c r="BN73">
+        <v>1.38</v>
+      </c>
+      <c r="BO73">
+        <v>3.6</v>
+      </c>
+      <c r="BP73">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -3327,7 +3327,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>1.8</v>
@@ -4975,7 +4975,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -8268,7 +8268,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8683,7 +8683,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -10125,7 +10125,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10534,7 +10534,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -13421,7 +13421,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -15968,6 +15968,212 @@
         <v>3.6</v>
       </c>
       <c r="BP73">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7332428</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45430.1875</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>88</v>
+      </c>
+      <c r="P74" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q74">
+        <v>3.94</v>
+      </c>
+      <c r="R74">
+        <v>2.12</v>
+      </c>
+      <c r="S74">
+        <v>2.82</v>
+      </c>
+      <c r="T74">
+        <v>1.41</v>
+      </c>
+      <c r="U74">
+        <v>2.77</v>
+      </c>
+      <c r="V74">
+        <v>2.9</v>
+      </c>
+      <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>7.31</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74">
+        <v>3.2</v>
+      </c>
+      <c r="AB74">
+        <v>2.1</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
+        <v>9.1</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.21</v>
+      </c>
+      <c r="AG74">
+        <v>1.91</v>
+      </c>
+      <c r="AH74">
+        <v>1.8</v>
+      </c>
+      <c r="AI74">
+        <v>1.74</v>
+      </c>
+      <c r="AJ74">
+        <v>2.04</v>
+      </c>
+      <c r="AK74">
+        <v>1.61</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.31</v>
+      </c>
+      <c r="AN74">
+        <v>0.6</v>
+      </c>
+      <c r="AO74">
+        <v>1.6</v>
+      </c>
+      <c r="AP74">
+        <v>0.67</v>
+      </c>
+      <c r="AQ74">
+        <v>1.5</v>
+      </c>
+      <c r="AR74">
+        <v>1.28</v>
+      </c>
+      <c r="AS74">
+        <v>1.66</v>
+      </c>
+      <c r="AT74">
+        <v>2.94</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>4</v>
+      </c>
+      <c r="AX74">
+        <v>1</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>7</v>
+      </c>
+      <c r="BD74">
+        <v>2.01</v>
+      </c>
+      <c r="BE74">
+        <v>8.1</v>
+      </c>
+      <c r="BF74">
+        <v>2.01</v>
+      </c>
+      <c r="BG74">
+        <v>1.38</v>
+      </c>
+      <c r="BH74">
+        <v>2.71</v>
+      </c>
+      <c r="BI74">
+        <v>1.76</v>
+      </c>
+      <c r="BJ74">
+        <v>2.05</v>
+      </c>
+      <c r="BK74">
+        <v>2.23</v>
+      </c>
+      <c r="BL74">
+        <v>1.64</v>
+      </c>
+      <c r="BM74">
+        <v>2.93</v>
+      </c>
+      <c r="BN74">
+        <v>1.33</v>
+      </c>
+      <c r="BO74">
+        <v>3.6</v>
+      </c>
+      <c r="BP74">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -439,9 +442,6 @@
     <t>['41', '45+4', '46', '76']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>['7', '19', '50', '84']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['83', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1192,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1598,7 +1604,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1885,7 +1891,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2010,7 +2016,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2088,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2216,7 +2222,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2422,7 +2428,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2834,7 +2840,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2915,7 +2921,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.8</v>
@@ -5384,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2.2</v>
@@ -6002,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>2.6</v>
@@ -6620,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7035,7 +7041,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7444,10 +7450,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
+        <v>1.43</v>
+      </c>
+      <c r="AQ32">
         <v>1.67</v>
-      </c>
-      <c r="AQ32">
-        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8065,7 +8071,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -9710,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10949,7 +10955,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11152,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11770,7 +11776,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12185,7 +12191,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12391,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13418,7 +13424,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13830,7 +13836,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14657,7 +14663,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -16111,22 +16117,22 @@
         <v>2.94</v>
       </c>
       <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
         <v>3</v>
       </c>
-      <c r="AV74">
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
         <v>5</v>
       </c>
-      <c r="AW74">
-        <v>4</v>
-      </c>
-      <c r="AX74">
-        <v>1</v>
-      </c>
-      <c r="AY74">
+      <c r="AZ74">
         <v>7</v>
-      </c>
-      <c r="AZ74">
-        <v>6</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16175,6 +16181,418 @@
       </c>
       <c r="BP74">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7332429</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45430.29166666666</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q75">
+        <v>2.45</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.6</v>
+      </c>
+      <c r="V75">
+        <v>3.1</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>1.75</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>3.9</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>3</v>
+      </c>
+      <c r="AG75">
+        <v>2.05</v>
+      </c>
+      <c r="AH75">
+        <v>1.7</v>
+      </c>
+      <c r="AI75">
+        <v>1.93</v>
+      </c>
+      <c r="AJ75">
+        <v>1.73</v>
+      </c>
+      <c r="AK75">
+        <v>1.18</v>
+      </c>
+      <c r="AL75">
+        <v>1.22</v>
+      </c>
+      <c r="AM75">
+        <v>1.95</v>
+      </c>
+      <c r="AN75">
+        <v>1.67</v>
+      </c>
+      <c r="AO75">
+        <v>1.25</v>
+      </c>
+      <c r="AP75">
+        <v>1.43</v>
+      </c>
+      <c r="AQ75">
+        <v>1.6</v>
+      </c>
+      <c r="AR75">
+        <v>1.96</v>
+      </c>
+      <c r="AS75">
+        <v>1.48</v>
+      </c>
+      <c r="AT75">
+        <v>3.44</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.51</v>
+      </c>
+      <c r="BE75">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF75">
+        <v>2.94</v>
+      </c>
+      <c r="BG75">
+        <v>1.32</v>
+      </c>
+      <c r="BH75">
+        <v>2.98</v>
+      </c>
+      <c r="BI75">
+        <v>1.64</v>
+      </c>
+      <c r="BJ75">
+        <v>2.23</v>
+      </c>
+      <c r="BK75">
+        <v>2.06</v>
+      </c>
+      <c r="BL75">
+        <v>1.75</v>
+      </c>
+      <c r="BM75">
+        <v>2.67</v>
+      </c>
+      <c r="BN75">
+        <v>1.39</v>
+      </c>
+      <c r="BO75">
+        <v>3.65</v>
+      </c>
+      <c r="BP75">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7332430</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45430.29166666666</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P76" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76">
+        <v>2.82</v>
+      </c>
+      <c r="R76">
+        <v>2.12</v>
+      </c>
+      <c r="S76">
+        <v>3.94</v>
+      </c>
+      <c r="T76">
+        <v>1.41</v>
+      </c>
+      <c r="U76">
+        <v>2.77</v>
+      </c>
+      <c r="V76">
+        <v>2.9</v>
+      </c>
+      <c r="W76">
+        <v>1.38</v>
+      </c>
+      <c r="X76">
+        <v>7.32</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>2.1</v>
+      </c>
+      <c r="AA76">
+        <v>3.2</v>
+      </c>
+      <c r="AB76">
+        <v>3</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>9.1</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.18</v>
+      </c>
+      <c r="AG76">
+        <v>1.95</v>
+      </c>
+      <c r="AH76">
+        <v>1.75</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2.03</v>
+      </c>
+      <c r="AK76">
+        <v>1.31</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.61</v>
+      </c>
+      <c r="AN76">
+        <v>1.6</v>
+      </c>
+      <c r="AO76">
+        <v>1.4</v>
+      </c>
+      <c r="AP76">
+        <v>1.33</v>
+      </c>
+      <c r="AQ76">
+        <v>1.67</v>
+      </c>
+      <c r="AR76">
+        <v>1.48</v>
+      </c>
+      <c r="AS76">
+        <v>1.55</v>
+      </c>
+      <c r="AT76">
+        <v>3.03</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>15</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>9</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>1.66</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.56</v>
+      </c>
+      <c r="BG76">
+        <v>1.53</v>
+      </c>
+      <c r="BH76">
+        <v>2.44</v>
+      </c>
+      <c r="BI76">
+        <v>1.92</v>
+      </c>
+      <c r="BJ76">
+        <v>1.88</v>
+      </c>
+      <c r="BK76">
+        <v>2.47</v>
+      </c>
+      <c r="BL76">
+        <v>1.52</v>
+      </c>
+      <c r="BM76">
+        <v>3.42</v>
+      </c>
+      <c r="BN76">
+        <v>1.25</v>
+      </c>
+      <c r="BO76">
+        <v>4.4</v>
+      </c>
+      <c r="BP76">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
   </si>
   <si>
     <t>['83', '90+2']</t>
+  </si>
+  <si>
+    <t>['34', '50', '82']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1198,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1604,7 +1610,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2016,7 +2022,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2222,7 +2228,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2428,7 +2434,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2506,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2715,7 +2721,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3046,7 +3052,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3252,7 +3258,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3330,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3458,7 +3464,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3536,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3742,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4076,7 +4082,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4154,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4282,7 +4288,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4363,7 +4369,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR17">
         <v>1.92</v>
@@ -4488,7 +4494,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4569,7 +4575,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4694,7 +4700,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5106,7 +5112,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5184,10 +5190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5312,7 +5318,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5393,7 +5399,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5930,7 +5936,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6011,7 +6017,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6342,7 +6348,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6548,7 +6554,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6629,7 +6635,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6754,7 +6760,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6832,7 +6838,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -6960,7 +6966,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7166,7 +7172,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7372,7 +7378,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7659,7 +7665,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR33">
         <v>1.05</v>
@@ -7784,7 +7790,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7862,7 +7868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8402,7 +8408,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8480,10 +8486,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ37">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8686,7 +8692,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8814,7 +8820,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8895,7 +8901,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9020,7 +9026,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9226,7 +9232,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9432,7 +9438,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9638,7 +9644,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9719,7 +9725,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR43">
         <v>1.95</v>
@@ -9844,7 +9850,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9925,7 +9931,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ44">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10050,7 +10056,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10128,7 +10134,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10256,7 +10262,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10462,7 +10468,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10543,7 +10549,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
         <v>1.04</v>
@@ -10746,7 +10752,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11286,7 +11292,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11492,7 +11498,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11570,10 +11576,10 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR52">
         <v>1.73</v>
@@ -11698,7 +11704,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11904,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -11985,7 +11991,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12316,7 +12322,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12522,7 +12528,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12603,7 +12609,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12728,7 +12734,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12806,7 +12812,7 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -12934,7 +12940,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13140,7 +13146,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13218,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13552,7 +13558,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13758,7 +13764,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13964,7 +13970,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14170,7 +14176,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14248,7 +14254,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14457,7 +14463,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14582,7 +14588,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15200,7 +15206,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15281,7 +15287,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR70">
         <v>1.59</v>
@@ -15693,7 +15699,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15818,7 +15824,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -15896,7 +15902,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16117,22 +16123,22 @@
         <v>2.94</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
         <v>4</v>
       </c>
-      <c r="AW74">
-        <v>3</v>
-      </c>
       <c r="AX74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16230,7 +16236,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16323,22 +16329,22 @@
         <v>3.44</v>
       </c>
       <c r="AU75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA75">
         <v>7</v>
@@ -16436,7 +16442,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16529,22 +16535,22 @@
         <v>3.03</v>
       </c>
       <c r="AU76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW76">
         <v>8</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA76">
         <v>9</v>
@@ -16593,6 +16599,624 @@
       </c>
       <c r="BP76">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7332431</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45431.1875</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>88</v>
+      </c>
+      <c r="P77" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q77">
+        <v>4.3</v>
+      </c>
+      <c r="R77">
+        <v>2.15</v>
+      </c>
+      <c r="S77">
+        <v>2.62</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.81</v>
+      </c>
+      <c r="V77">
+        <v>2.85</v>
+      </c>
+      <c r="W77">
+        <v>1.39</v>
+      </c>
+      <c r="X77">
+        <v>7.12</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.9</v>
+      </c>
+      <c r="AA77">
+        <v>3.15</v>
+      </c>
+      <c r="AB77">
+        <v>2.25</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.24</v>
+      </c>
+      <c r="AG77">
+        <v>1.99</v>
+      </c>
+      <c r="AH77">
+        <v>1.88</v>
+      </c>
+      <c r="AI77">
+        <v>1.74</v>
+      </c>
+      <c r="AJ77">
+        <v>2.04</v>
+      </c>
+      <c r="AK77">
+        <v>1.72</v>
+      </c>
+      <c r="AL77">
+        <v>1.26</v>
+      </c>
+      <c r="AM77">
+        <v>1.27</v>
+      </c>
+      <c r="AN77">
+        <v>1.4</v>
+      </c>
+      <c r="AO77">
+        <v>2.6</v>
+      </c>
+      <c r="AP77">
+        <v>1.17</v>
+      </c>
+      <c r="AQ77">
+        <v>2.67</v>
+      </c>
+      <c r="AR77">
+        <v>1.54</v>
+      </c>
+      <c r="AS77">
+        <v>2.11</v>
+      </c>
+      <c r="AT77">
+        <v>3.65</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>4</v>
+      </c>
+      <c r="AZ77">
+        <v>6</v>
+      </c>
+      <c r="BA77">
+        <v>1</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>2.05</v>
+      </c>
+      <c r="BE77">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF77">
+        <v>1.96</v>
+      </c>
+      <c r="BG77">
+        <v>1.36</v>
+      </c>
+      <c r="BH77">
+        <v>2.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.62</v>
+      </c>
+      <c r="BJ77">
+        <v>2.26</v>
+      </c>
+      <c r="BK77">
+        <v>2.02</v>
+      </c>
+      <c r="BL77">
+        <v>1.78</v>
+      </c>
+      <c r="BM77">
+        <v>2.5</v>
+      </c>
+      <c r="BN77">
+        <v>1.48</v>
+      </c>
+      <c r="BO77">
+        <v>3.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7332432</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45431.1875</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>88</v>
+      </c>
+      <c r="P78" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q78">
+        <v>4.78</v>
+      </c>
+      <c r="R78">
+        <v>2.15</v>
+      </c>
+      <c r="S78">
+        <v>2.45</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.81</v>
+      </c>
+      <c r="V78">
+        <v>2.85</v>
+      </c>
+      <c r="W78">
+        <v>1.39</v>
+      </c>
+      <c r="X78">
+        <v>7.12</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>3.3</v>
+      </c>
+      <c r="AA78">
+        <v>3.3</v>
+      </c>
+      <c r="AB78">
+        <v>2</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.24</v>
+      </c>
+      <c r="AG78">
+        <v>1.93</v>
+      </c>
+      <c r="AH78">
+        <v>1.93</v>
+      </c>
+      <c r="AI78">
+        <v>1.78</v>
+      </c>
+      <c r="AJ78">
+        <v>1.99</v>
+      </c>
+      <c r="AK78">
+        <v>1.86</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.21</v>
+      </c>
+      <c r="AN78">
+        <v>0.43</v>
+      </c>
+      <c r="AO78">
+        <v>2.2</v>
+      </c>
+      <c r="AP78">
+        <v>0.38</v>
+      </c>
+      <c r="AQ78">
+        <v>2.33</v>
+      </c>
+      <c r="AR78">
+        <v>1.37</v>
+      </c>
+      <c r="AS78">
+        <v>1.36</v>
+      </c>
+      <c r="AT78">
+        <v>2.73</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>2</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>2</v>
+      </c>
+      <c r="AZ78">
+        <v>3</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>2.54</v>
+      </c>
+      <c r="BE78">
+        <v>8.35</v>
+      </c>
+      <c r="BF78">
+        <v>1.76</v>
+      </c>
+      <c r="BG78">
+        <v>1.38</v>
+      </c>
+      <c r="BH78">
+        <v>2.71</v>
+      </c>
+      <c r="BI78">
+        <v>1.74</v>
+      </c>
+      <c r="BJ78">
+        <v>2.07</v>
+      </c>
+      <c r="BK78">
+        <v>2.19</v>
+      </c>
+      <c r="BL78">
+        <v>1.66</v>
+      </c>
+      <c r="BM78">
+        <v>2.93</v>
+      </c>
+      <c r="BN78">
+        <v>1.33</v>
+      </c>
+      <c r="BO78">
+        <v>3.6</v>
+      </c>
+      <c r="BP78">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7332433</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45431.29166666666</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>137</v>
+      </c>
+      <c r="P79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q79">
+        <v>2.69</v>
+      </c>
+      <c r="R79">
+        <v>2.07</v>
+      </c>
+      <c r="S79">
+        <v>4.41</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.66</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>1.34</v>
+      </c>
+      <c r="X79">
+        <v>7.9</v>
+      </c>
+      <c r="Y79">
+        <v>1.05</v>
+      </c>
+      <c r="Z79">
+        <v>2.1</v>
+      </c>
+      <c r="AA79">
+        <v>2.9</v>
+      </c>
+      <c r="AB79">
+        <v>3.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>8.6</v>
+      </c>
+      <c r="AE79">
+        <v>1.33</v>
+      </c>
+      <c r="AF79">
+        <v>2.93</v>
+      </c>
+      <c r="AG79">
+        <v>2.08</v>
+      </c>
+      <c r="AH79">
+        <v>1.7</v>
+      </c>
+      <c r="AI79">
+        <v>1.84</v>
+      </c>
+      <c r="AJ79">
+        <v>1.92</v>
+      </c>
+      <c r="AK79">
+        <v>1.28</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.7</v>
+      </c>
+      <c r="AN79">
+        <v>0.8</v>
+      </c>
+      <c r="AO79">
+        <v>1.5</v>
+      </c>
+      <c r="AP79">
+        <v>0.67</v>
+      </c>
+      <c r="AQ79">
+        <v>1.64</v>
+      </c>
+      <c r="AR79">
+        <v>1.97</v>
+      </c>
+      <c r="AS79">
+        <v>1.13</v>
+      </c>
+      <c r="AT79">
+        <v>3.1</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>2</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>1</v>
+      </c>
+      <c r="BC79">
+        <v>2</v>
+      </c>
+      <c r="BD79">
+        <v>1.77</v>
+      </c>
+      <c r="BE79">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF79">
+        <v>2.51</v>
+      </c>
+      <c r="BG79">
+        <v>1.32</v>
+      </c>
+      <c r="BH79">
+        <v>3.07</v>
+      </c>
+      <c r="BI79">
+        <v>1.64</v>
+      </c>
+      <c r="BJ79">
+        <v>2.2</v>
+      </c>
+      <c r="BK79">
+        <v>2.05</v>
+      </c>
+      <c r="BL79">
+        <v>1.74</v>
+      </c>
+      <c r="BM79">
+        <v>2.64</v>
+      </c>
+      <c r="BN79">
+        <v>1.4</v>
+      </c>
+      <c r="BO79">
+        <v>3.69</v>
+      </c>
+      <c r="BP79">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -16123,22 +16123,22 @@
         <v>2.94</v>
       </c>
       <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
         <v>3</v>
       </c>
-      <c r="AV74">
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
         <v>5</v>
       </c>
-      <c r="AW74">
-        <v>4</v>
-      </c>
-      <c r="AX74">
-        <v>1</v>
-      </c>
-      <c r="AY74">
+      <c r="AZ74">
         <v>7</v>
-      </c>
-      <c r="AZ74">
-        <v>6</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16329,22 +16329,22 @@
         <v>3.44</v>
       </c>
       <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
         <v>5</v>
       </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
-      <c r="AW75">
-        <v>3</v>
-      </c>
       <c r="AX75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA75">
         <v>7</v>
@@ -16535,22 +16535,22 @@
         <v>3.03</v>
       </c>
       <c r="AU76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW76">
         <v>8</v>
       </c>
       <c r="AX76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA76">
         <v>9</v>
@@ -16741,31 +16741,31 @@
         <v>3.65</v>
       </c>
       <c r="AU77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ77">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BD77">
         <v>2.05</v>
@@ -16950,28 +16950,28 @@
         <v>0</v>
       </c>
       <c r="AV78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX78">
         <v>0</v>
       </c>
       <c r="AY78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB78">
         <v>0</v>
       </c>
       <c r="BC78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD78">
         <v>2.54</v>
@@ -17153,31 +17153,31 @@
         <v>3.1</v>
       </c>
       <c r="AU79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC79">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BD79">
         <v>1.77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -16741,22 +16741,22 @@
         <v>3.65</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY77">
         <v>8</v>
       </c>
       <c r="AZ77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA77">
         <v>5</v>
@@ -16947,22 +16947,22 @@
         <v>2.73</v>
       </c>
       <c r="AU78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY78">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -17153,22 +17153,22 @@
         <v>3.1</v>
       </c>
       <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
         <v>5</v>
       </c>
-      <c r="AV79">
-        <v>3</v>
-      </c>
       <c r="AW79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA79">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -578,6 +581,9 @@
   </si>
   <si>
     <t>['34', '50', '82']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1610,7 +1616,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2022,7 +2028,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2228,7 +2234,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2434,7 +2440,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2718,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2924,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3052,7 +3058,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3130,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3258,7 +3264,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3339,7 +3345,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3464,7 +3470,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4082,7 +4088,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4288,7 +4294,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4494,7 +4500,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4700,7 +4706,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4781,7 +4787,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -4984,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5112,7 +5118,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5318,7 +5324,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5396,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5808,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5936,7 +5942,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6348,7 +6354,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6426,7 +6432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6554,7 +6560,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6632,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28">
         <v>1.64</v>
@@ -6760,7 +6766,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6966,7 +6972,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7172,7 +7178,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7253,7 +7259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7378,7 +7384,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7790,7 +7796,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8077,7 +8083,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8408,7 +8414,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8695,7 +8701,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8820,7 +8826,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9026,7 +9032,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9232,7 +9238,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9310,7 +9316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9438,7 +9444,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9516,7 +9522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9644,7 +9650,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9850,7 +9856,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10056,7 +10062,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10137,7 +10143,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10262,7 +10268,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10343,7 +10349,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10468,7 +10474,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10958,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11164,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11292,7 +11298,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11498,7 +11504,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11704,7 +11710,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11910,7 +11916,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -11988,7 +11994,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>2.33</v>
@@ -12197,7 +12203,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12322,7 +12328,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12403,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12528,7 +12534,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12606,7 +12612,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>2.33</v>
@@ -12734,7 +12740,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12815,7 +12821,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12940,7 +12946,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13018,7 +13024,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13146,7 +13152,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13430,10 +13436,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13558,7 +13564,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13764,7 +13770,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13970,7 +13976,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14176,7 +14182,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14588,7 +14594,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15078,7 +15084,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15206,7 +15212,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15284,7 +15290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15824,7 +15830,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16111,7 +16117,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16236,7 +16242,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16317,7 +16323,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16442,7 +16448,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16520,7 +16526,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
         <v>1.67</v>
@@ -17060,7 +17066,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17217,6 +17223,624 @@
       </c>
       <c r="BP79">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7332434</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45433.3125</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q80">
+        <v>2.74</v>
+      </c>
+      <c r="R80">
+        <v>2.19</v>
+      </c>
+      <c r="S80">
+        <v>4.27</v>
+      </c>
+      <c r="T80">
+        <v>1.42</v>
+      </c>
+      <c r="U80">
+        <v>2.87</v>
+      </c>
+      <c r="V80">
+        <v>3.1</v>
+      </c>
+      <c r="W80">
+        <v>1.37</v>
+      </c>
+      <c r="X80">
+        <v>7.7</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>2.22</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>3.3</v>
+      </c>
+      <c r="AC80">
+        <v>1.06</v>
+      </c>
+      <c r="AD80">
+        <v>8</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>3.1</v>
+      </c>
+      <c r="AG80">
+        <v>2</v>
+      </c>
+      <c r="AH80">
+        <v>1.8</v>
+      </c>
+      <c r="AI80">
+        <v>1.87</v>
+      </c>
+      <c r="AJ80">
+        <v>1.93</v>
+      </c>
+      <c r="AK80">
+        <v>1.3</v>
+      </c>
+      <c r="AL80">
+        <v>1.31</v>
+      </c>
+      <c r="AM80">
+        <v>1.76</v>
+      </c>
+      <c r="AN80">
+        <v>1.67</v>
+      </c>
+      <c r="AO80">
+        <v>1.5</v>
+      </c>
+      <c r="AP80">
+        <v>1.57</v>
+      </c>
+      <c r="AQ80">
+        <v>1.43</v>
+      </c>
+      <c r="AR80">
+        <v>1.59</v>
+      </c>
+      <c r="AS80">
+        <v>1.6</v>
+      </c>
+      <c r="AT80">
+        <v>3.19</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>2</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>5</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>2</v>
+      </c>
+      <c r="BD80">
+        <v>1.74</v>
+      </c>
+      <c r="BE80">
+        <v>6.75</v>
+      </c>
+      <c r="BF80">
+        <v>2.53</v>
+      </c>
+      <c r="BG80">
+        <v>1.54</v>
+      </c>
+      <c r="BH80">
+        <v>2.42</v>
+      </c>
+      <c r="BI80">
+        <v>1.93</v>
+      </c>
+      <c r="BJ80">
+        <v>1.86</v>
+      </c>
+      <c r="BK80">
+        <v>2.49</v>
+      </c>
+      <c r="BL80">
+        <v>1.52</v>
+      </c>
+      <c r="BM80">
+        <v>3.48</v>
+      </c>
+      <c r="BN80">
+        <v>1.24</v>
+      </c>
+      <c r="BO80">
+        <v>4.33</v>
+      </c>
+      <c r="BP80">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7332435</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45433.3125</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>119</v>
+      </c>
+      <c r="P81" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q81">
+        <v>4.39</v>
+      </c>
+      <c r="R81">
+        <v>2.19</v>
+      </c>
+      <c r="S81">
+        <v>2.7</v>
+      </c>
+      <c r="T81">
+        <v>1.43</v>
+      </c>
+      <c r="U81">
+        <v>2.89</v>
+      </c>
+      <c r="V81">
+        <v>3.15</v>
+      </c>
+      <c r="W81">
+        <v>1.38</v>
+      </c>
+      <c r="X81">
+        <v>7.7</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>3.7</v>
+      </c>
+      <c r="AA81">
+        <v>3.5</v>
+      </c>
+      <c r="AB81">
+        <v>2.02</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>8.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.1</v>
+      </c>
+      <c r="AG81">
+        <v>1.97</v>
+      </c>
+      <c r="AH81">
+        <v>1.69</v>
+      </c>
+      <c r="AI81">
+        <v>1.83</v>
+      </c>
+      <c r="AJ81">
+        <v>1.9</v>
+      </c>
+      <c r="AK81">
+        <v>1.75</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.25</v>
+      </c>
+      <c r="AN81">
+        <v>1.14</v>
+      </c>
+      <c r="AO81">
+        <v>1.8</v>
+      </c>
+      <c r="AP81">
+        <v>1.38</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.68</v>
+      </c>
+      <c r="AS81">
+        <v>1.84</v>
+      </c>
+      <c r="AT81">
+        <v>3.52</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>8</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>6</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
+        <v>2.16</v>
+      </c>
+      <c r="BE81">
+        <v>8.1</v>
+      </c>
+      <c r="BF81">
+        <v>1.88</v>
+      </c>
+      <c r="BG81">
+        <v>1.39</v>
+      </c>
+      <c r="BH81">
+        <v>2.67</v>
+      </c>
+      <c r="BI81">
+        <v>1.79</v>
+      </c>
+      <c r="BJ81">
+        <v>2.02</v>
+      </c>
+      <c r="BK81">
+        <v>2.26</v>
+      </c>
+      <c r="BL81">
+        <v>1.62</v>
+      </c>
+      <c r="BM81">
+        <v>2.98</v>
+      </c>
+      <c r="BN81">
+        <v>1.32</v>
+      </c>
+      <c r="BO81">
+        <v>3.8</v>
+      </c>
+      <c r="BP81">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7332436</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45433.3125</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q82">
+        <v>3.02</v>
+      </c>
+      <c r="R82">
+        <v>2.11</v>
+      </c>
+      <c r="S82">
+        <v>3.99</v>
+      </c>
+      <c r="T82">
+        <v>1.47</v>
+      </c>
+      <c r="U82">
+        <v>2.74</v>
+      </c>
+      <c r="V82">
+        <v>3.36</v>
+      </c>
+      <c r="W82">
+        <v>1.34</v>
+      </c>
+      <c r="X82">
+        <v>8.4</v>
+      </c>
+      <c r="Y82">
+        <v>1.05</v>
+      </c>
+      <c r="Z82">
+        <v>2.29</v>
+      </c>
+      <c r="AA82">
+        <v>3.3</v>
+      </c>
+      <c r="AB82">
+        <v>3.25</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>7.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.4</v>
+      </c>
+      <c r="AF82">
+        <v>2.85</v>
+      </c>
+      <c r="AG82">
+        <v>2.13</v>
+      </c>
+      <c r="AH82">
+        <v>1.59</v>
+      </c>
+      <c r="AI82">
+        <v>1.85</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.33</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.62</v>
+      </c>
+      <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>1.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.29</v>
+      </c>
+      <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>1.57</v>
+      </c>
+      <c r="AS82">
+        <v>1.41</v>
+      </c>
+      <c r="AT82">
+        <v>2.98</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>8</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>7</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.66</v>
+      </c>
+      <c r="BE82">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF82">
+        <v>2.54</v>
+      </c>
+      <c r="BG82">
+        <v>1.49</v>
+      </c>
+      <c r="BH82">
+        <v>2.55</v>
+      </c>
+      <c r="BI82">
+        <v>1.85</v>
+      </c>
+      <c r="BJ82">
+        <v>1.94</v>
+      </c>
+      <c r="BK82">
+        <v>2.36</v>
+      </c>
+      <c r="BL82">
+        <v>1.57</v>
+      </c>
+      <c r="BM82">
+        <v>3.2</v>
+      </c>
+      <c r="BN82">
+        <v>1.28</v>
+      </c>
+      <c r="BO82">
+        <v>4</v>
+      </c>
+      <c r="BP82">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['11', '18']</t>
+  </si>
+  <si>
+    <t>['61', '84']</t>
+  </si>
+  <si>
+    <t>['5', '52']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['22', '47', '82']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1216,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1491,7 +1503,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1628,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1697,7 +1709,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2028,7 +2040,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2234,7 +2246,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2312,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2440,7 +2452,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2518,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>2.67</v>
@@ -3058,7 +3070,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3264,7 +3276,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3470,7 +3482,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3551,7 +3563,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3757,7 +3769,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4088,7 +4100,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4166,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4294,7 +4306,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4372,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ17">
         <v>1.64</v>
@@ -4500,7 +4512,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4706,7 +4718,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5118,7 +5130,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5324,7 +5336,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5817,7 +5829,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -5942,7 +5954,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6229,7 +6241,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6354,7 +6366,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6435,7 +6447,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6560,7 +6572,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6766,7 +6778,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6972,7 +6984,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7050,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7178,7 +7190,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7384,7 +7396,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7796,7 +7808,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8414,7 +8426,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8698,7 +8710,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -8826,7 +8838,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8904,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9032,7 +9044,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9113,7 +9125,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9238,7 +9250,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9319,7 +9331,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9444,7 +9456,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9525,7 +9537,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9650,7 +9662,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9856,7 +9868,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10062,7 +10074,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10268,7 +10280,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10474,7 +10486,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10758,7 +10770,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11298,7 +11310,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11376,10 +11388,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11504,7 +11516,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11710,7 +11722,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11916,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12328,7 +12340,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12406,7 +12418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12534,7 +12546,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12740,7 +12752,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12946,7 +12958,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13152,7 +13164,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13233,7 +13245,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13564,7 +13576,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13642,7 +13654,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -13770,7 +13782,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13851,7 +13863,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -13976,7 +13988,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14182,7 +14194,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14260,10 +14272,10 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14594,7 +14606,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14881,7 +14893,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15087,7 +15099,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15212,7 +15224,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15830,7 +15842,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16242,7 +16254,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16448,7 +16460,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17066,7 +17078,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17144,7 +17156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.64</v>
@@ -17684,7 +17696,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17841,6 +17853,624 @@
       </c>
       <c r="BP82">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7332437</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45434.3125</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q83">
+        <v>2.05</v>
+      </c>
+      <c r="R83">
+        <v>2.25</v>
+      </c>
+      <c r="S83">
+        <v>5.25</v>
+      </c>
+      <c r="T83">
+        <v>1.35</v>
+      </c>
+      <c r="U83">
+        <v>2.95</v>
+      </c>
+      <c r="V83">
+        <v>2.6</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>6.55</v>
+      </c>
+      <c r="Y83">
+        <v>1.09</v>
+      </c>
+      <c r="Z83">
+        <v>1.5</v>
+      </c>
+      <c r="AA83">
+        <v>4.29</v>
+      </c>
+      <c r="AB83">
+        <v>5.75</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>9</v>
+      </c>
+      <c r="AE83">
+        <v>1.25</v>
+      </c>
+      <c r="AF83">
+        <v>3.7</v>
+      </c>
+      <c r="AG83">
+        <v>1.81</v>
+      </c>
+      <c r="AH83">
+        <v>1.98</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>1.1</v>
+      </c>
+      <c r="AL83">
+        <v>1.18</v>
+      </c>
+      <c r="AM83">
+        <v>2.4</v>
+      </c>
+      <c r="AN83">
+        <v>0.5</v>
+      </c>
+      <c r="AO83">
+        <v>1.75</v>
+      </c>
+      <c r="AP83">
+        <v>0.43</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>1.88</v>
+      </c>
+      <c r="AS83">
+        <v>1.36</v>
+      </c>
+      <c r="AT83">
+        <v>3.24</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>9</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.55</v>
+      </c>
+      <c r="BE83">
+        <v>7</v>
+      </c>
+      <c r="BF83">
+        <v>3.3</v>
+      </c>
+      <c r="BG83">
+        <v>1.33</v>
+      </c>
+      <c r="BH83">
+        <v>3</v>
+      </c>
+      <c r="BI83">
+        <v>1.57</v>
+      </c>
+      <c r="BJ83">
+        <v>2.25</v>
+      </c>
+      <c r="BK83">
+        <v>1.91</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.4</v>
+      </c>
+      <c r="BN83">
+        <v>1.5</v>
+      </c>
+      <c r="BO83">
+        <v>3.2</v>
+      </c>
+      <c r="BP83">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7332438</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45434.3125</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>140</v>
+      </c>
+      <c r="P84" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q84">
+        <v>3.1</v>
+      </c>
+      <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.51</v>
+      </c>
+      <c r="U84">
+        <v>2.4</v>
+      </c>
+      <c r="V84">
+        <v>3.2</v>
+      </c>
+      <c r="W84">
+        <v>1.3</v>
+      </c>
+      <c r="X84">
+        <v>7.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.07</v>
+      </c>
+      <c r="Z84">
+        <v>2.56</v>
+      </c>
+      <c r="AA84">
+        <v>3.12</v>
+      </c>
+      <c r="AB84">
+        <v>2.83</v>
+      </c>
+      <c r="AC84">
+        <v>1.08</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.4</v>
+      </c>
+      <c r="AF84">
+        <v>2.75</v>
+      </c>
+      <c r="AG84">
+        <v>2.27</v>
+      </c>
+      <c r="AH84">
+        <v>1.59</v>
+      </c>
+      <c r="AI84">
+        <v>1.95</v>
+      </c>
+      <c r="AJ84">
+        <v>1.8</v>
+      </c>
+      <c r="AK84">
+        <v>1.4</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.5</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>1.5</v>
+      </c>
+      <c r="AQ84">
+        <v>0.86</v>
+      </c>
+      <c r="AR84">
+        <v>1.36</v>
+      </c>
+      <c r="AS84">
+        <v>1.39</v>
+      </c>
+      <c r="AT84">
+        <v>2.75</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>8</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
+        <v>7</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>4</v>
+      </c>
+      <c r="BD84">
+        <v>2.02</v>
+      </c>
+      <c r="BE84">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF84">
+        <v>2.17</v>
+      </c>
+      <c r="BG84">
+        <v>1.6</v>
+      </c>
+      <c r="BH84">
+        <v>2.3</v>
+      </c>
+      <c r="BI84">
+        <v>2.01</v>
+      </c>
+      <c r="BJ84">
+        <v>1.79</v>
+      </c>
+      <c r="BK84">
+        <v>2.61</v>
+      </c>
+      <c r="BL84">
+        <v>1.47</v>
+      </c>
+      <c r="BM84">
+        <v>3.69</v>
+      </c>
+      <c r="BN84">
+        <v>1.23</v>
+      </c>
+      <c r="BO84">
+        <v>4.75</v>
+      </c>
+      <c r="BP84">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7332439</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45434.3125</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q85">
+        <v>2.39</v>
+      </c>
+      <c r="R85">
+        <v>2.16</v>
+      </c>
+      <c r="S85">
+        <v>4.25</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>2.99</v>
+      </c>
+      <c r="V85">
+        <v>2.66</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.6</v>
+      </c>
+      <c r="Y85">
+        <v>1.09</v>
+      </c>
+      <c r="Z85">
+        <v>1.67</v>
+      </c>
+      <c r="AA85">
+        <v>3.98</v>
+      </c>
+      <c r="AB85">
+        <v>4.54</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE85">
+        <v>1.24</v>
+      </c>
+      <c r="AF85">
+        <v>3.48</v>
+      </c>
+      <c r="AG85">
+        <v>1.86</v>
+      </c>
+      <c r="AH85">
+        <v>1.88</v>
+      </c>
+      <c r="AI85">
+        <v>1.7</v>
+      </c>
+      <c r="AJ85">
+        <v>1.98</v>
+      </c>
+      <c r="AK85">
+        <v>1.23</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.83</v>
+      </c>
+      <c r="AN85">
+        <v>0.67</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0.86</v>
+      </c>
+      <c r="AR85">
+        <v>1.88</v>
+      </c>
+      <c r="AS85">
+        <v>1.07</v>
+      </c>
+      <c r="AT85">
+        <v>2.95</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>5</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>6</v>
+      </c>
+      <c r="BC85">
+        <v>8</v>
+      </c>
+      <c r="BD85">
+        <v>1.61</v>
+      </c>
+      <c r="BE85">
+        <v>9</v>
+      </c>
+      <c r="BF85">
+        <v>2.78</v>
+      </c>
+      <c r="BG85">
+        <v>1.22</v>
+      </c>
+      <c r="BH85">
+        <v>3.78</v>
+      </c>
+      <c r="BI85">
+        <v>1.4</v>
+      </c>
+      <c r="BJ85">
+        <v>2.64</v>
+      </c>
+      <c r="BK85">
+        <v>1.76</v>
+      </c>
+      <c r="BL85">
+        <v>2.02</v>
+      </c>
+      <c r="BM85">
+        <v>2.22</v>
+      </c>
+      <c r="BN85">
+        <v>1.64</v>
+      </c>
+      <c r="BO85">
+        <v>2.88</v>
+      </c>
+      <c r="BP85">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -17995,10 +17995,10 @@
         <v>3.24</v>
       </c>
       <c r="AU83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW83">
         <v>6</v>
@@ -18007,10 +18007,10 @@
         <v>2</v>
       </c>
       <c r="AY83">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA83">
         <v>9</v>
@@ -18201,22 +18201,22 @@
         <v>2.75</v>
       </c>
       <c r="AU84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW84">
         <v>2</v>
       </c>
       <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
         <v>7</v>
       </c>
-      <c r="AY84">
-        <v>8</v>
-      </c>
       <c r="AZ84">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA84">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -17995,10 +17995,10 @@
         <v>3.24</v>
       </c>
       <c r="AU83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW83">
         <v>6</v>
@@ -18007,10 +18007,10 @@
         <v>2</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA83">
         <v>9</v>
@@ -18201,22 +18201,22 @@
         <v>2.75</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV84">
+        <v>8</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
         <v>7</v>
       </c>
-      <c r="AW84">
-        <v>2</v>
-      </c>
-      <c r="AX84">
-        <v>3</v>
-      </c>
       <c r="AY84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA84">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['5', '52']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['14', '37']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -596,6 +602,12 @@
   </si>
   <si>
     <t>['22', '47', '82']</t>
+  </si>
+  <si>
+    <t>['86', '90+2', '90+9']</t>
+  </si>
+  <si>
+    <t>['64', '73', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1228,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1297,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1500,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -1628,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1912,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2040,7 +2052,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2118,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2246,7 +2258,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2327,7 +2339,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2452,7 +2464,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3070,7 +3082,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3276,7 +3288,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3482,7 +3494,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3975,7 +3987,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4100,7 +4112,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4306,7 +4318,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4512,7 +4524,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4590,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4718,7 +4730,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5130,7 +5142,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5336,7 +5348,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5623,7 +5635,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5954,7 +5966,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6032,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>2.67</v>
@@ -6238,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6366,7 +6378,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6572,7 +6584,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6778,7 +6790,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6859,7 +6871,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -6984,7 +6996,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7065,7 +7077,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7190,7 +7202,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7268,7 +7280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7396,7 +7408,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7474,10 +7486,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7680,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1.64</v>
@@ -7808,7 +7820,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7889,7 +7901,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8092,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8426,7 +8438,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8838,7 +8850,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9044,7 +9056,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9250,7 +9262,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9456,7 +9468,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9662,7 +9674,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9740,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1.64</v>
@@ -9868,7 +9880,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10074,7 +10086,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10280,7 +10292,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10358,7 +10370,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10486,7 +10498,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10773,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -10979,7 +10991,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11310,7 +11322,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11516,7 +11528,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11722,7 +11734,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11800,10 +11812,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -11928,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12212,7 +12224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12340,7 +12352,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12546,7 +12558,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12752,7 +12764,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12958,7 +12970,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13039,7 +13051,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13164,7 +13176,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13576,7 +13588,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13782,7 +13794,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13860,7 +13872,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -13988,7 +14000,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14069,7 +14081,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14194,7 +14206,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14478,7 +14490,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -14606,7 +14618,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14687,7 +14699,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15224,7 +15236,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15508,10 +15520,10 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>2.08</v>
@@ -15714,7 +15726,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
         <v>2.67</v>
@@ -15842,7 +15854,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -15923,7 +15935,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16254,7 +16266,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16332,7 +16344,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16460,7 +16472,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16541,7 +16553,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17078,7 +17090,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17696,7 +17708,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17902,7 +17914,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18471,6 +18483,624 @@
       </c>
       <c r="BP85">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7332440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45437.29166666666</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q86">
+        <v>2.55</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.95</v>
+      </c>
+      <c r="W86">
+        <v>1.35</v>
+      </c>
+      <c r="X86">
+        <v>7.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>1.92</v>
+      </c>
+      <c r="AA86">
+        <v>3.6</v>
+      </c>
+      <c r="AB86">
+        <v>3.44</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>8.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.33</v>
+      </c>
+      <c r="AF86">
+        <v>3.1</v>
+      </c>
+      <c r="AG86">
+        <v>1.98</v>
+      </c>
+      <c r="AH86">
+        <v>1.75</v>
+      </c>
+      <c r="AI86">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86">
+        <v>1.9</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.8</v>
+      </c>
+      <c r="AN86">
+        <v>1.43</v>
+      </c>
+      <c r="AO86">
+        <v>1.67</v>
+      </c>
+      <c r="AP86">
+        <v>1.25</v>
+      </c>
+      <c r="AQ86">
+        <v>1.86</v>
+      </c>
+      <c r="AR86">
+        <v>1.87</v>
+      </c>
+      <c r="AS86">
+        <v>1.59</v>
+      </c>
+      <c r="AT86">
+        <v>3.46</v>
+      </c>
+      <c r="AU86">
+        <v>2</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>9</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>7</v>
+      </c>
+      <c r="BD86">
+        <v>1.62</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.62</v>
+      </c>
+      <c r="BG86">
+        <v>1.36</v>
+      </c>
+      <c r="BH86">
+        <v>2.88</v>
+      </c>
+      <c r="BI86">
+        <v>1.65</v>
+      </c>
+      <c r="BJ86">
+        <v>2.1</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>1.73</v>
+      </c>
+      <c r="BM86">
+        <v>2.6</v>
+      </c>
+      <c r="BN86">
+        <v>1.44</v>
+      </c>
+      <c r="BO86">
+        <v>3.3</v>
+      </c>
+      <c r="BP86">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7332441</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45438.1875</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>131</v>
+      </c>
+      <c r="P87" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q87">
+        <v>3.6</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>3.2</v>
+      </c>
+      <c r="T87">
+        <v>1.48</v>
+      </c>
+      <c r="U87">
+        <v>2.5</v>
+      </c>
+      <c r="V87">
+        <v>3.1</v>
+      </c>
+      <c r="W87">
+        <v>1.33</v>
+      </c>
+      <c r="X87">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y87">
+        <v>1.05</v>
+      </c>
+      <c r="Z87">
+        <v>2.8</v>
+      </c>
+      <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>2.38</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>7</v>
+      </c>
+      <c r="AE87">
+        <v>1.38</v>
+      </c>
+      <c r="AF87">
+        <v>2.8</v>
+      </c>
+      <c r="AG87">
+        <v>2.1</v>
+      </c>
+      <c r="AH87">
+        <v>1.65</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.83</v>
+      </c>
+      <c r="AK87">
+        <v>1.48</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.4</v>
+      </c>
+      <c r="AN87">
+        <v>1.17</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>1.43</v>
+      </c>
+      <c r="AQ87">
+        <v>1.14</v>
+      </c>
+      <c r="AR87">
+        <v>1.13</v>
+      </c>
+      <c r="AS87">
+        <v>1.88</v>
+      </c>
+      <c r="AT87">
+        <v>3.01</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>8</v>
+      </c>
+      <c r="AZ87">
+        <v>8</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>5</v>
+      </c>
+      <c r="BD87">
+        <v>2</v>
+      </c>
+      <c r="BE87">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF87">
+        <v>2.01</v>
+      </c>
+      <c r="BG87">
+        <v>1.29</v>
+      </c>
+      <c r="BH87">
+        <v>3.14</v>
+      </c>
+      <c r="BI87">
+        <v>1.54</v>
+      </c>
+      <c r="BJ87">
+        <v>2.25</v>
+      </c>
+      <c r="BK87">
+        <v>1.93</v>
+      </c>
+      <c r="BL87">
+        <v>1.74</v>
+      </c>
+      <c r="BM87">
+        <v>2.54</v>
+      </c>
+      <c r="BN87">
+        <v>1.43</v>
+      </c>
+      <c r="BO87">
+        <v>3.48</v>
+      </c>
+      <c r="BP87">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7332442</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45438.1875</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>143</v>
+      </c>
+      <c r="P88" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q88">
+        <v>2.6</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>2.88</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>1.95</v>
+      </c>
+      <c r="AA88">
+        <v>3.2</v>
+      </c>
+      <c r="AB88">
+        <v>3.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.5</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.73</v>
+      </c>
+      <c r="AI88">
+        <v>1.72</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>2.17</v>
+      </c>
+      <c r="AO88">
+        <v>1.67</v>
+      </c>
+      <c r="AP88">
+        <v>1.86</v>
+      </c>
+      <c r="AQ88">
+        <v>1.86</v>
+      </c>
+      <c r="AR88">
+        <v>1.94</v>
+      </c>
+      <c r="AS88">
+        <v>1.52</v>
+      </c>
+      <c r="AT88">
+        <v>3.46</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>8</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>6</v>
+      </c>
+      <c r="BD88">
+        <v>1.7</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.47</v>
+      </c>
+      <c r="BG88">
+        <v>1.54</v>
+      </c>
+      <c r="BH88">
+        <v>2.4</v>
+      </c>
+      <c r="BI88">
+        <v>1.94</v>
+      </c>
+      <c r="BJ88">
+        <v>1.86</v>
+      </c>
+      <c r="BK88">
+        <v>2.49</v>
+      </c>
+      <c r="BL88">
+        <v>1.5</v>
+      </c>
+      <c r="BM88">
+        <v>3.42</v>
+      </c>
+      <c r="BN88">
+        <v>1.25</v>
+      </c>
+      <c r="BO88">
+        <v>4.33</v>
+      </c>
+      <c r="BP88">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>['64', '73', '90+3']</t>
+  </si>
+  <si>
+    <t>['35', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1721,7 +1724,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3572,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -5220,7 +5223,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5841,7 +5844,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -7898,7 +7901,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.86</v>
@@ -9549,7 +9552,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -10164,7 +10167,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -12842,7 +12845,7 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13875,7 +13878,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -16756,7 +16759,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>2.67</v>
@@ -17995,7 +17998,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -19101,6 +19104,212 @@
       </c>
       <c r="BP88">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7332443</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45438.29166666666</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>88</v>
+      </c>
+      <c r="P89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89">
+        <v>2.45</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>4.3</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.8</v>
+      </c>
+      <c r="W89">
+        <v>1.38</v>
+      </c>
+      <c r="X89">
+        <v>7.75</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2</v>
+      </c>
+      <c r="AA89">
+        <v>3.25</v>
+      </c>
+      <c r="AB89">
+        <v>3.4</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>1.73</v>
+      </c>
+      <c r="AI89">
+        <v>1.78</v>
+      </c>
+      <c r="AJ89">
+        <v>1.9</v>
+      </c>
+      <c r="AK89">
+        <v>1.29</v>
+      </c>
+      <c r="AL89">
+        <v>1.29</v>
+      </c>
+      <c r="AM89">
+        <v>1.85</v>
+      </c>
+      <c r="AN89">
+        <v>1.17</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>2.17</v>
+      </c>
+      <c r="AR89">
+        <v>1.45</v>
+      </c>
+      <c r="AS89">
+        <v>1.34</v>
+      </c>
+      <c r="AT89">
+        <v>2.79</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
+      <c r="AW89">
+        <v>10</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>8</v>
+      </c>
+      <c r="BA89">
+        <v>10</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>14</v>
+      </c>
+      <c r="BD89">
+        <v>1.58</v>
+      </c>
+      <c r="BE89">
+        <v>8.6</v>
+      </c>
+      <c r="BF89">
+        <v>2.71</v>
+      </c>
+      <c r="BG89">
+        <v>1.33</v>
+      </c>
+      <c r="BH89">
+        <v>2.93</v>
+      </c>
+      <c r="BI89">
+        <v>1.67</v>
+      </c>
+      <c r="BJ89">
+        <v>2.17</v>
+      </c>
+      <c r="BK89">
+        <v>2.09</v>
+      </c>
+      <c r="BL89">
+        <v>1.71</v>
+      </c>
+      <c r="BM89">
+        <v>2.67</v>
+      </c>
+      <c r="BN89">
+        <v>1.39</v>
+      </c>
+      <c r="BO89">
+        <v>3.74</v>
+      </c>
+      <c r="BP89">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['14', '37']</t>
+  </si>
+  <si>
+    <t>['32', '59', '82']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1234,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -1643,7 +1646,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1721,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>2.17</v>
@@ -2055,7 +2058,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2136,7 +2139,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2264,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2467,7 +2470,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2548,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3085,7 +3088,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3291,7 +3294,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3497,7 +3500,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3987,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -4115,7 +4118,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4196,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4321,7 +4324,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4527,7 +4530,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4733,7 +4736,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4811,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5145,7 +5148,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5351,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5635,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>1.14</v>
@@ -5969,7 +5972,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6050,7 +6053,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6381,7 +6384,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6587,7 +6590,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6793,7 +6796,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6999,7 +7002,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7205,7 +7208,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7411,7 +7414,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7823,7 +7826,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8313,10 +8316,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8441,7 +8444,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8522,7 +8525,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ37">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8853,7 +8856,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9059,7 +9062,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9137,7 +9140,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>0.86</v>
@@ -9265,7 +9268,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9471,7 +9474,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9677,7 +9680,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9883,7 +9886,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9961,10 +9964,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10089,7 +10092,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10295,7 +10298,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10501,7 +10504,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10579,7 +10582,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -11200,7 +11203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11325,7 +11328,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11531,7 +11534,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11737,7 +11740,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11943,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12355,7 +12358,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12561,7 +12564,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12767,7 +12770,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12973,7 +12976,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13179,7 +13182,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13591,7 +13594,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13672,7 +13675,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13797,7 +13800,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14003,7 +14006,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14081,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14209,7 +14212,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14621,7 +14624,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14699,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1.86</v>
@@ -14905,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>0.86</v>
@@ -15239,7 +15242,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15732,7 +15735,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15857,7 +15860,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16141,7 +16144,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.43</v>
@@ -16269,7 +16272,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16475,7 +16478,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16762,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17093,7 +17096,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17711,7 +17714,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17917,7 +17920,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18535,7 +18538,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18947,7 +18950,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19153,7 +19156,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19310,6 +19313,418 @@
       </c>
       <c r="BP89">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7332444</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45439.3125</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>144</v>
+      </c>
+      <c r="P90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q90">
+        <v>2.95</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>3.6</v>
+      </c>
+      <c r="T90">
+        <v>1.48</v>
+      </c>
+      <c r="U90">
+        <v>2.5</v>
+      </c>
+      <c r="V90">
+        <v>3.14</v>
+      </c>
+      <c r="W90">
+        <v>1.33</v>
+      </c>
+      <c r="X90">
+        <v>8.4</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>2.3</v>
+      </c>
+      <c r="AA90">
+        <v>3.2</v>
+      </c>
+      <c r="AB90">
+        <v>3</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>7.6</v>
+      </c>
+      <c r="AE90">
+        <v>1.36</v>
+      </c>
+      <c r="AF90">
+        <v>2.95</v>
+      </c>
+      <c r="AG90">
+        <v>2.1</v>
+      </c>
+      <c r="AH90">
+        <v>1.68</v>
+      </c>
+      <c r="AI90">
+        <v>1.85</v>
+      </c>
+      <c r="AJ90">
+        <v>1.9</v>
+      </c>
+      <c r="AK90">
+        <v>1.35</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.57</v>
+      </c>
+      <c r="AN90">
+        <v>1.14</v>
+      </c>
+      <c r="AO90">
+        <v>1.2</v>
+      </c>
+      <c r="AP90">
+        <v>1.38</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.5</v>
+      </c>
+      <c r="AS90">
+        <v>1.35</v>
+      </c>
+      <c r="AT90">
+        <v>2.85</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>9</v>
+      </c>
+      <c r="AY90">
+        <v>11</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>6</v>
+      </c>
+      <c r="BD90">
+        <v>2.08</v>
+      </c>
+      <c r="BE90">
+        <v>6.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.15</v>
+      </c>
+      <c r="BG90">
+        <v>1.45</v>
+      </c>
+      <c r="BH90">
+        <v>2.55</v>
+      </c>
+      <c r="BI90">
+        <v>1.88</v>
+      </c>
+      <c r="BJ90">
+        <v>1.92</v>
+      </c>
+      <c r="BK90">
+        <v>2.4</v>
+      </c>
+      <c r="BL90">
+        <v>1.5</v>
+      </c>
+      <c r="BM90">
+        <v>3.3</v>
+      </c>
+      <c r="BN90">
+        <v>1.29</v>
+      </c>
+      <c r="BO90">
+        <v>4</v>
+      </c>
+      <c r="BP90">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7332445</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45439.3125</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>91</v>
+      </c>
+      <c r="P91" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q91">
+        <v>4.6</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.3</v>
+      </c>
+      <c r="T91">
+        <v>1.38</v>
+      </c>
+      <c r="U91">
+        <v>2.85</v>
+      </c>
+      <c r="V91">
+        <v>2.65</v>
+      </c>
+      <c r="W91">
+        <v>1.42</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.09</v>
+      </c>
+      <c r="Z91">
+        <v>4.2</v>
+      </c>
+      <c r="AA91">
+        <v>3.6</v>
+      </c>
+      <c r="AB91">
+        <v>1.7</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.25</v>
+      </c>
+      <c r="AF91">
+        <v>3.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.82</v>
+      </c>
+      <c r="AH91">
+        <v>1.93</v>
+      </c>
+      <c r="AI91">
+        <v>1.78</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>2</v>
+      </c>
+      <c r="AL91">
+        <v>1.23</v>
+      </c>
+      <c r="AM91">
+        <v>1.2</v>
+      </c>
+      <c r="AN91">
+        <v>0.67</v>
+      </c>
+      <c r="AO91">
+        <v>2.67</v>
+      </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <v>2.29</v>
+      </c>
+      <c r="AR91">
+        <v>1.23</v>
+      </c>
+      <c r="AS91">
+        <v>2</v>
+      </c>
+      <c r="AT91">
+        <v>3.23</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>10</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>10</v>
+      </c>
+      <c r="BC91">
+        <v>13</v>
+      </c>
+      <c r="BD91">
+        <v>2.94</v>
+      </c>
+      <c r="BE91">
+        <v>9</v>
+      </c>
+      <c r="BF91">
+        <v>1.5</v>
+      </c>
+      <c r="BG91">
+        <v>1.3</v>
+      </c>
+      <c r="BH91">
+        <v>3.2</v>
+      </c>
+      <c r="BI91">
+        <v>1.48</v>
+      </c>
+      <c r="BJ91">
+        <v>2.47</v>
+      </c>
+      <c r="BK91">
+        <v>1.88</v>
+      </c>
+      <c r="BL91">
+        <v>1.92</v>
+      </c>
+      <c r="BM91">
+        <v>2.37</v>
+      </c>
+      <c r="BN91">
+        <v>1.51</v>
+      </c>
+      <c r="BO91">
+        <v>3.3</v>
+      </c>
+      <c r="BP91">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -19664,7 +19664,7 @@
         <v>6</v>
       </c>
       <c r="AV91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW91">
         <v>2</v>
@@ -19676,7 +19676,7 @@
         <v>8</v>
       </c>
       <c r="AZ91">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA91">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['32', '59', '82']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['25', '46']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -614,6 +620,9 @@
   </si>
   <si>
     <t>['35', '90+2']</t>
+  </si>
+  <si>
+    <t>['60', '75']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1243,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1312,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1521,7 +1530,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1646,7 +1655,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1933,7 +1942,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2058,7 +2067,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2264,7 +2273,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2470,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3088,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3166,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3294,7 +3303,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3500,7 +3509,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3787,7 +3796,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4118,7 +4127,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4324,7 +4333,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4530,7 +4539,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4736,7 +4745,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4814,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5148,7 +5157,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5354,7 +5363,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5432,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5641,7 +5650,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5972,7 +5981,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6384,7 +6393,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6465,7 +6474,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6590,7 +6599,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6668,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.64</v>
@@ -6796,7 +6805,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6877,7 +6886,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -7002,7 +7011,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7083,7 +7092,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7208,7 +7217,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7414,7 +7423,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7495,7 +7504,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7826,7 +7835,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8316,7 +8325,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8444,7 +8453,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8856,7 +8865,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9062,7 +9071,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9143,7 +9152,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9268,7 +9277,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9474,7 +9483,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9680,7 +9689,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9886,7 +9895,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10092,7 +10101,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10298,7 +10307,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10504,7 +10513,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10582,7 +10591,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -10997,7 +11006,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11200,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11328,7 +11337,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11534,7 +11543,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11740,7 +11749,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11821,7 +11830,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -11946,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12358,7 +12367,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12436,7 +12445,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12564,7 +12573,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12770,7 +12779,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12976,7 +12985,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13057,7 +13066,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13182,7 +13191,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13466,7 +13475,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13594,7 +13603,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13800,7 +13809,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14006,7 +14015,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14084,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14212,7 +14221,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14293,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14624,7 +14633,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14705,7 +14714,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15117,7 +15126,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15242,7 +15251,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15529,7 +15538,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>2.08</v>
@@ -15860,7 +15869,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16144,7 +16153,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ74">
         <v>1.43</v>
@@ -16272,7 +16281,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16478,7 +16487,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16556,10 +16565,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17096,7 +17105,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17714,7 +17723,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17792,7 +17801,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -17920,7 +17929,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18204,10 +18213,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.36</v>
@@ -18538,7 +18547,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18825,7 +18834,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -18950,7 +18959,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19031,7 +19040,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19156,7 +19165,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19646,7 +19655,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ91">
         <v>2.29</v>
@@ -19725,6 +19734,624 @@
       </c>
       <c r="BP91">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7332446</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45444.1875</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>145</v>
+      </c>
+      <c r="P92" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q92">
+        <v>3.62</v>
+      </c>
+      <c r="R92">
+        <v>2.09</v>
+      </c>
+      <c r="S92">
+        <v>3.31</v>
+      </c>
+      <c r="T92">
+        <v>1.47</v>
+      </c>
+      <c r="U92">
+        <v>2.69</v>
+      </c>
+      <c r="V92">
+        <v>3.36</v>
+      </c>
+      <c r="W92">
+        <v>1.32</v>
+      </c>
+      <c r="X92">
+        <v>8.4</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>2.85</v>
+      </c>
+      <c r="AA92">
+        <v>3.1</v>
+      </c>
+      <c r="AB92">
+        <v>2.43</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.38</v>
+      </c>
+      <c r="AF92">
+        <v>2.8</v>
+      </c>
+      <c r="AG92">
+        <v>2.15</v>
+      </c>
+      <c r="AH92">
+        <v>1.65</v>
+      </c>
+      <c r="AI92">
+        <v>1.88</v>
+      </c>
+      <c r="AJ92">
+        <v>1.82</v>
+      </c>
+      <c r="AK92">
+        <v>1.46</v>
+      </c>
+      <c r="AL92">
+        <v>1.32</v>
+      </c>
+      <c r="AM92">
+        <v>1.4</v>
+      </c>
+      <c r="AN92">
+        <v>1.5</v>
+      </c>
+      <c r="AO92">
+        <v>1.86</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.3</v>
+      </c>
+      <c r="AS92">
+        <v>1.57</v>
+      </c>
+      <c r="AT92">
+        <v>2.87</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>1.97</v>
+      </c>
+      <c r="BE92">
+        <v>7.7</v>
+      </c>
+      <c r="BF92">
+        <v>2.08</v>
+      </c>
+      <c r="BG92">
+        <v>1.65</v>
+      </c>
+      <c r="BH92">
+        <v>2.21</v>
+      </c>
+      <c r="BI92">
+        <v>2.09</v>
+      </c>
+      <c r="BJ92">
+        <v>1.72</v>
+      </c>
+      <c r="BK92">
+        <v>2.62</v>
+      </c>
+      <c r="BL92">
+        <v>1.42</v>
+      </c>
+      <c r="BM92">
+        <v>3.6</v>
+      </c>
+      <c r="BN92">
+        <v>1.25</v>
+      </c>
+      <c r="BO92">
+        <v>5</v>
+      </c>
+      <c r="BP92">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7332447</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45444.29166666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>76</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>146</v>
+      </c>
+      <c r="P93" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q93">
+        <v>2.75</v>
+      </c>
+      <c r="R93">
+        <v>2.22</v>
+      </c>
+      <c r="S93">
+        <v>4.13</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.96</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>1.39</v>
+      </c>
+      <c r="X93">
+        <v>7.4</v>
+      </c>
+      <c r="Y93">
+        <v>1.07</v>
+      </c>
+      <c r="Z93">
+        <v>2.01</v>
+      </c>
+      <c r="AA93">
+        <v>3.48</v>
+      </c>
+      <c r="AB93">
+        <v>3.34</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.28</v>
+      </c>
+      <c r="AF93">
+        <v>3.3</v>
+      </c>
+      <c r="AG93">
+        <v>2.01</v>
+      </c>
+      <c r="AH93">
+        <v>1.78</v>
+      </c>
+      <c r="AI93">
+        <v>1.76</v>
+      </c>
+      <c r="AJ93">
+        <v>2.01</v>
+      </c>
+      <c r="AK93">
+        <v>1.28</v>
+      </c>
+      <c r="AL93">
+        <v>1.28</v>
+      </c>
+      <c r="AM93">
+        <v>1.67</v>
+      </c>
+      <c r="AN93">
+        <v>1.29</v>
+      </c>
+      <c r="AO93">
+        <v>1.14</v>
+      </c>
+      <c r="AP93">
+        <v>1.5</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.53</v>
+      </c>
+      <c r="AS93">
+        <v>1.79</v>
+      </c>
+      <c r="AT93">
+        <v>3.32</v>
+      </c>
+      <c r="AU93">
+        <v>9</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>15</v>
+      </c>
+      <c r="AZ93">
+        <v>12</v>
+      </c>
+      <c r="BA93">
+        <v>8</v>
+      </c>
+      <c r="BB93">
+        <v>7</v>
+      </c>
+      <c r="BC93">
+        <v>15</v>
+      </c>
+      <c r="BD93">
+        <v>1.59</v>
+      </c>
+      <c r="BE93">
+        <v>8.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.69</v>
+      </c>
+      <c r="BG93">
+        <v>1.29</v>
+      </c>
+      <c r="BH93">
+        <v>3.3</v>
+      </c>
+      <c r="BI93">
+        <v>1.55</v>
+      </c>
+      <c r="BJ93">
+        <v>2.38</v>
+      </c>
+      <c r="BK93">
+        <v>1.92</v>
+      </c>
+      <c r="BL93">
+        <v>1.87</v>
+      </c>
+      <c r="BM93">
+        <v>2.41</v>
+      </c>
+      <c r="BN93">
+        <v>1.53</v>
+      </c>
+      <c r="BO93">
+        <v>2.88</v>
+      </c>
+      <c r="BP93">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7332448</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45444.29166666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>88</v>
+      </c>
+      <c r="P94" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q94">
+        <v>3.87</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>2.91</v>
+      </c>
+      <c r="T94">
+        <v>1.41</v>
+      </c>
+      <c r="U94">
+        <v>2.93</v>
+      </c>
+      <c r="V94">
+        <v>3.03</v>
+      </c>
+      <c r="W94">
+        <v>1.38</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>3.12</v>
+      </c>
+      <c r="AA94">
+        <v>3.28</v>
+      </c>
+      <c r="AB94">
+        <v>2.17</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>8.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.3</v>
+      </c>
+      <c r="AG94">
+        <v>1.94</v>
+      </c>
+      <c r="AH94">
+        <v>1.87</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>1.93</v>
+      </c>
+      <c r="AK94">
+        <v>1.65</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.38</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>0.86</v>
+      </c>
+      <c r="AP94">
+        <v>0.88</v>
+      </c>
+      <c r="AQ94">
+        <v>1.13</v>
+      </c>
+      <c r="AR94">
+        <v>1.24</v>
+      </c>
+      <c r="AS94">
+        <v>1.47</v>
+      </c>
+      <c r="AT94">
+        <v>2.71</v>
+      </c>
+      <c r="AU94">
+        <v>2</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>4</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.29</v>
+      </c>
+      <c r="BE94">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF94">
+        <v>1.79</v>
+      </c>
+      <c r="BG94">
+        <v>1.42</v>
+      </c>
+      <c r="BH94">
+        <v>2.62</v>
+      </c>
+      <c r="BI94">
+        <v>1.74</v>
+      </c>
+      <c r="BJ94">
+        <v>2.07</v>
+      </c>
+      <c r="BK94">
+        <v>2.2</v>
+      </c>
+      <c r="BL94">
+        <v>1.66</v>
+      </c>
+      <c r="BM94">
+        <v>2.7</v>
+      </c>
+      <c r="BN94">
+        <v>1.4</v>
+      </c>
+      <c r="BO94">
+        <v>3.6</v>
+      </c>
+      <c r="BP94">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['25', '46']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['14', '42']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -623,6 +629,9 @@
   </si>
   <si>
     <t>['60', '75']</t>
+  </si>
+  <si>
+    <t>['90+22']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1252,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1527,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1655,7 +1664,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2067,7 +2076,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2148,7 +2157,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2351,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1.86</v>
@@ -2479,7 +2488,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3097,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3178,7 +3187,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3303,7 +3312,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3381,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3509,7 +3518,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3793,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4127,7 +4136,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4208,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4333,7 +4342,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4411,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1.64</v>
@@ -4539,7 +4548,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4745,7 +4754,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4826,7 +4835,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5032,7 +5041,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5157,7 +5166,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5363,7 +5372,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5981,7 +5990,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6265,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6393,7 +6402,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6599,7 +6608,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6805,7 +6814,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6883,7 +6892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7011,7 +7020,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7089,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7217,7 +7226,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7298,7 +7307,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7423,7 +7432,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7835,7 +7844,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8119,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8328,7 +8337,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8453,7 +8462,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8531,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ37">
         <v>2.29</v>
@@ -8740,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8865,7 +8874,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8943,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9071,7 +9080,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9277,7 +9286,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9483,7 +9492,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9689,7 +9698,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9895,7 +9904,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10101,7 +10110,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10182,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10307,7 +10316,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10385,10 +10394,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10513,7 +10522,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11212,7 +11221,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11337,7 +11346,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11415,7 +11424,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11543,7 +11552,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11621,7 +11630,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ52">
         <v>1.64</v>
@@ -11749,7 +11758,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11955,7 +11964,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12367,7 +12376,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12573,7 +12582,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12779,7 +12788,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12860,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12985,7 +12994,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13191,7 +13200,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13269,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ60">
         <v>0.86</v>
@@ -13478,7 +13487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13603,7 +13612,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13681,10 +13690,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13809,7 +13818,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14015,7 +14024,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14221,7 +14230,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14505,7 +14514,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -14633,7 +14642,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15251,7 +15260,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15535,7 +15544,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15869,7 +15878,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -15947,7 +15956,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ73">
         <v>1.86</v>
@@ -16156,7 +16165,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16281,7 +16290,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16487,7 +16496,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16977,7 +16986,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ78">
         <v>2.33</v>
@@ -17105,7 +17114,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17392,7 +17401,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17598,7 +17607,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17723,7 +17732,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17929,7 +17938,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18007,7 +18016,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
         <v>2.17</v>
@@ -18547,7 +18556,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18959,7 +18968,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19037,7 +19046,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19165,7 +19174,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19452,7 +19461,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19783,7 +19792,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19989,7 +19998,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20352,6 +20361,624 @@
       </c>
       <c r="BP94">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7332449</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45445.1875</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s">
+        <v>74</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>147</v>
+      </c>
+      <c r="P95" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q95">
+        <v>3.25</v>
+      </c>
+      <c r="R95">
+        <v>2.13</v>
+      </c>
+      <c r="S95">
+        <v>3.59</v>
+      </c>
+      <c r="T95">
+        <v>1.43</v>
+      </c>
+      <c r="U95">
+        <v>2.83</v>
+      </c>
+      <c r="V95">
+        <v>3.1</v>
+      </c>
+      <c r="W95">
+        <v>1.37</v>
+      </c>
+      <c r="X95">
+        <v>6.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>2.32</v>
+      </c>
+      <c r="AA95">
+        <v>2.97</v>
+      </c>
+      <c r="AB95">
+        <v>2.67</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>8.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.3</v>
+      </c>
+      <c r="AF95">
+        <v>3.2</v>
+      </c>
+      <c r="AG95">
+        <v>1.87</v>
+      </c>
+      <c r="AH95">
+        <v>1.85</v>
+      </c>
+      <c r="AI95">
+        <v>1.77</v>
+      </c>
+      <c r="AJ95">
+        <v>1.87</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.22</v>
+      </c>
+      <c r="AM95">
+        <v>1.5</v>
+      </c>
+      <c r="AN95">
+        <v>0.43</v>
+      </c>
+      <c r="AO95">
+        <v>1.5</v>
+      </c>
+      <c r="AP95">
+        <v>0.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1.43</v>
+      </c>
+      <c r="AR95">
+        <v>1.86</v>
+      </c>
+      <c r="AS95">
+        <v>1.71</v>
+      </c>
+      <c r="AT95">
+        <v>3.57</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>9</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>15</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>5</v>
+      </c>
+      <c r="BD95">
+        <v>1.91</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.1</v>
+      </c>
+      <c r="BG95">
+        <v>1.26</v>
+      </c>
+      <c r="BH95">
+        <v>3.34</v>
+      </c>
+      <c r="BI95">
+        <v>1.51</v>
+      </c>
+      <c r="BJ95">
+        <v>2.48</v>
+      </c>
+      <c r="BK95">
+        <v>1.86</v>
+      </c>
+      <c r="BL95">
+        <v>1.94</v>
+      </c>
+      <c r="BM95">
+        <v>2.34</v>
+      </c>
+      <c r="BN95">
+        <v>1.57</v>
+      </c>
+      <c r="BO95">
+        <v>3.28</v>
+      </c>
+      <c r="BP95">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7332450</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45445.1875</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
+      </c>
+      <c r="P96" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q96">
+        <v>2.49</v>
+      </c>
+      <c r="R96">
+        <v>1.99</v>
+      </c>
+      <c r="S96">
+        <v>4.7</v>
+      </c>
+      <c r="T96">
+        <v>1.48</v>
+      </c>
+      <c r="U96">
+        <v>2.54</v>
+      </c>
+      <c r="V96">
+        <v>3.14</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>8.4</v>
+      </c>
+      <c r="Y96">
+        <v>1.05</v>
+      </c>
+      <c r="Z96">
+        <v>1.88</v>
+      </c>
+      <c r="AA96">
+        <v>2.93</v>
+      </c>
+      <c r="AB96">
+        <v>3.38</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>7.4</v>
+      </c>
+      <c r="AE96">
+        <v>1.36</v>
+      </c>
+      <c r="AF96">
+        <v>2.79</v>
+      </c>
+      <c r="AG96">
+        <v>2.05</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.93</v>
+      </c>
+      <c r="AJ96">
+        <v>1.74</v>
+      </c>
+      <c r="AK96">
+        <v>1.2</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.83</v>
+      </c>
+      <c r="AN96">
+        <v>1.86</v>
+      </c>
+      <c r="AO96">
+        <v>1.43</v>
+      </c>
+      <c r="AP96">
+        <v>2</v>
+      </c>
+      <c r="AQ96">
+        <v>1.25</v>
+      </c>
+      <c r="AR96">
+        <v>1.88</v>
+      </c>
+      <c r="AS96">
+        <v>1.55</v>
+      </c>
+      <c r="AT96">
+        <v>3.43</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>9</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>17</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>9</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.7</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>2.47</v>
+      </c>
+      <c r="BG96">
+        <v>1.56</v>
+      </c>
+      <c r="BH96">
+        <v>2.36</v>
+      </c>
+      <c r="BI96">
+        <v>1.99</v>
+      </c>
+      <c r="BJ96">
+        <v>1.81</v>
+      </c>
+      <c r="BK96">
+        <v>2.54</v>
+      </c>
+      <c r="BL96">
+        <v>1.48</v>
+      </c>
+      <c r="BM96">
+        <v>3.42</v>
+      </c>
+      <c r="BN96">
+        <v>1.25</v>
+      </c>
+      <c r="BO96">
+        <v>4.5</v>
+      </c>
+      <c r="BP96">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7332451</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45445.29166666666</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>88</v>
+      </c>
+      <c r="P97" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q97">
+        <v>3.7</v>
+      </c>
+      <c r="R97">
+        <v>2.16</v>
+      </c>
+      <c r="S97">
+        <v>3.09</v>
+      </c>
+      <c r="T97">
+        <v>1.42</v>
+      </c>
+      <c r="U97">
+        <v>2.85</v>
+      </c>
+      <c r="V97">
+        <v>3.13</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.82</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>2.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>7.2</v>
+      </c>
+      <c r="AE97">
+        <v>1.3</v>
+      </c>
+      <c r="AF97">
+        <v>3.2</v>
+      </c>
+      <c r="AG97">
+        <v>2</v>
+      </c>
+      <c r="AH97">
+        <v>1.76</v>
+      </c>
+      <c r="AI97">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97">
+        <v>1.87</v>
+      </c>
+      <c r="AK97">
+        <v>1.52</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>1.37</v>
+      </c>
+      <c r="AN97">
+        <v>0.38</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>0.33</v>
+      </c>
+      <c r="AQ97">
+        <v>1.29</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.39</v>
+      </c>
+      <c r="AT97">
+        <v>2.74</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>2</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>2</v>
+      </c>
+      <c r="AZ97">
+        <v>8</v>
+      </c>
+      <c r="BA97">
+        <v>1</v>
+      </c>
+      <c r="BB97">
+        <v>7</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.16</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>1.89</v>
+      </c>
+      <c r="BG97">
+        <v>1.48</v>
+      </c>
+      <c r="BH97">
+        <v>2.58</v>
+      </c>
+      <c r="BI97">
+        <v>1.82</v>
+      </c>
+      <c r="BJ97">
+        <v>1.98</v>
+      </c>
+      <c r="BK97">
+        <v>2.29</v>
+      </c>
+      <c r="BL97">
+        <v>1.59</v>
+      </c>
+      <c r="BM97">
+        <v>3.14</v>
+      </c>
+      <c r="BN97">
+        <v>1.29</v>
+      </c>
+      <c r="BO97">
+        <v>3.8</v>
+      </c>
+      <c r="BP97">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -20918,28 +20918,28 @@
         <v>0</v>
       </c>
       <c r="AV97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW97">
         <v>2</v>
       </c>
       <c r="AX97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY97">
         <v>2</v>
       </c>
       <c r="AZ97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA97">
         <v>1</v>
       </c>
       <c r="BB97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD97">
         <v>2.16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['14', '42']</t>
   </si>
   <si>
+    <t>['30', '60', '75']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -632,6 +635,9 @@
   </si>
   <si>
     <t>['90+22']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1664,7 +1670,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2076,7 +2082,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2282,7 +2288,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2488,7 +2494,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2981,7 +2987,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3187,7 +3193,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3312,7 +3318,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3518,7 +3524,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -4136,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4342,7 +4348,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4548,7 +4554,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4629,7 +4635,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4754,7 +4760,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4835,7 +4841,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5166,7 +5172,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5244,7 +5250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5372,7 +5378,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5453,7 +5459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5862,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>2.17</v>
@@ -5990,7 +5996,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6402,7 +6408,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6608,7 +6614,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6814,7 +6820,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7020,7 +7026,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7226,7 +7232,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7307,7 +7313,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7432,7 +7438,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7844,7 +7850,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7922,7 +7928,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>1.86</v>
@@ -8131,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8462,7 +8468,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8874,7 +8880,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8955,7 +8961,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9080,7 +9086,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9286,7 +9292,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9364,7 +9370,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9492,7 +9498,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9698,7 +9704,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9904,7 +9910,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10110,7 +10116,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10188,7 +10194,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10316,7 +10322,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10397,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10522,7 +10528,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11346,7 +11352,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11552,7 +11558,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11758,7 +11764,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11964,7 +11970,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12042,10 +12048,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12251,7 +12257,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12376,7 +12382,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12457,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12582,7 +12588,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12663,7 +12669,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12788,7 +12794,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12866,10 +12872,10 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12994,7 +13000,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13072,7 +13078,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13200,7 +13206,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13612,7 +13618,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13818,7 +13824,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14024,7 +14030,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14230,7 +14236,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14642,7 +14648,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15132,7 +15138,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15260,7 +15266,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15878,7 +15884,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16290,7 +16296,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16371,7 +16377,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16496,7 +16502,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16780,7 +16786,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>2.29</v>
@@ -16989,7 +16995,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ78">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17114,7 +17120,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17398,7 +17404,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -17607,7 +17613,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17732,7 +17738,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17813,7 +17819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -17938,7 +17944,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18556,7 +18562,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18968,7 +18974,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19174,7 +19180,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19252,7 +19258,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>2.17</v>
@@ -19792,7 +19798,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19998,7 +20004,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20410,7 +20416,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20491,7 +20497,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20822,7 +20828,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -20979,6 +20985,624 @@
       </c>
       <c r="BP97">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7332452</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q98">
+        <v>3.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>2.75</v>
+      </c>
+      <c r="T98">
+        <v>1.45</v>
+      </c>
+      <c r="U98">
+        <v>2.6</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>7.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>3.17</v>
+      </c>
+      <c r="AA98">
+        <v>3.3</v>
+      </c>
+      <c r="AB98">
+        <v>2.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>8.4</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
+        <v>3.1</v>
+      </c>
+      <c r="AG98">
+        <v>1.96</v>
+      </c>
+      <c r="AH98">
+        <v>1.75</v>
+      </c>
+      <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.9</v>
+      </c>
+      <c r="AK98">
+        <v>1.7</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.3</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
+        <v>1.43</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.78</v>
+      </c>
+      <c r="AS98">
+        <v>1.62</v>
+      </c>
+      <c r="AT98">
+        <v>3.4</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>3</v>
+      </c>
+      <c r="AY98">
+        <v>4</v>
+      </c>
+      <c r="AZ98">
+        <v>6</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>5</v>
+      </c>
+      <c r="BD98">
+        <v>2.26</v>
+      </c>
+      <c r="BE98">
+        <v>6.25</v>
+      </c>
+      <c r="BF98">
+        <v>1.94</v>
+      </c>
+      <c r="BG98">
+        <v>1.23</v>
+      </c>
+      <c r="BH98">
+        <v>3.56</v>
+      </c>
+      <c r="BI98">
+        <v>1.5</v>
+      </c>
+      <c r="BJ98">
+        <v>2.52</v>
+      </c>
+      <c r="BK98">
+        <v>1.83</v>
+      </c>
+      <c r="BL98">
+        <v>1.97</v>
+      </c>
+      <c r="BM98">
+        <v>2.27</v>
+      </c>
+      <c r="BN98">
+        <v>1.6</v>
+      </c>
+      <c r="BO98">
+        <v>3.04</v>
+      </c>
+      <c r="BP98">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7332453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>109</v>
+      </c>
+      <c r="P99" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q99">
+        <v>2.85</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.48</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>7.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>2.2</v>
+      </c>
+      <c r="AA99">
+        <v>3.2</v>
+      </c>
+      <c r="AB99">
+        <v>3.05</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>7.8</v>
+      </c>
+      <c r="AE99">
+        <v>1.36</v>
+      </c>
+      <c r="AF99">
+        <v>2.95</v>
+      </c>
+      <c r="AG99">
+        <v>2.19</v>
+      </c>
+      <c r="AH99">
+        <v>1.6</v>
+      </c>
+      <c r="AI99">
+        <v>1.87</v>
+      </c>
+      <c r="AJ99">
+        <v>1.87</v>
+      </c>
+      <c r="AK99">
+        <v>1.3</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.62</v>
+      </c>
+      <c r="AN99">
+        <v>1.57</v>
+      </c>
+      <c r="AO99">
+        <v>1.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>1.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.51</v>
+      </c>
+      <c r="AS99">
+        <v>1.36</v>
+      </c>
+      <c r="AT99">
+        <v>2.87</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>2</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>2</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.69</v>
+      </c>
+      <c r="BE99">
+        <v>6.2</v>
+      </c>
+      <c r="BF99">
+        <v>2.74</v>
+      </c>
+      <c r="BG99">
+        <v>1.48</v>
+      </c>
+      <c r="BH99">
+        <v>2.59</v>
+      </c>
+      <c r="BI99">
+        <v>1.83</v>
+      </c>
+      <c r="BJ99">
+        <v>1.97</v>
+      </c>
+      <c r="BK99">
+        <v>2.33</v>
+      </c>
+      <c r="BL99">
+        <v>1.58</v>
+      </c>
+      <c r="BM99">
+        <v>3.18</v>
+      </c>
+      <c r="BN99">
+        <v>1.28</v>
+      </c>
+      <c r="BO99">
+        <v>3.8</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7332454</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45458.3125</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q100">
+        <v>3.4</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>3.2</v>
+      </c>
+      <c r="T100">
+        <v>1.48</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>7.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>2.61</v>
+      </c>
+      <c r="AA100">
+        <v>3.2</v>
+      </c>
+      <c r="AB100">
+        <v>2.5</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>7.8</v>
+      </c>
+      <c r="AE100">
+        <v>1.35</v>
+      </c>
+      <c r="AF100">
+        <v>2.84</v>
+      </c>
+      <c r="AG100">
+        <v>2.12</v>
+      </c>
+      <c r="AH100">
+        <v>1.64</v>
+      </c>
+      <c r="AI100">
+        <v>1.87</v>
+      </c>
+      <c r="AJ100">
+        <v>1.87</v>
+      </c>
+      <c r="AK100">
+        <v>1.5</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.44</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>2.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.25</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>1.58</v>
+      </c>
+      <c r="AS100">
+        <v>1.36</v>
+      </c>
+      <c r="AT100">
+        <v>2.94</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>1.97</v>
+      </c>
+      <c r="BE100">
+        <v>6.05</v>
+      </c>
+      <c r="BF100">
+        <v>2.25</v>
+      </c>
+      <c r="BG100">
+        <v>1.48</v>
+      </c>
+      <c r="BH100">
+        <v>2.58</v>
+      </c>
+      <c r="BI100">
+        <v>1.83</v>
+      </c>
+      <c r="BJ100">
+        <v>1.97</v>
+      </c>
+      <c r="BK100">
+        <v>2.32</v>
+      </c>
+      <c r="BL100">
+        <v>1.58</v>
+      </c>
+      <c r="BM100">
+        <v>3.18</v>
+      </c>
+      <c r="BN100">
+        <v>1.28</v>
+      </c>
+      <c r="BO100">
+        <v>4.1</v>
+      </c>
+      <c r="BP100">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>['30', '60', '75']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1670,7 +1676,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1751,7 +1757,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2082,7 +2088,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2288,7 +2294,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2494,7 +2500,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2575,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2984,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3112,7 +3118,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3318,7 +3324,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3524,7 +3530,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3605,7 +3611,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4142,7 +4148,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4348,7 +4354,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4554,7 +4560,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4632,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4760,7 +4766,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5044,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5172,7 +5178,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5378,7 +5384,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5871,7 +5877,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -5996,7 +6002,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6077,7 +6083,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6283,7 +6289,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6408,7 +6414,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6486,7 +6492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6614,7 +6620,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6820,7 +6826,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7026,7 +7032,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7232,7 +7238,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7310,7 +7316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7438,7 +7444,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7722,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>1.64</v>
@@ -7850,7 +7856,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8468,7 +8474,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8549,7 +8555,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8880,7 +8886,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9086,7 +9092,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9292,7 +9298,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9373,7 +9379,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9498,7 +9504,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9576,10 +9582,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9704,7 +9710,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9910,7 +9916,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9991,7 +9997,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10116,7 +10122,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10322,7 +10328,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10528,7 +10534,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11018,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11352,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11433,7 +11439,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11558,7 +11564,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11764,7 +11770,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11970,7 +11976,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12254,7 +12260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -12382,7 +12388,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12460,7 +12466,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12588,7 +12594,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12666,7 +12672,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12794,7 +12800,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13000,7 +13006,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13206,7 +13212,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13287,7 +13293,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13618,7 +13624,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13824,7 +13830,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13905,7 +13911,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14030,7 +14036,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14236,7 +14242,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14648,7 +14654,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14935,7 +14941,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15266,7 +15272,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15344,7 +15350,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15756,10 +15762,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15884,7 +15890,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16296,7 +16302,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16502,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16789,7 +16795,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17120,7 +17126,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17610,7 +17616,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>1.38</v>
@@ -17738,7 +17744,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17944,7 +17950,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18025,7 +18031,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18228,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -18437,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18562,7 +18568,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18846,7 +18852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -18974,7 +18980,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19180,7 +19186,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19261,7 +19267,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19673,7 +19679,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19798,7 +19804,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19876,7 +19882,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -20004,7 +20010,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20416,7 +20422,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20828,7 +20834,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21127,31 +21133,31 @@
         <v>3.4</v>
       </c>
       <c r="AU98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY98">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA98">
         <v>1</v>
       </c>
       <c r="BB98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD98">
         <v>2.26</v>
@@ -21240,7 +21246,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21333,31 +21339,31 @@
         <v>2.87</v>
       </c>
       <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>13</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
         <v>4</v>
       </c>
-      <c r="AV99">
-        <v>0</v>
-      </c>
-      <c r="AW99">
-        <v>7</v>
-      </c>
-      <c r="AX99">
-        <v>2</v>
-      </c>
-      <c r="AY99">
-        <v>11</v>
-      </c>
-      <c r="AZ99">
-        <v>2</v>
-      </c>
-      <c r="BA99">
-        <v>2</v>
-      </c>
-      <c r="BB99">
-        <v>2</v>
-      </c>
       <c r="BC99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD99">
         <v>1.69</v>
@@ -21446,7 +21452,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21539,31 +21545,31 @@
         <v>2.94</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD100">
         <v>1.97</v>
@@ -21603,6 +21609,624 @@
       </c>
       <c r="BP100">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7332455</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>150</v>
+      </c>
+      <c r="P101" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q101">
+        <v>2.88</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>3.75</v>
+      </c>
+      <c r="W101">
+        <v>1.25</v>
+      </c>
+      <c r="X101">
+        <v>11</v>
+      </c>
+      <c r="Y101">
+        <v>1.05</v>
+      </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>3.43</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>6.75</v>
+      </c>
+      <c r="AE101">
+        <v>1.44</v>
+      </c>
+      <c r="AF101">
+        <v>2.51</v>
+      </c>
+      <c r="AG101">
+        <v>2.41</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2.2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.62</v>
+      </c>
+      <c r="AK101">
+        <v>1.25</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.7</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>0.86</v>
+      </c>
+      <c r="AP101">
+        <v>1.5</v>
+      </c>
+      <c r="AQ101">
+        <v>0.75</v>
+      </c>
+      <c r="AR101">
+        <v>1.38</v>
+      </c>
+      <c r="AS101">
+        <v>1.06</v>
+      </c>
+      <c r="AT101">
+        <v>2.44</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>1</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>5</v>
+      </c>
+      <c r="BD101">
+        <v>1.57</v>
+      </c>
+      <c r="BE101">
+        <v>6.2</v>
+      </c>
+      <c r="BF101">
+        <v>3.12</v>
+      </c>
+      <c r="BG101">
+        <v>1.58</v>
+      </c>
+      <c r="BH101">
+        <v>2.3</v>
+      </c>
+      <c r="BI101">
+        <v>2.01</v>
+      </c>
+      <c r="BJ101">
+        <v>1.79</v>
+      </c>
+      <c r="BK101">
+        <v>2.61</v>
+      </c>
+      <c r="BL101">
+        <v>1.46</v>
+      </c>
+      <c r="BM101">
+        <v>3.65</v>
+      </c>
+      <c r="BN101">
+        <v>1.22</v>
+      </c>
+      <c r="BO101">
+        <v>4.75</v>
+      </c>
+      <c r="BP101">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7332456</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>151</v>
+      </c>
+      <c r="P102" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>4.5</v>
+      </c>
+      <c r="T102">
+        <v>1.53</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>3.75</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>11</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.05</v>
+      </c>
+      <c r="AA102">
+        <v>3.25</v>
+      </c>
+      <c r="AB102">
+        <v>3.34</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>7</v>
+      </c>
+      <c r="AE102">
+        <v>1.45</v>
+      </c>
+      <c r="AF102">
+        <v>2.6</v>
+      </c>
+      <c r="AG102">
+        <v>2.34</v>
+      </c>
+      <c r="AH102">
+        <v>1.53</v>
+      </c>
+      <c r="AI102">
+        <v>2.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>1.22</v>
+      </c>
+      <c r="AL102">
+        <v>1.27</v>
+      </c>
+      <c r="AM102">
+        <v>1.67</v>
+      </c>
+      <c r="AN102">
+        <v>1.43</v>
+      </c>
+      <c r="AO102">
+        <v>2.17</v>
+      </c>
+      <c r="AP102">
+        <v>1.38</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.16</v>
+      </c>
+      <c r="AS102">
+        <v>1.32</v>
+      </c>
+      <c r="AT102">
+        <v>2.48</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>2</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>9</v>
+      </c>
+      <c r="AZ102">
+        <v>8</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.6</v>
+      </c>
+      <c r="BE102">
+        <v>6.3</v>
+      </c>
+      <c r="BF102">
+        <v>2.99</v>
+      </c>
+      <c r="BG102">
+        <v>1.49</v>
+      </c>
+      <c r="BH102">
+        <v>2.53</v>
+      </c>
+      <c r="BI102">
+        <v>1.86</v>
+      </c>
+      <c r="BJ102">
+        <v>1.94</v>
+      </c>
+      <c r="BK102">
+        <v>2.37</v>
+      </c>
+      <c r="BL102">
+        <v>1.56</v>
+      </c>
+      <c r="BM102">
+        <v>3.2</v>
+      </c>
+      <c r="BN102">
+        <v>1.28</v>
+      </c>
+      <c r="BO102">
+        <v>4</v>
+      </c>
+      <c r="BP102">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7332457</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>88</v>
+      </c>
+      <c r="P103" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q103">
+        <v>3.6</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>3.1</v>
+      </c>
+      <c r="T103">
+        <v>1.44</v>
+      </c>
+      <c r="U103">
+        <v>2.63</v>
+      </c>
+      <c r="V103">
+        <v>3.25</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>1.07</v>
+      </c>
+      <c r="Z103">
+        <v>2.88</v>
+      </c>
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>2.3</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.1</v>
+      </c>
+      <c r="AG103">
+        <v>2.11</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103">
+        <v>1.83</v>
+      </c>
+      <c r="AK103">
+        <v>1.57</v>
+      </c>
+      <c r="AL103">
+        <v>1.28</v>
+      </c>
+      <c r="AM103">
+        <v>1.36</v>
+      </c>
+      <c r="AN103">
+        <v>1.38</v>
+      </c>
+      <c r="AO103">
+        <v>2.29</v>
+      </c>
+      <c r="AP103">
+        <v>1.33</v>
+      </c>
+      <c r="AQ103">
+        <v>2.13</v>
+      </c>
+      <c r="AR103">
+        <v>1.71</v>
+      </c>
+      <c r="AS103">
+        <v>1.99</v>
+      </c>
+      <c r="AT103">
+        <v>3.7</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>5</v>
+      </c>
+      <c r="AZ103">
+        <v>4</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>2.16</v>
+      </c>
+      <c r="BE103">
+        <v>6.05</v>
+      </c>
+      <c r="BF103">
+        <v>2.04</v>
+      </c>
+      <c r="BG103">
+        <v>1.37</v>
+      </c>
+      <c r="BH103">
+        <v>2.75</v>
+      </c>
+      <c r="BI103">
+        <v>1.74</v>
+      </c>
+      <c r="BJ103">
+        <v>2.07</v>
+      </c>
+      <c r="BK103">
+        <v>2.2</v>
+      </c>
+      <c r="BL103">
+        <v>1.66</v>
+      </c>
+      <c r="BM103">
+        <v>2.91</v>
+      </c>
+      <c r="BN103">
+        <v>1.33</v>
+      </c>
+      <c r="BO103">
+        <v>3.6</v>
+      </c>
+      <c r="BP103">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -22163,31 +22163,31 @@
         <v>3.7</v>
       </c>
       <c r="AU103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>10</v>
+      </c>
+      <c r="BA103">
         <v>3</v>
       </c>
-      <c r="AX103">
-        <v>2</v>
-      </c>
-      <c r="AY103">
-        <v>5</v>
-      </c>
-      <c r="AZ103">
-        <v>4</v>
-      </c>
-      <c r="BA103">
-        <v>2</v>
-      </c>
       <c r="BB103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD103">
         <v>2.16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,15 @@
     <t>['14', '42']</t>
   </si>
   <si>
+    <t>['30', '60', '75']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -632,6 +641,9 @@
   </si>
   <si>
     <t>['90+22']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1264,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1664,7 +1676,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1745,7 +1757,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1948,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2076,7 +2088,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2282,7 +2294,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2488,7 +2500,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2569,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2978,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3106,7 +3118,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3187,7 +3199,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3312,7 +3324,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3518,7 +3530,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3596,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4136,7 +4148,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4342,7 +4354,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4548,7 +4560,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4626,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4754,7 +4766,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4835,7 +4847,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5038,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5166,7 +5178,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5244,7 +5256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5372,7 +5384,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5453,7 +5465,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5862,10 +5874,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -5990,7 +6002,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6071,7 +6083,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6277,7 +6289,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6402,7 +6414,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6480,7 +6492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6608,7 +6620,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6814,7 +6826,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7020,7 +7032,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7226,7 +7238,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7304,10 +7316,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7432,7 +7444,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7716,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>1.64</v>
@@ -7844,7 +7856,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7922,7 +7934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>1.86</v>
@@ -8131,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8462,7 +8474,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8543,7 +8555,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8874,7 +8886,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8955,7 +8967,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9080,7 +9092,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9286,7 +9298,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9364,10 +9376,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9492,7 +9504,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9570,10 +9582,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9698,7 +9710,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9904,7 +9916,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9985,7 +9997,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10110,7 +10122,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10188,7 +10200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10316,7 +10328,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10397,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10522,7 +10534,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11012,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11346,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11427,7 +11439,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11552,7 +11564,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11758,7 +11770,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11964,7 +11976,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12042,10 +12054,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12248,10 +12260,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
+        <v>1.38</v>
+      </c>
+      <c r="AQ55">
         <v>1.43</v>
-      </c>
-      <c r="AQ55">
-        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12376,7 +12388,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12454,10 +12466,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12582,7 +12594,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12660,10 +12672,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12788,7 +12800,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12866,10 +12878,10 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12994,7 +13006,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13072,7 +13084,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13200,7 +13212,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13281,7 +13293,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13612,7 +13624,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13818,7 +13830,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13899,7 +13911,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14024,7 +14036,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14230,7 +14242,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14642,7 +14654,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14929,7 +14941,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15132,7 +15144,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15260,7 +15272,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15338,7 +15350,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15750,10 +15762,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15878,7 +15890,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16290,7 +16302,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16371,7 +16383,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16496,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16780,10 +16792,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -16989,7 +17001,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ78">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17114,7 +17126,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17398,7 +17410,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -17604,10 +17616,10 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
+        <v>1.33</v>
+      </c>
+      <c r="AQ81">
         <v>1.38</v>
-      </c>
-      <c r="AQ81">
-        <v>1.43</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17732,7 +17744,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17813,7 +17825,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -17938,7 +17950,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18019,7 +18031,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18222,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -18431,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18556,7 +18568,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18840,7 +18852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -18968,7 +18980,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19174,7 +19186,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19252,10 +19264,10 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19667,7 +19679,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19792,7 +19804,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19870,7 +19882,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -19998,7 +20010,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20410,7 +20422,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20491,7 +20503,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20822,7 +20834,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -20979,6 +20991,1242 @@
       </c>
       <c r="BP97">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7332452</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q98">
+        <v>3.75</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
+        <v>2.75</v>
+      </c>
+      <c r="T98">
+        <v>1.45</v>
+      </c>
+      <c r="U98">
+        <v>2.6</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>7.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>3.17</v>
+      </c>
+      <c r="AA98">
+        <v>3.3</v>
+      </c>
+      <c r="AB98">
+        <v>2.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>8.4</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
+        <v>3.1</v>
+      </c>
+      <c r="AG98">
+        <v>1.96</v>
+      </c>
+      <c r="AH98">
+        <v>1.75</v>
+      </c>
+      <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.9</v>
+      </c>
+      <c r="AK98">
+        <v>1.7</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.3</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
+        <v>1.43</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.78</v>
+      </c>
+      <c r="AS98">
+        <v>1.62</v>
+      </c>
+      <c r="AT98">
+        <v>3.4</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>7</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>7</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>2.26</v>
+      </c>
+      <c r="BE98">
+        <v>6.25</v>
+      </c>
+      <c r="BF98">
+        <v>1.94</v>
+      </c>
+      <c r="BG98">
+        <v>1.23</v>
+      </c>
+      <c r="BH98">
+        <v>3.56</v>
+      </c>
+      <c r="BI98">
+        <v>1.5</v>
+      </c>
+      <c r="BJ98">
+        <v>2.52</v>
+      </c>
+      <c r="BK98">
+        <v>1.83</v>
+      </c>
+      <c r="BL98">
+        <v>1.97</v>
+      </c>
+      <c r="BM98">
+        <v>2.27</v>
+      </c>
+      <c r="BN98">
+        <v>1.6</v>
+      </c>
+      <c r="BO98">
+        <v>3.04</v>
+      </c>
+      <c r="BP98">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7332453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>109</v>
+      </c>
+      <c r="P99" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q99">
+        <v>2.85</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.48</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>7.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>2.2</v>
+      </c>
+      <c r="AA99">
+        <v>3.2</v>
+      </c>
+      <c r="AB99">
+        <v>3.05</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>7.8</v>
+      </c>
+      <c r="AE99">
+        <v>1.36</v>
+      </c>
+      <c r="AF99">
+        <v>2.95</v>
+      </c>
+      <c r="AG99">
+        <v>2.19</v>
+      </c>
+      <c r="AH99">
+        <v>1.6</v>
+      </c>
+      <c r="AI99">
+        <v>1.87</v>
+      </c>
+      <c r="AJ99">
+        <v>1.87</v>
+      </c>
+      <c r="AK99">
+        <v>1.3</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.62</v>
+      </c>
+      <c r="AN99">
+        <v>1.57</v>
+      </c>
+      <c r="AO99">
+        <v>1.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>1.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.51</v>
+      </c>
+      <c r="AS99">
+        <v>1.36</v>
+      </c>
+      <c r="AT99">
+        <v>2.87</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>2</v>
+      </c>
+      <c r="AW99">
+        <v>13</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>6</v>
+      </c>
+      <c r="BD99">
+        <v>1.69</v>
+      </c>
+      <c r="BE99">
+        <v>6.2</v>
+      </c>
+      <c r="BF99">
+        <v>2.74</v>
+      </c>
+      <c r="BG99">
+        <v>1.48</v>
+      </c>
+      <c r="BH99">
+        <v>2.59</v>
+      </c>
+      <c r="BI99">
+        <v>1.83</v>
+      </c>
+      <c r="BJ99">
+        <v>1.97</v>
+      </c>
+      <c r="BK99">
+        <v>2.33</v>
+      </c>
+      <c r="BL99">
+        <v>1.58</v>
+      </c>
+      <c r="BM99">
+        <v>3.18</v>
+      </c>
+      <c r="BN99">
+        <v>1.28</v>
+      </c>
+      <c r="BO99">
+        <v>3.8</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7332454</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45458.3125</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q100">
+        <v>3.4</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>3.2</v>
+      </c>
+      <c r="T100">
+        <v>1.48</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>7.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>2.61</v>
+      </c>
+      <c r="AA100">
+        <v>3.2</v>
+      </c>
+      <c r="AB100">
+        <v>2.5</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>7.8</v>
+      </c>
+      <c r="AE100">
+        <v>1.35</v>
+      </c>
+      <c r="AF100">
+        <v>2.84</v>
+      </c>
+      <c r="AG100">
+        <v>2.12</v>
+      </c>
+      <c r="AH100">
+        <v>1.64</v>
+      </c>
+      <c r="AI100">
+        <v>1.87</v>
+      </c>
+      <c r="AJ100">
+        <v>1.87</v>
+      </c>
+      <c r="AK100">
+        <v>1.5</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.44</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>2.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.25</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>1.58</v>
+      </c>
+      <c r="AS100">
+        <v>1.36</v>
+      </c>
+      <c r="AT100">
+        <v>2.94</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>10</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>17</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>11</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>1.97</v>
+      </c>
+      <c r="BE100">
+        <v>6.05</v>
+      </c>
+      <c r="BF100">
+        <v>2.25</v>
+      </c>
+      <c r="BG100">
+        <v>1.48</v>
+      </c>
+      <c r="BH100">
+        <v>2.58</v>
+      </c>
+      <c r="BI100">
+        <v>1.83</v>
+      </c>
+      <c r="BJ100">
+        <v>1.97</v>
+      </c>
+      <c r="BK100">
+        <v>2.32</v>
+      </c>
+      <c r="BL100">
+        <v>1.58</v>
+      </c>
+      <c r="BM100">
+        <v>3.18</v>
+      </c>
+      <c r="BN100">
+        <v>1.28</v>
+      </c>
+      <c r="BO100">
+        <v>4.1</v>
+      </c>
+      <c r="BP100">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7332455</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>150</v>
+      </c>
+      <c r="P101" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q101">
+        <v>2.88</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>4.75</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>3.75</v>
+      </c>
+      <c r="W101">
+        <v>1.25</v>
+      </c>
+      <c r="X101">
+        <v>11</v>
+      </c>
+      <c r="Y101">
+        <v>1.05</v>
+      </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>3.43</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>6.75</v>
+      </c>
+      <c r="AE101">
+        <v>1.44</v>
+      </c>
+      <c r="AF101">
+        <v>2.51</v>
+      </c>
+      <c r="AG101">
+        <v>2.41</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2.2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.62</v>
+      </c>
+      <c r="AK101">
+        <v>1.25</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.7</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>0.86</v>
+      </c>
+      <c r="AP101">
+        <v>1.5</v>
+      </c>
+      <c r="AQ101">
+        <v>0.75</v>
+      </c>
+      <c r="AR101">
+        <v>1.38</v>
+      </c>
+      <c r="AS101">
+        <v>1.06</v>
+      </c>
+      <c r="AT101">
+        <v>2.44</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>10</v>
+      </c>
+      <c r="BA101">
+        <v>1</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>5</v>
+      </c>
+      <c r="BD101">
+        <v>1.57</v>
+      </c>
+      <c r="BE101">
+        <v>6.2</v>
+      </c>
+      <c r="BF101">
+        <v>3.12</v>
+      </c>
+      <c r="BG101">
+        <v>1.58</v>
+      </c>
+      <c r="BH101">
+        <v>2.3</v>
+      </c>
+      <c r="BI101">
+        <v>2.01</v>
+      </c>
+      <c r="BJ101">
+        <v>1.79</v>
+      </c>
+      <c r="BK101">
+        <v>2.61</v>
+      </c>
+      <c r="BL101">
+        <v>1.46</v>
+      </c>
+      <c r="BM101">
+        <v>3.65</v>
+      </c>
+      <c r="BN101">
+        <v>1.22</v>
+      </c>
+      <c r="BO101">
+        <v>4.75</v>
+      </c>
+      <c r="BP101">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7332456</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>151</v>
+      </c>
+      <c r="P102" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>4.5</v>
+      </c>
+      <c r="T102">
+        <v>1.53</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>3.75</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>11</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.05</v>
+      </c>
+      <c r="AA102">
+        <v>3.25</v>
+      </c>
+      <c r="AB102">
+        <v>3.34</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>7</v>
+      </c>
+      <c r="AE102">
+        <v>1.45</v>
+      </c>
+      <c r="AF102">
+        <v>2.6</v>
+      </c>
+      <c r="AG102">
+        <v>2.34</v>
+      </c>
+      <c r="AH102">
+        <v>1.53</v>
+      </c>
+      <c r="AI102">
+        <v>2.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>1.22</v>
+      </c>
+      <c r="AL102">
+        <v>1.27</v>
+      </c>
+      <c r="AM102">
+        <v>1.67</v>
+      </c>
+      <c r="AN102">
+        <v>1.43</v>
+      </c>
+      <c r="AO102">
+        <v>2.17</v>
+      </c>
+      <c r="AP102">
+        <v>1.38</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.16</v>
+      </c>
+      <c r="AS102">
+        <v>1.32</v>
+      </c>
+      <c r="AT102">
+        <v>2.48</v>
+      </c>
+      <c r="AU102">
+        <v>8</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>2</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>6</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.6</v>
+      </c>
+      <c r="BE102">
+        <v>6.3</v>
+      </c>
+      <c r="BF102">
+        <v>2.99</v>
+      </c>
+      <c r="BG102">
+        <v>1.49</v>
+      </c>
+      <c r="BH102">
+        <v>2.53</v>
+      </c>
+      <c r="BI102">
+        <v>1.86</v>
+      </c>
+      <c r="BJ102">
+        <v>1.94</v>
+      </c>
+      <c r="BK102">
+        <v>2.37</v>
+      </c>
+      <c r="BL102">
+        <v>1.56</v>
+      </c>
+      <c r="BM102">
+        <v>3.2</v>
+      </c>
+      <c r="BN102">
+        <v>1.28</v>
+      </c>
+      <c r="BO102">
+        <v>4</v>
+      </c>
+      <c r="BP102">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7332457</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>88</v>
+      </c>
+      <c r="P103" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q103">
+        <v>3.6</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>3.1</v>
+      </c>
+      <c r="T103">
+        <v>1.44</v>
+      </c>
+      <c r="U103">
+        <v>2.63</v>
+      </c>
+      <c r="V103">
+        <v>3.25</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>1.07</v>
+      </c>
+      <c r="Z103">
+        <v>2.88</v>
+      </c>
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>2.3</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.1</v>
+      </c>
+      <c r="AG103">
+        <v>2.11</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103">
+        <v>1.83</v>
+      </c>
+      <c r="AK103">
+        <v>1.57</v>
+      </c>
+      <c r="AL103">
+        <v>1.28</v>
+      </c>
+      <c r="AM103">
+        <v>1.36</v>
+      </c>
+      <c r="AN103">
+        <v>1.38</v>
+      </c>
+      <c r="AO103">
+        <v>2.29</v>
+      </c>
+      <c r="AP103">
+        <v>1.33</v>
+      </c>
+      <c r="AQ103">
+        <v>2.13</v>
+      </c>
+      <c r="AR103">
+        <v>1.71</v>
+      </c>
+      <c r="AS103">
+        <v>1.99</v>
+      </c>
+      <c r="AT103">
+        <v>3.7</v>
+      </c>
+      <c r="AU103">
+        <v>3</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>7</v>
+      </c>
+      <c r="AZ103">
+        <v>7</v>
+      </c>
+      <c r="BA103">
+        <v>3</v>
+      </c>
+      <c r="BB103">
+        <v>7</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>2.16</v>
+      </c>
+      <c r="BE103">
+        <v>6.05</v>
+      </c>
+      <c r="BF103">
+        <v>2.04</v>
+      </c>
+      <c r="BG103">
+        <v>1.37</v>
+      </c>
+      <c r="BH103">
+        <v>2.75</v>
+      </c>
+      <c r="BI103">
+        <v>1.74</v>
+      </c>
+      <c r="BJ103">
+        <v>2.07</v>
+      </c>
+      <c r="BK103">
+        <v>2.2</v>
+      </c>
+      <c r="BL103">
+        <v>1.66</v>
+      </c>
+      <c r="BM103">
+        <v>2.91</v>
+      </c>
+      <c r="BN103">
+        <v>1.33</v>
+      </c>
+      <c r="BO103">
+        <v>3.6</v>
+      </c>
+      <c r="BP103">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['8', '18', '45+4', '76']</t>
+  </si>
+  <si>
+    <t>['26', '72', '90+6']</t>
+  </si>
+  <si>
+    <t>['16', '85']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -1005,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1273,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1345,7 +1354,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1548,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1685,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2088,7 +2097,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2294,7 +2303,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2375,7 +2384,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2500,7 +2509,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2990,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3118,7 +3127,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3324,7 +3333,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3530,7 +3539,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3817,7 +3826,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4023,7 +4032,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4148,7 +4157,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4354,7 +4363,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4560,7 +4569,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4766,7 +4775,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5050,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5178,7 +5187,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5384,7 +5393,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5671,7 +5680,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -6002,7 +6011,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6080,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
         <v>2.13</v>
@@ -6286,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6414,7 +6423,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6492,10 +6501,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6620,7 +6629,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6826,7 +6835,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6907,7 +6916,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -7032,7 +7041,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7238,7 +7247,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7444,7 +7453,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7522,7 +7531,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7856,7 +7865,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7937,7 +7946,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8140,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ35">
         <v>1.43</v>
@@ -8474,7 +8483,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8886,7 +8895,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9092,7 +9101,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9173,7 +9182,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9298,7 +9307,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9504,7 +9513,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9582,7 +9591,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9710,7 +9719,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9788,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>1.64</v>
@@ -9916,7 +9925,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10122,7 +10131,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10328,7 +10337,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10406,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -10534,7 +10543,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10821,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11024,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11358,7 +11367,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11564,7 +11573,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11770,7 +11779,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11848,10 +11857,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -11976,7 +11985,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12388,7 +12397,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12594,7 +12603,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12672,7 +12681,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12800,7 +12809,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13006,7 +13015,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13087,7 +13096,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13212,7 +13221,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13624,7 +13633,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13830,7 +13839,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13908,7 +13917,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14036,7 +14045,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14117,7 +14126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14242,7 +14251,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14323,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14526,7 +14535,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -14654,7 +14663,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15147,7 +15156,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15272,7 +15281,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15350,7 +15359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15556,10 +15565,10 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>2.08</v>
@@ -15890,7 +15899,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -15971,7 +15980,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ73">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16302,7 +16311,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16380,7 +16389,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16508,7 +16517,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17126,7 +17135,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17616,7 +17625,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1.38</v>
@@ -17744,7 +17753,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17950,7 +17959,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18237,7 +18246,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.36</v>
@@ -18568,7 +18577,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18646,10 +18655,10 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -18855,7 +18864,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -18980,7 +18989,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19058,7 +19067,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19186,7 +19195,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19804,7 +19813,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20010,7 +20019,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20091,7 +20100,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR93">
         <v>1.53</v>
@@ -20297,7 +20306,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -20422,7 +20431,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20706,7 +20715,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -20834,7 +20843,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21246,7 +21255,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21452,7 +21461,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21864,7 +21873,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22148,7 +22157,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
         <v>2.13</v>
@@ -22226,6 +22235,624 @@
         <v>3.6</v>
       </c>
       <c r="BP103">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7332458</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>152</v>
+      </c>
+      <c r="P104" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q104">
+        <v>3.1</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>3.4</v>
+      </c>
+      <c r="T104">
+        <v>1.46</v>
+      </c>
+      <c r="U104">
+        <v>2.55</v>
+      </c>
+      <c r="V104">
+        <v>3.04</v>
+      </c>
+      <c r="W104">
+        <v>1.35</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>2.5</v>
+      </c>
+      <c r="AA104">
+        <v>3.2</v>
+      </c>
+      <c r="AB104">
+        <v>2.8</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>8</v>
+      </c>
+      <c r="AE104">
+        <v>1.36</v>
+      </c>
+      <c r="AF104">
+        <v>3</v>
+      </c>
+      <c r="AG104">
+        <v>2.04</v>
+      </c>
+      <c r="AH104">
+        <v>1.74</v>
+      </c>
+      <c r="AI104">
+        <v>1.83</v>
+      </c>
+      <c r="AJ104">
+        <v>1.9</v>
+      </c>
+      <c r="AK104">
+        <v>1.42</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.5</v>
+      </c>
+      <c r="AN104">
+        <v>1.33</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104">
+        <v>0.89</v>
+      </c>
+      <c r="AR104">
+        <v>1.62</v>
+      </c>
+      <c r="AS104">
+        <v>1.76</v>
+      </c>
+      <c r="AT104">
+        <v>3.38</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>4</v>
+      </c>
+      <c r="AX104">
+        <v>2</v>
+      </c>
+      <c r="AY104">
+        <v>10</v>
+      </c>
+      <c r="AZ104">
+        <v>4</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.7</v>
+      </c>
+      <c r="BE104">
+        <v>6.35</v>
+      </c>
+      <c r="BF104">
+        <v>2.69</v>
+      </c>
+      <c r="BG104">
+        <v>1.33</v>
+      </c>
+      <c r="BH104">
+        <v>2.93</v>
+      </c>
+      <c r="BI104">
+        <v>1.6</v>
+      </c>
+      <c r="BJ104">
+        <v>2.14</v>
+      </c>
+      <c r="BK104">
+        <v>2.03</v>
+      </c>
+      <c r="BL104">
+        <v>1.67</v>
+      </c>
+      <c r="BM104">
+        <v>2.67</v>
+      </c>
+      <c r="BN104">
+        <v>1.39</v>
+      </c>
+      <c r="BO104">
+        <v>3.74</v>
+      </c>
+      <c r="BP104">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7332459</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45465.3125</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>153</v>
+      </c>
+      <c r="P105" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q105">
+        <v>2.29</v>
+      </c>
+      <c r="R105">
+        <v>2.12</v>
+      </c>
+      <c r="S105">
+        <v>4.8</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.81</v>
+      </c>
+      <c r="V105">
+        <v>2.85</v>
+      </c>
+      <c r="W105">
+        <v>1.39</v>
+      </c>
+      <c r="X105">
+        <v>7.3</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>1.75</v>
+      </c>
+      <c r="AA105">
+        <v>3.75</v>
+      </c>
+      <c r="AB105">
+        <v>4.25</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE105">
+        <v>1.28</v>
+      </c>
+      <c r="AF105">
+        <v>3.18</v>
+      </c>
+      <c r="AG105">
+        <v>2.03</v>
+      </c>
+      <c r="AH105">
+        <v>1.84</v>
+      </c>
+      <c r="AI105">
+        <v>1.83</v>
+      </c>
+      <c r="AJ105">
+        <v>1.83</v>
+      </c>
+      <c r="AK105">
+        <v>1.17</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.97</v>
+      </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
+      <c r="AO105">
+        <v>1.13</v>
+      </c>
+      <c r="AP105">
+        <v>1.44</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.76</v>
+      </c>
+      <c r="AS105">
+        <v>1.46</v>
+      </c>
+      <c r="AT105">
+        <v>3.22</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>9</v>
+      </c>
+      <c r="AZ105">
+        <v>4</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>3</v>
+      </c>
+      <c r="BD105">
+        <v>1.51</v>
+      </c>
+      <c r="BE105">
+        <v>6.55</v>
+      </c>
+      <c r="BF105">
+        <v>3.3</v>
+      </c>
+      <c r="BG105">
+        <v>1.37</v>
+      </c>
+      <c r="BH105">
+        <v>2.75</v>
+      </c>
+      <c r="BI105">
+        <v>1.85</v>
+      </c>
+      <c r="BJ105">
+        <v>1.95</v>
+      </c>
+      <c r="BK105">
+        <v>2.15</v>
+      </c>
+      <c r="BL105">
+        <v>1.59</v>
+      </c>
+      <c r="BM105">
+        <v>2.91</v>
+      </c>
+      <c r="BN105">
+        <v>1.33</v>
+      </c>
+      <c r="BO105">
+        <v>3.6</v>
+      </c>
+      <c r="BP105">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7332460</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45465.3125</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>154</v>
+      </c>
+      <c r="P106" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q106">
+        <v>3.1</v>
+      </c>
+      <c r="R106">
+        <v>2.04</v>
+      </c>
+      <c r="S106">
+        <v>3.28</v>
+      </c>
+      <c r="T106">
+        <v>1.43</v>
+      </c>
+      <c r="U106">
+        <v>2.7</v>
+      </c>
+      <c r="V106">
+        <v>2.99</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>7.7</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>2.6</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>2.7</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>8.4</v>
+      </c>
+      <c r="AE106">
+        <v>1.31</v>
+      </c>
+      <c r="AF106">
+        <v>3.04</v>
+      </c>
+      <c r="AG106">
+        <v>2.07</v>
+      </c>
+      <c r="AH106">
+        <v>1.72</v>
+      </c>
+      <c r="AI106">
+        <v>1.77</v>
+      </c>
+      <c r="AJ106">
+        <v>1.89</v>
+      </c>
+      <c r="AK106">
+        <v>1.43</v>
+      </c>
+      <c r="AL106">
+        <v>1.29</v>
+      </c>
+      <c r="AM106">
+        <v>1.45</v>
+      </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
+      <c r="AO106">
+        <v>1.86</v>
+      </c>
+      <c r="AP106">
+        <v>2.11</v>
+      </c>
+      <c r="AQ106">
+        <v>1.63</v>
+      </c>
+      <c r="AR106">
+        <v>1.9</v>
+      </c>
+      <c r="AS106">
+        <v>1.54</v>
+      </c>
+      <c r="AT106">
+        <v>3.44</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>0</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>4</v>
+      </c>
+      <c r="AZ106">
+        <v>4</v>
+      </c>
+      <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>2.04</v>
+      </c>
+      <c r="BE106">
+        <v>6.05</v>
+      </c>
+      <c r="BF106">
+        <v>2.16</v>
+      </c>
+      <c r="BG106">
+        <v>1.35</v>
+      </c>
+      <c r="BH106">
+        <v>2.84</v>
+      </c>
+      <c r="BI106">
+        <v>1.65</v>
+      </c>
+      <c r="BJ106">
+        <v>2.05</v>
+      </c>
+      <c r="BK106">
+        <v>2.1</v>
+      </c>
+      <c r="BL106">
+        <v>1.62</v>
+      </c>
+      <c r="BM106">
+        <v>2.84</v>
+      </c>
+      <c r="BN106">
+        <v>1.35</v>
+      </c>
+      <c r="BO106">
+        <v>3.6</v>
+      </c>
+      <c r="BP106">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1014,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -6092,7 +6092,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -8564,7 +8564,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -10006,7 +10006,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -12475,7 +12475,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -15774,7 +15774,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -16804,7 +16804,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -18243,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19688,7 +19688,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19891,7 +19891,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -21745,7 +21745,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22160,7 +22160,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22378,22 +22378,22 @@
         <v>3.38</v>
       </c>
       <c r="AU104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW104">
         <v>4</v>
       </c>
       <c r="AX104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -22584,31 +22584,31 @@
         <v>3.22</v>
       </c>
       <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
         <v>4</v>
       </c>
-      <c r="AV105">
+      <c r="AW105">
+        <v>9</v>
+      </c>
+      <c r="AX105">
+        <v>9</v>
+      </c>
+      <c r="AY105">
+        <v>16</v>
+      </c>
+      <c r="AZ105">
+        <v>13</v>
+      </c>
+      <c r="BA105">
         <v>3</v>
       </c>
-      <c r="AW105">
-        <v>5</v>
-      </c>
-      <c r="AX105">
-        <v>1</v>
-      </c>
-      <c r="AY105">
-        <v>9</v>
-      </c>
-      <c r="AZ105">
+      <c r="BB105">
         <v>4</v>
       </c>
-      <c r="BA105">
-        <v>2</v>
-      </c>
-      <c r="BB105">
-        <v>1</v>
-      </c>
       <c r="BC105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD105">
         <v>1.51</v>
@@ -22790,31 +22790,31 @@
         <v>3.44</v>
       </c>
       <c r="AU106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY106">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ106">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC106">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD106">
         <v>2.04</v>
@@ -22854,6 +22854,212 @@
       </c>
       <c r="BP106">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7332461</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45466.29166666666</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>150</v>
+      </c>
+      <c r="P107" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q107">
+        <v>4.33</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>2.6</v>
+      </c>
+      <c r="T107">
+        <v>1.48</v>
+      </c>
+      <c r="U107">
+        <v>2.54</v>
+      </c>
+      <c r="V107">
+        <v>3.26</v>
+      </c>
+      <c r="W107">
+        <v>1.31</v>
+      </c>
+      <c r="X107">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>3.75</v>
+      </c>
+      <c r="AA107">
+        <v>3.25</v>
+      </c>
+      <c r="AB107">
+        <v>1.91</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>7.4</v>
+      </c>
+      <c r="AE107">
+        <v>1.38</v>
+      </c>
+      <c r="AF107">
+        <v>2.71</v>
+      </c>
+      <c r="AG107">
+        <v>2.2</v>
+      </c>
+      <c r="AH107">
+        <v>1.62</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.78</v>
+      </c>
+      <c r="AK107">
+        <v>1.8</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.22</v>
+      </c>
+      <c r="AN107">
+        <v>1.5</v>
+      </c>
+      <c r="AO107">
+        <v>2.13</v>
+      </c>
+      <c r="AP107">
+        <v>1.8</v>
+      </c>
+      <c r="AQ107">
+        <v>1.89</v>
+      </c>
+      <c r="AR107">
+        <v>1.37</v>
+      </c>
+      <c r="AS107">
+        <v>1.85</v>
+      </c>
+      <c r="AT107">
+        <v>3.22</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>0</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>4</v>
+      </c>
+      <c r="AZ107">
+        <v>2</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>5</v>
+      </c>
+      <c r="BD107">
+        <v>2.75</v>
+      </c>
+      <c r="BE107">
+        <v>6.15</v>
+      </c>
+      <c r="BF107">
+        <v>1.69</v>
+      </c>
+      <c r="BG107">
+        <v>1.46</v>
+      </c>
+      <c r="BH107">
+        <v>2.45</v>
+      </c>
+      <c r="BI107">
+        <v>1.82</v>
+      </c>
+      <c r="BJ107">
+        <v>1.98</v>
+      </c>
+      <c r="BK107">
+        <v>2.4</v>
+      </c>
+      <c r="BL107">
+        <v>1.48</v>
+      </c>
+      <c r="BM107">
+        <v>3.34</v>
+      </c>
+      <c r="BN107">
+        <v>1.26</v>
+      </c>
+      <c r="BO107">
+        <v>4.33</v>
+      </c>
+      <c r="BP107">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -654,6 +654,12 @@
   <si>
     <t>['70']</t>
   </si>
+  <si>
+    <t>['24', '36', '76', '87']</t>
+  </si>
+  <si>
+    <t>['45+4', '52']</t>
+  </si>
 </sst>
 </file>
 
@@ -1014,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -1763,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3414,7 +3420,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4029,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
         <v>1.38</v>
@@ -5062,7 +5068,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5677,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -5886,7 +5892,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -8355,7 +8361,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8770,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9179,7 +9185,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9594,7 +9600,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -10003,7 +10009,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
         <v>1.89</v>
@@ -10212,7 +10218,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10621,7 +10627,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -13508,7 +13514,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13920,7 +13926,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14123,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -14741,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14947,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68">
         <v>0.75</v>
@@ -16183,10 +16189,10 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -17422,7 +17428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -18040,7 +18046,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -19276,7 +19282,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19479,7 +19485,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>1.29</v>
@@ -19685,7 +19691,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ91">
         <v>1.89</v>
@@ -20303,7 +20309,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20718,7 +20724,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21954,7 +21960,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22996,31 +23002,31 @@
         <v>3.22</v>
       </c>
       <c r="AU107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV107">
         <v>0</v>
       </c>
       <c r="AW107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX107">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY107">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ107">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BA107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC107">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD107">
         <v>2.75</v>
@@ -23060,6 +23066,418 @@
       </c>
       <c r="BP107">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7332462</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45466.29166666666</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q108">
+        <v>3</v>
+      </c>
+      <c r="R108">
+        <v>1.87</v>
+      </c>
+      <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>1.58</v>
+      </c>
+      <c r="U108">
+        <v>2.26</v>
+      </c>
+      <c r="V108">
+        <v>3.65</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>9</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>2.25</v>
+      </c>
+      <c r="AA108">
+        <v>2.9</v>
+      </c>
+      <c r="AB108">
+        <v>3.2</v>
+      </c>
+      <c r="AC108">
+        <v>1.11</v>
+      </c>
+      <c r="AD108">
+        <v>5.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.5</v>
+      </c>
+      <c r="AF108">
+        <v>2.4</v>
+      </c>
+      <c r="AG108">
+        <v>2.52</v>
+      </c>
+      <c r="AH108">
+        <v>1.42</v>
+      </c>
+      <c r="AI108">
+        <v>2.15</v>
+      </c>
+      <c r="AJ108">
+        <v>1.65</v>
+      </c>
+      <c r="AK108">
+        <v>1.3</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.62</v>
+      </c>
+      <c r="AN108">
+        <v>1.38</v>
+      </c>
+      <c r="AO108">
+        <v>1.25</v>
+      </c>
+      <c r="AP108">
+        <v>1.22</v>
+      </c>
+      <c r="AQ108">
+        <v>1.44</v>
+      </c>
+      <c r="AR108">
+        <v>1.47</v>
+      </c>
+      <c r="AS108">
+        <v>1.5</v>
+      </c>
+      <c r="AT108">
+        <v>2.97</v>
+      </c>
+      <c r="AU108">
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <v>7</v>
+      </c>
+      <c r="AW108">
+        <v>9</v>
+      </c>
+      <c r="AX108">
+        <v>6</v>
+      </c>
+      <c r="AY108">
+        <v>9</v>
+      </c>
+      <c r="AZ108">
+        <v>13</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>1.7</v>
+      </c>
+      <c r="BE108">
+        <v>6.1</v>
+      </c>
+      <c r="BF108">
+        <v>2.73</v>
+      </c>
+      <c r="BG108">
+        <v>1.49</v>
+      </c>
+      <c r="BH108">
+        <v>2.38</v>
+      </c>
+      <c r="BI108">
+        <v>1.87</v>
+      </c>
+      <c r="BJ108">
+        <v>1.79</v>
+      </c>
+      <c r="BK108">
+        <v>2.5</v>
+      </c>
+      <c r="BL108">
+        <v>1.44</v>
+      </c>
+      <c r="BM108">
+        <v>3.48</v>
+      </c>
+      <c r="BN108">
+        <v>1.24</v>
+      </c>
+      <c r="BO108">
+        <v>4.33</v>
+      </c>
+      <c r="BP108">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7332463</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45466.29166666666</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>117</v>
+      </c>
+      <c r="P109" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q109">
+        <v>3.42</v>
+      </c>
+      <c r="R109">
+        <v>2.12</v>
+      </c>
+      <c r="S109">
+        <v>3.43</v>
+      </c>
+      <c r="T109">
+        <v>1.45</v>
+      </c>
+      <c r="U109">
+        <v>2.74</v>
+      </c>
+      <c r="V109">
+        <v>3.28</v>
+      </c>
+      <c r="W109">
+        <v>1.34</v>
+      </c>
+      <c r="X109">
+        <v>8.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.05</v>
+      </c>
+      <c r="Z109">
+        <v>2.6</v>
+      </c>
+      <c r="AA109">
+        <v>3</v>
+      </c>
+      <c r="AB109">
+        <v>2.6</v>
+      </c>
+      <c r="AC109">
+        <v>1.06</v>
+      </c>
+      <c r="AD109">
+        <v>7.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.38</v>
+      </c>
+      <c r="AF109">
+        <v>2.8</v>
+      </c>
+      <c r="AG109">
+        <v>2.1</v>
+      </c>
+      <c r="AH109">
+        <v>1.67</v>
+      </c>
+      <c r="AI109">
+        <v>1.86</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.45</v>
+      </c>
+      <c r="AL109">
+        <v>1.35</v>
+      </c>
+      <c r="AM109">
+        <v>1.5</v>
+      </c>
+      <c r="AN109">
+        <v>0.88</v>
+      </c>
+      <c r="AO109">
+        <v>2</v>
+      </c>
+      <c r="AP109">
+        <v>0.78</v>
+      </c>
+      <c r="AQ109">
+        <v>2.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.17</v>
+      </c>
+      <c r="AS109">
+        <v>1.3</v>
+      </c>
+      <c r="AT109">
+        <v>2.47</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>4</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
+      <c r="BA109">
+        <v>1</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>4</v>
+      </c>
+      <c r="BD109">
+        <v>1.86</v>
+      </c>
+      <c r="BE109">
+        <v>6.2</v>
+      </c>
+      <c r="BF109">
+        <v>2.39</v>
+      </c>
+      <c r="BG109">
+        <v>1.35</v>
+      </c>
+      <c r="BH109">
+        <v>2.84</v>
+      </c>
+      <c r="BI109">
+        <v>1.64</v>
+      </c>
+      <c r="BJ109">
+        <v>2.07</v>
+      </c>
+      <c r="BK109">
+        <v>2</v>
+      </c>
+      <c r="BL109">
+        <v>1.8</v>
+      </c>
+      <c r="BM109">
+        <v>2.79</v>
+      </c>
+      <c r="BN109">
+        <v>1.36</v>
+      </c>
+      <c r="BO109">
+        <v>3.6</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -660,6 +660,12 @@
   <si>
     <t>['45+4', '52']</t>
   </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['2', '39', '72', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2184,7 +2190,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -3214,7 +3220,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3623,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4656,7 +4662,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4862,7 +4868,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5271,7 +5277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5480,7 +5486,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5889,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
         <v>2.13</v>
@@ -7334,7 +7340,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7949,7 +7955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>1.63</v>
@@ -8364,7 +8370,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8982,7 +8988,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9391,7 +9397,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -10215,7 +10221,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10424,7 +10430,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -11248,7 +11254,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -12069,10 +12075,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12690,7 +12696,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12893,10 +12899,10 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13099,7 +13105,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -13720,7 +13726,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -15159,7 +15165,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16807,7 +16813,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>1.89</v>
@@ -17016,7 +17022,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17425,7 +17431,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -17634,7 +17640,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -19279,7 +19285,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ89">
         <v>2.13</v>
@@ -19488,7 +19494,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -20518,7 +20524,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20930,7 +20936,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21136,7 +21142,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21339,7 +21345,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>1.43</v>
@@ -21545,10 +21551,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -23478,6 +23484,624 @@
       </c>
       <c r="BP109">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7332464</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45468.3125</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>88</v>
+      </c>
+      <c r="P110" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q110">
+        <v>3.1</v>
+      </c>
+      <c r="R110">
+        <v>2.07</v>
+      </c>
+      <c r="S110">
+        <v>3.22</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.81</v>
+      </c>
+      <c r="V110">
+        <v>2.85</v>
+      </c>
+      <c r="W110">
+        <v>1.39</v>
+      </c>
+      <c r="X110">
+        <v>7.3</v>
+      </c>
+      <c r="Y110">
+        <v>1.07</v>
+      </c>
+      <c r="Z110">
+        <v>2.58</v>
+      </c>
+      <c r="AA110">
+        <v>3.1</v>
+      </c>
+      <c r="AB110">
+        <v>2.58</v>
+      </c>
+      <c r="AC110">
+        <v>1.02</v>
+      </c>
+      <c r="AD110">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.18</v>
+      </c>
+      <c r="AG110">
+        <v>2.03</v>
+      </c>
+      <c r="AH110">
+        <v>1.65</v>
+      </c>
+      <c r="AI110">
+        <v>1.72</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.44</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.45</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>2</v>
+      </c>
+      <c r="AP110">
+        <v>1</v>
+      </c>
+      <c r="AQ110">
+        <v>1.88</v>
+      </c>
+      <c r="AR110">
+        <v>1.72</v>
+      </c>
+      <c r="AS110">
+        <v>1.48</v>
+      </c>
+      <c r="AT110">
+        <v>3.2</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>4</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>3</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>4</v>
+      </c>
+      <c r="BD110">
+        <v>1.95</v>
+      </c>
+      <c r="BE110">
+        <v>6.2</v>
+      </c>
+      <c r="BF110">
+        <v>2.25</v>
+      </c>
+      <c r="BG110">
+        <v>1.33</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>1.58</v>
+      </c>
+      <c r="BJ110">
+        <v>2.3</v>
+      </c>
+      <c r="BK110">
+        <v>1.98</v>
+      </c>
+      <c r="BL110">
+        <v>1.82</v>
+      </c>
+      <c r="BM110">
+        <v>2.51</v>
+      </c>
+      <c r="BN110">
+        <v>1.5</v>
+      </c>
+      <c r="BO110">
+        <v>3.2</v>
+      </c>
+      <c r="BP110">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7332465</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45468.3125</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>145</v>
+      </c>
+      <c r="P111" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q111">
+        <v>4.1</v>
+      </c>
+      <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
+        <v>2.6</v>
+      </c>
+      <c r="T111">
+        <v>1.43</v>
+      </c>
+      <c r="U111">
+        <v>2.7</v>
+      </c>
+      <c r="V111">
+        <v>2.99</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>7.7</v>
+      </c>
+      <c r="Y111">
+        <v>1.06</v>
+      </c>
+      <c r="Z111">
+        <v>3.4</v>
+      </c>
+      <c r="AA111">
+        <v>3.35</v>
+      </c>
+      <c r="AB111">
+        <v>1.99</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>8.4</v>
+      </c>
+      <c r="AE111">
+        <v>1.31</v>
+      </c>
+      <c r="AF111">
+        <v>3.04</v>
+      </c>
+      <c r="AG111">
+        <v>1.98</v>
+      </c>
+      <c r="AH111">
+        <v>1.68</v>
+      </c>
+      <c r="AI111">
+        <v>1.81</v>
+      </c>
+      <c r="AJ111">
+        <v>1.85</v>
+      </c>
+      <c r="AK111">
+        <v>1.69</v>
+      </c>
+      <c r="AL111">
+        <v>1.28</v>
+      </c>
+      <c r="AM111">
+        <v>1.27</v>
+      </c>
+      <c r="AN111">
+        <v>1.5</v>
+      </c>
+      <c r="AO111">
+        <v>1.38</v>
+      </c>
+      <c r="AP111">
+        <v>1.44</v>
+      </c>
+      <c r="AQ111">
+        <v>1.33</v>
+      </c>
+      <c r="AR111">
+        <v>1.52</v>
+      </c>
+      <c r="AS111">
+        <v>1.63</v>
+      </c>
+      <c r="AT111">
+        <v>3.15</v>
+      </c>
+      <c r="AU111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
+      <c r="AW111">
+        <v>0</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>2.47</v>
+      </c>
+      <c r="BE111">
+        <v>6.1</v>
+      </c>
+      <c r="BF111">
+        <v>1.82</v>
+      </c>
+      <c r="BG111">
+        <v>1.42</v>
+      </c>
+      <c r="BH111">
+        <v>2.62</v>
+      </c>
+      <c r="BI111">
+        <v>1.75</v>
+      </c>
+      <c r="BJ111">
+        <v>2.04</v>
+      </c>
+      <c r="BK111">
+        <v>2.2</v>
+      </c>
+      <c r="BL111">
+        <v>1.64</v>
+      </c>
+      <c r="BM111">
+        <v>2.8</v>
+      </c>
+      <c r="BN111">
+        <v>1.38</v>
+      </c>
+      <c r="BO111">
+        <v>3.6</v>
+      </c>
+      <c r="BP111">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7332466</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45468.3125</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s">
+        <v>78</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>88</v>
+      </c>
+      <c r="P112" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q112">
+        <v>2.77</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
+        <v>3.72</v>
+      </c>
+      <c r="T112">
+        <v>1.42</v>
+      </c>
+      <c r="U112">
+        <v>2.73</v>
+      </c>
+      <c r="V112">
+        <v>2.97</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>7.6</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>2.33</v>
+      </c>
+      <c r="AA112">
+        <v>3.1</v>
+      </c>
+      <c r="AB112">
+        <v>2.88</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>8.4</v>
+      </c>
+      <c r="AE112">
+        <v>1.31</v>
+      </c>
+      <c r="AF112">
+        <v>3.04</v>
+      </c>
+      <c r="AG112">
+        <v>2.07</v>
+      </c>
+      <c r="AH112">
+        <v>1.62</v>
+      </c>
+      <c r="AI112">
+        <v>1.77</v>
+      </c>
+      <c r="AJ112">
+        <v>1.89</v>
+      </c>
+      <c r="AK112">
+        <v>1.32</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.59</v>
+      </c>
+      <c r="AN112">
+        <v>1.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.29</v>
+      </c>
+      <c r="AP112">
+        <v>1.11</v>
+      </c>
+      <c r="AQ112">
+        <v>1.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.55</v>
+      </c>
+      <c r="AS112">
+        <v>1.39</v>
+      </c>
+      <c r="AT112">
+        <v>2.94</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>1</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>3</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>2</v>
+      </c>
+      <c r="BD112">
+        <v>1.69</v>
+      </c>
+      <c r="BE112">
+        <v>6.15</v>
+      </c>
+      <c r="BF112">
+        <v>2.75</v>
+      </c>
+      <c r="BG112">
+        <v>1.48</v>
+      </c>
+      <c r="BH112">
+        <v>2.55</v>
+      </c>
+      <c r="BI112">
+        <v>1.85</v>
+      </c>
+      <c r="BJ112">
+        <v>1.95</v>
+      </c>
+      <c r="BK112">
+        <v>2.34</v>
+      </c>
+      <c r="BL112">
+        <v>1.56</v>
+      </c>
+      <c r="BM112">
+        <v>3</v>
+      </c>
+      <c r="BN112">
+        <v>1.33</v>
+      </c>
+      <c r="BO112">
+        <v>4</v>
+      </c>
+      <c r="BP112">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -23629,28 +23629,28 @@
         <v>4</v>
       </c>
       <c r="AV110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
         <v>4</v>
       </c>
-      <c r="AX110">
-        <v>1</v>
-      </c>
-      <c r="AY110">
+      <c r="BA110">
+        <v>6</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
         <v>8</v>
-      </c>
-      <c r="AZ110">
-        <v>3</v>
-      </c>
-      <c r="BA110">
-        <v>4</v>
-      </c>
-      <c r="BB110">
-        <v>0</v>
-      </c>
-      <c r="BC110">
-        <v>4</v>
       </c>
       <c r="BD110">
         <v>1.95</v>
@@ -23832,31 +23832,31 @@
         <v>3.15</v>
       </c>
       <c r="AU111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ111">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC111">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD111">
         <v>2.47</v>
@@ -24038,31 +24038,31 @@
         <v>2.94</v>
       </c>
       <c r="AU112">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY112">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB112">
         <v>2</v>
       </c>
       <c r="BC112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD112">
         <v>1.69</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -666,6 +666,12 @@
   <si>
     <t>['2', '39', '72', '79']</t>
   </si>
+  <si>
+    <t>['40', '61', '85']</t>
+  </si>
+  <si>
+    <t>['35', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3014,7 +3020,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3423,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3632,7 +3638,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -5074,7 +5080,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5483,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.88</v>
@@ -6310,7 +6316,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6719,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1.64</v>
@@ -6925,7 +6931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ29">
         <v>0.89</v>
@@ -8164,7 +8170,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8573,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
@@ -8782,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9400,7 +9406,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -10224,7 +10230,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -11251,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11460,7 +11466,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11663,7 +11669,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ52">
         <v>1.64</v>
@@ -12284,7 +12290,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12487,10 +12493,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13311,10 +13317,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13517,10 +13523,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -14962,7 +14968,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15989,7 +15995,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ73">
         <v>1.63</v>
@@ -16198,7 +16204,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ74">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16404,7 +16410,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16607,7 +16613,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17019,7 +17025,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ78">
         <v>1.88</v>
@@ -17434,7 +17440,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17843,10 +17849,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18255,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18464,7 +18470,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -19903,7 +19909,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -20109,7 +20115,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>0.89</v>
@@ -20730,7 +20736,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -20933,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ97">
         <v>1.5</v>
@@ -21348,7 +21354,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ99">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21757,10 +21763,10 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -22993,7 +22999,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
         <v>1.89</v>
@@ -23202,7 +23208,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>1.47</v>
@@ -24102,6 +24108,624 @@
       </c>
       <c r="BP112">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7332467</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>82</v>
+      </c>
+      <c r="H113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>113</v>
+      </c>
+      <c r="P113" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q113">
+        <v>3.5</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.6</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>3.7</v>
+      </c>
+      <c r="W113">
+        <v>1.24</v>
+      </c>
+      <c r="X113">
+        <v>13</v>
+      </c>
+      <c r="Y113">
+        <v>1.04</v>
+      </c>
+      <c r="Z113">
+        <v>2.64</v>
+      </c>
+      <c r="AA113">
+        <v>2.93</v>
+      </c>
+      <c r="AB113">
+        <v>2.7</v>
+      </c>
+      <c r="AC113">
+        <v>1.1</v>
+      </c>
+      <c r="AD113">
+        <v>7</v>
+      </c>
+      <c r="AE113">
+        <v>1.5</v>
+      </c>
+      <c r="AF113">
+        <v>2.4</v>
+      </c>
+      <c r="AG113">
+        <v>2.55</v>
+      </c>
+      <c r="AH113">
+        <v>1.45</v>
+      </c>
+      <c r="AI113">
+        <v>2.15</v>
+      </c>
+      <c r="AJ113">
+        <v>1.65</v>
+      </c>
+      <c r="AK113">
+        <v>1.42</v>
+      </c>
+      <c r="AL113">
+        <v>1.32</v>
+      </c>
+      <c r="AM113">
+        <v>1.42</v>
+      </c>
+      <c r="AN113">
+        <v>1.8</v>
+      </c>
+      <c r="AO113">
+        <v>1.44</v>
+      </c>
+      <c r="AP113">
+        <v>1.67</v>
+      </c>
+      <c r="AQ113">
+        <v>1.4</v>
+      </c>
+      <c r="AR113">
+        <v>1.35</v>
+      </c>
+      <c r="AS113">
+        <v>1.53</v>
+      </c>
+      <c r="AT113">
+        <v>2.88</v>
+      </c>
+      <c r="AU113">
+        <v>3</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>7</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>10</v>
+      </c>
+      <c r="AZ113">
+        <v>4</v>
+      </c>
+      <c r="BA113">
+        <v>8</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.94</v>
+      </c>
+      <c r="BE113">
+        <v>5.9</v>
+      </c>
+      <c r="BF113">
+        <v>2.31</v>
+      </c>
+      <c r="BG113">
+        <v>1.62</v>
+      </c>
+      <c r="BH113">
+        <v>2.2</v>
+      </c>
+      <c r="BI113">
+        <v>2</v>
+      </c>
+      <c r="BJ113">
+        <v>1.73</v>
+      </c>
+      <c r="BK113">
+        <v>2.62</v>
+      </c>
+      <c r="BL113">
+        <v>1.42</v>
+      </c>
+      <c r="BM113">
+        <v>3.6</v>
+      </c>
+      <c r="BN113">
+        <v>1.25</v>
+      </c>
+      <c r="BO113">
+        <v>4.75</v>
+      </c>
+      <c r="BP113">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7332468</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>88</v>
+      </c>
+      <c r="P114" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q114">
+        <v>2.3</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.42</v>
+      </c>
+      <c r="U114">
+        <v>2.65</v>
+      </c>
+      <c r="V114">
+        <v>2.95</v>
+      </c>
+      <c r="W114">
+        <v>1.35</v>
+      </c>
+      <c r="X114">
+        <v>8.25</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>1.62</v>
+      </c>
+      <c r="AA114">
+        <v>3.75</v>
+      </c>
+      <c r="AB114">
+        <v>4.75</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>8.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.33</v>
+      </c>
+      <c r="AF114">
+        <v>3.1</v>
+      </c>
+      <c r="AG114">
+        <v>1.91</v>
+      </c>
+      <c r="AH114">
+        <v>1.8</v>
+      </c>
+      <c r="AI114">
+        <v>1.93</v>
+      </c>
+      <c r="AJ114">
+        <v>1.73</v>
+      </c>
+      <c r="AK114">
+        <v>1.14</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>2.05</v>
+      </c>
+      <c r="AN114">
+        <v>1.5</v>
+      </c>
+      <c r="AO114">
+        <v>0.75</v>
+      </c>
+      <c r="AP114">
+        <v>1.33</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.6</v>
+      </c>
+      <c r="AS114">
+        <v>1.1</v>
+      </c>
+      <c r="AT114">
+        <v>2.7</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>10</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>13</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>5</v>
+      </c>
+      <c r="BD114">
+        <v>1.35</v>
+      </c>
+      <c r="BE114">
+        <v>7.2</v>
+      </c>
+      <c r="BF114">
+        <v>4.2</v>
+      </c>
+      <c r="BG114">
+        <v>1.36</v>
+      </c>
+      <c r="BH114">
+        <v>2.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.62</v>
+      </c>
+      <c r="BJ114">
+        <v>2.2</v>
+      </c>
+      <c r="BK114">
+        <v>2</v>
+      </c>
+      <c r="BL114">
+        <v>1.73</v>
+      </c>
+      <c r="BM114">
+        <v>2.5</v>
+      </c>
+      <c r="BN114">
+        <v>1.48</v>
+      </c>
+      <c r="BO114">
+        <v>3.3</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7332469</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45469.3125</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>151</v>
+      </c>
+      <c r="P115" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q115">
+        <v>3.65</v>
+      </c>
+      <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
+        <v>3</v>
+      </c>
+      <c r="T115">
+        <v>1.48</v>
+      </c>
+      <c r="U115">
+        <v>2.5</v>
+      </c>
+      <c r="V115">
+        <v>3.1</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>9.25</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>3.1</v>
+      </c>
+      <c r="AA115">
+        <v>3.2</v>
+      </c>
+      <c r="AB115">
+        <v>2.15</v>
+      </c>
+      <c r="AC115">
+        <v>1.08</v>
+      </c>
+      <c r="AD115">
+        <v>7</v>
+      </c>
+      <c r="AE115">
+        <v>1.4</v>
+      </c>
+      <c r="AF115">
+        <v>2.8</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.65</v>
+      </c>
+      <c r="AI115">
+        <v>1.8</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.57</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.33</v>
+      </c>
+      <c r="AN115">
+        <v>0.33</v>
+      </c>
+      <c r="AO115">
+        <v>1.43</v>
+      </c>
+      <c r="AP115">
+        <v>0.3</v>
+      </c>
+      <c r="AQ115">
+        <v>1.63</v>
+      </c>
+      <c r="AR115">
+        <v>1.28</v>
+      </c>
+      <c r="AS115">
+        <v>1.31</v>
+      </c>
+      <c r="AT115">
+        <v>2.59</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>7</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>12</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>2.25</v>
+      </c>
+      <c r="BE115">
+        <v>6.05</v>
+      </c>
+      <c r="BF115">
+        <v>1.97</v>
+      </c>
+      <c r="BG115">
+        <v>1.42</v>
+      </c>
+      <c r="BH115">
+        <v>2.62</v>
+      </c>
+      <c r="BI115">
+        <v>1.73</v>
+      </c>
+      <c r="BJ115">
+        <v>2</v>
+      </c>
+      <c r="BK115">
+        <v>2.2</v>
+      </c>
+      <c r="BL115">
+        <v>1.62</v>
+      </c>
+      <c r="BM115">
+        <v>2.8</v>
+      </c>
+      <c r="BN115">
+        <v>1.38</v>
+      </c>
+      <c r="BO115">
+        <v>3.6</v>
+      </c>
+      <c r="BP115">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,9 @@
     <t>['16', '85']</t>
   </si>
   <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -671,6 +674,12 @@
   </si>
   <si>
     <t>['35', '85']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['5', '43']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1300,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1703,7 +1712,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1784,7 +1793,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2115,7 +2124,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2321,7 +2330,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2399,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ7">
         <v>1.63</v>
@@ -2527,7 +2536,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3145,7 +3154,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3351,7 +3360,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3557,7 +3566,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4175,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4381,7 +4390,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4459,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ17">
         <v>1.64</v>
@@ -4587,7 +4596,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4793,7 +4802,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5205,7 +5214,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5411,7 +5420,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5904,7 +5913,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6029,7 +6038,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6441,7 +6450,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6647,7 +6656,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6853,7 +6862,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7059,7 +7068,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7137,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7265,7 +7274,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7471,7 +7480,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7883,7 +7892,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8501,7 +8510,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8913,7 +8922,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8991,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ39">
         <v>1.88</v>
@@ -9119,7 +9128,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9325,7 +9334,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9531,7 +9540,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9612,7 +9621,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9737,7 +9746,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9943,7 +9952,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10149,7 +10158,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10355,7 +10364,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10561,7 +10570,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11385,7 +11394,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11463,7 +11472,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11591,7 +11600,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11797,7 +11806,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12003,7 +12012,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12415,7 +12424,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12493,7 +12502,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -12621,7 +12630,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12827,7 +12836,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13033,7 +13042,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13239,7 +13248,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13651,7 +13660,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13729,7 +13738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -13857,7 +13866,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13938,7 +13947,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14063,7 +14072,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14269,7 +14278,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14681,7 +14690,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15299,7 +15308,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15917,7 +15926,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16329,7 +16338,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16535,7 +16544,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17153,7 +17162,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17771,7 +17780,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17977,7 +17986,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18055,10 +18064,10 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ83">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18261,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18595,7 +18604,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19007,7 +19016,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19213,7 +19222,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19294,7 +19303,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ89">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19831,7 +19840,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19909,7 +19918,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -20037,7 +20046,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20449,7 +20458,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20527,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ95">
         <v>1.33</v>
@@ -20861,7 +20870,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21273,7 +21282,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21479,7 +21488,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21763,7 +21772,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -21891,7 +21900,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -21972,7 +21981,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22999,7 +23008,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107">
         <v>1.89</v>
@@ -23127,7 +23136,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23333,7 +23342,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23414,7 +23423,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ109">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23745,7 +23754,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23951,7 +23960,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24235,7 +24244,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113">
         <v>1.4</v>
@@ -24363,7 +24372,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24569,7 +24578,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24726,6 +24735,418 @@
       </c>
       <c r="BP115">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7332470</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>151</v>
+      </c>
+      <c r="P116" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>1.88</v>
+      </c>
+      <c r="S116">
+        <v>3.66</v>
+      </c>
+      <c r="T116">
+        <v>1.54</v>
+      </c>
+      <c r="U116">
+        <v>2.54</v>
+      </c>
+      <c r="V116">
+        <v>3.46</v>
+      </c>
+      <c r="W116">
+        <v>1.28</v>
+      </c>
+      <c r="X116">
+        <v>9.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.04</v>
+      </c>
+      <c r="Z116">
+        <v>2.25</v>
+      </c>
+      <c r="AA116">
+        <v>3.1</v>
+      </c>
+      <c r="AB116">
+        <v>3.4</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
+        <v>6.7</v>
+      </c>
+      <c r="AE116">
+        <v>1.44</v>
+      </c>
+      <c r="AF116">
+        <v>2.51</v>
+      </c>
+      <c r="AG116">
+        <v>2.21</v>
+      </c>
+      <c r="AH116">
+        <v>1.62</v>
+      </c>
+      <c r="AI116">
+        <v>2.02</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
+        <v>1.25</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.53</v>
+      </c>
+      <c r="AN116">
+        <v>1.67</v>
+      </c>
+      <c r="AO116">
+        <v>2.13</v>
+      </c>
+      <c r="AP116">
+        <v>1.57</v>
+      </c>
+      <c r="AQ116">
+        <v>2</v>
+      </c>
+      <c r="AR116">
+        <v>1.36</v>
+      </c>
+      <c r="AS116">
+        <v>1.28</v>
+      </c>
+      <c r="AT116">
+        <v>2.64</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>1</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>7</v>
+      </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>1.65</v>
+      </c>
+      <c r="BE116">
+        <v>6.1</v>
+      </c>
+      <c r="BF116">
+        <v>2.88</v>
+      </c>
+      <c r="BG116">
+        <v>1.52</v>
+      </c>
+      <c r="BH116">
+        <v>2.3</v>
+      </c>
+      <c r="BI116">
+        <v>1.92</v>
+      </c>
+      <c r="BJ116">
+        <v>1.75</v>
+      </c>
+      <c r="BK116">
+        <v>2.57</v>
+      </c>
+      <c r="BL116">
+        <v>1.42</v>
+      </c>
+      <c r="BM116">
+        <v>3.56</v>
+      </c>
+      <c r="BN116">
+        <v>1.23</v>
+      </c>
+      <c r="BO116">
+        <v>4.5</v>
+      </c>
+      <c r="BP116">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7332471</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45472.3125</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>81</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>155</v>
+      </c>
+      <c r="P117" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q117">
+        <v>2.4</v>
+      </c>
+      <c r="R117">
+        <v>2.15</v>
+      </c>
+      <c r="S117">
+        <v>4.5</v>
+      </c>
+      <c r="T117">
+        <v>1.4</v>
+      </c>
+      <c r="U117">
+        <v>2.7</v>
+      </c>
+      <c r="V117">
+        <v>2.88</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.07</v>
+      </c>
+      <c r="Z117">
+        <v>1.8</v>
+      </c>
+      <c r="AA117">
+        <v>3.75</v>
+      </c>
+      <c r="AB117">
+        <v>4.1</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>9</v>
+      </c>
+      <c r="AE117">
+        <v>1.3</v>
+      </c>
+      <c r="AF117">
+        <v>3.2</v>
+      </c>
+      <c r="AG117">
+        <v>1.9</v>
+      </c>
+      <c r="AH117">
+        <v>1.9</v>
+      </c>
+      <c r="AI117">
+        <v>1.85</v>
+      </c>
+      <c r="AJ117">
+        <v>1.85</v>
+      </c>
+      <c r="AK117">
+        <v>1.25</v>
+      </c>
+      <c r="AL117">
+        <v>1.29</v>
+      </c>
+      <c r="AM117">
+        <v>1.91</v>
+      </c>
+      <c r="AN117">
+        <v>0.5</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>1.84</v>
+      </c>
+      <c r="AS117">
+        <v>1.46</v>
+      </c>
+      <c r="AT117">
+        <v>3.3</v>
+      </c>
+      <c r="AU117">
+        <v>3</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>13</v>
+      </c>
+      <c r="AX117">
+        <v>1</v>
+      </c>
+      <c r="AY117">
+        <v>16</v>
+      </c>
+      <c r="AZ117">
+        <v>4</v>
+      </c>
+      <c r="BA117">
+        <v>10</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>1.48</v>
+      </c>
+      <c r="BE117">
+        <v>6.75</v>
+      </c>
+      <c r="BF117">
+        <v>3.4</v>
+      </c>
+      <c r="BG117">
+        <v>1.29</v>
+      </c>
+      <c r="BH117">
+        <v>3.14</v>
+      </c>
+      <c r="BI117">
+        <v>1.54</v>
+      </c>
+      <c r="BJ117">
+        <v>2.25</v>
+      </c>
+      <c r="BK117">
+        <v>1.93</v>
+      </c>
+      <c r="BL117">
+        <v>1.74</v>
+      </c>
+      <c r="BM117">
+        <v>2.54</v>
+      </c>
+      <c r="BN117">
+        <v>1.43</v>
+      </c>
+      <c r="BO117">
+        <v>3.48</v>
+      </c>
+      <c r="BP117">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['31', '88']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['11', '72']</t>
+  </si>
+  <si>
+    <t>['62', '90']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -680,6 +692,12 @@
   </si>
   <si>
     <t>['5', '43']</t>
+  </si>
+  <si>
+    <t>['57', '76']</t>
+  </si>
+  <si>
+    <t>['29', '40', '45+2', '79']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1318,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1712,7 +1730,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1790,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1999,7 +2017,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2124,7 +2142,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2202,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2330,7 +2348,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2411,7 +2429,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2536,7 +2554,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2614,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
         <v>1.89</v>
@@ -3026,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10">
         <v>1.63</v>
@@ -3154,7 +3172,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3360,7 +3378,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3566,7 +3584,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4056,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4184,7 +4202,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4262,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4390,7 +4408,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4596,7 +4614,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4677,7 +4695,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4802,7 +4820,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5086,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5214,7 +5232,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5420,7 +5438,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5501,7 +5519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5704,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -6038,7 +6056,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6116,7 +6134,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1.89</v>
@@ -6450,7 +6468,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6528,7 +6546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6656,7 +6674,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6862,7 +6880,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7068,7 +7086,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7149,7 +7167,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7274,7 +7292,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7480,7 +7498,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7558,10 +7576,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7892,7 +7910,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7973,7 +7991,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ34">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8510,7 +8528,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8794,7 +8812,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -8922,7 +8940,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9003,7 +9021,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ39">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9128,7 +9146,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9206,7 +9224,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9334,7 +9352,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9540,7 +9558,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9618,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9746,7 +9764,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9824,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1.64</v>
@@ -9952,7 +9970,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10030,7 +10048,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ44">
         <v>1.89</v>
@@ -10158,7 +10176,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10364,7 +10382,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10570,7 +10588,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10854,10 +10872,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11060,10 +11078,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11394,7 +11412,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11600,7 +11618,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11806,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11884,7 +11902,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>0.89</v>
@@ -12012,7 +12030,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12093,7 +12111,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ54">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12424,7 +12442,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12630,7 +12648,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12708,10 +12726,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12836,7 +12854,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13042,7 +13060,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13248,7 +13266,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13660,7 +13678,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13866,7 +13884,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13944,7 +13962,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14072,7 +14090,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14153,7 +14171,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14278,7 +14296,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14356,7 +14374,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14690,7 +14708,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14768,10 +14786,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14974,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15308,7 +15326,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15386,7 +15404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ70">
         <v>1.64</v>
@@ -15926,7 +15944,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16007,7 +16025,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16338,7 +16356,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16416,7 +16434,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>1.63</v>
@@ -16544,7 +16562,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16625,7 +16643,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17037,7 +17055,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17162,7 +17180,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17240,7 +17258,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ79">
         <v>1.64</v>
@@ -17652,7 +17670,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ81">
         <v>1.33</v>
@@ -17780,7 +17798,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17986,7 +18004,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18476,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18604,7 +18622,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18682,10 +18700,10 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
+        <v>1.4</v>
+      </c>
+      <c r="AQ86">
         <v>1.44</v>
-      </c>
-      <c r="AQ86">
-        <v>1.63</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -19016,7 +19034,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19097,7 +19115,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19222,7 +19240,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19506,7 +19524,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90">
         <v>1.5</v>
@@ -19840,7 +19858,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19921,7 +19939,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20046,7 +20064,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20458,7 +20476,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20870,7 +20888,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21154,7 +21172,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21282,7 +21300,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21488,7 +21506,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21569,7 +21587,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21900,7 +21918,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22184,7 +22202,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103">
         <v>1.89</v>
@@ -22390,7 +22408,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>0.89</v>
@@ -22596,7 +22614,7 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22805,7 +22823,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23136,7 +23154,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23214,7 +23232,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23342,7 +23360,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23626,10 +23644,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ110">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23754,7 +23772,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23960,7 +23978,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24372,7 +24390,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24578,7 +24596,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24784,7 +24802,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24990,7 +25008,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25147,6 +25165,830 @@
       </c>
       <c r="BP117">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7332473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>156</v>
+      </c>
+      <c r="P118" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q118">
+        <v>3.22</v>
+      </c>
+      <c r="R118">
+        <v>1.94</v>
+      </c>
+      <c r="S118">
+        <v>2.92</v>
+      </c>
+      <c r="T118">
+        <v>1.45</v>
+      </c>
+      <c r="U118">
+        <v>2.66</v>
+      </c>
+      <c r="V118">
+        <v>3.29</v>
+      </c>
+      <c r="W118">
+        <v>1.31</v>
+      </c>
+      <c r="X118">
+        <v>8.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>2.85</v>
+      </c>
+      <c r="AA118">
+        <v>3.15</v>
+      </c>
+      <c r="AB118">
+        <v>2.5</v>
+      </c>
+      <c r="AC118">
+        <v>1.04</v>
+      </c>
+      <c r="AD118">
+        <v>7.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.36</v>
+      </c>
+      <c r="AF118">
+        <v>2.78</v>
+      </c>
+      <c r="AG118">
+        <v>2.23</v>
+      </c>
+      <c r="AH118">
+        <v>1.62</v>
+      </c>
+      <c r="AI118">
+        <v>1.83</v>
+      </c>
+      <c r="AJ118">
+        <v>1.8</v>
+      </c>
+      <c r="AK118">
+        <v>1.43</v>
+      </c>
+      <c r="AL118">
+        <v>1.27</v>
+      </c>
+      <c r="AM118">
+        <v>1.33</v>
+      </c>
+      <c r="AN118">
+        <v>1.22</v>
+      </c>
+      <c r="AO118">
+        <v>1.88</v>
+      </c>
+      <c r="AP118">
+        <v>1.1</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.45</v>
+      </c>
+      <c r="AS118">
+        <v>1.38</v>
+      </c>
+      <c r="AT118">
+        <v>2.83</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>10</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>16</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>8</v>
+      </c>
+      <c r="BC118">
+        <v>12</v>
+      </c>
+      <c r="BD118">
+        <v>1.97</v>
+      </c>
+      <c r="BE118">
+        <v>6.05</v>
+      </c>
+      <c r="BF118">
+        <v>2.25</v>
+      </c>
+      <c r="BG118">
+        <v>1.39</v>
+      </c>
+      <c r="BH118">
+        <v>2.67</v>
+      </c>
+      <c r="BI118">
+        <v>1.85</v>
+      </c>
+      <c r="BJ118">
+        <v>1.95</v>
+      </c>
+      <c r="BK118">
+        <v>2.21</v>
+      </c>
+      <c r="BL118">
+        <v>1.56</v>
+      </c>
+      <c r="BM118">
+        <v>2.98</v>
+      </c>
+      <c r="BN118">
+        <v>1.32</v>
+      </c>
+      <c r="BO118">
+        <v>3.6</v>
+      </c>
+      <c r="BP118">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7332472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>157</v>
+      </c>
+      <c r="P119" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q119">
+        <v>2.01</v>
+      </c>
+      <c r="R119">
+        <v>2.08</v>
+      </c>
+      <c r="S119">
+        <v>5.22</v>
+      </c>
+      <c r="T119">
+        <v>1.38</v>
+      </c>
+      <c r="U119">
+        <v>2.93</v>
+      </c>
+      <c r="V119">
+        <v>2.95</v>
+      </c>
+      <c r="W119">
+        <v>1.38</v>
+      </c>
+      <c r="X119">
+        <v>7.3</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>1.45</v>
+      </c>
+      <c r="AA119">
+        <v>4.35</v>
+      </c>
+      <c r="AB119">
+        <v>6.5</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>8.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.3</v>
+      </c>
+      <c r="AF119">
+        <v>3.3</v>
+      </c>
+      <c r="AG119">
+        <v>1.94</v>
+      </c>
+      <c r="AH119">
+        <v>1.81</v>
+      </c>
+      <c r="AI119">
+        <v>2.05</v>
+      </c>
+      <c r="AJ119">
+        <v>1.65</v>
+      </c>
+      <c r="AK119">
+        <v>1.05</v>
+      </c>
+      <c r="AL119">
+        <v>1.16</v>
+      </c>
+      <c r="AM119">
+        <v>2.37</v>
+      </c>
+      <c r="AN119">
+        <v>1.44</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
+        <v>1.4</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>1.8</v>
+      </c>
+      <c r="AS119">
+        <v>1.12</v>
+      </c>
+      <c r="AT119">
+        <v>2.92</v>
+      </c>
+      <c r="AU119">
+        <v>9</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>12</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>21</v>
+      </c>
+      <c r="AZ119">
+        <v>10</v>
+      </c>
+      <c r="BA119">
+        <v>9</v>
+      </c>
+      <c r="BB119">
+        <v>4</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>1.21</v>
+      </c>
+      <c r="BE119">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF119">
+        <v>5.85</v>
+      </c>
+      <c r="BG119">
+        <v>1.32</v>
+      </c>
+      <c r="BH119">
+        <v>2.98</v>
+      </c>
+      <c r="BI119">
+        <v>1.8</v>
+      </c>
+      <c r="BJ119">
+        <v>2</v>
+      </c>
+      <c r="BK119">
+        <v>2.01</v>
+      </c>
+      <c r="BL119">
+        <v>1.68</v>
+      </c>
+      <c r="BM119">
+        <v>2.67</v>
+      </c>
+      <c r="BN119">
+        <v>1.39</v>
+      </c>
+      <c r="BO119">
+        <v>3.74</v>
+      </c>
+      <c r="BP119">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7332474</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45474.3125</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" t="s">
+        <v>158</v>
+      </c>
+      <c r="P120" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q120">
+        <v>2.95</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>3.3</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.65</v>
+      </c>
+      <c r="V120">
+        <v>2.85</v>
+      </c>
+      <c r="W120">
+        <v>1.35</v>
+      </c>
+      <c r="X120">
+        <v>6.8</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>2.22</v>
+      </c>
+      <c r="AA120">
+        <v>3.2</v>
+      </c>
+      <c r="AB120">
+        <v>2.96</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>7.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.3</v>
+      </c>
+      <c r="AF120">
+        <v>3.2</v>
+      </c>
+      <c r="AG120">
+        <v>1.98</v>
+      </c>
+      <c r="AH120">
+        <v>1.68</v>
+      </c>
+      <c r="AI120">
+        <v>1.7</v>
+      </c>
+      <c r="AJ120">
+        <v>1.97</v>
+      </c>
+      <c r="AK120">
+        <v>1.28</v>
+      </c>
+      <c r="AL120">
+        <v>1.32</v>
+      </c>
+      <c r="AM120">
+        <v>1.5</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>2</v>
+      </c>
+      <c r="AP120">
+        <v>0.9</v>
+      </c>
+      <c r="AQ120">
+        <v>2.11</v>
+      </c>
+      <c r="AR120">
+        <v>1.66</v>
+      </c>
+      <c r="AS120">
+        <v>1.6</v>
+      </c>
+      <c r="AT120">
+        <v>3.26</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>2</v>
+      </c>
+      <c r="AY120">
+        <v>2</v>
+      </c>
+      <c r="AZ120">
+        <v>2</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>3</v>
+      </c>
+      <c r="BD120">
+        <v>1.97</v>
+      </c>
+      <c r="BE120">
+        <v>6.1</v>
+      </c>
+      <c r="BF120">
+        <v>2.24</v>
+      </c>
+      <c r="BG120">
+        <v>1.31</v>
+      </c>
+      <c r="BH120">
+        <v>3.04</v>
+      </c>
+      <c r="BI120">
+        <v>1.62</v>
+      </c>
+      <c r="BJ120">
+        <v>2.24</v>
+      </c>
+      <c r="BK120">
+        <v>2.05</v>
+      </c>
+      <c r="BL120">
+        <v>1.7</v>
+      </c>
+      <c r="BM120">
+        <v>2.6</v>
+      </c>
+      <c r="BN120">
+        <v>1.41</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7332475</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45474.3125</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>78</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>159</v>
+      </c>
+      <c r="P121" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q121">
+        <v>3.31</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>2.92</v>
+      </c>
+      <c r="T121">
+        <v>1.48</v>
+      </c>
+      <c r="U121">
+        <v>2.61</v>
+      </c>
+      <c r="V121">
+        <v>3.32</v>
+      </c>
+      <c r="W121">
+        <v>1.3</v>
+      </c>
+      <c r="X121">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <v>1.04</v>
+      </c>
+      <c r="Z121">
+        <v>2.84</v>
+      </c>
+      <c r="AA121">
+        <v>3.05</v>
+      </c>
+      <c r="AB121">
+        <v>2.39</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>7.2</v>
+      </c>
+      <c r="AE121">
+        <v>1.4</v>
+      </c>
+      <c r="AF121">
+        <v>2.64</v>
+      </c>
+      <c r="AG121">
+        <v>2.24</v>
+      </c>
+      <c r="AH121">
+        <v>1.53</v>
+      </c>
+      <c r="AI121">
+        <v>1.93</v>
+      </c>
+      <c r="AJ121">
+        <v>1.73</v>
+      </c>
+      <c r="AK121">
+        <v>1.42</v>
+      </c>
+      <c r="AL121">
+        <v>1.28</v>
+      </c>
+      <c r="AM121">
+        <v>1.32</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>1.63</v>
+      </c>
+      <c r="AP121">
+        <v>1.64</v>
+      </c>
+      <c r="AQ121">
+        <v>1.44</v>
+      </c>
+      <c r="AR121">
+        <v>1.57</v>
+      </c>
+      <c r="AS121">
+        <v>1.54</v>
+      </c>
+      <c r="AT121">
+        <v>3.11</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>1</v>
+      </c>
+      <c r="AX121">
+        <v>4</v>
+      </c>
+      <c r="AY121">
+        <v>4</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>1</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>3</v>
+      </c>
+      <c r="BD121">
+        <v>2.17</v>
+      </c>
+      <c r="BE121">
+        <v>6.1</v>
+      </c>
+      <c r="BF121">
+        <v>2.03</v>
+      </c>
+      <c r="BG121">
+        <v>1.38</v>
+      </c>
+      <c r="BH121">
+        <v>2.71</v>
+      </c>
+      <c r="BI121">
+        <v>1.82</v>
+      </c>
+      <c r="BJ121">
+        <v>1.98</v>
+      </c>
+      <c r="BK121">
+        <v>2.18</v>
+      </c>
+      <c r="BL121">
+        <v>1.67</v>
+      </c>
+      <c r="BM121">
+        <v>2.93</v>
+      </c>
+      <c r="BN121">
+        <v>1.33</v>
+      </c>
+      <c r="BO121">
+        <v>3.6</v>
+      </c>
+      <c r="BP121">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -25719,31 +25719,31 @@
         <v>3.26</v>
       </c>
       <c r="AU120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW120">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY120">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AZ120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA120">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC120">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BD120">
         <v>1.97</v>
@@ -25925,31 +25925,31 @@
         <v>3.11</v>
       </c>
       <c r="AU121">
+        <v>7</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
         <v>3</v>
       </c>
-      <c r="AV121">
-        <v>4</v>
-      </c>
-      <c r="AW121">
-        <v>1</v>
-      </c>
       <c r="AX121">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AY121">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ121">
+        <v>21</v>
+      </c>
+      <c r="BA121">
+        <v>1</v>
+      </c>
+      <c r="BB121">
+        <v>7</v>
+      </c>
+      <c r="BC121">
         <v>8</v>
-      </c>
-      <c r="BA121">
-        <v>1</v>
-      </c>
-      <c r="BB121">
-        <v>2</v>
-      </c>
-      <c r="BC121">
-        <v>3</v>
       </c>
       <c r="BD121">
         <v>2.17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,24 @@
     <t>['62', '90']</t>
   </si>
   <si>
+    <t>['45+3', '79', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '78']</t>
+  </si>
+  <si>
+    <t>['51', '79']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['66', '70', '90+3']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -698,6 +716,21 @@
   </si>
   <si>
     <t>['29', '40', '45+2', '79']</t>
+  </si>
+  <si>
+    <t>['25', '30', '73']</t>
+  </si>
+  <si>
+    <t>['6', '62']</t>
+  </si>
+  <si>
+    <t>['27', '64', '71']</t>
+  </si>
+  <si>
+    <t>['5', '79']</t>
+  </si>
+  <si>
+    <t>['17', '50', '55', '86']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1351,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1396,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1602,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1730,7 +1763,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1811,7 +1844,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2014,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2142,7 +2175,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2223,7 +2256,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2348,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2426,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2554,7 +2587,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3047,7 +3080,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3172,7 +3205,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3378,7 +3411,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3584,7 +3617,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3662,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4077,7 +4110,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4202,7 +4235,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4283,7 +4316,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4408,7 +4441,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4486,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17">
         <v>1.64</v>
@@ -4614,7 +4647,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4692,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4820,7 +4853,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4898,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5232,7 +5265,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5310,7 +5343,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5438,7 +5471,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5725,7 +5758,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -5931,7 +5964,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6056,7 +6089,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6340,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6468,7 +6501,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6674,7 +6707,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6880,7 +6913,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6961,7 +6994,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ29">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -7086,7 +7119,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7164,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7292,7 +7325,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7370,7 +7403,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7498,7 +7531,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7579,7 +7612,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7782,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
         <v>1.64</v>
@@ -7910,7 +7943,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7988,10 +8021,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8194,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8400,10 +8433,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8528,7 +8561,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8940,7 +8973,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9018,7 +9051,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9146,7 +9179,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9352,7 +9385,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9558,7 +9591,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9639,7 +9672,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9764,7 +9797,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9970,7 +10003,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10176,7 +10209,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10254,7 +10287,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10382,7 +10415,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10460,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10588,7 +10621,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10666,7 +10699,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -10875,7 +10908,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11081,7 +11114,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11287,7 +11320,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11412,7 +11445,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11490,7 +11523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11618,7 +11651,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11824,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11905,7 +11938,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -12030,7 +12063,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12314,10 +12347,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12442,7 +12475,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12520,10 +12553,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12648,7 +12681,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12854,7 +12887,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12932,7 +12965,7 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13060,7 +13093,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13141,7 +13174,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ59">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13266,7 +13299,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13678,7 +13711,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13756,10 +13789,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13884,7 +13917,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -13965,7 +13998,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14090,7 +14123,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14168,10 +14201,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ64">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14296,7 +14329,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14580,7 +14613,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -14708,7 +14741,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14789,7 +14822,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ67">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15326,7 +15359,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15610,10 +15643,10 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>2.08</v>
@@ -15816,7 +15849,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>1.89</v>
@@ -15944,7 +15977,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16025,7 +16058,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16228,7 +16261,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ74">
         <v>1.4</v>
@@ -16356,7 +16389,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16437,7 +16470,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16562,7 +16595,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16643,7 +16676,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -16846,7 +16879,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.89</v>
@@ -17180,7 +17213,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17798,7 +17831,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17879,7 +17912,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18004,7 +18037,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18082,10 +18115,10 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18288,7 +18321,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18622,7 +18655,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18703,7 +18736,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -18906,10 +18939,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19034,7 +19067,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19112,10 +19145,10 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ88">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19240,7 +19273,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19318,10 +19351,10 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19527,7 +19560,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19730,7 +19763,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ91">
         <v>1.89</v>
@@ -19858,7 +19891,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -19936,10 +19969,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20064,7 +20097,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20145,7 +20178,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.53</v>
@@ -20348,7 +20381,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20476,7 +20509,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20554,7 +20587,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ95">
         <v>1.33</v>
@@ -20760,7 +20793,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ96">
         <v>1.4</v>
@@ -20888,7 +20921,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -20969,7 +21002,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21300,7 +21333,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21381,7 +21414,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21506,7 +21539,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21584,7 +21617,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>2</v>
@@ -21790,7 +21823,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -21918,7 +21951,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -21996,10 +22029,10 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22411,7 +22444,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR104">
         <v>1.62</v>
@@ -22820,10 +22853,10 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ106">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23026,7 +23059,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>1.89</v>
@@ -23154,7 +23187,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23360,7 +23393,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23438,10 +23471,10 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23772,7 +23805,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23978,7 +24011,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24056,10 +24089,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24262,7 +24295,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>1.4</v>
@@ -24390,7 +24423,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24596,7 +24629,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24677,7 +24710,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24802,7 +24835,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24880,10 +24913,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25008,7 +25041,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25086,7 +25119,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25214,7 +25247,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25420,7 +25453,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25626,7 +25659,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25707,7 +25740,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ120">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -25913,7 +25946,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -25989,6 +26022,1242 @@
       </c>
       <c r="BP121">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7332476</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122" t="s">
+        <v>160</v>
+      </c>
+      <c r="P122" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q122">
+        <v>3.65</v>
+      </c>
+      <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>3.25</v>
+      </c>
+      <c r="T122">
+        <v>1.57</v>
+      </c>
+      <c r="U122">
+        <v>2.25</v>
+      </c>
+      <c r="V122">
+        <v>3.55</v>
+      </c>
+      <c r="W122">
+        <v>1.25</v>
+      </c>
+      <c r="X122">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y122">
+        <v>1.03</v>
+      </c>
+      <c r="Z122">
+        <v>2.9</v>
+      </c>
+      <c r="AA122">
+        <v>2.9</v>
+      </c>
+      <c r="AB122">
+        <v>2.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.1</v>
+      </c>
+      <c r="AD122">
+        <v>6.25</v>
+      </c>
+      <c r="AE122">
+        <v>1.5</v>
+      </c>
+      <c r="AF122">
+        <v>2.5</v>
+      </c>
+      <c r="AG122">
+        <v>2.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.5</v>
+      </c>
+      <c r="AI122">
+        <v>1.95</v>
+      </c>
+      <c r="AJ122">
+        <v>1.7</v>
+      </c>
+      <c r="AK122">
+        <v>1.48</v>
+      </c>
+      <c r="AL122">
+        <v>1.33</v>
+      </c>
+      <c r="AM122">
+        <v>1.38</v>
+      </c>
+      <c r="AN122">
+        <v>1.57</v>
+      </c>
+      <c r="AO122">
+        <v>1.5</v>
+      </c>
+      <c r="AP122">
+        <v>1.5</v>
+      </c>
+      <c r="AQ122">
+        <v>1.44</v>
+      </c>
+      <c r="AR122">
+        <v>1.36</v>
+      </c>
+      <c r="AS122">
+        <v>1.36</v>
+      </c>
+      <c r="AT122">
+        <v>2.72</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>11</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>1</v>
+      </c>
+      <c r="BC122">
+        <v>8</v>
+      </c>
+      <c r="BD122">
+        <v>2.05</v>
+      </c>
+      <c r="BE122">
+        <v>5.85</v>
+      </c>
+      <c r="BF122">
+        <v>2.18</v>
+      </c>
+      <c r="BG122">
+        <v>1.55</v>
+      </c>
+      <c r="BH122">
+        <v>2.23</v>
+      </c>
+      <c r="BI122">
+        <v>1.98</v>
+      </c>
+      <c r="BJ122">
+        <v>1.82</v>
+      </c>
+      <c r="BK122">
+        <v>2.64</v>
+      </c>
+      <c r="BL122">
+        <v>1.4</v>
+      </c>
+      <c r="BM122">
+        <v>3.74</v>
+      </c>
+      <c r="BN122">
+        <v>1.21</v>
+      </c>
+      <c r="BO122">
+        <v>4.75</v>
+      </c>
+      <c r="BP122">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7332477</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45479.3125</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>161</v>
+      </c>
+      <c r="P123" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q123">
+        <v>2.46</v>
+      </c>
+      <c r="R123">
+        <v>2.02</v>
+      </c>
+      <c r="S123">
+        <v>4.65</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.14</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>1.91</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>3.8</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>7.7</v>
+      </c>
+      <c r="AE123">
+        <v>1.38</v>
+      </c>
+      <c r="AF123">
+        <v>2.9</v>
+      </c>
+      <c r="AG123">
+        <v>2.1</v>
+      </c>
+      <c r="AH123">
+        <v>1.65</v>
+      </c>
+      <c r="AI123">
+        <v>1.93</v>
+      </c>
+      <c r="AJ123">
+        <v>1.74</v>
+      </c>
+      <c r="AK123">
+        <v>1.21</v>
+      </c>
+      <c r="AL123">
+        <v>1.28</v>
+      </c>
+      <c r="AM123">
+        <v>1.82</v>
+      </c>
+      <c r="AN123">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO123">
+        <v>1.63</v>
+      </c>
+      <c r="AP123">
+        <v>0.6</v>
+      </c>
+      <c r="AQ123">
+        <v>1.56</v>
+      </c>
+      <c r="AR123">
+        <v>1.84</v>
+      </c>
+      <c r="AS123">
+        <v>1.36</v>
+      </c>
+      <c r="AT123">
+        <v>3.2</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>10</v>
+      </c>
+      <c r="AX123">
+        <v>7</v>
+      </c>
+      <c r="AY123">
+        <v>16</v>
+      </c>
+      <c r="AZ123">
+        <v>13</v>
+      </c>
+      <c r="BA123">
+        <v>8</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.45</v>
+      </c>
+      <c r="BE123">
+        <v>6.85</v>
+      </c>
+      <c r="BF123">
+        <v>3.54</v>
+      </c>
+      <c r="BG123">
+        <v>1.32</v>
+      </c>
+      <c r="BH123">
+        <v>2.98</v>
+      </c>
+      <c r="BI123">
+        <v>1.58</v>
+      </c>
+      <c r="BJ123">
+        <v>2.17</v>
+      </c>
+      <c r="BK123">
+        <v>2</v>
+      </c>
+      <c r="BL123">
+        <v>1.69</v>
+      </c>
+      <c r="BM123">
+        <v>2.64</v>
+      </c>
+      <c r="BN123">
+        <v>1.4</v>
+      </c>
+      <c r="BO123">
+        <v>3.65</v>
+      </c>
+      <c r="BP123">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7332478</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>79</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>162</v>
+      </c>
+      <c r="P124" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q124">
+        <v>3.7</v>
+      </c>
+      <c r="R124">
+        <v>1.92</v>
+      </c>
+      <c r="S124">
+        <v>3.08</v>
+      </c>
+      <c r="T124">
+        <v>1.52</v>
+      </c>
+      <c r="U124">
+        <v>2.43</v>
+      </c>
+      <c r="V124">
+        <v>3.46</v>
+      </c>
+      <c r="W124">
+        <v>1.28</v>
+      </c>
+      <c r="X124">
+        <v>9.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.04</v>
+      </c>
+      <c r="Z124">
+        <v>3</v>
+      </c>
+      <c r="AA124">
+        <v>2.95</v>
+      </c>
+      <c r="AB124">
+        <v>2.2</v>
+      </c>
+      <c r="AC124">
+        <v>1.06</v>
+      </c>
+      <c r="AD124">
+        <v>6.8</v>
+      </c>
+      <c r="AE124">
+        <v>1.43</v>
+      </c>
+      <c r="AF124">
+        <v>2.54</v>
+      </c>
+      <c r="AG124">
+        <v>2.45</v>
+      </c>
+      <c r="AH124">
+        <v>1.52</v>
+      </c>
+      <c r="AI124">
+        <v>1.98</v>
+      </c>
+      <c r="AJ124">
+        <v>1.7</v>
+      </c>
+      <c r="AK124">
+        <v>1.5</v>
+      </c>
+      <c r="AL124">
+        <v>1.33</v>
+      </c>
+      <c r="AM124">
+        <v>1.35</v>
+      </c>
+      <c r="AN124">
+        <v>1.38</v>
+      </c>
+      <c r="AO124">
+        <v>1.44</v>
+      </c>
+      <c r="AP124">
+        <v>1.22</v>
+      </c>
+      <c r="AQ124">
+        <v>1.6</v>
+      </c>
+      <c r="AR124">
+        <v>1.22</v>
+      </c>
+      <c r="AS124">
+        <v>1.65</v>
+      </c>
+      <c r="AT124">
+        <v>2.87</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>10</v>
+      </c>
+      <c r="AZ124">
+        <v>7</v>
+      </c>
+      <c r="BA124">
+        <v>9</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>12</v>
+      </c>
+      <c r="BD124">
+        <v>2.71</v>
+      </c>
+      <c r="BE124">
+        <v>6.1</v>
+      </c>
+      <c r="BF124">
+        <v>1.71</v>
+      </c>
+      <c r="BG124">
+        <v>1.44</v>
+      </c>
+      <c r="BH124">
+        <v>2.51</v>
+      </c>
+      <c r="BI124">
+        <v>1.85</v>
+      </c>
+      <c r="BJ124">
+        <v>1.95</v>
+      </c>
+      <c r="BK124">
+        <v>2.32</v>
+      </c>
+      <c r="BL124">
+        <v>1.51</v>
+      </c>
+      <c r="BM124">
+        <v>3.2</v>
+      </c>
+      <c r="BN124">
+        <v>1.28</v>
+      </c>
+      <c r="BO124">
+        <v>4</v>
+      </c>
+      <c r="BP124">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7332479</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>163</v>
+      </c>
+      <c r="P125" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q125">
+        <v>4.25</v>
+      </c>
+      <c r="R125">
+        <v>2.09</v>
+      </c>
+      <c r="S125">
+        <v>2.48</v>
+      </c>
+      <c r="T125">
+        <v>1.41</v>
+      </c>
+      <c r="U125">
+        <v>2.77</v>
+      </c>
+      <c r="V125">
+        <v>2.9</v>
+      </c>
+      <c r="W125">
+        <v>1.38</v>
+      </c>
+      <c r="X125">
+        <v>7.4</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>3.4</v>
+      </c>
+      <c r="AA125">
+        <v>3.25</v>
+      </c>
+      <c r="AB125">
+        <v>1.9</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE125">
+        <v>1.29</v>
+      </c>
+      <c r="AF125">
+        <v>3.14</v>
+      </c>
+      <c r="AG125">
+        <v>1.96</v>
+      </c>
+      <c r="AH125">
+        <v>1.8</v>
+      </c>
+      <c r="AI125">
+        <v>1.79</v>
+      </c>
+      <c r="AJ125">
+        <v>1.87</v>
+      </c>
+      <c r="AK125">
+        <v>1.78</v>
+      </c>
+      <c r="AL125">
+        <v>1.26</v>
+      </c>
+      <c r="AM125">
+        <v>1.24</v>
+      </c>
+      <c r="AN125">
+        <v>0.78</v>
+      </c>
+      <c r="AO125">
+        <v>2.11</v>
+      </c>
+      <c r="AP125">
+        <v>0.7</v>
+      </c>
+      <c r="AQ125">
+        <v>2.2</v>
+      </c>
+      <c r="AR125">
+        <v>1.13</v>
+      </c>
+      <c r="AS125">
+        <v>1.56</v>
+      </c>
+      <c r="AT125">
+        <v>2.69</v>
+      </c>
+      <c r="AU125">
+        <v>3</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>7</v>
+      </c>
+      <c r="AZ125">
+        <v>8</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>3</v>
+      </c>
+      <c r="BC125">
+        <v>7</v>
+      </c>
+      <c r="BD125">
+        <v>2.35</v>
+      </c>
+      <c r="BE125">
+        <v>6</v>
+      </c>
+      <c r="BF125">
+        <v>1.9</v>
+      </c>
+      <c r="BG125">
+        <v>1.38</v>
+      </c>
+      <c r="BH125">
+        <v>2.71</v>
+      </c>
+      <c r="BI125">
+        <v>1.7</v>
+      </c>
+      <c r="BJ125">
+        <v>1.98</v>
+      </c>
+      <c r="BK125">
+        <v>2.19</v>
+      </c>
+      <c r="BL125">
+        <v>1.57</v>
+      </c>
+      <c r="BM125">
+        <v>2.98</v>
+      </c>
+      <c r="BN125">
+        <v>1.32</v>
+      </c>
+      <c r="BO125">
+        <v>3.6</v>
+      </c>
+      <c r="BP125">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7332480</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45481.3125</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>164</v>
+      </c>
+      <c r="P126" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q126">
+        <v>2.2</v>
+      </c>
+      <c r="R126">
+        <v>2.15</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>1.4</v>
+      </c>
+      <c r="U126">
+        <v>2.81</v>
+      </c>
+      <c r="V126">
+        <v>2.85</v>
+      </c>
+      <c r="W126">
+        <v>1.39</v>
+      </c>
+      <c r="X126">
+        <v>7.2</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>1.6</v>
+      </c>
+      <c r="AA126">
+        <v>3.65</v>
+      </c>
+      <c r="AB126">
+        <v>5</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>8.9</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.3</v>
+      </c>
+      <c r="AG126">
+        <v>1.9</v>
+      </c>
+      <c r="AH126">
+        <v>1.83</v>
+      </c>
+      <c r="AI126">
+        <v>1.9</v>
+      </c>
+      <c r="AJ126">
+        <v>1.83</v>
+      </c>
+      <c r="AK126">
+        <v>1.07</v>
+      </c>
+      <c r="AL126">
+        <v>1.22</v>
+      </c>
+      <c r="AM126">
+        <v>2.2</v>
+      </c>
+      <c r="AN126">
+        <v>2.11</v>
+      </c>
+      <c r="AO126">
+        <v>2</v>
+      </c>
+      <c r="AP126">
+        <v>2.2</v>
+      </c>
+      <c r="AQ126">
+        <v>1.8</v>
+      </c>
+      <c r="AR126">
+        <v>1.85</v>
+      </c>
+      <c r="AS126">
+        <v>1.3</v>
+      </c>
+      <c r="AT126">
+        <v>3.15</v>
+      </c>
+      <c r="AU126">
+        <v>2</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>6</v>
+      </c>
+      <c r="AZ126">
+        <v>7</v>
+      </c>
+      <c r="BA126">
+        <v>1</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>1</v>
+      </c>
+      <c r="BD126">
+        <v>1.34</v>
+      </c>
+      <c r="BE126">
+        <v>7.2</v>
+      </c>
+      <c r="BF126">
+        <v>4.3</v>
+      </c>
+      <c r="BG126">
+        <v>1.33</v>
+      </c>
+      <c r="BH126">
+        <v>2.91</v>
+      </c>
+      <c r="BI126">
+        <v>1.68</v>
+      </c>
+      <c r="BJ126">
+        <v>2.17</v>
+      </c>
+      <c r="BK126">
+        <v>2.12</v>
+      </c>
+      <c r="BL126">
+        <v>1.71</v>
+      </c>
+      <c r="BM126">
+        <v>2.75</v>
+      </c>
+      <c r="BN126">
+        <v>1.37</v>
+      </c>
+      <c r="BO126">
+        <v>3.86</v>
+      </c>
+      <c r="BP126">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7332481</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45481.3125</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>165</v>
+      </c>
+      <c r="P127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q127">
+        <v>3.1</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>3.3</v>
+      </c>
+      <c r="T127">
+        <v>1.45</v>
+      </c>
+      <c r="U127">
+        <v>2.6</v>
+      </c>
+      <c r="V127">
+        <v>2.99</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>7.7</v>
+      </c>
+      <c r="Y127">
+        <v>1.06</v>
+      </c>
+      <c r="Z127">
+        <v>2.4</v>
+      </c>
+      <c r="AA127">
+        <v>3</v>
+      </c>
+      <c r="AB127">
+        <v>2.8</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE127">
+        <v>1.33</v>
+      </c>
+      <c r="AF127">
+        <v>3.1</v>
+      </c>
+      <c r="AG127">
+        <v>2.05</v>
+      </c>
+      <c r="AH127">
+        <v>1.72</v>
+      </c>
+      <c r="AI127">
+        <v>1.8</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.44</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.5</v>
+      </c>
+      <c r="AN127">
+        <v>1.11</v>
+      </c>
+      <c r="AO127">
+        <v>0.89</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+      <c r="AQ127">
+        <v>1.1</v>
+      </c>
+      <c r="AR127">
+        <v>1.57</v>
+      </c>
+      <c r="AS127">
+        <v>1.61</v>
+      </c>
+      <c r="AT127">
+        <v>3.18</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>6</v>
+      </c>
+      <c r="AZ127">
+        <v>7</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>2.14</v>
+      </c>
+      <c r="BE127">
+        <v>6.25</v>
+      </c>
+      <c r="BF127">
+        <v>2.04</v>
+      </c>
+      <c r="BG127">
+        <v>1.25</v>
+      </c>
+      <c r="BH127">
+        <v>3.42</v>
+      </c>
+      <c r="BI127">
+        <v>1.53</v>
+      </c>
+      <c r="BJ127">
+        <v>2.42</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>1.8</v>
+      </c>
+      <c r="BM127">
+        <v>2.38</v>
+      </c>
+      <c r="BN127">
+        <v>1.55</v>
+      </c>
+      <c r="BO127">
+        <v>3.2</v>
+      </c>
+      <c r="BP127">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -26988,31 +26988,31 @@
         <v>3.15</v>
       </c>
       <c r="AU126">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>16</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
         <v>4</v>
       </c>
-      <c r="AX126">
-        <v>4</v>
-      </c>
-      <c r="AY126">
+      <c r="BC126">
         <v>6</v>
-      </c>
-      <c r="AZ126">
-        <v>7</v>
-      </c>
-      <c r="BA126">
-        <v>1</v>
-      </c>
-      <c r="BB126">
-        <v>0</v>
-      </c>
-      <c r="BC126">
-        <v>1</v>
       </c>
       <c r="BD126">
         <v>1.34</v>
@@ -27194,31 +27194,31 @@
         <v>3.18</v>
       </c>
       <c r="AU127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV127">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW127">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX127">
         <v>3</v>
       </c>
       <c r="AY127">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ127">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA127">
+        <v>11</v>
+      </c>
+      <c r="BB127">
         <v>5</v>
       </c>
-      <c r="BB127">
-        <v>2</v>
-      </c>
       <c r="BC127">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD127">
         <v>2.14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,15 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['27', '35', '45+1']</t>
+  </si>
+  <si>
+    <t>['45', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -731,6 +740,12 @@
   </si>
   <si>
     <t>['17', '50', '55', '86']</t>
+  </si>
+  <si>
+    <t>['82', '90+7']</t>
+  </si>
+  <si>
+    <t>['79', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1366,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1763,7 +1778,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2047,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>2.2</v>
@@ -2175,7 +2190,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2256,7 +2271,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2381,7 +2396,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2587,7 +2602,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2871,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -3205,7 +3220,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3286,7 +3301,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3411,7 +3426,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3489,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3617,7 +3632,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3698,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3901,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4235,7 +4250,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4316,7 +4331,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4441,7 +4456,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4647,7 +4662,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4725,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4853,7 +4868,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4934,7 +4949,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5265,7 +5280,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5471,7 +5486,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5961,7 +5976,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1.8</v>
@@ -6089,7 +6104,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6376,7 +6391,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6501,7 +6516,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6707,7 +6722,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6913,7 +6928,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6991,7 +7006,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ29">
         <v>1.1</v>
@@ -7119,7 +7134,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7325,7 +7340,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7403,10 +7418,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7531,7 +7546,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7815,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>1.64</v>
@@ -7943,7 +7958,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8436,7 +8451,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8561,7 +8576,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8639,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
@@ -8973,7 +8988,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9179,7 +9194,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9385,7 +9400,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9463,10 +9478,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9591,7 +9606,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9797,7 +9812,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10003,7 +10018,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10209,7 +10224,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10415,7 +10430,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10496,7 +10511,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10621,7 +10636,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11320,7 +11335,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11445,7 +11460,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11526,7 +11541,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11651,7 +11666,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11729,7 +11744,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ52">
         <v>1.64</v>
@@ -11857,7 +11872,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12063,7 +12078,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12141,7 +12156,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12347,7 +12362,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12475,7 +12490,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12681,7 +12696,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12887,7 +12902,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12968,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13093,7 +13108,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13171,7 +13186,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13299,7 +13314,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13377,10 +13392,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13711,7 +13726,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13792,7 +13807,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13917,7 +13932,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14123,7 +14138,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14329,7 +14344,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14741,7 +14756,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15028,7 +15043,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15231,7 +15246,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15359,7 +15374,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15849,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>1.89</v>
@@ -15977,7 +15992,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16055,7 +16070,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16389,7 +16404,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16595,7 +16610,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17085,7 +17100,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17213,7 +17228,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17497,7 +17512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17706,7 +17721,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17831,7 +17846,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18037,7 +18052,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18530,7 +18545,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18655,7 +18670,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18939,7 +18954,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>1.1</v>
@@ -19067,7 +19082,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19273,7 +19288,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19560,7 +19575,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19891,7 +19906,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20097,7 +20112,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20509,7 +20524,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20590,7 +20605,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20921,7 +20936,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -20999,10 +21014,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21208,7 +21223,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21333,7 +21348,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21411,7 +21426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ99">
         <v>1.56</v>
@@ -21539,7 +21554,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21826,7 +21841,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -21951,7 +21966,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22029,7 +22044,7 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102">
         <v>1.8</v>
@@ -23187,7 +23202,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23393,7 +23408,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23805,7 +23820,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23883,10 +23898,10 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24011,7 +24026,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24092,7 +24107,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24423,7 +24438,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24504,7 +24519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24629,7 +24644,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24707,7 +24722,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ115">
         <v>1.56</v>
@@ -24835,7 +24850,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25041,7 +25056,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25247,7 +25262,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25453,7 +25468,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25534,7 +25549,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25659,7 +25674,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26071,7 +26086,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26152,7 +26167,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26277,7 +26292,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26483,7 +26498,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26561,7 +26576,7 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
         <v>1.6</v>
@@ -26689,7 +26704,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27101,7 +27116,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27258,6 +27273,624 @@
       </c>
       <c r="BP127">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7332482</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45486.29166666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>166</v>
+      </c>
+      <c r="P128" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q128">
+        <v>3.11</v>
+      </c>
+      <c r="R128">
+        <v>2.21</v>
+      </c>
+      <c r="S128">
+        <v>3.5</v>
+      </c>
+      <c r="T128">
+        <v>1.39</v>
+      </c>
+      <c r="U128">
+        <v>2.97</v>
+      </c>
+      <c r="V128">
+        <v>2.95</v>
+      </c>
+      <c r="W128">
+        <v>1.39</v>
+      </c>
+      <c r="X128">
+        <v>6.95</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>2.4</v>
+      </c>
+      <c r="AA128">
+        <v>3.25</v>
+      </c>
+      <c r="AB128">
+        <v>2.75</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>7.8</v>
+      </c>
+      <c r="AE128">
+        <v>1.27</v>
+      </c>
+      <c r="AF128">
+        <v>3.4</v>
+      </c>
+      <c r="AG128">
+        <v>1.93</v>
+      </c>
+      <c r="AH128">
+        <v>1.81</v>
+      </c>
+      <c r="AI128">
+        <v>1.75</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.42</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.53</v>
+      </c>
+      <c r="AN128">
+        <v>1.44</v>
+      </c>
+      <c r="AO128">
+        <v>1.44</v>
+      </c>
+      <c r="AP128">
+        <v>1.6</v>
+      </c>
+      <c r="AQ128">
+        <v>1.3</v>
+      </c>
+      <c r="AR128">
+        <v>1.53</v>
+      </c>
+      <c r="AS128">
+        <v>1.34</v>
+      </c>
+      <c r="AT128">
+        <v>2.87</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>7</v>
+      </c>
+      <c r="AZ128">
+        <v>7</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.68</v>
+      </c>
+      <c r="BE128">
+        <v>6.15</v>
+      </c>
+      <c r="BF128">
+        <v>2.78</v>
+      </c>
+      <c r="BG128">
+        <v>1.48</v>
+      </c>
+      <c r="BH128">
+        <v>2.4</v>
+      </c>
+      <c r="BI128">
+        <v>1.84</v>
+      </c>
+      <c r="BJ128">
+        <v>1.82</v>
+      </c>
+      <c r="BK128">
+        <v>2.45</v>
+      </c>
+      <c r="BL128">
+        <v>1.46</v>
+      </c>
+      <c r="BM128">
+        <v>3.42</v>
+      </c>
+      <c r="BN128">
+        <v>1.25</v>
+      </c>
+      <c r="BO128">
+        <v>4.33</v>
+      </c>
+      <c r="BP128">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7332483</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45486.3125</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>70</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>167</v>
+      </c>
+      <c r="P129" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q129">
+        <v>2.77</v>
+      </c>
+      <c r="R129">
+        <v>2.03</v>
+      </c>
+      <c r="S129">
+        <v>4.8</v>
+      </c>
+      <c r="T129">
+        <v>1.51</v>
+      </c>
+      <c r="U129">
+        <v>2.48</v>
+      </c>
+      <c r="V129">
+        <v>3.46</v>
+      </c>
+      <c r="W129">
+        <v>1.28</v>
+      </c>
+      <c r="X129">
+        <v>9.6</v>
+      </c>
+      <c r="Y129">
+        <v>1.03</v>
+      </c>
+      <c r="Z129">
+        <v>2</v>
+      </c>
+      <c r="AA129">
+        <v>3.1</v>
+      </c>
+      <c r="AB129">
+        <v>3.6</v>
+      </c>
+      <c r="AC129">
+        <v>1.1</v>
+      </c>
+      <c r="AD129">
+        <v>5.8</v>
+      </c>
+      <c r="AE129">
+        <v>1.45</v>
+      </c>
+      <c r="AF129">
+        <v>2.5</v>
+      </c>
+      <c r="AG129">
+        <v>2.4</v>
+      </c>
+      <c r="AH129">
+        <v>1.5</v>
+      </c>
+      <c r="AI129">
+        <v>2.1</v>
+      </c>
+      <c r="AJ129">
+        <v>1.7</v>
+      </c>
+      <c r="AK129">
+        <v>1.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.75</v>
+      </c>
+      <c r="AN129">
+        <v>1.22</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>1.4</v>
+      </c>
+      <c r="AQ129">
+        <v>0.91</v>
+      </c>
+      <c r="AR129">
+        <v>1.28</v>
+      </c>
+      <c r="AS129">
+        <v>1.15</v>
+      </c>
+      <c r="AT129">
+        <v>2.43</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>1</v>
+      </c>
+      <c r="AY129">
+        <v>5</v>
+      </c>
+      <c r="AZ129">
+        <v>3</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>1</v>
+      </c>
+      <c r="BC129">
+        <v>3</v>
+      </c>
+      <c r="BD129">
+        <v>1.55</v>
+      </c>
+      <c r="BE129">
+        <v>6.3</v>
+      </c>
+      <c r="BF129">
+        <v>3.18</v>
+      </c>
+      <c r="BG129">
+        <v>1.48</v>
+      </c>
+      <c r="BH129">
+        <v>2.4</v>
+      </c>
+      <c r="BI129">
+        <v>1.86</v>
+      </c>
+      <c r="BJ129">
+        <v>1.8</v>
+      </c>
+      <c r="BK129">
+        <v>2.48</v>
+      </c>
+      <c r="BL129">
+        <v>1.45</v>
+      </c>
+      <c r="BM129">
+        <v>3.42</v>
+      </c>
+      <c r="BN129">
+        <v>1.25</v>
+      </c>
+      <c r="BO129">
+        <v>4.33</v>
+      </c>
+      <c r="BP129">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7332484</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45486.3125</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>80</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q130">
+        <v>4.9</v>
+      </c>
+      <c r="R130">
+        <v>2.15</v>
+      </c>
+      <c r="S130">
+        <v>2.25</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>2.8</v>
+      </c>
+      <c r="W130">
+        <v>1.38</v>
+      </c>
+      <c r="X130">
+        <v>7.75</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>4.33</v>
+      </c>
+      <c r="AA130">
+        <v>3.75</v>
+      </c>
+      <c r="AB130">
+        <v>1.67</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>11.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.3</v>
+      </c>
+      <c r="AG130">
+        <v>1.85</v>
+      </c>
+      <c r="AH130">
+        <v>1.85</v>
+      </c>
+      <c r="AI130">
+        <v>1.88</v>
+      </c>
+      <c r="AJ130">
+        <v>1.85</v>
+      </c>
+      <c r="AK130">
+        <v>2.05</v>
+      </c>
+      <c r="AL130">
+        <v>1.23</v>
+      </c>
+      <c r="AM130">
+        <v>1.18</v>
+      </c>
+      <c r="AN130">
+        <v>0.3</v>
+      </c>
+      <c r="AO130">
+        <v>1.33</v>
+      </c>
+      <c r="AP130">
+        <v>0.27</v>
+      </c>
+      <c r="AQ130">
+        <v>1.5</v>
+      </c>
+      <c r="AR130">
+        <v>1.3</v>
+      </c>
+      <c r="AS130">
+        <v>1.63</v>
+      </c>
+      <c r="AT130">
+        <v>2.93</v>
+      </c>
+      <c r="AU130">
+        <v>2</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>6</v>
+      </c>
+      <c r="AZ130">
+        <v>6</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>3.65</v>
+      </c>
+      <c r="BE130">
+        <v>6.9</v>
+      </c>
+      <c r="BF130">
+        <v>1.43</v>
+      </c>
+      <c r="BG130">
+        <v>1.32</v>
+      </c>
+      <c r="BH130">
+        <v>2.98</v>
+      </c>
+      <c r="BI130">
+        <v>1.6</v>
+      </c>
+      <c r="BJ130">
+        <v>2.14</v>
+      </c>
+      <c r="BK130">
+        <v>2.01</v>
+      </c>
+      <c r="BL130">
+        <v>1.68</v>
+      </c>
+      <c r="BM130">
+        <v>2.67</v>
+      </c>
+      <c r="BN130">
+        <v>1.39</v>
+      </c>
+      <c r="BO130">
+        <v>3.74</v>
+      </c>
+      <c r="BP130">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,13 +514,7 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['27', '35', '45+1']</t>
-  </si>
-  <si>
-    <t>['45', '90+3']</t>
-  </si>
-  <si>
-    <t>['45+3']</t>
+    <t>['47', '89', '90+4']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -742,10 +736,7 @@
     <t>['17', '50', '55', '86']</t>
   </si>
   <si>
-    <t>['82', '90+7']</t>
-  </si>
-  <si>
-    <t>['79', '90+2']</t>
+    <t>['45+4', '63']</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1357,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1650,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1778,7 +1769,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1856,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -2062,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
         <v>2.2</v>
@@ -2190,7 +2181,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2271,7 +2262,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2396,7 +2387,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2602,7 +2593,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2683,7 +2674,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2886,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3220,7 +3211,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3298,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
+        <v>1.5</v>
+      </c>
+      <c r="AQ11">
         <v>1.33</v>
-      </c>
-      <c r="AQ11">
-        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3426,7 +3417,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3504,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3632,7 +3623,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3713,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3916,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4122,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4250,7 +4241,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4331,7 +4322,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4456,7 +4447,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4537,7 +4528,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ17">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.92</v>
@@ -4662,7 +4653,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4740,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4868,7 +4859,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4949,7 +4940,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5280,7 +5271,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5361,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5486,7 +5477,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5564,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5770,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ23">
         <v>1.1</v>
@@ -5976,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
         <v>1.8</v>
@@ -6104,7 +6095,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6185,7 +6176,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6388,10 +6379,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6516,7 +6507,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6597,7 +6588,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6722,7 +6713,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6800,10 +6791,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6928,7 +6919,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7006,7 +6997,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ29">
         <v>1.1</v>
@@ -7134,7 +7125,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7340,7 +7331,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7418,10 +7409,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7546,7 +7537,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7830,10 +7821,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.05</v>
@@ -7958,7 +7949,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8242,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.56</v>
@@ -8451,7 +8442,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ36">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8576,7 +8567,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8654,10 +8645,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ37">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8988,7 +8979,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9194,7 +9185,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9272,10 +9263,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9400,7 +9391,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9478,10 +9469,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9606,7 +9597,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9812,7 +9803,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9893,7 +9884,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.95</v>
@@ -10018,7 +10009,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10096,10 +10087,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ44">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10224,7 +10215,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10430,7 +10421,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10508,10 +10499,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10636,7 +10627,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10717,7 +10708,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ47">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.04</v>
@@ -11332,10 +11323,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11460,7 +11451,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11541,7 +11532,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11666,7 +11657,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11744,10 +11735,10 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ52">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.73</v>
@@ -11872,7 +11863,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12078,7 +12069,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12156,7 +12147,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12362,7 +12353,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12490,7 +12481,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12696,7 +12687,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12902,7 +12893,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12983,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13108,7 +13099,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13186,7 +13177,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13314,7 +13305,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13392,10 +13383,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ60">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13598,7 +13589,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -13726,7 +13717,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13807,7 +13798,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13932,7 +13923,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14138,7 +14129,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14344,7 +14335,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14425,7 +14416,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14628,10 +14619,10 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14756,7 +14747,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14834,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>2.2</v>
@@ -15040,10 +15031,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15246,10 +15237,10 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15374,7 +15365,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15455,7 +15446,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ70">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.59</v>
@@ -15658,7 +15649,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.1</v>
@@ -15864,10 +15855,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15992,7 +15983,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16070,7 +16061,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16404,7 +16395,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16610,7 +16601,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16688,7 +16679,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>2.2</v>
@@ -16897,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17100,7 +17091,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17228,7 +17219,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17309,7 +17300,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.97</v>
@@ -17512,7 +17503,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17721,7 +17712,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17846,7 +17837,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17924,7 +17915,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1.56</v>
@@ -18052,7 +18043,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18339,7 +18330,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
         <v>1.36</v>
@@ -18545,7 +18536,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18670,7 +18661,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18954,7 +18945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>1.1</v>
@@ -19082,7 +19073,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19160,7 +19151,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>2.2</v>
@@ -19288,7 +19279,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19572,10 +19563,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19781,7 +19772,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ91">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19906,7 +19897,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20112,7 +20103,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20190,7 +20181,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.1</v>
@@ -20399,7 +20390,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -20524,7 +20515,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20605,7 +20596,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20808,7 +20799,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.4</v>
@@ -20936,7 +20927,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21014,10 +21005,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21223,7 +21214,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21348,7 +21339,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21426,7 +21417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>1.56</v>
@@ -21554,7 +21545,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21841,7 +21832,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -21966,7 +21957,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22044,7 +22035,7 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102">
         <v>1.8</v>
@@ -22253,7 +22244,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22665,7 +22656,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -22868,7 +22859,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>1.6</v>
@@ -23077,7 +23068,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23202,7 +23193,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23280,7 +23271,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23408,7 +23399,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23820,7 +23811,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23898,10 +23889,10 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24026,7 +24017,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24107,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24438,7 +24429,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24516,10 +24507,10 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24644,7 +24635,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24722,7 +24713,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AQ115">
         <v>1.56</v>
@@ -24850,7 +24841,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25056,7 +25047,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25137,7 +25128,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
         <v>1.84</v>
@@ -25262,7 +25253,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25340,7 +25331,7 @@
         <v>1.88</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ118">
         <v>2</v>
@@ -25468,7 +25459,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25549,7 +25540,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25674,7 +25665,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26086,7 +26077,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26167,7 +26158,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26292,7 +26283,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26498,7 +26489,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26576,7 +26567,7 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ124">
         <v>1.6</v>
@@ -26704,7 +26695,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26988,7 +26979,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>1.8</v>
@@ -27116,7 +27107,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27280,7 +27271,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7332482</v>
+        <v>7332485</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27289,196 +27280,196 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45486.29166666666</v>
+        <v>45487.29166666666</v>
       </c>
       <c r="F128">
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H128" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>104</v>
+      </c>
+      <c r="P128" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q128">
         <v>3</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>3</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>2</v>
-      </c>
-      <c r="N128">
-        <v>5</v>
-      </c>
-      <c r="O128" t="s">
-        <v>166</v>
-      </c>
-      <c r="P128" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q128">
-        <v>3.11</v>
-      </c>
       <c r="R128">
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T128">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="U128">
-        <v>2.97</v>
+        <v>2.36</v>
       </c>
       <c r="V128">
+        <v>3.54</v>
+      </c>
+      <c r="W128">
+        <v>1.27</v>
+      </c>
+      <c r="X128">
+        <v>9.6</v>
+      </c>
+      <c r="Y128">
+        <v>1.03</v>
+      </c>
+      <c r="Z128">
+        <v>2.15</v>
+      </c>
+      <c r="AA128">
         <v>2.95</v>
       </c>
-      <c r="W128">
-        <v>1.39</v>
-      </c>
-      <c r="X128">
-        <v>6.95</v>
-      </c>
-      <c r="Y128">
-        <v>1.08</v>
-      </c>
-      <c r="Z128">
-        <v>2.4</v>
-      </c>
-      <c r="AA128">
-        <v>3.25</v>
-      </c>
       <c r="AB128">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AD128">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="AE128">
+        <v>1.42</v>
+      </c>
+      <c r="AF128">
+        <v>2.6</v>
+      </c>
+      <c r="AG128">
+        <v>2.35</v>
+      </c>
+      <c r="AH128">
+        <v>1.53</v>
+      </c>
+      <c r="AI128">
+        <v>2.05</v>
+      </c>
+      <c r="AJ128">
+        <v>1.72</v>
+      </c>
+      <c r="AK128">
+        <v>1.22</v>
+      </c>
+      <c r="AL128">
+        <v>1.35</v>
+      </c>
+      <c r="AM128">
+        <v>1.55</v>
+      </c>
+      <c r="AN128">
+        <v>1.1</v>
+      </c>
+      <c r="AO128">
+        <v>1.64</v>
+      </c>
+      <c r="AP128">
         <v>1.27</v>
       </c>
-      <c r="AF128">
-        <v>3.4</v>
-      </c>
-      <c r="AG128">
-        <v>1.93</v>
-      </c>
-      <c r="AH128">
-        <v>1.81</v>
-      </c>
-      <c r="AI128">
-        <v>1.75</v>
-      </c>
-      <c r="AJ128">
-        <v>2</v>
-      </c>
-      <c r="AK128">
-        <v>1.42</v>
-      </c>
-      <c r="AL128">
-        <v>1.25</v>
-      </c>
-      <c r="AM128">
-        <v>1.53</v>
-      </c>
-      <c r="AN128">
-        <v>1.44</v>
-      </c>
-      <c r="AO128">
-        <v>1.44</v>
-      </c>
-      <c r="AP128">
-        <v>1.6</v>
-      </c>
       <c r="AQ128">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AT128">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="AU128">
         <v>5</v>
       </c>
       <c r="AV128">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>9</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
         <v>3</v>
       </c>
-      <c r="AY128">
-        <v>7</v>
-      </c>
-      <c r="AZ128">
-        <v>7</v>
-      </c>
-      <c r="BA128">
-        <v>3</v>
-      </c>
-      <c r="BB128">
-        <v>4</v>
-      </c>
       <c r="BC128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD128">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="BE128">
-        <v>6.15</v>
+        <v>5.95</v>
       </c>
       <c r="BF128">
-        <v>2.78</v>
+        <v>2.43</v>
       </c>
       <c r="BG128">
+        <v>1.57</v>
+      </c>
+      <c r="BH128">
+        <v>2.33</v>
+      </c>
+      <c r="BI128">
+        <v>1.99</v>
+      </c>
+      <c r="BJ128">
+        <v>1.81</v>
+      </c>
+      <c r="BK128">
+        <v>2.55</v>
+      </c>
+      <c r="BL128">
         <v>1.48</v>
       </c>
-      <c r="BH128">
-        <v>2.4</v>
-      </c>
-      <c r="BI128">
-        <v>1.84</v>
-      </c>
-      <c r="BJ128">
-        <v>1.82</v>
-      </c>
-      <c r="BK128">
-        <v>2.45</v>
-      </c>
-      <c r="BL128">
-        <v>1.46</v>
-      </c>
       <c r="BM128">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BN128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BO128">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="BP128">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27486,7 +27477,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7332483</v>
+        <v>7332486</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27495,196 +27486,196 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45486.3125</v>
+        <v>45487.29166666666</v>
       </c>
       <c r="F129">
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
         <v>1</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>88</v>
+      </c>
+      <c r="P129" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q129">
+        <v>2.98</v>
+      </c>
+      <c r="R129">
+        <v>2.01</v>
+      </c>
+      <c r="S129">
+        <v>3.52</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.65</v>
+      </c>
+      <c r="V129">
+        <v>3.1</v>
+      </c>
+      <c r="W129">
+        <v>1.34</v>
+      </c>
+      <c r="X129">
+        <v>8.1</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.25</v>
+      </c>
+      <c r="AA129">
+        <v>3.15</v>
+      </c>
+      <c r="AB129">
+        <v>2.8</v>
+      </c>
+      <c r="AC129">
+        <v>1.03</v>
+      </c>
+      <c r="AD129">
+        <v>7.9</v>
+      </c>
+      <c r="AE129">
+        <v>1.34</v>
+      </c>
+      <c r="AF129">
+        <v>2.88</v>
+      </c>
+      <c r="AG129">
+        <v>2.1</v>
+      </c>
+      <c r="AH129">
+        <v>1.65</v>
+      </c>
+      <c r="AI129">
+        <v>1.82</v>
+      </c>
+      <c r="AJ129">
+        <v>1.84</v>
+      </c>
+      <c r="AK129">
+        <v>1.38</v>
+      </c>
+      <c r="AL129">
+        <v>1.3</v>
+      </c>
+      <c r="AM129">
+        <v>1.51</v>
+      </c>
+      <c r="AN129">
+        <v>2.2</v>
+      </c>
+      <c r="AO129">
+        <v>1.89</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>2</v>
+      </c>
+      <c r="AR129">
+        <v>1.87</v>
+      </c>
+      <c r="AS129">
+        <v>1.77</v>
+      </c>
+      <c r="AT129">
+        <v>3.64</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>0</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
         <v>3</v>
       </c>
-      <c r="O129" t="s">
-        <v>167</v>
-      </c>
-      <c r="P129" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q129">
-        <v>2.77</v>
-      </c>
-      <c r="R129">
-        <v>2.03</v>
-      </c>
-      <c r="S129">
-        <v>4.8</v>
-      </c>
-      <c r="T129">
-        <v>1.51</v>
-      </c>
-      <c r="U129">
-        <v>2.48</v>
-      </c>
-      <c r="V129">
-        <v>3.46</v>
-      </c>
-      <c r="W129">
-        <v>1.28</v>
-      </c>
-      <c r="X129">
-        <v>9.6</v>
-      </c>
-      <c r="Y129">
-        <v>1.03</v>
-      </c>
-      <c r="Z129">
-        <v>2</v>
-      </c>
-      <c r="AA129">
-        <v>3.1</v>
-      </c>
-      <c r="AB129">
-        <v>3.6</v>
-      </c>
-      <c r="AC129">
-        <v>1.1</v>
-      </c>
-      <c r="AD129">
-        <v>5.8</v>
-      </c>
-      <c r="AE129">
-        <v>1.45</v>
-      </c>
-      <c r="AF129">
-        <v>2.5</v>
-      </c>
-      <c r="AG129">
-        <v>2.4</v>
-      </c>
-      <c r="AH129">
-        <v>1.5</v>
-      </c>
-      <c r="AI129">
-        <v>2.1</v>
-      </c>
-      <c r="AJ129">
-        <v>1.7</v>
-      </c>
-      <c r="AK129">
-        <v>1.25</v>
-      </c>
-      <c r="AL129">
-        <v>1.28</v>
-      </c>
-      <c r="AM129">
-        <v>1.75</v>
-      </c>
-      <c r="AN129">
-        <v>1.22</v>
-      </c>
-      <c r="AO129">
-        <v>1</v>
-      </c>
-      <c r="AP129">
-        <v>1.4</v>
-      </c>
-      <c r="AQ129">
-        <v>0.91</v>
-      </c>
-      <c r="AR129">
-        <v>1.28</v>
-      </c>
-      <c r="AS129">
-        <v>1.15</v>
-      </c>
-      <c r="AT129">
-        <v>2.43</v>
-      </c>
-      <c r="AU129">
-        <v>3</v>
-      </c>
-      <c r="AV129">
-        <v>2</v>
-      </c>
-      <c r="AW129">
-        <v>2</v>
-      </c>
-      <c r="AX129">
-        <v>1</v>
-      </c>
       <c r="AY129">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ129">
         <v>3</v>
       </c>
       <c r="BA129">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC129">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BD129">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="BE129">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="BF129">
-        <v>3.18</v>
+        <v>2</v>
       </c>
       <c r="BG129">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="BH129">
-        <v>2.4</v>
+        <v>3.04</v>
       </c>
       <c r="BI129">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="BJ129">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="BK129">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="BL129">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="BM129">
-        <v>3.42</v>
+        <v>2.64</v>
       </c>
       <c r="BN129">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="BO129">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="BP129">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27692,7 +27683,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7332484</v>
+        <v>7332487</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27701,166 +27692,166 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45486.3125</v>
+        <v>45487.29166666666</v>
       </c>
       <c r="F130">
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="Q130">
-        <v>4.9</v>
+        <v>2.49</v>
       </c>
       <c r="R130">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="S130">
-        <v>2.25</v>
+        <v>4.45</v>
       </c>
       <c r="T130">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U130">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="V130">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="W130">
+        <v>1.35</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.06</v>
+      </c>
+      <c r="Z130">
+        <v>1.85</v>
+      </c>
+      <c r="AA130">
+        <v>3.35</v>
+      </c>
+      <c r="AB130">
+        <v>3.6</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>8.1</v>
+      </c>
+      <c r="AE130">
+        <v>1.33</v>
+      </c>
+      <c r="AF130">
+        <v>2.93</v>
+      </c>
+      <c r="AG130">
+        <v>1.9</v>
+      </c>
+      <c r="AH130">
+        <v>1.8</v>
+      </c>
+      <c r="AI130">
+        <v>1.86</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.22</v>
+      </c>
+      <c r="AL130">
+        <v>1.27</v>
+      </c>
+      <c r="AM130">
+        <v>1.79</v>
+      </c>
+      <c r="AN130">
+        <v>1.33</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>1.5</v>
+      </c>
+      <c r="AQ130">
+        <v>0.91</v>
+      </c>
+      <c r="AR130">
+        <v>1.6</v>
+      </c>
+      <c r="AS130">
         <v>1.38</v>
       </c>
-      <c r="X130">
-        <v>7.75</v>
-      </c>
-      <c r="Y130">
-        <v>1.08</v>
-      </c>
-      <c r="Z130">
-        <v>4.33</v>
-      </c>
-      <c r="AA130">
-        <v>3.75</v>
-      </c>
-      <c r="AB130">
-        <v>1.67</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
-      </c>
-      <c r="AD130">
-        <v>11.5</v>
-      </c>
-      <c r="AE130">
-        <v>1.28</v>
-      </c>
-      <c r="AF130">
-        <v>3.3</v>
-      </c>
-      <c r="AG130">
-        <v>1.85</v>
-      </c>
-      <c r="AH130">
-        <v>1.85</v>
-      </c>
-      <c r="AI130">
-        <v>1.88</v>
-      </c>
-      <c r="AJ130">
-        <v>1.85</v>
-      </c>
-      <c r="AK130">
-        <v>2.05</v>
-      </c>
-      <c r="AL130">
-        <v>1.23</v>
-      </c>
-      <c r="AM130">
-        <v>1.18</v>
-      </c>
-      <c r="AN130">
-        <v>0.3</v>
-      </c>
-      <c r="AO130">
-        <v>1.33</v>
-      </c>
-      <c r="AP130">
-        <v>0.27</v>
-      </c>
-      <c r="AQ130">
-        <v>1.5</v>
-      </c>
-      <c r="AR130">
-        <v>1.3</v>
-      </c>
-      <c r="AS130">
-        <v>1.63</v>
-      </c>
       <c r="AT130">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="AU130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV130">
         <v>4</v>
       </c>
       <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
         <v>4</v>
       </c>
-      <c r="AX130">
-        <v>2</v>
-      </c>
-      <c r="AY130">
-        <v>6</v>
-      </c>
       <c r="AZ130">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB130">
         <v>3</v>
       </c>
       <c r="BC130">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD130">
-        <v>3.65</v>
+        <v>1.46</v>
       </c>
       <c r="BE130">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="BF130">
-        <v>1.43</v>
+        <v>3.52</v>
       </c>
       <c r="BG130">
         <v>1.32</v>
@@ -27869,10 +27860,10 @@
         <v>2.98</v>
       </c>
       <c r="BI130">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BJ130">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BK130">
         <v>2.01</v>
@@ -27887,10 +27878,10 @@
         <v>1.39</v>
       </c>
       <c r="BO130">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="BP130">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,15 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['27', '35', '45+1']</t>
+  </si>
+  <si>
+    <t>['45', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['47', '89', '90+4']</t>
   </si>
   <si>
@@ -734,6 +743,12 @@
   </si>
   <si>
     <t>['17', '50', '55', '86']</t>
+  </si>
+  <si>
+    <t>['82', '90+7']</t>
+  </si>
+  <si>
+    <t>['79', '90+2']</t>
   </si>
   <si>
     <t>['45+4', '63']</t>
@@ -1098,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1372,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1769,7 +1784,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2053,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>2.2</v>
@@ -2181,7 +2196,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2262,7 +2277,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2387,7 +2402,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2593,7 +2608,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2877,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3211,7 +3226,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3292,7 +3307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3417,7 +3432,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3495,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3623,7 +3638,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3704,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3907,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ14">
         <v>0.91</v>
@@ -4241,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4322,7 +4337,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4447,7 +4462,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4653,7 +4668,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4731,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4859,7 +4874,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4940,7 +4955,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5271,7 +5286,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5477,7 +5492,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5967,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1.8</v>
@@ -6095,7 +6110,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6382,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6507,7 +6522,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6713,7 +6728,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6919,7 +6934,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -6997,7 +7012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ29">
         <v>1.1</v>
@@ -7125,7 +7140,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7331,7 +7346,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7409,10 +7424,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7537,7 +7552,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7821,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7949,7 +7964,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8442,7 +8457,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8567,7 +8582,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8645,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8979,7 +8994,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9185,7 +9200,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9391,7 +9406,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9469,10 +9484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9597,7 +9612,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9803,7 +9818,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10009,7 +10024,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10215,7 +10230,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10421,7 +10436,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10502,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10627,7 +10642,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11326,7 +11341,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11451,7 +11466,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11532,7 +11547,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11657,7 +11672,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11735,7 +11750,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11863,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12069,7 +12084,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12147,7 +12162,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12353,7 +12368,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12481,7 +12496,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12687,7 +12702,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12893,7 +12908,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12974,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13099,7 +13114,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13177,7 +13192,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13305,7 +13320,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13383,10 +13398,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13717,7 +13732,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13798,7 +13813,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13923,7 +13938,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14129,7 +14144,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14335,7 +14350,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14747,7 +14762,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15034,7 +15049,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15237,7 +15252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>0.91</v>
@@ -15365,7 +15380,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15855,7 +15870,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -15983,7 +15998,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16061,7 +16076,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16395,7 +16410,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16601,7 +16616,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17091,7 +17106,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17219,7 +17234,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17503,7 +17518,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17712,7 +17727,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17837,7 +17852,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18043,7 +18058,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18536,7 +18551,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18661,7 +18676,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18945,7 +18960,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>1.1</v>
@@ -19073,7 +19088,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19279,7 +19294,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19566,7 +19581,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19897,7 +19912,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20103,7 +20118,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20515,7 +20530,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20596,7 +20611,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20927,7 +20942,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21005,10 +21020,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21214,7 +21229,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21339,7 +21354,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21417,7 +21432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ99">
         <v>1.56</v>
@@ -21545,7 +21560,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21832,7 +21847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -21957,7 +21972,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22035,7 +22050,7 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102">
         <v>1.8</v>
@@ -23193,7 +23208,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23399,7 +23414,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23811,7 +23826,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23889,10 +23904,10 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24017,7 +24032,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24098,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24429,7 +24444,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24510,7 +24525,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24635,7 +24650,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24713,7 +24728,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ115">
         <v>1.56</v>
@@ -24841,7 +24856,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25047,7 +25062,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25253,7 +25268,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25459,7 +25474,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25540,7 +25555,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25665,7 +25680,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26077,7 +26092,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26158,7 +26173,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26283,7 +26298,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26489,7 +26504,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26567,7 +26582,7 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
         <v>1.6</v>
@@ -26695,7 +26710,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27107,7 +27122,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27271,7 +27286,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7332485</v>
+        <v>7332482</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27280,196 +27295,196 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45487.29166666666</v>
+        <v>45486.29166666666</v>
       </c>
       <c r="F128">
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H128" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O128" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="Q128">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>2.21</v>
       </c>
       <c r="S128">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T128">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="U128">
-        <v>2.36</v>
+        <v>2.97</v>
       </c>
       <c r="V128">
-        <v>3.54</v>
+        <v>2.95</v>
       </c>
       <c r="W128">
+        <v>1.39</v>
+      </c>
+      <c r="X128">
+        <v>6.95</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>2.4</v>
+      </c>
+      <c r="AA128">
+        <v>3.25</v>
+      </c>
+      <c r="AB128">
+        <v>2.75</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>7.8</v>
+      </c>
+      <c r="AE128">
         <v>1.27</v>
       </c>
-      <c r="X128">
-        <v>9.6</v>
-      </c>
-      <c r="Y128">
-        <v>1.03</v>
-      </c>
-      <c r="Z128">
-        <v>2.15</v>
-      </c>
-      <c r="AA128">
-        <v>2.95</v>
-      </c>
-      <c r="AB128">
-        <v>3.1</v>
-      </c>
-      <c r="AC128">
-        <v>1.1</v>
-      </c>
-      <c r="AD128">
-        <v>5.8</v>
-      </c>
-      <c r="AE128">
+      <c r="AF128">
+        <v>3.4</v>
+      </c>
+      <c r="AG128">
+        <v>1.93</v>
+      </c>
+      <c r="AH128">
+        <v>1.81</v>
+      </c>
+      <c r="AI128">
+        <v>1.75</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
         <v>1.42</v>
       </c>
-      <c r="AF128">
-        <v>2.6</v>
-      </c>
-      <c r="AG128">
-        <v>2.35</v>
-      </c>
-      <c r="AH128">
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
         <v>1.53</v>
       </c>
-      <c r="AI128">
-        <v>2.05</v>
-      </c>
-      <c r="AJ128">
-        <v>1.72</v>
-      </c>
-      <c r="AK128">
-        <v>1.22</v>
-      </c>
-      <c r="AL128">
-        <v>1.35</v>
-      </c>
-      <c r="AM128">
-        <v>1.55</v>
-      </c>
       <c r="AN128">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AO128">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AR128">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AS128">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AT128">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="AU128">
         <v>5</v>
       </c>
       <c r="AV128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD128">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="BE128">
-        <v>5.95</v>
+        <v>6.15</v>
       </c>
       <c r="BF128">
-        <v>2.43</v>
+        <v>2.78</v>
       </c>
       <c r="BG128">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BH128">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BI128">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="BJ128">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="BK128">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BL128">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BM128">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="BN128">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BO128">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="BP128">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27477,7 +27492,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7332486</v>
+        <v>7332483</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27486,196 +27501,196 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45487.29166666666</v>
+        <v>45486.3125</v>
       </c>
       <c r="F129">
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H129" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O129" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="Q129">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="R129">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S129">
-        <v>3.52</v>
+        <v>4.8</v>
       </c>
       <c r="T129">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="U129">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="V129">
+        <v>3.46</v>
+      </c>
+      <c r="W129">
+        <v>1.28</v>
+      </c>
+      <c r="X129">
+        <v>9.6</v>
+      </c>
+      <c r="Y129">
+        <v>1.03</v>
+      </c>
+      <c r="Z129">
+        <v>2</v>
+      </c>
+      <c r="AA129">
         <v>3.1</v>
       </c>
-      <c r="W129">
-        <v>1.34</v>
-      </c>
-      <c r="X129">
-        <v>8.1</v>
-      </c>
-      <c r="Y129">
-        <v>1.06</v>
-      </c>
-      <c r="Z129">
-        <v>2.25</v>
-      </c>
-      <c r="AA129">
-        <v>3.15</v>
-      </c>
       <c r="AB129">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AC129">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AD129">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE129">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AF129">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AG129">
+        <v>2.4</v>
+      </c>
+      <c r="AH129">
+        <v>1.5</v>
+      </c>
+      <c r="AI129">
         <v>2.1</v>
       </c>
-      <c r="AH129">
-        <v>1.65</v>
-      </c>
-      <c r="AI129">
-        <v>1.82</v>
-      </c>
       <c r="AJ129">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AK129">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AL129">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM129">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="AN129">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="AO129">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>2</v>
+        <v>0.91</v>
       </c>
       <c r="AR129">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="AS129">
-        <v>1.77</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>3.64</v>
+        <v>2.43</v>
       </c>
       <c r="AU129">
+        <v>9</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
         <v>6</v>
       </c>
-      <c r="AV129">
-        <v>0</v>
-      </c>
-      <c r="AW129">
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>8</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
         <v>7</v>
       </c>
-      <c r="AX129">
-        <v>3</v>
-      </c>
-      <c r="AY129">
-        <v>13</v>
-      </c>
-      <c r="AZ129">
-        <v>3</v>
-      </c>
-      <c r="BA129">
-        <v>9</v>
-      </c>
-      <c r="BB129">
-        <v>3</v>
-      </c>
-      <c r="BC129">
-        <v>12</v>
-      </c>
       <c r="BD129">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="BE129">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="BF129">
-        <v>2</v>
+        <v>3.18</v>
       </c>
       <c r="BG129">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="BH129">
-        <v>3.04</v>
+        <v>2.4</v>
       </c>
       <c r="BI129">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="BJ129">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="BK129">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="BL129">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="BM129">
-        <v>2.64</v>
+        <v>3.42</v>
       </c>
       <c r="BN129">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="BO129">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="BP129">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27683,7 +27698,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7332487</v>
+        <v>7332484</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27692,166 +27707,166 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45487.29166666666</v>
+        <v>45486.3125</v>
       </c>
       <c r="F130">
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
         <v>3</v>
       </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>4</v>
-      </c>
       <c r="O130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="Q130">
-        <v>2.49</v>
+        <v>4.9</v>
       </c>
       <c r="R130">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="S130">
-        <v>4.45</v>
+        <v>2.25</v>
       </c>
       <c r="T130">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U130">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="V130">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="W130">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X130">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="Y130">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z130">
+        <v>4.33</v>
+      </c>
+      <c r="AA130">
+        <v>3.75</v>
+      </c>
+      <c r="AB130">
+        <v>1.67</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>11.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.3</v>
+      </c>
+      <c r="AG130">
         <v>1.85</v>
       </c>
-      <c r="AA130">
-        <v>3.35</v>
-      </c>
-      <c r="AB130">
-        <v>3.6</v>
-      </c>
-      <c r="AC130">
-        <v>1.03</v>
-      </c>
-      <c r="AD130">
-        <v>8.1</v>
-      </c>
-      <c r="AE130">
+      <c r="AH130">
+        <v>1.85</v>
+      </c>
+      <c r="AI130">
+        <v>1.88</v>
+      </c>
+      <c r="AJ130">
+        <v>1.85</v>
+      </c>
+      <c r="AK130">
+        <v>2.05</v>
+      </c>
+      <c r="AL130">
+        <v>1.23</v>
+      </c>
+      <c r="AM130">
+        <v>1.18</v>
+      </c>
+      <c r="AN130">
+        <v>0.3</v>
+      </c>
+      <c r="AO130">
         <v>1.33</v>
       </c>
-      <c r="AF130">
+      <c r="AP130">
+        <v>0.27</v>
+      </c>
+      <c r="AQ130">
+        <v>1.5</v>
+      </c>
+      <c r="AR130">
+        <v>1.3</v>
+      </c>
+      <c r="AS130">
+        <v>1.63</v>
+      </c>
+      <c r="AT130">
         <v>2.93</v>
       </c>
-      <c r="AG130">
-        <v>1.9</v>
-      </c>
-      <c r="AH130">
-        <v>1.8</v>
-      </c>
-      <c r="AI130">
-        <v>1.86</v>
-      </c>
-      <c r="AJ130">
-        <v>1.8</v>
-      </c>
-      <c r="AK130">
-        <v>1.22</v>
-      </c>
-      <c r="AL130">
-        <v>1.27</v>
-      </c>
-      <c r="AM130">
-        <v>1.79</v>
-      </c>
-      <c r="AN130">
-        <v>1.33</v>
-      </c>
-      <c r="AO130">
-        <v>1</v>
-      </c>
-      <c r="AP130">
-        <v>1.5</v>
-      </c>
-      <c r="AQ130">
-        <v>0.91</v>
-      </c>
-      <c r="AR130">
-        <v>1.6</v>
-      </c>
-      <c r="AS130">
-        <v>1.38</v>
-      </c>
-      <c r="AT130">
-        <v>2.98</v>
-      </c>
       <c r="AU130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV130">
         <v>4</v>
       </c>
       <c r="AW130">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX130">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AY130">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ130">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA130">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB130">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC130">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD130">
-        <v>1.46</v>
+        <v>3.65</v>
       </c>
       <c r="BE130">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="BF130">
-        <v>3.52</v>
+        <v>1.43</v>
       </c>
       <c r="BG130">
         <v>1.32</v>
@@ -27860,10 +27875,10 @@
         <v>2.98</v>
       </c>
       <c r="BI130">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="BJ130">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="BK130">
         <v>2.01</v>
@@ -27878,9 +27893,627 @@
         <v>1.39</v>
       </c>
       <c r="BO130">
+        <v>3.74</v>
+      </c>
+      <c r="BP130">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7332485</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>104</v>
+      </c>
+      <c r="P131" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>3.7</v>
+      </c>
+      <c r="T131">
+        <v>1.54</v>
+      </c>
+      <c r="U131">
+        <v>2.36</v>
+      </c>
+      <c r="V131">
+        <v>3.54</v>
+      </c>
+      <c r="W131">
+        <v>1.27</v>
+      </c>
+      <c r="X131">
+        <v>9.6</v>
+      </c>
+      <c r="Y131">
+        <v>1.03</v>
+      </c>
+      <c r="Z131">
+        <v>2.15</v>
+      </c>
+      <c r="AA131">
+        <v>2.95</v>
+      </c>
+      <c r="AB131">
+        <v>3.1</v>
+      </c>
+      <c r="AC131">
+        <v>1.1</v>
+      </c>
+      <c r="AD131">
+        <v>5.8</v>
+      </c>
+      <c r="AE131">
+        <v>1.42</v>
+      </c>
+      <c r="AF131">
+        <v>2.6</v>
+      </c>
+      <c r="AG131">
+        <v>2.35</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>2.05</v>
+      </c>
+      <c r="AJ131">
+        <v>1.72</v>
+      </c>
+      <c r="AK131">
+        <v>1.22</v>
+      </c>
+      <c r="AL131">
+        <v>1.35</v>
+      </c>
+      <c r="AM131">
+        <v>1.55</v>
+      </c>
+      <c r="AN131">
+        <v>1.1</v>
+      </c>
+      <c r="AO131">
+        <v>1.64</v>
+      </c>
+      <c r="AP131">
+        <v>1.27</v>
+      </c>
+      <c r="AQ131">
+        <v>1.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.41</v>
+      </c>
+      <c r="AS131">
+        <v>1.14</v>
+      </c>
+      <c r="AT131">
+        <v>2.55</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>9</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>8</v>
+      </c>
+      <c r="BD131">
+        <v>1.86</v>
+      </c>
+      <c r="BE131">
+        <v>5.95</v>
+      </c>
+      <c r="BF131">
+        <v>2.43</v>
+      </c>
+      <c r="BG131">
+        <v>1.57</v>
+      </c>
+      <c r="BH131">
+        <v>2.33</v>
+      </c>
+      <c r="BI131">
+        <v>1.99</v>
+      </c>
+      <c r="BJ131">
+        <v>1.81</v>
+      </c>
+      <c r="BK131">
+        <v>2.55</v>
+      </c>
+      <c r="BL131">
+        <v>1.48</v>
+      </c>
+      <c r="BM131">
         <v>3.65</v>
       </c>
-      <c r="BP130">
+      <c r="BN131">
+        <v>1.22</v>
+      </c>
+      <c r="BO131">
+        <v>4.75</v>
+      </c>
+      <c r="BP131">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7332486</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>88</v>
+      </c>
+      <c r="P132" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q132">
+        <v>2.98</v>
+      </c>
+      <c r="R132">
+        <v>2.01</v>
+      </c>
+      <c r="S132">
+        <v>3.52</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.65</v>
+      </c>
+      <c r="V132">
+        <v>3.1</v>
+      </c>
+      <c r="W132">
+        <v>1.34</v>
+      </c>
+      <c r="X132">
+        <v>8.1</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.25</v>
+      </c>
+      <c r="AA132">
+        <v>3.15</v>
+      </c>
+      <c r="AB132">
+        <v>2.8</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>7.9</v>
+      </c>
+      <c r="AE132">
+        <v>1.34</v>
+      </c>
+      <c r="AF132">
+        <v>2.88</v>
+      </c>
+      <c r="AG132">
+        <v>2.1</v>
+      </c>
+      <c r="AH132">
+        <v>1.65</v>
+      </c>
+      <c r="AI132">
+        <v>1.82</v>
+      </c>
+      <c r="AJ132">
+        <v>1.84</v>
+      </c>
+      <c r="AK132">
+        <v>1.38</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.51</v>
+      </c>
+      <c r="AN132">
+        <v>2.2</v>
+      </c>
+      <c r="AO132">
+        <v>1.89</v>
+      </c>
+      <c r="AP132">
+        <v>2</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1.87</v>
+      </c>
+      <c r="AS132">
+        <v>1.77</v>
+      </c>
+      <c r="AT132">
+        <v>3.64</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>14</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>19</v>
+      </c>
+      <c r="AZ132">
+        <v>6</v>
+      </c>
+      <c r="BA132">
+        <v>10</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>2.2</v>
+      </c>
+      <c r="BE132">
+        <v>6.1</v>
+      </c>
+      <c r="BF132">
+        <v>2</v>
+      </c>
+      <c r="BG132">
+        <v>1.31</v>
+      </c>
+      <c r="BH132">
+        <v>3.04</v>
+      </c>
+      <c r="BI132">
+        <v>1.58</v>
+      </c>
+      <c r="BJ132">
+        <v>2.17</v>
+      </c>
+      <c r="BK132">
+        <v>2</v>
+      </c>
+      <c r="BL132">
+        <v>1.69</v>
+      </c>
+      <c r="BM132">
+        <v>2.64</v>
+      </c>
+      <c r="BN132">
+        <v>1.4</v>
+      </c>
+      <c r="BO132">
+        <v>3.65</v>
+      </c>
+      <c r="BP132">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7332487</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>169</v>
+      </c>
+      <c r="P133" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q133">
+        <v>2.49</v>
+      </c>
+      <c r="R133">
+        <v>2.04</v>
+      </c>
+      <c r="S133">
+        <v>4.45</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.66</v>
+      </c>
+      <c r="V133">
+        <v>3.04</v>
+      </c>
+      <c r="W133">
+        <v>1.35</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>1.85</v>
+      </c>
+      <c r="AA133">
+        <v>3.35</v>
+      </c>
+      <c r="AB133">
+        <v>3.6</v>
+      </c>
+      <c r="AC133">
+        <v>1.03</v>
+      </c>
+      <c r="AD133">
+        <v>8.1</v>
+      </c>
+      <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>2.93</v>
+      </c>
+      <c r="AG133">
+        <v>1.9</v>
+      </c>
+      <c r="AH133">
+        <v>1.8</v>
+      </c>
+      <c r="AI133">
+        <v>1.86</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.22</v>
+      </c>
+      <c r="AL133">
+        <v>1.27</v>
+      </c>
+      <c r="AM133">
+        <v>1.79</v>
+      </c>
+      <c r="AN133">
+        <v>1.33</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>0.91</v>
+      </c>
+      <c r="AR133">
+        <v>1.6</v>
+      </c>
+      <c r="AS133">
+        <v>1.38</v>
+      </c>
+      <c r="AT133">
+        <v>2.98</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>6</v>
+      </c>
+      <c r="AZ133">
+        <v>7</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>5</v>
+      </c>
+      <c r="BD133">
+        <v>1.46</v>
+      </c>
+      <c r="BE133">
+        <v>6.7</v>
+      </c>
+      <c r="BF133">
+        <v>3.52</v>
+      </c>
+      <c r="BG133">
+        <v>1.32</v>
+      </c>
+      <c r="BH133">
+        <v>2.98</v>
+      </c>
+      <c r="BI133">
+        <v>1.59</v>
+      </c>
+      <c r="BJ133">
+        <v>2.16</v>
+      </c>
+      <c r="BK133">
+        <v>2.01</v>
+      </c>
+      <c r="BL133">
+        <v>1.68</v>
+      </c>
+      <c r="BM133">
+        <v>2.67</v>
+      </c>
+      <c r="BN133">
+        <v>1.39</v>
+      </c>
+      <c r="BO133">
+        <v>3.65</v>
+      </c>
+      <c r="BP133">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,12 @@
     <t>['47', '89', '90+4']</t>
   </si>
   <si>
+    <t>['71', '74']</t>
+  </si>
+  <si>
+    <t>['45+1', '51']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -752,6 +758,12 @@
   </si>
   <si>
     <t>['45+4', '63']</t>
+  </si>
+  <si>
+    <t>['33', '41', '61']</t>
+  </si>
+  <si>
+    <t>['55', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1384,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1784,7 +1796,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2196,7 +2208,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2274,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6">
         <v>1.3</v>
@@ -2402,7 +2414,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2608,7 +2620,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2686,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2892,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3101,7 +3113,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3226,7 +3238,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3432,7 +3444,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3513,7 +3525,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3638,7 +3650,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4256,7 +4268,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4334,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ16">
         <v>1.3</v>
@@ -4462,7 +4474,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4668,7 +4680,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4874,7 +4886,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5161,7 +5173,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5286,7 +5298,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5492,7 +5504,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5982,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24">
         <v>1.8</v>
@@ -6110,7 +6122,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6188,10 +6200,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6522,7 +6534,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6728,7 +6740,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6934,7 +6946,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7140,7 +7152,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7346,7 +7358,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7552,7 +7564,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7630,7 +7642,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>2.2</v>
@@ -7964,7 +7976,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8251,7 +8263,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8582,7 +8594,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8663,7 +8675,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -8866,10 +8878,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8994,7 +9006,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9200,7 +9212,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9406,7 +9418,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9484,7 +9496,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41">
         <v>0.91</v>
@@ -9612,7 +9624,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9818,7 +9830,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9896,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10024,7 +10036,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10105,7 +10117,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10230,7 +10242,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10311,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10436,7 +10448,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10642,7 +10654,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10926,7 +10938,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ48">
         <v>1.6</v>
@@ -11466,7 +11478,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11672,7 +11684,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11878,7 +11890,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11956,7 +11968,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
         <v>1.1</v>
@@ -12084,7 +12096,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12162,7 +12174,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12371,7 +12383,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12496,7 +12508,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12577,7 +12589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12702,7 +12714,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12908,7 +12920,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13114,7 +13126,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13192,7 +13204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13320,7 +13332,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13607,7 +13619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13732,7 +13744,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13938,7 +13950,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14016,7 +14028,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ63">
         <v>1.8</v>
@@ -14144,7 +14156,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14350,7 +14362,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14428,7 +14440,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65">
         <v>0.91</v>
@@ -14762,7 +14774,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15252,7 +15264,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ69">
         <v>0.91</v>
@@ -15380,7 +15392,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15873,7 +15885,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -15998,7 +16010,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16285,7 +16297,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16410,7 +16422,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16488,10 +16500,10 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16616,7 +16628,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16903,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17234,7 +17246,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17312,7 +17324,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17518,10 +17530,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17852,7 +17864,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17933,7 +17945,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18058,7 +18070,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18548,7 +18560,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ85">
         <v>0.91</v>
@@ -18676,7 +18688,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18754,7 +18766,7 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86">
         <v>1.6</v>
@@ -19088,7 +19100,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19294,7 +19306,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19787,7 +19799,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19912,7 +19924,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20118,7 +20130,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20530,7 +20542,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20817,7 +20829,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -20942,7 +20954,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21226,7 +21238,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21354,7 +21366,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21432,10 +21444,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21560,7 +21572,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21972,7 +21984,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22259,7 +22271,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22668,7 +22680,7 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
         <v>0.91</v>
@@ -23083,7 +23095,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23208,7 +23220,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23289,7 +23301,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.47</v>
@@ -23414,7 +23426,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23698,7 +23710,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -23826,7 +23838,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23904,7 +23916,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24032,7 +24044,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24319,7 +24331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24444,7 +24456,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24650,7 +24662,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24731,7 +24743,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24856,7 +24868,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25062,7 +25074,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25268,7 +25280,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25474,7 +25486,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25552,7 +25564,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
         <v>0.91</v>
@@ -25680,7 +25692,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25758,7 +25770,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ120">
         <v>2.2</v>
@@ -26092,7 +26104,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26298,7 +26310,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26379,7 +26391,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ123">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26504,7 +26516,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26710,7 +26722,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27122,7 +27134,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27328,7 +27340,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27406,7 +27418,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
         <v>1.3</v>
@@ -27740,7 +27752,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28152,7 +28164,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28233,7 +28245,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR132">
         <v>1.87</v>
@@ -28515,6 +28527,624 @@
       </c>
       <c r="BP133">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7332489</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45492.875</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134" t="s">
+        <v>170</v>
+      </c>
+      <c r="P134" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q134">
+        <v>3.08</v>
+      </c>
+      <c r="R134">
+        <v>2.07</v>
+      </c>
+      <c r="S134">
+        <v>3.24</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>2.81</v>
+      </c>
+      <c r="V134">
+        <v>2.85</v>
+      </c>
+      <c r="W134">
+        <v>1.39</v>
+      </c>
+      <c r="X134">
+        <v>7.3</v>
+      </c>
+      <c r="Y134">
+        <v>1.07</v>
+      </c>
+      <c r="Z134">
+        <v>2.5</v>
+      </c>
+      <c r="AA134">
+        <v>3.2</v>
+      </c>
+      <c r="AB134">
+        <v>2.5</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE134">
+        <v>1.28</v>
+      </c>
+      <c r="AF134">
+        <v>3.18</v>
+      </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>1.81</v>
+      </c>
+      <c r="AI134">
+        <v>1.72</v>
+      </c>
+      <c r="AJ134">
+        <v>1.95</v>
+      </c>
+      <c r="AK134">
+        <v>1.43</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.46</v>
+      </c>
+      <c r="AN134">
+        <v>1.6</v>
+      </c>
+      <c r="AO134">
+        <v>2</v>
+      </c>
+      <c r="AP134">
+        <v>1.45</v>
+      </c>
+      <c r="AQ134">
+        <v>2.09</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>1.69</v>
+      </c>
+      <c r="AT134">
+        <v>3.19</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>9</v>
+      </c>
+      <c r="AX134">
+        <v>7</v>
+      </c>
+      <c r="AY134">
+        <v>14</v>
+      </c>
+      <c r="AZ134">
+        <v>7</v>
+      </c>
+      <c r="BA134">
+        <v>10</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>12</v>
+      </c>
+      <c r="BD134">
+        <v>2.19</v>
+      </c>
+      <c r="BE134">
+        <v>6.1</v>
+      </c>
+      <c r="BF134">
+        <v>2.01</v>
+      </c>
+      <c r="BG134">
+        <v>1.35</v>
+      </c>
+      <c r="BH134">
+        <v>2.84</v>
+      </c>
+      <c r="BI134">
+        <v>1.71</v>
+      </c>
+      <c r="BJ134">
+        <v>2.12</v>
+      </c>
+      <c r="BK134">
+        <v>2.15</v>
+      </c>
+      <c r="BL134">
+        <v>1.69</v>
+      </c>
+      <c r="BM134">
+        <v>2.79</v>
+      </c>
+      <c r="BN134">
+        <v>1.36</v>
+      </c>
+      <c r="BO134">
+        <v>3.6</v>
+      </c>
+      <c r="BP134">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7332488</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45492.875</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>171</v>
+      </c>
+      <c r="P135" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q135">
+        <v>2.99</v>
+      </c>
+      <c r="R135">
+        <v>1.98</v>
+      </c>
+      <c r="S135">
+        <v>3.6</v>
+      </c>
+      <c r="T135">
+        <v>1.47</v>
+      </c>
+      <c r="U135">
+        <v>2.57</v>
+      </c>
+      <c r="V135">
+        <v>3.2</v>
+      </c>
+      <c r="W135">
+        <v>1.32</v>
+      </c>
+      <c r="X135">
+        <v>8.4</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2.2</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>3</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>7.6</v>
+      </c>
+      <c r="AE135">
+        <v>1.36</v>
+      </c>
+      <c r="AF135">
+        <v>2.79</v>
+      </c>
+      <c r="AG135">
+        <v>2.08</v>
+      </c>
+      <c r="AH135">
+        <v>1.7</v>
+      </c>
+      <c r="AI135">
+        <v>1.85</v>
+      </c>
+      <c r="AJ135">
+        <v>1.81</v>
+      </c>
+      <c r="AK135">
+        <v>1.36</v>
+      </c>
+      <c r="AL135">
+        <v>1.3</v>
+      </c>
+      <c r="AM135">
+        <v>1.52</v>
+      </c>
+      <c r="AN135">
+        <v>0.9</v>
+      </c>
+      <c r="AO135">
+        <v>1.56</v>
+      </c>
+      <c r="AP135">
+        <v>0.91</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.7</v>
+      </c>
+      <c r="AS135">
+        <v>1.37</v>
+      </c>
+      <c r="AT135">
+        <v>3.07</v>
+      </c>
+      <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>5</v>
+      </c>
+      <c r="AZ135">
+        <v>10</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>4</v>
+      </c>
+      <c r="BD135">
+        <v>1.68</v>
+      </c>
+      <c r="BE135">
+        <v>6.45</v>
+      </c>
+      <c r="BF135">
+        <v>2.81</v>
+      </c>
+      <c r="BG135">
+        <v>1.25</v>
+      </c>
+      <c r="BH135">
+        <v>3.42</v>
+      </c>
+      <c r="BI135">
+        <v>1.54</v>
+      </c>
+      <c r="BJ135">
+        <v>2.43</v>
+      </c>
+      <c r="BK135">
+        <v>1.9</v>
+      </c>
+      <c r="BL135">
+        <v>1.9</v>
+      </c>
+      <c r="BM135">
+        <v>2.41</v>
+      </c>
+      <c r="BN135">
+        <v>1.55</v>
+      </c>
+      <c r="BO135">
+        <v>3.2</v>
+      </c>
+      <c r="BP135">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7332490</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45493.3125</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>88</v>
+      </c>
+      <c r="P136" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q136">
+        <v>2.3</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>4.75</v>
+      </c>
+      <c r="T136">
+        <v>1.45</v>
+      </c>
+      <c r="U136">
+        <v>2.6</v>
+      </c>
+      <c r="V136">
+        <v>3.12</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>1.65</v>
+      </c>
+      <c r="AA136">
+        <v>3.5</v>
+      </c>
+      <c r="AB136">
+        <v>4.75</v>
+      </c>
+      <c r="AC136">
+        <v>1.04</v>
+      </c>
+      <c r="AD136">
+        <v>7.8</v>
+      </c>
+      <c r="AE136">
+        <v>1.36</v>
+      </c>
+      <c r="AF136">
+        <v>2.95</v>
+      </c>
+      <c r="AG136">
+        <v>2.03</v>
+      </c>
+      <c r="AH136">
+        <v>1.7</v>
+      </c>
+      <c r="AI136">
+        <v>2.05</v>
+      </c>
+      <c r="AJ136">
+        <v>1.72</v>
+      </c>
+      <c r="AK136">
+        <v>1.14</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>2.1</v>
+      </c>
+      <c r="AN136">
+        <v>1.4</v>
+      </c>
+      <c r="AO136">
+        <v>1.4</v>
+      </c>
+      <c r="AP136">
+        <v>1.36</v>
+      </c>
+      <c r="AQ136">
+        <v>1.36</v>
+      </c>
+      <c r="AR136">
+        <v>1.88</v>
+      </c>
+      <c r="AS136">
+        <v>1.43</v>
+      </c>
+      <c r="AT136">
+        <v>3.31</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>1</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>3</v>
+      </c>
+      <c r="AZ136">
+        <v>3</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>4</v>
+      </c>
+      <c r="BD136">
+        <v>1.33</v>
+      </c>
+      <c r="BE136">
+        <v>7.2</v>
+      </c>
+      <c r="BF136">
+        <v>4.4</v>
+      </c>
+      <c r="BG136">
+        <v>1.38</v>
+      </c>
+      <c r="BH136">
+        <v>2.71</v>
+      </c>
+      <c r="BI136">
+        <v>1.75</v>
+      </c>
+      <c r="BJ136">
+        <v>2.04</v>
+      </c>
+      <c r="BK136">
+        <v>2.24</v>
+      </c>
+      <c r="BL136">
+        <v>1.62</v>
+      </c>
+      <c r="BM136">
+        <v>2.93</v>
+      </c>
+      <c r="BN136">
+        <v>1.33</v>
+      </c>
+      <c r="BO136">
+        <v>3.6</v>
+      </c>
+      <c r="BP136">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['45+1', '51']</t>
   </si>
   <si>
+    <t>['53', '90+6']</t>
+  </si>
+  <si>
+    <t>['58', '74', '90+3']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>['55', '90+8']</t>
+  </si>
+  <si>
+    <t>['50', '69', '77', '84']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1393,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1796,7 +1805,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1877,7 +1886,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2208,7 +2217,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2414,7 +2423,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2620,7 +2629,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3110,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3238,7 +3247,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3316,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3444,7 +3453,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3650,7 +3659,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3731,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4268,7 +4277,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4474,7 +4483,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4680,7 +4689,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4761,7 +4770,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4886,7 +4895,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5170,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.36</v>
@@ -5298,7 +5307,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5504,7 +5513,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5582,10 +5591,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5997,7 +6006,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6122,7 +6131,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6409,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6534,7 +6543,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6612,7 +6621,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>0.91</v>
@@ -6740,7 +6749,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6818,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6946,7 +6955,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7152,7 +7161,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7358,7 +7367,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7564,7 +7573,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7976,7 +7985,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8594,7 +8603,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9006,7 +9015,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9087,7 +9096,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9212,7 +9221,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9418,7 +9427,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9499,7 +9508,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9624,7 +9633,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9702,10 +9711,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9830,7 +9839,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10036,7 +10045,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10242,7 +10251,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10448,7 +10457,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10654,7 +10663,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11144,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
         <v>2.2</v>
@@ -11350,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
         <v>1.3</v>
@@ -11478,7 +11487,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11559,7 +11568,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11684,7 +11693,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11890,7 +11899,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12096,7 +12105,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12177,7 +12186,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12508,7 +12517,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12586,7 +12595,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12714,7 +12723,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12792,10 +12801,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12920,7 +12929,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13126,7 +13135,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13332,7 +13341,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13413,7 +13422,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ60">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13616,7 +13625,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61">
         <v>1.36</v>
@@ -13744,7 +13753,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13950,7 +13959,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14031,7 +14040,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14156,7 +14165,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14362,7 +14371,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14774,7 +14783,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15061,7 +15070,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ68">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15392,7 +15401,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15470,7 +15479,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -16010,7 +16019,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16422,7 +16431,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16628,7 +16637,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16706,7 +16715,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ76">
         <v>2.2</v>
@@ -17121,7 +17130,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17246,7 +17255,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17736,7 +17745,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -17864,7 +17873,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17942,7 +17951,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18070,7 +18079,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18151,7 +18160,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18354,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>0.91</v>
@@ -18563,7 +18572,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ85">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18688,7 +18697,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19100,7 +19109,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19306,7 +19315,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19387,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19924,7 +19933,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20002,7 +20011,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>2.2</v>
@@ -20130,7 +20139,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20208,7 +20217,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ93">
         <v>1.1</v>
@@ -20542,7 +20551,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20954,7 +20963,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21366,7 +21375,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21572,7 +21581,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21653,7 +21662,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21856,10 +21865,10 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -21984,7 +21993,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22065,7 +22074,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22268,7 +22277,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
         <v>2.09</v>
@@ -22474,7 +22483,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1.1</v>
@@ -23092,7 +23101,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>2.09</v>
@@ -23220,7 +23229,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23426,7 +23435,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23507,7 +23516,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ109">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23713,7 +23722,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23838,7 +23847,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24044,7 +24053,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24328,7 +24337,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.36</v>
@@ -24456,7 +24465,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24534,10 +24543,10 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24662,7 +24671,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24868,7 +24877,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24946,10 +24955,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25074,7 +25083,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25280,7 +25289,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25361,7 +25370,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25486,7 +25495,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25567,7 +25576,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25692,7 +25701,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25976,7 +25985,7 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
         <v>1.6</v>
@@ -26104,7 +26113,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26182,7 +26191,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.3</v>
@@ -26310,7 +26319,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26516,7 +26525,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26722,7 +26731,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27009,7 +27018,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR126">
         <v>1.85</v>
@@ -27134,7 +27143,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27340,7 +27349,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27627,7 +27636,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -27752,7 +27761,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28164,7 +28173,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28448,7 +28457,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
         <v>0.91</v>
@@ -28543,7 +28552,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45492.875</v>
+        <v>45493.29166666666</v>
       </c>
       <c r="F134">
         <v>23</v>
@@ -28576,7 +28585,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28669,22 +28678,22 @@
         <v>3.19</v>
       </c>
       <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>10</v>
+      </c>
+      <c r="AX134">
         <v>5</v>
       </c>
-      <c r="AV134">
-        <v>0</v>
-      </c>
-      <c r="AW134">
-        <v>9</v>
-      </c>
-      <c r="AX134">
-        <v>7</v>
-      </c>
       <c r="AY134">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA134">
         <v>10</v>
@@ -28749,7 +28758,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45492.875</v>
+        <v>45493.29166666666</v>
       </c>
       <c r="F135">
         <v>23</v>
@@ -28782,7 +28791,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28875,22 +28884,22 @@
         <v>3.07</v>
       </c>
       <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>9</v>
+      </c>
+      <c r="AW135">
         <v>3</v>
       </c>
-      <c r="AV135">
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
         <v>7</v>
       </c>
-      <c r="AW135">
-        <v>2</v>
-      </c>
-      <c r="AX135">
-        <v>3</v>
-      </c>
-      <c r="AY135">
-        <v>5</v>
-      </c>
       <c r="AZ135">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA135">
         <v>2</v>
@@ -29081,31 +29090,31 @@
         <v>3.31</v>
       </c>
       <c r="AU136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV136">
         <v>0</v>
       </c>
       <c r="AW136">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY136">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA136">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC136">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD136">
         <v>1.33</v>
@@ -29145,6 +29154,624 @@
       </c>
       <c r="BP136">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7332491</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>88</v>
+      </c>
+      <c r="P137" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q137">
+        <v>4.33</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>2.88</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
+        <v>2.5</v>
+      </c>
+      <c r="V137">
+        <v>3.4</v>
+      </c>
+      <c r="W137">
+        <v>1.3</v>
+      </c>
+      <c r="X137">
+        <v>10</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>3.44</v>
+      </c>
+      <c r="AA137">
+        <v>3.32</v>
+      </c>
+      <c r="AB137">
+        <v>2.03</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>7.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.38</v>
+      </c>
+      <c r="AF137">
+        <v>2.9</v>
+      </c>
+      <c r="AG137">
+        <v>2</v>
+      </c>
+      <c r="AH137">
+        <v>1.68</v>
+      </c>
+      <c r="AI137">
+        <v>2</v>
+      </c>
+      <c r="AJ137">
+        <v>1.73</v>
+      </c>
+      <c r="AK137">
+        <v>1.7</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.28</v>
+      </c>
+      <c r="AN137">
+        <v>1.5</v>
+      </c>
+      <c r="AO137">
+        <v>2</v>
+      </c>
+      <c r="AP137">
+        <v>1.33</v>
+      </c>
+      <c r="AQ137">
+        <v>2.1</v>
+      </c>
+      <c r="AR137">
+        <v>1.39</v>
+      </c>
+      <c r="AS137">
+        <v>1.47</v>
+      </c>
+      <c r="AT137">
+        <v>2.86</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>1</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>5</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>5</v>
+      </c>
+      <c r="BD137">
+        <v>2.15</v>
+      </c>
+      <c r="BE137">
+        <v>5.9</v>
+      </c>
+      <c r="BF137">
+        <v>2.07</v>
+      </c>
+      <c r="BG137">
+        <v>1.54</v>
+      </c>
+      <c r="BH137">
+        <v>2.42</v>
+      </c>
+      <c r="BI137">
+        <v>1.92</v>
+      </c>
+      <c r="BJ137">
+        <v>1.88</v>
+      </c>
+      <c r="BK137">
+        <v>2.46</v>
+      </c>
+      <c r="BL137">
+        <v>1.53</v>
+      </c>
+      <c r="BM137">
+        <v>3.42</v>
+      </c>
+      <c r="BN137">
+        <v>1.25</v>
+      </c>
+      <c r="BO137">
+        <v>4.33</v>
+      </c>
+      <c r="BP137">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7332492</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>172</v>
+      </c>
+      <c r="P138" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q138">
+        <v>2.3</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>5.5</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>1.61</v>
+      </c>
+      <c r="AA138">
+        <v>3.88</v>
+      </c>
+      <c r="AB138">
+        <v>4.85</v>
+      </c>
+      <c r="AC138">
+        <v>1.02</v>
+      </c>
+      <c r="AD138">
+        <v>8.6</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.3</v>
+      </c>
+      <c r="AG138">
+        <v>1.75</v>
+      </c>
+      <c r="AH138">
+        <v>1.95</v>
+      </c>
+      <c r="AI138">
+        <v>1.91</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.12</v>
+      </c>
+      <c r="AL138">
+        <v>1.2</v>
+      </c>
+      <c r="AM138">
+        <v>2.15</v>
+      </c>
+      <c r="AN138">
+        <v>1.64</v>
+      </c>
+      <c r="AO138">
+        <v>0.91</v>
+      </c>
+      <c r="AP138">
+        <v>1.75</v>
+      </c>
+      <c r="AQ138">
+        <v>0.83</v>
+      </c>
+      <c r="AR138">
+        <v>1.58</v>
+      </c>
+      <c r="AS138">
+        <v>1.14</v>
+      </c>
+      <c r="AT138">
+        <v>2.72</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+      <c r="AY138">
+        <v>12</v>
+      </c>
+      <c r="AZ138">
+        <v>4</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>1.44</v>
+      </c>
+      <c r="BE138">
+        <v>6.7</v>
+      </c>
+      <c r="BF138">
+        <v>3.62</v>
+      </c>
+      <c r="BG138">
+        <v>1.49</v>
+      </c>
+      <c r="BH138">
+        <v>2.56</v>
+      </c>
+      <c r="BI138">
+        <v>1.85</v>
+      </c>
+      <c r="BJ138">
+        <v>1.95</v>
+      </c>
+      <c r="BK138">
+        <v>2.37</v>
+      </c>
+      <c r="BL138">
+        <v>1.56</v>
+      </c>
+      <c r="BM138">
+        <v>3.2</v>
+      </c>
+      <c r="BN138">
+        <v>1.28</v>
+      </c>
+      <c r="BO138">
+        <v>4</v>
+      </c>
+      <c r="BP138">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7332493</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>7</v>
+      </c>
+      <c r="O139" t="s">
+        <v>173</v>
+      </c>
+      <c r="P139" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q139">
+        <v>2.2</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.75</v>
+      </c>
+      <c r="W139">
+        <v>1.4</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.57</v>
+      </c>
+      <c r="AA139">
+        <v>3.9</v>
+      </c>
+      <c r="AB139">
+        <v>5.2</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>9.6</v>
+      </c>
+      <c r="AE139">
+        <v>1.25</v>
+      </c>
+      <c r="AF139">
+        <v>3.75</v>
+      </c>
+      <c r="AG139">
+        <v>1.8</v>
+      </c>
+      <c r="AH139">
+        <v>1.96</v>
+      </c>
+      <c r="AI139">
+        <v>1.83</v>
+      </c>
+      <c r="AJ139">
+        <v>1.83</v>
+      </c>
+      <c r="AK139">
+        <v>1.11</v>
+      </c>
+      <c r="AL139">
+        <v>1.18</v>
+      </c>
+      <c r="AM139">
+        <v>2.25</v>
+      </c>
+      <c r="AN139">
+        <v>1.5</v>
+      </c>
+      <c r="AO139">
+        <v>1.8</v>
+      </c>
+      <c r="AP139">
+        <v>1.36</v>
+      </c>
+      <c r="AQ139">
+        <v>1.91</v>
+      </c>
+      <c r="AR139">
+        <v>1.55</v>
+      </c>
+      <c r="AS139">
+        <v>1.3</v>
+      </c>
+      <c r="AT139">
+        <v>2.85</v>
+      </c>
+      <c r="AU139">
+        <v>8</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>11</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>8</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>10</v>
+      </c>
+      <c r="BD139">
+        <v>1.3</v>
+      </c>
+      <c r="BE139">
+        <v>7.5</v>
+      </c>
+      <c r="BF139">
+        <v>4.65</v>
+      </c>
+      <c r="BG139">
+        <v>1.32</v>
+      </c>
+      <c r="BH139">
+        <v>2.98</v>
+      </c>
+      <c r="BI139">
+        <v>1.63</v>
+      </c>
+      <c r="BJ139">
+        <v>2.23</v>
+      </c>
+      <c r="BK139">
+        <v>2.04</v>
+      </c>
+      <c r="BL139">
+        <v>1.75</v>
+      </c>
+      <c r="BM139">
+        <v>2.64</v>
+      </c>
+      <c r="BN139">
+        <v>1.4</v>
+      </c>
+      <c r="BO139">
+        <v>3.65</v>
+      </c>
+      <c r="BP139">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ3">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2701,25 +2701,25 @@
         <v>1.67</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -2913,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3119,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3319,25 +3319,25 @@
         <v>1.44</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3525,25 +3525,25 @@
         <v>1.44</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ12">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3737,19 +3737,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3937,25 +3937,25 @@
         <v>1.3</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ14">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR14">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AT14">
-        <v>2.57</v>
+        <v>2.94</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4143,25 +4143,25 @@
         <v>1.4</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR15">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="AS15">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT15">
-        <v>4.72</v>
+        <v>3.69</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4349,22 +4349,22 @@
         <v>1.57</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR16">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="AS16">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AT16">
         <v>3.94</v>
@@ -4555,25 +4555,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="AS17">
         <v>0.48</v>
       </c>
       <c r="AT17">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4764,22 +4764,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR18">
-        <v>1.18</v>
+        <v>1.86</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>3.67</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4967,25 +4967,25 @@
         <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AT19">
-        <v>2.69</v>
+        <v>2.53</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5173,25 +5173,25 @@
         <v>1.49</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AS20">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
-        <v>4.02</v>
+        <v>3.18</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5379,25 +5379,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS21">
         <v>0.67</v>
       </c>
       <c r="AT21">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5585,25 +5585,25 @@
         <v>1.43</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ22">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR22">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AS22">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AT22">
-        <v>2.22</v>
+        <v>3.03</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5791,25 +5791,25 @@
         <v>1.4</v>
       </c>
       <c r="AN23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="AS23">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AT23">
-        <v>4.62</v>
+        <v>4.11</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5997,25 +5997,25 @@
         <v>1.9</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ24">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR24">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AS24">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>3.31</v>
+        <v>2.71</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6203,25 +6203,25 @@
         <v>1.67</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AS25">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AT25">
-        <v>3.75</v>
+        <v>3.93</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6409,25 +6409,25 @@
         <v>2.45</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
-        <v>1.81</v>
+        <v>1.47</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -6615,25 +6615,25 @@
         <v>1.62</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR27">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AT27">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6827,19 +6827,19 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR28">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS28">
         <v>0.82</v>
       </c>
       <c r="AT28">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU28">
         <v>7</v>
@@ -7027,25 +7027,25 @@
         <v>1.22</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ29">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="AT29">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7233,25 +7233,25 @@
         <v>1.8</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR30">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="AS30">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
-        <v>3.32</v>
+        <v>3.87</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7439,25 +7439,25 @@
         <v>1.3</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO31">
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AT31">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7645,25 +7645,25 @@
         <v>1.73</v>
       </c>
       <c r="AN32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR32">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AS32">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7851,25 +7851,25 @@
         <v>1.6</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="AS33">
         <v>0.88</v>
       </c>
       <c r="AT33">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8057,25 +8057,25 @@
         <v>1.61</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR34">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
-        <v>3.52</v>
+        <v>3.02</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8263,25 +8263,25 @@
         <v>1.7</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AS35">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT35">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="AU35">
         <v>11</v>
@@ -8469,25 +8469,25 @@
         <v>1.27</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ36">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AT36">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8675,25 +8675,25 @@
         <v>1.28</v>
       </c>
       <c r="AN37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AP37">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ37">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AS37">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AT37">
-        <v>3.82</v>
+        <v>3.66</v>
       </c>
       <c r="AU37">
         <v>12</v>
@@ -8881,25 +8881,25 @@
         <v>1.78</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
+        <v>1.38</v>
+      </c>
+      <c r="AR38">
+        <v>1.91</v>
+      </c>
+      <c r="AS38">
         <v>1.36</v>
       </c>
-      <c r="AR38">
-        <v>1.9</v>
-      </c>
-      <c r="AS38">
-        <v>1.84</v>
-      </c>
       <c r="AT38">
-        <v>3.74</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9087,25 +9087,25 @@
         <v>1.57</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR39">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="AS39">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9293,25 +9293,25 @@
         <v>1.55</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR40">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AT40">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9499,25 +9499,25 @@
         <v>2.25</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR41">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AS41">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9705,25 +9705,25 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ42">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR42">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="AT42">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9917,19 +9917,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS43">
         <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10117,25 +10117,25 @@
         <v>1.32</v>
       </c>
       <c r="AN44">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="AP44">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10323,25 +10323,25 @@
         <v>1.5</v>
       </c>
       <c r="AN45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AT45">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10529,25 +10529,25 @@
         <v>1.38</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10735,25 +10735,25 @@
         <v>1.28</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO47">
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
         <v>1.07</v>
       </c>
       <c r="AT47">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -10941,25 +10941,25 @@
         <v>1.67</v>
       </c>
       <c r="AN48">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO48">
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR48">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AT48">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11147,25 +11147,25 @@
         <v>1.46</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR49">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11353,25 +11353,25 @@
         <v>1.51</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ50">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AS50">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>3.08</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11559,25 +11559,25 @@
         <v>2.48</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
       </c>
       <c r="AS51">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11765,25 +11765,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AS52">
         <v>1.13</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU52">
         <v>2</v>
@@ -11974,22 +11974,22 @@
         <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AS53">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AT53">
-        <v>3.92</v>
+        <v>3.83</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12177,25 +12177,25 @@
         <v>1.36</v>
       </c>
       <c r="AN54">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO54">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ54">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR54">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>2.95</v>
+        <v>3.17</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12383,25 +12383,25 @@
         <v>1.5</v>
       </c>
       <c r="AN55">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="AS55">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>2.74</v>
+        <v>3.07</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12589,25 +12589,25 @@
         <v>1.45</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AO56">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS56">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12795,25 +12795,25 @@
         <v>1.44</v>
       </c>
       <c r="AN57">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ57">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR57">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AT57">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13001,25 +13001,25 @@
         <v>1.24</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO58">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS58">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AT58">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="AU58">
         <v>5</v>
@@ -13207,25 +13207,25 @@
         <v>1.42</v>
       </c>
       <c r="AN59">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO59">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP59">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS59">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AT59">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13413,25 +13413,25 @@
         <v>1.63</v>
       </c>
       <c r="AN60">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP60">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR60">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AS60">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT60">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13619,25 +13619,25 @@
         <v>1.71</v>
       </c>
       <c r="AN61">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP61">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AT61">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13825,25 +13825,25 @@
         <v>1.85</v>
       </c>
       <c r="AN62">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AP62">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR62">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AT62">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14031,25 +14031,25 @@
         <v>2.64</v>
       </c>
       <c r="AN63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AO63">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP63">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR63">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14237,25 +14237,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ64">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR64">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AT64">
-        <v>3.01</v>
+        <v>2.78</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14443,25 +14443,25 @@
         <v>1.69</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO65">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AP65">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR65">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS65">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -14649,25 +14649,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AO66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AT66">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -14855,25 +14855,25 @@
         <v>1.58</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP67">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AS67">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15061,25 +15061,25 @@
         <v>2.09</v>
       </c>
       <c r="AN68">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR68">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS68">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT68">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15270,22 +15270,22 @@
         <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP69">
+        <v>1.81</v>
+      </c>
+      <c r="AQ69">
+        <v>0.95</v>
+      </c>
+      <c r="AR69">
+        <v>1.6</v>
+      </c>
+      <c r="AS69">
         <v>1.45</v>
       </c>
-      <c r="AQ69">
-        <v>0.91</v>
-      </c>
-      <c r="AR69">
-        <v>1.66</v>
-      </c>
-      <c r="AS69">
-        <v>1.37</v>
-      </c>
       <c r="AT69">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15473,25 +15473,25 @@
         <v>1.61</v>
       </c>
       <c r="AN70">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR70">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AS70">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT70">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15679,25 +15679,25 @@
         <v>1.75</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ71">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR71">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="AS71">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.96</v>
+        <v>3.65</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15885,25 +15885,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO72">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="AS72">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="AT72">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16091,25 +16091,25 @@
         <v>1.3</v>
       </c>
       <c r="AN73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ73">
+        <v>1.48</v>
+      </c>
+      <c r="AR73">
+        <v>1.46</v>
+      </c>
+      <c r="AS73">
         <v>1.6</v>
       </c>
-      <c r="AR73">
-        <v>1.53</v>
-      </c>
-      <c r="AS73">
-        <v>1.72</v>
-      </c>
       <c r="AT73">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="AU73">
         <v>2</v>
@@ -16297,25 +16297,25 @@
         <v>1.31</v>
       </c>
       <c r="AN74">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AO74">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP74">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS74">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="AT74">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16503,25 +16503,25 @@
         <v>1.95</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AO75">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR75">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AS75">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT75">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16709,25 +16709,25 @@
         <v>1.61</v>
       </c>
       <c r="AN76">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AO76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP76">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ76">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR76">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AT76">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -16915,25 +16915,25 @@
         <v>1.27</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AO77">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ77">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AS77">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AT77">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17121,25 +17121,25 @@
         <v>1.21</v>
       </c>
       <c r="AN78">
-        <v>0.43</v>
+        <v>0.91</v>
       </c>
       <c r="AO78">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AP78">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ78">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR78">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AT78">
-        <v>2.73</v>
+        <v>3.04</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17327,25 +17327,25 @@
         <v>1.7</v>
       </c>
       <c r="AN79">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP79">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AS79">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AT79">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17536,22 +17536,22 @@
         <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR80">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>2.92</v>
       </c>
       <c r="AU80">
         <v>2</v>
@@ -17739,25 +17739,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AO81">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR81">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AS81">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17945,25 +17945,25 @@
         <v>1.62</v>
       </c>
       <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
         <v>1.33</v>
       </c>
-      <c r="AO82">
-        <v>1.6</v>
-      </c>
       <c r="AP82">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS82">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT82">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18151,25 +18151,25 @@
         <v>2.4</v>
       </c>
       <c r="AN83">
-        <v>0.5</v>
+        <v>1.58</v>
       </c>
       <c r="AO83">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR83">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AS83">
         <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18357,25 +18357,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AS84">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18563,25 +18563,25 @@
         <v>1.83</v>
       </c>
       <c r="AN85">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP85">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
       </c>
       <c r="AS85">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT85">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18769,25 +18769,25 @@
         <v>1.8</v>
       </c>
       <c r="AN86">
+        <v>1.46</v>
+      </c>
+      <c r="AO86">
+        <v>1.46</v>
+      </c>
+      <c r="AP86">
         <v>1.43</v>
       </c>
-      <c r="AO86">
-        <v>1.67</v>
-      </c>
-      <c r="AP86">
-        <v>1.36</v>
-      </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR86">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT86">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -18975,25 +18975,25 @@
         <v>1.4</v>
       </c>
       <c r="AN87">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO87">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS87">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT87">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="AU87">
         <v>4</v>
@@ -19181,25 +19181,25 @@
         <v>1.75</v>
       </c>
       <c r="AN88">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ88">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR88">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AS88">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT88">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19387,25 +19387,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ89">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR89">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AS89">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT89">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19593,25 +19593,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AO90">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS90">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19799,25 +19799,25 @@
         <v>1.2</v>
       </c>
       <c r="AN91">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="AO91">
-        <v>2.67</v>
+        <v>1.46</v>
       </c>
       <c r="AP91">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ91">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR91">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20005,25 +20005,25 @@
         <v>1.4</v>
       </c>
       <c r="AN92">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO92">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR92">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS92">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT92">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU92">
         <v>5</v>
@@ -20211,22 +20211,22 @@
         <v>1.67</v>
       </c>
       <c r="AN93">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO93">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP93">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR93">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS93">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT93">
         <v>3.32</v>
@@ -20417,25 +20417,25 @@
         <v>1.38</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO94">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP94">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ94">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR94">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS94">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AT94">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU94">
         <v>2</v>
@@ -20623,25 +20623,25 @@
         <v>1.5</v>
       </c>
       <c r="AN95">
-        <v>0.43</v>
+        <v>1.36</v>
       </c>
       <c r="AO95">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP95">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AS95">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT95">
-        <v>3.57</v>
+        <v>3.67</v>
       </c>
       <c r="AU95">
         <v>6</v>
@@ -20829,25 +20829,25 @@
         <v>1.83</v>
       </c>
       <c r="AN96">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AO96">
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ96">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR96">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AT96">
-        <v>3.43</v>
+        <v>2.99</v>
       </c>
       <c r="AU96">
         <v>8</v>
@@ -21035,25 +21035,25 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>0.38</v>
+        <v>1.14</v>
       </c>
       <c r="AO97">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP97">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR97">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS97">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -21244,22 +21244,22 @@
         <v>1</v>
       </c>
       <c r="AO98">
+        <v>1.33</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
         <v>1.43</v>
       </c>
-      <c r="AP98">
-        <v>0.91</v>
-      </c>
-      <c r="AQ98">
-        <v>1.5</v>
-      </c>
       <c r="AR98">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AS98">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21447,25 +21447,25 @@
         <v>1.62</v>
       </c>
       <c r="AN99">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO99">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS99">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21653,25 +21653,25 @@
         <v>1.44</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO100">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ100">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR100">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21859,25 +21859,25 @@
         <v>1.7</v>
       </c>
       <c r="AN101">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO101">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR101">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS101">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AT101">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22065,25 +22065,25 @@
         <v>1.67</v>
       </c>
       <c r="AN102">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO102">
-        <v>2.17</v>
+        <v>1.07</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AS102">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22271,25 +22271,25 @@
         <v>1.36</v>
       </c>
       <c r="AN103">
+        <v>1.33</v>
+      </c>
+      <c r="AO103">
+        <v>1.33</v>
+      </c>
+      <c r="AP103">
+        <v>1.55</v>
+      </c>
+      <c r="AQ103">
         <v>1.38</v>
       </c>
-      <c r="AO103">
-        <v>2.29</v>
-      </c>
-      <c r="AP103">
-        <v>1.75</v>
-      </c>
-      <c r="AQ103">
-        <v>2.09</v>
-      </c>
       <c r="AR103">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AS103">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AT103">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="AU103">
         <v>3</v>
@@ -22477,25 +22477,25 @@
         <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AO104">
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AS104">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="AT104">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22683,25 +22683,25 @@
         <v>1.97</v>
       </c>
       <c r="AN105">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AO105">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR105">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AS105">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="AU105">
         <v>7</v>
@@ -22892,22 +22892,22 @@
         <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR106">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="AS106">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23095,25 +23095,25 @@
         <v>1.22</v>
       </c>
       <c r="AN107">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO107">
-        <v>2.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AS107">
         <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23301,25 +23301,25 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
+        <v>1.4</v>
+      </c>
+      <c r="AO108">
+        <v>1.31</v>
+      </c>
+      <c r="AP108">
         <v>1.38</v>
       </c>
-      <c r="AO108">
-        <v>1.25</v>
-      </c>
-      <c r="AP108">
-        <v>1.27</v>
-      </c>
       <c r="AQ108">
+        <v>1.38</v>
+      </c>
+      <c r="AR108">
+        <v>1.4</v>
+      </c>
+      <c r="AS108">
         <v>1.36</v>
       </c>
-      <c r="AR108">
-        <v>1.47</v>
-      </c>
-      <c r="AS108">
-        <v>1.5</v>
-      </c>
       <c r="AT108">
-        <v>2.97</v>
+        <v>2.76</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -23507,25 +23507,25 @@
         <v>1.5</v>
       </c>
       <c r="AN109">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO109">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ109">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR109">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -23713,25 +23713,25 @@
         <v>1.45</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO110">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP110">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR110">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS110">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="AT110">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -23919,25 +23919,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO111">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AP111">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR111">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AT111">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24125,25 +24125,25 @@
         <v>1.59</v>
       </c>
       <c r="AN112">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AO112">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ112">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24331,25 +24331,25 @@
         <v>1.42</v>
       </c>
       <c r="AN113">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AO113">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR113">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="AU113">
         <v>3</v>
@@ -24537,25 +24537,25 @@
         <v>2.05</v>
       </c>
       <c r="AN114">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO114">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ114">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR114">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AS114">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT114">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24743,25 +24743,25 @@
         <v>1.33</v>
       </c>
       <c r="AN115">
-        <v>0.33</v>
+        <v>1.18</v>
       </c>
       <c r="AO115">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AP115">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
       </c>
       <c r="AS115">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT115">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24949,25 +24949,25 @@
         <v>1.53</v>
       </c>
       <c r="AN116">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AO116">
-        <v>2.13</v>
+        <v>1.11</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR116">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AS116">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT116">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25155,25 +25155,25 @@
         <v>1.91</v>
       </c>
       <c r="AN117">
-        <v>0.5</v>
+        <v>1.24</v>
       </c>
       <c r="AO117">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AP117">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR117">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS117">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AT117">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25361,25 +25361,25 @@
         <v>1.33</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AO118">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR118">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS118">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AT118">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25567,25 +25567,25 @@
         <v>2.37</v>
       </c>
       <c r="AN119">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP119">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR119">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AS119">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="AU119">
         <v>9</v>
@@ -25773,25 +25773,25 @@
         <v>1.5</v>
       </c>
       <c r="AN120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO120">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP120">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR120">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AS120">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT120">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -25982,22 +25982,22 @@
         <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR121">
+        <v>1.48</v>
+      </c>
+      <c r="AS121">
         <v>1.57</v>
       </c>
-      <c r="AS121">
-        <v>1.54</v>
-      </c>
       <c r="AT121">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="AU121">
         <v>7</v>
@@ -26185,25 +26185,25 @@
         <v>1.38</v>
       </c>
       <c r="AN122">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AS122">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AT122">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26391,25 +26391,25 @@
         <v>1.82</v>
       </c>
       <c r="AN123">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AO123">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP123">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT123">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="AU123">
         <v>6</v>
@@ -26597,25 +26597,25 @@
         <v>1.35</v>
       </c>
       <c r="AN124">
+        <v>1.39</v>
+      </c>
+      <c r="AO124">
+        <v>1.39</v>
+      </c>
+      <c r="AP124">
         <v>1.38</v>
       </c>
-      <c r="AO124">
-        <v>1.44</v>
-      </c>
-      <c r="AP124">
-        <v>1.4</v>
-      </c>
       <c r="AQ124">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AR124">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AS124">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT124">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26803,22 +26803,22 @@
         <v>1.24</v>
       </c>
       <c r="AN125">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AO125">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AP125">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ125">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AR125">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS125">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
         <v>2.69</v>
@@ -27009,25 +27009,25 @@
         <v>2.2</v>
       </c>
       <c r="AN126">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AO126">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ126">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR126">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AS126">
         <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27215,25 +27215,25 @@
         <v>1.5</v>
       </c>
       <c r="AN127">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AO127">
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ127">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR127">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AS127">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT127">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27421,25 +27421,25 @@
         <v>1.53</v>
       </c>
       <c r="AN128">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="AO128">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ128">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AT128">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27627,25 +27627,25 @@
         <v>1.75</v>
       </c>
       <c r="AN129">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR129">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS129">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AT129">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27833,25 +27833,25 @@
         <v>1.18</v>
       </c>
       <c r="AN130">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO130">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AP130">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
       </c>
       <c r="AS130">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="AT130">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28039,25 +28039,25 @@
         <v>1.55</v>
       </c>
       <c r="AN131">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AO131">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR131">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS131">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT131">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28245,25 +28245,25 @@
         <v>1.51</v>
       </c>
       <c r="AN132">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AO132">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ132">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR132">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS132">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT132">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28451,25 +28451,25 @@
         <v>1.79</v>
       </c>
       <c r="AN133">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO133">
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ133">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT133">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28657,25 +28657,25 @@
         <v>1.46</v>
       </c>
       <c r="AN134">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO134">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="AQ134">
-        <v>2.09</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS134">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AT134">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="AU134">
         <v>6</v>
@@ -28863,25 +28863,25 @@
         <v>1.52</v>
       </c>
       <c r="AN135">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR135">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS135">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AT135">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29069,25 +29069,25 @@
         <v>2.1</v>
       </c>
       <c r="AN136">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AO136">
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT136">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="AU136">
         <v>3</v>
@@ -29281,19 +29281,19 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR137">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS137">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29481,25 +29481,25 @@
         <v>2.15</v>
       </c>
       <c r="AN138">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AO138">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR138">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS138">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29687,25 +29687,25 @@
         <v>2.25</v>
       </c>
       <c r="AN139">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO139">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AQ139">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AR139">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS139">
         <v>1.3</v>
       </c>
       <c r="AT139">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU139">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['58', '74', '90+3']</t>
   </si>
   <si>
+    <t>['7', '52']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -773,6 +779,12 @@
   </si>
   <si>
     <t>['50', '69', '77', '84']</t>
+  </si>
+  <si>
+    <t>['44', '54', '67']</t>
+  </si>
+  <si>
+    <t>['68', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1405,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1471,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1677,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1805,7 +1817,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1883,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2089,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2229,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2295,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2423,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2501,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ7">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2629,7 +2641,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2701,25 +2713,25 @@
         <v>1.67</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR8">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -2913,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3119,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3247,7 +3259,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3319,25 +3331,25 @@
         <v>1.44</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR11">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3453,7 +3465,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3525,25 +3537,25 @@
         <v>1.44</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR12">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3659,7 +3671,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3737,19 +3749,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -3937,25 +3949,25 @@
         <v>1.3</v>
       </c>
       <c r="AN14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ14">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR14">
-        <v>1.29</v>
+        <v>0.9</v>
       </c>
       <c r="AS14">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>2.94</v>
+        <v>2.57</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4143,25 +4155,25 @@
         <v>1.4</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
-        <v>2.31</v>
+        <v>2.89</v>
       </c>
       <c r="AS15">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AT15">
-        <v>3.69</v>
+        <v>4.72</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4277,7 +4289,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4349,22 +4361,22 @@
         <v>1.57</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ16">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR16">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="AS16">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AT16">
         <v>3.94</v>
@@ -4483,7 +4495,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4555,25 +4567,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.82</v>
+      </c>
+      <c r="AQ17">
         <v>1.5</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1.38</v>
-      </c>
-      <c r="AQ17">
-        <v>1.43</v>
-      </c>
       <c r="AR17">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="AS17">
         <v>0.48</v>
       </c>
       <c r="AT17">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4689,7 +4701,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4764,22 +4776,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR18">
-        <v>1.86</v>
+        <v>1.18</v>
       </c>
       <c r="AS18">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.67</v>
+        <v>1.18</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -4895,7 +4907,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4967,25 +4979,25 @@
         <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR19">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AS19">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5173,25 +5185,25 @@
         <v>1.49</v>
       </c>
       <c r="AN20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AS20">
-        <v>1.55</v>
+        <v>2.54</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>4.02</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5307,7 +5319,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5379,25 +5391,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS21">
         <v>0.67</v>
       </c>
       <c r="AT21">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5513,7 +5525,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5585,25 +5597,25 @@
         <v>1.43</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>0.93</v>
       </c>
       <c r="AS22">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AT22">
-        <v>3.03</v>
+        <v>2.22</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5791,25 +5803,25 @@
         <v>1.4</v>
       </c>
       <c r="AN23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="AS23">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="AT23">
-        <v>4.11</v>
+        <v>4.62</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5997,25 +6009,25 @@
         <v>1.9</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR24">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AT24">
-        <v>2.71</v>
+        <v>3.31</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6131,7 +6143,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6203,25 +6215,25 @@
         <v>1.67</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR25">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="AS25">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AT25">
-        <v>3.93</v>
+        <v>3.75</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6409,25 +6421,25 @@
         <v>2.45</v>
       </c>
       <c r="AN26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
-        <v>1.47</v>
+        <v>1.81</v>
       </c>
       <c r="AS26">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AT26">
-        <v>2.56</v>
+        <v>3.01</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -6543,7 +6555,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6615,25 +6627,25 @@
         <v>1.62</v>
       </c>
       <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0.5</v>
+      </c>
+      <c r="AP27">
         <v>1.75</v>
       </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>1.55</v>
-      </c>
       <c r="AQ27">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR27">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AS27">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>3.19</v>
+        <v>2.9</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6749,7 +6761,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6827,19 +6839,19 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ28">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AS28">
         <v>0.82</v>
       </c>
       <c r="AT28">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU28">
         <v>7</v>
@@ -6955,7 +6967,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7027,25 +7039,25 @@
         <v>1.22</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ29">
         <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS29">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="AT29">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7161,7 +7173,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7233,25 +7245,25 @@
         <v>1.8</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ30">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR30">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="AS30">
-        <v>1.53</v>
+        <v>1.03</v>
       </c>
       <c r="AT30">
-        <v>3.87</v>
+        <v>3.32</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7367,7 +7379,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7439,25 +7451,25 @@
         <v>1.3</v>
       </c>
       <c r="AN31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO31">
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR31">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>3.27</v>
+        <v>2.79</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7573,7 +7585,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7645,25 +7657,25 @@
         <v>1.73</v>
       </c>
       <c r="AN32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR32">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="AS32">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AT32">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7851,25 +7863,25 @@
         <v>1.6</v>
       </c>
       <c r="AN33">
+        <v>1.33</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
         <v>1.4</v>
       </c>
-      <c r="AO33">
-        <v>1</v>
-      </c>
-      <c r="AP33">
-        <v>1.38</v>
-      </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="AS33">
         <v>0.88</v>
       </c>
       <c r="AT33">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -7985,7 +7997,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8057,25 +8069,25 @@
         <v>1.61</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ34">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="AS34">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>3.02</v>
+        <v>3.52</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8263,25 +8275,25 @@
         <v>1.7</v>
       </c>
       <c r="AN35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO35">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AT35">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="AU35">
         <v>11</v>
@@ -8469,25 +8481,25 @@
         <v>1.27</v>
       </c>
       <c r="AN36">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ36">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AS36">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8603,7 +8615,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8675,25 +8687,25 @@
         <v>1.28</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO37">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR37">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AS37">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AT37">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="AU37">
         <v>12</v>
@@ -8881,25 +8893,25 @@
         <v>1.78</v>
       </c>
       <c r="AN38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AS38">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="AT38">
-        <v>3.27</v>
+        <v>3.74</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9015,7 +9027,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9087,25 +9099,25 @@
         <v>1.57</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ39">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR39">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT39">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9221,7 +9233,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9293,25 +9305,25 @@
         <v>1.55</v>
       </c>
       <c r="AN40">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR40">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AS40">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AT40">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9427,7 +9439,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9499,25 +9511,25 @@
         <v>2.25</v>
       </c>
       <c r="AN41">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="AS41">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AT41">
-        <v>2.69</v>
+        <v>2.9</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9633,7 +9645,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9705,25 +9717,25 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO42">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS42">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="AT42">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9839,7 +9851,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9917,19 +9929,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS43">
         <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10045,7 +10057,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10117,25 +10129,25 @@
         <v>1.32</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO44">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR44">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AT44">
-        <v>3.93</v>
+        <v>4.07</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10251,7 +10263,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10323,25 +10335,25 @@
         <v>1.5</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO45">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS45">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10457,7 +10469,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10529,25 +10541,25 @@
         <v>1.38</v>
       </c>
       <c r="AN46">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR46">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AS46">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AT46">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10663,7 +10675,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10735,25 +10747,25 @@
         <v>1.28</v>
       </c>
       <c r="AN47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO47">
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ47">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AS47">
         <v>1.07</v>
       </c>
       <c r="AT47">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -10941,25 +10953,25 @@
         <v>1.67</v>
       </c>
       <c r="AN48">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AO48">
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ48">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AS48">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AT48">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11147,25 +11159,25 @@
         <v>1.46</v>
       </c>
       <c r="AN49">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR49">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11353,25 +11365,25 @@
         <v>1.51</v>
       </c>
       <c r="AN50">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT50">
-        <v>3.08</v>
+        <v>2.72</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11487,7 +11499,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11559,25 +11571,25 @@
         <v>2.48</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ51">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11693,7 +11705,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11765,25 +11777,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AS52">
         <v>1.13</v>
       </c>
       <c r="AT52">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU52">
         <v>2</v>
@@ -11899,7 +11911,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -11974,22 +11986,22 @@
         <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
         <v>1</v>
       </c>
       <c r="AR53">
+        <v>2</v>
+      </c>
+      <c r="AS53">
         <v>1.92</v>
       </c>
-      <c r="AS53">
-        <v>1.91</v>
-      </c>
       <c r="AT53">
-        <v>3.83</v>
+        <v>3.92</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12105,7 +12117,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12177,25 +12189,25 @@
         <v>1.36</v>
       </c>
       <c r="AN54">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO54">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR54">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AT54">
-        <v>3.17</v>
+        <v>2.95</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12383,25 +12395,25 @@
         <v>1.5</v>
       </c>
       <c r="AN55">
+        <v>1.25</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>1.4</v>
+      </c>
+      <c r="AQ55">
         <v>1.5</v>
       </c>
-      <c r="AO55">
-        <v>1.14</v>
-      </c>
-      <c r="AP55">
-        <v>1.38</v>
-      </c>
-      <c r="AQ55">
-        <v>1.38</v>
-      </c>
       <c r="AR55">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
-        <v>3.07</v>
+        <v>2.74</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12517,7 +12529,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12589,25 +12601,25 @@
         <v>1.45</v>
       </c>
       <c r="AN56">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AO56">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AT56">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12723,7 +12735,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12795,25 +12807,25 @@
         <v>1.44</v>
       </c>
       <c r="AN57">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AO57">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR57">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS57">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AT57">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -12929,7 +12941,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13001,25 +13013,25 @@
         <v>1.24</v>
       </c>
       <c r="AN58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR58">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS58">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AT58">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="AU58">
         <v>5</v>
@@ -13135,7 +13147,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13207,25 +13219,25 @@
         <v>1.42</v>
       </c>
       <c r="AN59">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO59">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ59">
         <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS59">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT59">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13341,7 +13353,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13413,25 +13425,25 @@
         <v>1.63</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AO60">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ60">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AS60">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT60">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13619,25 +13631,25 @@
         <v>1.71</v>
       </c>
       <c r="AN61">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO61">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13753,7 +13765,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13825,25 +13837,25 @@
         <v>1.85</v>
       </c>
       <c r="AN62">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="AO62">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ62">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="AS62">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13959,7 +13971,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14031,25 +14043,25 @@
         <v>2.64</v>
       </c>
       <c r="AN63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ63">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR63">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="AS63">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>3.49</v>
+        <v>3.62</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14165,7 +14177,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14237,25 +14249,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AO64">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ64">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AS64">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
-        <v>2.78</v>
+        <v>3.01</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14371,7 +14383,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14443,25 +14455,25 @@
         <v>1.69</v>
       </c>
       <c r="AN65">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -14649,25 +14661,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AO66">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AS66">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -14783,7 +14795,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14855,25 +14867,25 @@
         <v>1.58</v>
       </c>
       <c r="AN67">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR67">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AS67">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT67">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15061,25 +15073,25 @@
         <v>2.09</v>
       </c>
       <c r="AN68">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AT68">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15270,22 +15282,22 @@
         <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ69">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR69">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AS69">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AT69">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15401,7 +15413,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15473,25 +15485,25 @@
         <v>1.61</v>
       </c>
       <c r="AN70">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AO70">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AS70">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AT70">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15679,25 +15691,25 @@
         <v>1.75</v>
       </c>
       <c r="AN71">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
       </c>
       <c r="AR71">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="AS71">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AT71">
-        <v>3.65</v>
+        <v>3.96</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -15885,25 +15897,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
+        <v>1.2</v>
+      </c>
+      <c r="AO72">
+        <v>3</v>
+      </c>
+      <c r="AP72">
         <v>1.4</v>
       </c>
-      <c r="AO72">
-        <v>1.5</v>
-      </c>
-      <c r="AP72">
-        <v>1.38</v>
-      </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR72">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="AS72">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="AT72">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16019,7 +16031,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16091,25 +16103,25 @@
         <v>1.3</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ73">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AS73">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AT73">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="AU73">
         <v>2</v>
@@ -16297,25 +16309,25 @@
         <v>1.31</v>
       </c>
       <c r="AN74">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="AO74">
+        <v>1.6</v>
+      </c>
+      <c r="AP74">
+        <v>0.7</v>
+      </c>
+      <c r="AQ74">
         <v>1.36</v>
       </c>
-      <c r="AP74">
-        <v>0.77</v>
-      </c>
-      <c r="AQ74">
-        <v>1.38</v>
-      </c>
       <c r="AR74">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS74">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="AT74">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16431,7 +16443,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16503,25 +16515,25 @@
         <v>1.95</v>
       </c>
       <c r="AN75">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AO75">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AS75">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT75">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16637,7 +16649,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16709,25 +16721,25 @@
         <v>1.61</v>
       </c>
       <c r="AN76">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AO76">
+        <v>1.4</v>
+      </c>
+      <c r="AP76">
+        <v>1.36</v>
+      </c>
+      <c r="AQ76">
+        <v>2.27</v>
+      </c>
+      <c r="AR76">
+        <v>1.48</v>
+      </c>
+      <c r="AS76">
         <v>1.55</v>
       </c>
-      <c r="AP76">
-        <v>1.48</v>
-      </c>
-      <c r="AQ76">
-        <v>1.81</v>
-      </c>
-      <c r="AR76">
-        <v>1.54</v>
-      </c>
-      <c r="AS76">
-        <v>1.57</v>
-      </c>
       <c r="AT76">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -16915,25 +16927,25 @@
         <v>1.27</v>
       </c>
       <c r="AN77">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AO77">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR77">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AS77">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="AT77">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17121,25 +17133,25 @@
         <v>1.21</v>
       </c>
       <c r="AN78">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
       <c r="AO78">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ78">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR78">
+        <v>1.37</v>
+      </c>
+      <c r="AS78">
         <v>1.36</v>
       </c>
-      <c r="AS78">
-        <v>1.68</v>
-      </c>
       <c r="AT78">
-        <v>3.04</v>
+        <v>2.73</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17255,7 +17267,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17327,25 +17339,25 @@
         <v>1.7</v>
       </c>
       <c r="AN79">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AO79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AS79">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AT79">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17536,22 +17548,22 @@
         <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS80">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AT80">
-        <v>2.92</v>
+        <v>3.19</v>
       </c>
       <c r="AU80">
         <v>2</v>
@@ -17739,25 +17751,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AO81">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR81">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="AT81">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17873,7 +17885,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -17945,25 +17957,25 @@
         <v>1.62</v>
       </c>
       <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>1.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.36</v>
+      </c>
+      <c r="AQ82">
         <v>1.5</v>
       </c>
-      <c r="AO82">
-        <v>1.33</v>
-      </c>
-      <c r="AP82">
-        <v>1.48</v>
-      </c>
-      <c r="AQ82">
-        <v>1.38</v>
-      </c>
       <c r="AR82">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS82">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT82">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18079,7 +18091,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18151,25 +18163,25 @@
         <v>2.4</v>
       </c>
       <c r="AN83">
-        <v>1.58</v>
+        <v>0.5</v>
       </c>
       <c r="AO83">
-        <v>0.83</v>
+        <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ83">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR83">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AS83">
         <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18357,25 +18369,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AS84">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT84">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18563,25 +18575,25 @@
         <v>1.83</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>0.91</v>
+      </c>
+      <c r="AQ85">
         <v>0.83</v>
-      </c>
-      <c r="AP85">
-        <v>1</v>
-      </c>
-      <c r="AQ85">
-        <v>0.77</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
       </c>
       <c r="AS85">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT85">
-        <v>3.03</v>
+        <v>2.95</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18697,7 +18709,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18769,25 +18781,25 @@
         <v>1.8</v>
       </c>
       <c r="AN86">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AO86">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AS86">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AT86">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -18975,25 +18987,25 @@
         <v>1.4</v>
       </c>
       <c r="AN87">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AO87">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS87">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AT87">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="AU87">
         <v>4</v>
@@ -19109,7 +19121,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19181,25 +19193,25 @@
         <v>1.75</v>
       </c>
       <c r="AN88">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AO88">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR88">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AS88">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AT88">
-        <v>3.16</v>
+        <v>3.46</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19315,7 +19327,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19387,25 +19399,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP89">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ89">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR89">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT89">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19593,25 +19605,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AO90">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AT90">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19799,25 +19811,25 @@
         <v>1.2</v>
       </c>
       <c r="AN91">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="AO91">
-        <v>1.46</v>
+        <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR91">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS91">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>3.07</v>
+        <v>3.23</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -19933,7 +19945,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20005,25 +20017,25 @@
         <v>1.4</v>
       </c>
       <c r="AN92">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AO92">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR92">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AS92">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT92">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU92">
         <v>5</v>
@@ -20139,7 +20151,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20211,22 +20223,22 @@
         <v>1.67</v>
       </c>
       <c r="AN93">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AO93">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ93">
         <v>1</v>
       </c>
       <c r="AR93">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AS93">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT93">
         <v>3.32</v>
@@ -20417,25 +20429,25 @@
         <v>1.38</v>
       </c>
       <c r="AN94">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO94">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ94">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR94">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS94">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AT94">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU94">
         <v>2</v>
@@ -20551,7 +20563,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20623,25 +20635,25 @@
         <v>1.5</v>
       </c>
       <c r="AN95">
-        <v>1.36</v>
+        <v>0.43</v>
       </c>
       <c r="AO95">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AS95">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AT95">
-        <v>3.67</v>
+        <v>3.57</v>
       </c>
       <c r="AU95">
         <v>6</v>
@@ -20829,25 +20841,25 @@
         <v>1.83</v>
       </c>
       <c r="AN96">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AO96">
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR96">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="AS96">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AT96">
-        <v>2.99</v>
+        <v>3.43</v>
       </c>
       <c r="AU96">
         <v>8</v>
@@ -20963,7 +20975,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21035,25 +21047,25 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>1.14</v>
+        <v>0.38</v>
       </c>
       <c r="AO97">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ97">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS97">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AT97">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -21244,22 +21256,22 @@
         <v>1</v>
       </c>
       <c r="AO98">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR98">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AS98">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AT98">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21375,7 +21387,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21447,25 +21459,25 @@
         <v>1.62</v>
       </c>
       <c r="AN99">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AO99">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS99">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21581,7 +21593,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21653,25 +21665,25 @@
         <v>1.44</v>
       </c>
       <c r="AN100">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ100">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR100">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AT100">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21859,25 +21871,25 @@
         <v>1.7</v>
       </c>
       <c r="AN101">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO101">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT101">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -21993,7 +22005,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22065,25 +22077,25 @@
         <v>1.67</v>
       </c>
       <c r="AN102">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO102">
-        <v>1.07</v>
+        <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR102">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="AS102">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT102">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22271,25 +22283,25 @@
         <v>1.36</v>
       </c>
       <c r="AN103">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO103">
-        <v>1.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR103">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="AS103">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="AT103">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="AU103">
         <v>3</v>
@@ -22477,25 +22489,25 @@
         <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AO104">
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AS104">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="AT104">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22683,25 +22695,25 @@
         <v>1.97</v>
       </c>
       <c r="AN105">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AO105">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT105">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AU105">
         <v>7</v>
@@ -22892,22 +22904,22 @@
         <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR106">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="AS106">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT106">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23095,25 +23107,25 @@
         <v>1.22</v>
       </c>
       <c r="AN107">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO107">
-        <v>1.31</v>
+        <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR107">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS107">
         <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23229,7 +23241,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23301,25 +23313,25 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AO108">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -23435,7 +23447,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23507,25 +23519,25 @@
         <v>1.5</v>
       </c>
       <c r="AN109">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AO109">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ109">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR109">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT109">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -23713,25 +23725,25 @@
         <v>1.45</v>
       </c>
       <c r="AN110">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO110">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ110">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR110">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AS110">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="AT110">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -23847,7 +23859,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23919,25 +23931,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO111">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR111">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS111">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT111">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24053,7 +24065,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24125,25 +24137,25 @@
         <v>1.59</v>
       </c>
       <c r="AN112">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AO112">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ112">
+        <v>1.3</v>
+      </c>
+      <c r="AR112">
         <v>1.55</v>
       </c>
-      <c r="AR112">
-        <v>1.5</v>
-      </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AT112">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24331,25 +24343,25 @@
         <v>1.42</v>
       </c>
       <c r="AN113">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AO113">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AT113">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="AU113">
         <v>3</v>
@@ -24465,7 +24477,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24537,25 +24549,25 @@
         <v>2.05</v>
       </c>
       <c r="AN114">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO114">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR114">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AS114">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AT114">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24671,7 +24683,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24743,25 +24755,25 @@
         <v>1.33</v>
       </c>
       <c r="AN115">
-        <v>1.18</v>
+        <v>0.33</v>
       </c>
       <c r="AO115">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ115">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
       </c>
       <c r="AS115">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AT115">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -24877,7 +24889,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24949,25 +24961,25 @@
         <v>1.53</v>
       </c>
       <c r="AN116">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AO116">
-        <v>1.11</v>
+        <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR116">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AS116">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT116">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25083,7 +25095,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25155,25 +25167,25 @@
         <v>1.91</v>
       </c>
       <c r="AN117">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="AO117">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ117">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AS117">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AT117">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25289,7 +25301,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25361,25 +25373,25 @@
         <v>1.33</v>
       </c>
       <c r="AN118">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP118">
+        <v>1.17</v>
+      </c>
+      <c r="AQ118">
+        <v>2.1</v>
+      </c>
+      <c r="AR118">
+        <v>1.45</v>
+      </c>
+      <c r="AS118">
         <v>1.38</v>
       </c>
-      <c r="AQ118">
-        <v>2.05</v>
-      </c>
-      <c r="AR118">
-        <v>1.4</v>
-      </c>
-      <c r="AS118">
-        <v>1.63</v>
-      </c>
       <c r="AT118">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25495,7 +25507,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25567,25 +25579,25 @@
         <v>2.37</v>
       </c>
       <c r="AN119">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AO119">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR119">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AS119">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT119">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="AU119">
         <v>9</v>
@@ -25701,7 +25713,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25773,25 +25785,25 @@
         <v>1.5</v>
       </c>
       <c r="AN120">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO120">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ120">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR120">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AS120">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AT120">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -25982,22 +25994,22 @@
         <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AS121">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT121">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="AU121">
         <v>7</v>
@@ -26113,7 +26125,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26185,25 +26197,25 @@
         <v>1.38</v>
       </c>
       <c r="AN122">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AO122">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR122">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS122">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26319,7 +26331,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26391,25 +26403,25 @@
         <v>1.82</v>
       </c>
       <c r="AN123">
-        <v>1.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO123">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
       <c r="AQ123">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AS123">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT123">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="AU123">
         <v>6</v>
@@ -26525,7 +26537,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26597,25 +26609,25 @@
         <v>1.35</v>
       </c>
       <c r="AN124">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AO124">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AS124">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT124">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26731,7 +26743,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26803,22 +26815,22 @@
         <v>1.24</v>
       </c>
       <c r="AN125">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AO125">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AP125">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ125">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="AR125">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AT125">
         <v>2.69</v>
@@ -27009,25 +27021,25 @@
         <v>2.2</v>
       </c>
       <c r="AN126">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AO126">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AP126">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="AR126">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS126">
         <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27143,7 +27155,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27215,25 +27227,25 @@
         <v>1.5</v>
       </c>
       <c r="AN127">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="AO127">
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ127">
         <v>1</v>
       </c>
       <c r="AR127">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AT127">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27349,7 +27361,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27421,25 +27433,25 @@
         <v>1.53</v>
       </c>
       <c r="AN128">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="AO128">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AR128">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS128">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AT128">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27627,25 +27639,25 @@
         <v>1.75</v>
       </c>
       <c r="AN129">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AO129">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AS129">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27761,7 +27773,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27833,25 +27845,25 @@
         <v>1.18</v>
       </c>
       <c r="AN130">
-        <v>1.05</v>
+        <v>0.3</v>
       </c>
       <c r="AO130">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
       </c>
       <c r="AS130">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AT130">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28039,25 +28051,25 @@
         <v>1.55</v>
       </c>
       <c r="AN131">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AO131">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS131">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT131">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28173,7 +28185,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28245,25 +28257,25 @@
         <v>1.51</v>
       </c>
       <c r="AN132">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AO132">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="AP132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR132">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS132">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AT132">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28451,25 +28463,25 @@
         <v>1.79</v>
       </c>
       <c r="AN133">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO133">
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT133">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28585,7 +28597,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28657,25 +28669,25 @@
         <v>1.46</v>
       </c>
       <c r="AN134">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AO134">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>2.09</v>
       </c>
       <c r="AR134">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="AT134">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="AU134">
         <v>6</v>
@@ -28791,7 +28803,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28863,25 +28875,25 @@
         <v>1.52</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO135">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ135">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS135">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT135">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29069,25 +29081,25 @@
         <v>2.1</v>
       </c>
       <c r="AN136">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AO136">
         <v>1.4</v>
       </c>
       <c r="AP136">
+        <v>1.36</v>
+      </c>
+      <c r="AQ136">
+        <v>1.36</v>
+      </c>
+      <c r="AR136">
+        <v>1.88</v>
+      </c>
+      <c r="AS136">
         <v>1.43</v>
       </c>
-      <c r="AQ136">
-        <v>1.38</v>
-      </c>
-      <c r="AR136">
-        <v>1.78</v>
-      </c>
-      <c r="AS136">
-        <v>1.39</v>
-      </c>
       <c r="AT136">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
       <c r="AU136">
         <v>3</v>
@@ -29203,7 +29215,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29281,19 +29293,19 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR137">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS137">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AT137">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29481,25 +29493,25 @@
         <v>2.15</v>
       </c>
       <c r="AN138">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AO138">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR138">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS138">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT138">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29615,7 +29627,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29687,25 +29699,25 @@
         <v>2.25</v>
       </c>
       <c r="AN139">
+        <v>1.5</v>
+      </c>
+      <c r="AO139">
+        <v>1.8</v>
+      </c>
+      <c r="AP139">
+        <v>1.36</v>
+      </c>
+      <c r="AQ139">
+        <v>1.91</v>
+      </c>
+      <c r="AR139">
         <v>1.55</v>
-      </c>
-      <c r="AO139">
-        <v>1</v>
-      </c>
-      <c r="AP139">
-        <v>1.48</v>
-      </c>
-      <c r="AQ139">
-        <v>1.09</v>
-      </c>
-      <c r="AR139">
-        <v>1.57</v>
       </c>
       <c r="AS139">
         <v>1.3</v>
       </c>
       <c r="AT139">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -29772,6 +29784,624 @@
       </c>
       <c r="BP139">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7332494</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45496.3125</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>76</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>174</v>
+      </c>
+      <c r="P140" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q140">
+        <v>2.55</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>4.33</v>
+      </c>
+      <c r="T140">
+        <v>1.45</v>
+      </c>
+      <c r="U140">
+        <v>2.55</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>7.9</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>1.88</v>
+      </c>
+      <c r="AA140">
+        <v>3.38</v>
+      </c>
+      <c r="AB140">
+        <v>3.82</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>8</v>
+      </c>
+      <c r="AE140">
+        <v>1.36</v>
+      </c>
+      <c r="AF140">
+        <v>3</v>
+      </c>
+      <c r="AG140">
+        <v>2.05</v>
+      </c>
+      <c r="AH140">
+        <v>1.68</v>
+      </c>
+      <c r="AI140">
+        <v>1.85</v>
+      </c>
+      <c r="AJ140">
+        <v>1.8</v>
+      </c>
+      <c r="AK140">
+        <v>1.2</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.85</v>
+      </c>
+      <c r="AN140">
+        <v>0.6</v>
+      </c>
+      <c r="AO140">
+        <v>1.1</v>
+      </c>
+      <c r="AP140">
+        <v>0.82</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>1.85</v>
+      </c>
+      <c r="AS140">
+        <v>1.62</v>
+      </c>
+      <c r="AT140">
+        <v>3.47</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>10</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>5</v>
+      </c>
+      <c r="BD140">
+        <v>1.69</v>
+      </c>
+      <c r="BE140">
+        <v>6.45</v>
+      </c>
+      <c r="BF140">
+        <v>2.69</v>
+      </c>
+      <c r="BG140">
+        <v>1.25</v>
+      </c>
+      <c r="BH140">
+        <v>3.6</v>
+      </c>
+      <c r="BI140">
+        <v>1.44</v>
+      </c>
+      <c r="BJ140">
+        <v>2.6</v>
+      </c>
+      <c r="BK140">
+        <v>1.75</v>
+      </c>
+      <c r="BL140">
+        <v>2.04</v>
+      </c>
+      <c r="BM140">
+        <v>2.19</v>
+      </c>
+      <c r="BN140">
+        <v>1.65</v>
+      </c>
+      <c r="BO140">
+        <v>2.7</v>
+      </c>
+      <c r="BP140">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7332495</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45496.3125</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>88</v>
+      </c>
+      <c r="P141" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q141">
+        <v>4.25</v>
+      </c>
+      <c r="R141">
+        <v>2.02</v>
+      </c>
+      <c r="S141">
+        <v>2.59</v>
+      </c>
+      <c r="T141">
+        <v>1.45</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.1</v>
+      </c>
+      <c r="W141">
+        <v>1.34</v>
+      </c>
+      <c r="X141">
+        <v>8.1</v>
+      </c>
+      <c r="Y141">
+        <v>1.06</v>
+      </c>
+      <c r="Z141">
+        <v>3.53</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>1.99</v>
+      </c>
+      <c r="AC141">
+        <v>1.03</v>
+      </c>
+      <c r="AD141">
+        <v>7.9</v>
+      </c>
+      <c r="AE141">
+        <v>1.38</v>
+      </c>
+      <c r="AF141">
+        <v>3.12</v>
+      </c>
+      <c r="AG141">
+        <v>2.1</v>
+      </c>
+      <c r="AH141">
+        <v>1.65</v>
+      </c>
+      <c r="AI141">
+        <v>1.86</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>1.72</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.25</v>
+      </c>
+      <c r="AN141">
+        <v>1.27</v>
+      </c>
+      <c r="AO141">
+        <v>1.5</v>
+      </c>
+      <c r="AP141">
+        <v>1.17</v>
+      </c>
+      <c r="AQ141">
+        <v>1.64</v>
+      </c>
+      <c r="AR141">
+        <v>1.41</v>
+      </c>
+      <c r="AS141">
+        <v>1.68</v>
+      </c>
+      <c r="AT141">
+        <v>3.09</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>11</v>
+      </c>
+      <c r="AX141">
+        <v>2</v>
+      </c>
+      <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
+        <v>6</v>
+      </c>
+      <c r="BA141">
+        <v>13</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>18</v>
+      </c>
+      <c r="BD141">
+        <v>2.39</v>
+      </c>
+      <c r="BE141">
+        <v>6.2</v>
+      </c>
+      <c r="BF141">
+        <v>1.86</v>
+      </c>
+      <c r="BG141">
+        <v>1.38</v>
+      </c>
+      <c r="BH141">
+        <v>2.8</v>
+      </c>
+      <c r="BI141">
+        <v>1.66</v>
+      </c>
+      <c r="BJ141">
+        <v>2.17</v>
+      </c>
+      <c r="BK141">
+        <v>2.08</v>
+      </c>
+      <c r="BL141">
+        <v>1.72</v>
+      </c>
+      <c r="BM141">
+        <v>2.62</v>
+      </c>
+      <c r="BN141">
+        <v>1.42</v>
+      </c>
+      <c r="BO141">
+        <v>3.4</v>
+      </c>
+      <c r="BP141">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7332496</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45496.3125</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>77</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>175</v>
+      </c>
+      <c r="P142" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q142">
+        <v>3.35</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>3.1</v>
+      </c>
+      <c r="T142">
+        <v>1.45</v>
+      </c>
+      <c r="U142">
+        <v>2.55</v>
+      </c>
+      <c r="V142">
+        <v>3</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>7.7</v>
+      </c>
+      <c r="Y142">
+        <v>1.06</v>
+      </c>
+      <c r="Z142">
+        <v>2.7</v>
+      </c>
+      <c r="AA142">
+        <v>3.24</v>
+      </c>
+      <c r="AB142">
+        <v>2.45</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>8</v>
+      </c>
+      <c r="AE142">
+        <v>1.33</v>
+      </c>
+      <c r="AF142">
+        <v>3.1</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>1.7</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>1.93</v>
+      </c>
+      <c r="AK142">
+        <v>1.5</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.42</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
+        <v>2.2</v>
+      </c>
+      <c r="AP142">
+        <v>0.91</v>
+      </c>
+      <c r="AQ142">
+        <v>2.27</v>
+      </c>
+      <c r="AR142">
+        <v>1.6</v>
+      </c>
+      <c r="AS142">
+        <v>1.52</v>
+      </c>
+      <c r="AT142">
+        <v>3.12</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>7</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>2</v>
+      </c>
+      <c r="BB142">
+        <v>7</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>1.98</v>
+      </c>
+      <c r="BE142">
+        <v>6.1</v>
+      </c>
+      <c r="BF142">
+        <v>2.23</v>
+      </c>
+      <c r="BG142">
+        <v>1.42</v>
+      </c>
+      <c r="BH142">
+        <v>2.62</v>
+      </c>
+      <c r="BI142">
+        <v>1.76</v>
+      </c>
+      <c r="BJ142">
+        <v>2.03</v>
+      </c>
+      <c r="BK142">
+        <v>2.23</v>
+      </c>
+      <c r="BL142">
+        <v>1.63</v>
+      </c>
+      <c r="BM142">
+        <v>2.8</v>
+      </c>
+      <c r="BN142">
+        <v>1.38</v>
+      </c>
+      <c r="BO142">
+        <v>3.6</v>
+      </c>
+      <c r="BP142">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['87', '90+1']</t>
+  </si>
+  <si>
+    <t>['62', '77', '90+2']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -785,6 +791,15 @@
   </si>
   <si>
     <t>['68', '90+8']</t>
+  </si>
+  <si>
+    <t>['52', '70', '78', '89', '90+8']</t>
+  </si>
+  <si>
+    <t>['45', '89', '90+5']</t>
+  </si>
+  <si>
+    <t>['65', '88']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1420,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1483,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1817,7 +1832,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2101,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5">
         <v>2.27</v>
@@ -2229,7 +2244,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2310,7 +2325,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2435,7 +2450,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2516,7 +2531,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2641,7 +2656,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3259,7 +3274,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3465,7 +3480,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3671,7 +3686,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4164,7 +4179,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4289,7 +4304,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4370,7 +4385,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -4495,7 +4510,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4701,7 +4716,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4779,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ18">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4907,7 +4922,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -4985,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ19">
         <v>1.64</v>
@@ -5319,7 +5334,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5525,7 +5540,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5606,7 +5621,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6143,7 +6158,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6555,7 +6570,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6761,7 +6776,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6967,7 +6982,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7173,7 +7188,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7379,7 +7394,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7457,7 +7472,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31">
         <v>1.64</v>
@@ -7585,7 +7600,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7869,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7997,7 +8012,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8078,7 +8093,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8487,10 +8502,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -8615,7 +8630,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9027,7 +9042,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9108,7 +9123,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ39">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9233,7 +9248,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9439,7 +9454,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9645,7 +9660,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9851,7 +9866,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10057,7 +10072,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10263,7 +10278,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10469,7 +10484,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10675,7 +10690,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10753,7 +10768,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10962,7 +10977,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11374,7 +11389,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11499,7 +11514,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11705,7 +11720,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11911,7 +11926,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12117,7 +12132,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12198,7 +12213,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12401,7 +12416,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12529,7 +12544,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12607,7 +12622,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12735,7 +12750,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12816,7 +12831,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12941,7 +12956,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13147,7 +13162,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13353,7 +13368,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13765,7 +13780,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13846,7 +13861,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ62">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -13971,7 +13986,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14177,7 +14192,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14255,10 +14270,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14383,7 +14398,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14795,7 +14810,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15413,7 +15428,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15903,7 +15918,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ72">
         <v>2.09</v>
@@ -16031,7 +16046,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16112,7 +16127,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ73">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16315,7 +16330,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ74">
         <v>1.36</v>
@@ -16443,7 +16458,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16649,7 +16664,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17142,7 +17157,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ78">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17267,7 +17282,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17885,7 +17900,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18091,7 +18106,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18375,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>0.91</v>
@@ -18709,7 +18724,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18790,7 +18805,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -18993,7 +19008,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19121,7 +19136,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19327,7 +19342,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19614,7 +19629,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -19817,7 +19832,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ91">
         <v>2.09</v>
@@ -19945,7 +19960,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20023,7 +20038,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ92">
         <v>2.27</v>
@@ -20151,7 +20166,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20435,7 +20450,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ94">
         <v>0.91</v>
@@ -20563,7 +20578,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20975,7 +20990,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21056,7 +21071,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21387,7 +21402,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21593,7 +21608,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21674,7 +21689,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ100">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21877,7 +21892,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22005,7 +22020,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22083,7 +22098,7 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
         <v>1.91</v>
@@ -22910,7 +22925,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23113,7 +23128,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>2.09</v>
@@ -23241,7 +23256,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23447,7 +23462,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23525,7 +23540,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ109">
         <v>1.91</v>
@@ -23734,7 +23749,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ110">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23859,7 +23874,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24065,7 +24080,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24146,7 +24161,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ112">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24349,7 +24364,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ113">
         <v>1.36</v>
@@ -24477,7 +24492,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24683,7 +24698,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24889,7 +24904,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24967,7 +24982,7 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ116">
         <v>1.91</v>
@@ -25095,7 +25110,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25301,7 +25316,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25382,7 +25397,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25507,7 +25522,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25713,7 +25728,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26000,7 +26015,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26125,7 +26140,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26203,10 +26218,10 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ122">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26331,7 +26346,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26537,7 +26552,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26615,10 +26630,10 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26743,7 +26758,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26821,7 +26836,7 @@
         <v>2.11</v>
       </c>
       <c r="AP125">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ125">
         <v>2.27</v>
@@ -27155,7 +27170,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27361,7 +27376,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27442,7 +27457,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ128">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27645,7 +27660,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27773,7 +27788,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28185,7 +28200,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28597,7 +28612,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28803,7 +28818,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29215,7 +29230,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29293,10 +29308,10 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29627,7 +29642,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29833,7 +29848,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30039,7 +30054,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30153,10 +30168,10 @@
         <v>13</v>
       </c>
       <c r="BB141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD141">
         <v>2.39</v>
@@ -30245,7 +30260,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30401,6 +30416,624 @@
         <v>3.6</v>
       </c>
       <c r="BP142">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7332497</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45497.3125</v>
+      </c>
+      <c r="F143">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>79</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>7</v>
+      </c>
+      <c r="O143" t="s">
+        <v>176</v>
+      </c>
+      <c r="P143" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q143">
+        <v>3.85</v>
+      </c>
+      <c r="R143">
+        <v>1.91</v>
+      </c>
+      <c r="S143">
+        <v>2.95</v>
+      </c>
+      <c r="T143">
+        <v>1.53</v>
+      </c>
+      <c r="U143">
+        <v>2.38</v>
+      </c>
+      <c r="V143">
+        <v>3.4</v>
+      </c>
+      <c r="W143">
+        <v>1.28</v>
+      </c>
+      <c r="X143">
+        <v>9.1</v>
+      </c>
+      <c r="Y143">
+        <v>1.04</v>
+      </c>
+      <c r="Z143">
+        <v>3.15</v>
+      </c>
+      <c r="AA143">
+        <v>3.1</v>
+      </c>
+      <c r="AB143">
+        <v>2.11</v>
+      </c>
+      <c r="AC143">
+        <v>1.08</v>
+      </c>
+      <c r="AD143">
+        <v>7</v>
+      </c>
+      <c r="AE143">
+        <v>1.44</v>
+      </c>
+      <c r="AF143">
+        <v>2.65</v>
+      </c>
+      <c r="AG143">
+        <v>2.2</v>
+      </c>
+      <c r="AH143">
+        <v>1.62</v>
+      </c>
+      <c r="AI143">
+        <v>1.95</v>
+      </c>
+      <c r="AJ143">
+        <v>1.7</v>
+      </c>
+      <c r="AK143">
+        <v>1.62</v>
+      </c>
+      <c r="AL143">
+        <v>1.3</v>
+      </c>
+      <c r="AM143">
+        <v>1.3</v>
+      </c>
+      <c r="AN143">
+        <v>1.33</v>
+      </c>
+      <c r="AO143">
+        <v>1.6</v>
+      </c>
+      <c r="AP143">
+        <v>1.2</v>
+      </c>
+      <c r="AQ143">
+        <v>1.73</v>
+      </c>
+      <c r="AR143">
+        <v>1.37</v>
+      </c>
+      <c r="AS143">
+        <v>1.6</v>
+      </c>
+      <c r="AT143">
+        <v>2.97</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>9</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>7</v>
+      </c>
+      <c r="AZ143">
+        <v>16</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>2</v>
+      </c>
+      <c r="BC143">
+        <v>5</v>
+      </c>
+      <c r="BD143">
+        <v>2.38</v>
+      </c>
+      <c r="BE143">
+        <v>5.85</v>
+      </c>
+      <c r="BF143">
+        <v>1.9</v>
+      </c>
+      <c r="BG143">
+        <v>1.55</v>
+      </c>
+      <c r="BH143">
+        <v>2.38</v>
+      </c>
+      <c r="BI143">
+        <v>1.94</v>
+      </c>
+      <c r="BJ143">
+        <v>1.85</v>
+      </c>
+      <c r="BK143">
+        <v>2.48</v>
+      </c>
+      <c r="BL143">
+        <v>1.51</v>
+      </c>
+      <c r="BM143">
+        <v>3.2</v>
+      </c>
+      <c r="BN143">
+        <v>1.3</v>
+      </c>
+      <c r="BO143">
+        <v>4.33</v>
+      </c>
+      <c r="BP143">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7332498</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45497.3125</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>88</v>
+      </c>
+      <c r="P144" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q144">
+        <v>3.55</v>
+      </c>
+      <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>3.35</v>
+      </c>
+      <c r="T144">
+        <v>1.55</v>
+      </c>
+      <c r="U144">
+        <v>2.3</v>
+      </c>
+      <c r="V144">
+        <v>3.55</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y144">
+        <v>1.03</v>
+      </c>
+      <c r="Z144">
+        <v>2.82</v>
+      </c>
+      <c r="AA144">
+        <v>2.95</v>
+      </c>
+      <c r="AB144">
+        <v>2.55</v>
+      </c>
+      <c r="AC144">
+        <v>1.1</v>
+      </c>
+      <c r="AD144">
+        <v>6.25</v>
+      </c>
+      <c r="AE144">
+        <v>1.5</v>
+      </c>
+      <c r="AF144">
+        <v>2.5</v>
+      </c>
+      <c r="AG144">
+        <v>2.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.5</v>
+      </c>
+      <c r="AI144">
+        <v>2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.67</v>
+      </c>
+      <c r="AK144">
+        <v>1.48</v>
+      </c>
+      <c r="AL144">
+        <v>1.33</v>
+      </c>
+      <c r="AM144">
+        <v>1.4</v>
+      </c>
+      <c r="AN144">
+        <v>1.4</v>
+      </c>
+      <c r="AO144">
+        <v>1.3</v>
+      </c>
+      <c r="AP144">
+        <v>1.27</v>
+      </c>
+      <c r="AQ144">
+        <v>1.45</v>
+      </c>
+      <c r="AR144">
+        <v>1.35</v>
+      </c>
+      <c r="AS144">
+        <v>1.36</v>
+      </c>
+      <c r="AT144">
+        <v>2.71</v>
+      </c>
+      <c r="AU144">
+        <v>2</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>0</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>2</v>
+      </c>
+      <c r="AZ144">
+        <v>4</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>5</v>
+      </c>
+      <c r="BD144">
+        <v>1.97</v>
+      </c>
+      <c r="BE144">
+        <v>5.95</v>
+      </c>
+      <c r="BF144">
+        <v>2.26</v>
+      </c>
+      <c r="BG144">
+        <v>1.56</v>
+      </c>
+      <c r="BH144">
+        <v>2.37</v>
+      </c>
+      <c r="BI144">
+        <v>1.96</v>
+      </c>
+      <c r="BJ144">
+        <v>1.84</v>
+      </c>
+      <c r="BK144">
+        <v>2.53</v>
+      </c>
+      <c r="BL144">
+        <v>1.5</v>
+      </c>
+      <c r="BM144">
+        <v>3.2</v>
+      </c>
+      <c r="BN144">
+        <v>1.3</v>
+      </c>
+      <c r="BO144">
+        <v>4.33</v>
+      </c>
+      <c r="BP144">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7332499</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45497.3125</v>
+      </c>
+      <c r="F145">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>177</v>
+      </c>
+      <c r="P145" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q145">
+        <v>4.75</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>2.38</v>
+      </c>
+      <c r="T145">
+        <v>1.42</v>
+      </c>
+      <c r="U145">
+        <v>2.65</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>7.7</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>4.1</v>
+      </c>
+      <c r="AA145">
+        <v>3.6</v>
+      </c>
+      <c r="AB145">
+        <v>1.67</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.35</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+      <c r="AG145">
+        <v>2.1</v>
+      </c>
+      <c r="AH145">
+        <v>1.67</v>
+      </c>
+      <c r="AI145">
+        <v>1.9</v>
+      </c>
+      <c r="AJ145">
+        <v>1.75</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.15</v>
+      </c>
+      <c r="AN145">
+        <v>0.7</v>
+      </c>
+      <c r="AO145">
+        <v>2.1</v>
+      </c>
+      <c r="AP145">
+        <v>0.91</v>
+      </c>
+      <c r="AQ145">
+        <v>1.91</v>
+      </c>
+      <c r="AR145">
+        <v>1.12</v>
+      </c>
+      <c r="AS145">
+        <v>1.42</v>
+      </c>
+      <c r="AT145">
+        <v>2.54</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>9</v>
+      </c>
+      <c r="BC145">
+        <v>12</v>
+      </c>
+      <c r="BD145">
+        <v>3.04</v>
+      </c>
+      <c r="BE145">
+        <v>6.4</v>
+      </c>
+      <c r="BF145">
+        <v>1.58</v>
+      </c>
+      <c r="BG145">
+        <v>1.42</v>
+      </c>
+      <c r="BH145">
+        <v>2.62</v>
+      </c>
+      <c r="BI145">
+        <v>1.74</v>
+      </c>
+      <c r="BJ145">
+        <v>2.06</v>
+      </c>
+      <c r="BK145">
+        <v>2.18</v>
+      </c>
+      <c r="BL145">
+        <v>1.66</v>
+      </c>
+      <c r="BM145">
+        <v>2.8</v>
+      </c>
+      <c r="BN145">
+        <v>1.38</v>
+      </c>
+      <c r="BO145">
+        <v>3.6</v>
+      </c>
+      <c r="BP145">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -30580,10 +30580,10 @@
         <v>3</v>
       </c>
       <c r="BB143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD143">
         <v>2.38</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -801,6 +801,9 @@
   <si>
     <t>['65', '88']</t>
   </si>
+  <si>
+    <t>['31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ3">
         <v>0.91</v>
@@ -2325,7 +2328,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3149,7 +3152,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3764,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ13">
         <v>0.83</v>
@@ -4385,7 +4388,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.89</v>
@@ -5412,7 +5415,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -6442,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -8090,7 +8093,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34">
         <v>1.73</v>
@@ -8296,10 +8299,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8505,7 +8508,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ36">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -10356,7 +10359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45">
         <v>1.36</v>
@@ -10562,7 +10565,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ46">
         <v>1.64</v>
@@ -11389,7 +11392,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -12419,7 +12422,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12625,7 +12628,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13034,7 +13037,7 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58">
         <v>1.64</v>
@@ -13861,7 +13864,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ62">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14682,7 +14685,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ66">
         <v>1.5</v>
@@ -15712,7 +15715,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16539,7 +16542,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16948,7 +16951,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>2.09</v>
@@ -17981,7 +17984,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -19214,7 +19217,7 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ88">
         <v>2.27</v>
@@ -19420,7 +19423,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89">
         <v>1.91</v>
@@ -19629,7 +19632,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.5</v>
@@ -20862,7 +20865,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ96">
         <v>1.36</v>
@@ -21071,7 +21074,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ97">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21483,7 +21486,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21686,7 +21689,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ100">
         <v>1.91</v>
@@ -22922,7 +22925,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ106">
         <v>1.73</v>
@@ -24158,10 +24161,10 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24779,7 +24782,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -26221,7 +26224,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ122">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26427,7 +26430,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -27042,7 +27045,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ126">
         <v>1.91</v>
@@ -27248,7 +27251,7 @@
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27457,7 +27460,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ128">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -28278,7 +28281,7 @@
         <v>1.89</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ132">
         <v>2.09</v>
@@ -28899,7 +28902,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR135">
         <v>1.7</v>
@@ -30338,7 +30341,7 @@
         <v>2.2</v>
       </c>
       <c r="AP142">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ142">
         <v>2.27</v>
@@ -30753,7 +30756,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ144">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31035,6 +31038,418 @@
       </c>
       <c r="BP145">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7332500</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45500.29166666666</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>78</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>118</v>
+      </c>
+      <c r="P146" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q146">
+        <v>2.85</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>3.75</v>
+      </c>
+      <c r="T146">
+        <v>1.42</v>
+      </c>
+      <c r="U146">
+        <v>2.6</v>
+      </c>
+      <c r="V146">
+        <v>3.1</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>7.2</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.18</v>
+      </c>
+      <c r="AA146">
+        <v>3.33</v>
+      </c>
+      <c r="AB146">
+        <v>3.25</v>
+      </c>
+      <c r="AC146">
+        <v>1.07</v>
+      </c>
+      <c r="AD146">
+        <v>6.8</v>
+      </c>
+      <c r="AE146">
+        <v>1.36</v>
+      </c>
+      <c r="AF146">
+        <v>2.95</v>
+      </c>
+      <c r="AG146">
+        <v>2.07</v>
+      </c>
+      <c r="AH146">
+        <v>1.62</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.87</v>
+      </c>
+      <c r="AK146">
+        <v>1.33</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.63</v>
+      </c>
+      <c r="AN146">
+        <v>2</v>
+      </c>
+      <c r="AO146">
+        <v>1.45</v>
+      </c>
+      <c r="AP146">
+        <v>2.08</v>
+      </c>
+      <c r="AQ146">
+        <v>1.33</v>
+      </c>
+      <c r="AR146">
+        <v>1.9</v>
+      </c>
+      <c r="AS146">
+        <v>1.32</v>
+      </c>
+      <c r="AT146">
+        <v>3.22</v>
+      </c>
+      <c r="AU146">
+        <v>2</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>10</v>
+      </c>
+      <c r="BA146">
+        <v>4</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>1.61</v>
+      </c>
+      <c r="BE146">
+        <v>6.2</v>
+      </c>
+      <c r="BF146">
+        <v>2.98</v>
+      </c>
+      <c r="BG146">
+        <v>1.52</v>
+      </c>
+      <c r="BH146">
+        <v>2.47</v>
+      </c>
+      <c r="BI146">
+        <v>1.9</v>
+      </c>
+      <c r="BJ146">
+        <v>1.9</v>
+      </c>
+      <c r="BK146">
+        <v>2.44</v>
+      </c>
+      <c r="BL146">
+        <v>1.53</v>
+      </c>
+      <c r="BM146">
+        <v>3.34</v>
+      </c>
+      <c r="BN146">
+        <v>1.26</v>
+      </c>
+      <c r="BO146">
+        <v>4.4</v>
+      </c>
+      <c r="BP146">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7332501</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45500.3125</v>
+      </c>
+      <c r="F147">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>88</v>
+      </c>
+      <c r="P147" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q147">
+        <v>3.22</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>3.63</v>
+      </c>
+      <c r="T147">
+        <v>1.47</v>
+      </c>
+      <c r="U147">
+        <v>2.74</v>
+      </c>
+      <c r="V147">
+        <v>3.35</v>
+      </c>
+      <c r="W147">
+        <v>1.34</v>
+      </c>
+      <c r="X147">
+        <v>8.4</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>2.5</v>
+      </c>
+      <c r="AA147">
+        <v>3.17</v>
+      </c>
+      <c r="AB147">
+        <v>2.87</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>6.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.37</v>
+      </c>
+      <c r="AF147">
+        <v>2.85</v>
+      </c>
+      <c r="AG147">
+        <v>2.09</v>
+      </c>
+      <c r="AH147">
+        <v>1.61</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.4</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.5</v>
+      </c>
+      <c r="AN147">
+        <v>0.91</v>
+      </c>
+      <c r="AO147">
+        <v>1.5</v>
+      </c>
+      <c r="AP147">
+        <v>0.83</v>
+      </c>
+      <c r="AQ147">
+        <v>1.64</v>
+      </c>
+      <c r="AR147">
+        <v>1.61</v>
+      </c>
+      <c r="AS147">
+        <v>1.42</v>
+      </c>
+      <c r="AT147">
+        <v>3.03</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>0</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>3</v>
+      </c>
+      <c r="AZ147">
+        <v>2</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>1</v>
+      </c>
+      <c r="BC147">
+        <v>4</v>
+      </c>
+      <c r="BD147">
+        <v>1.86</v>
+      </c>
+      <c r="BE147">
+        <v>6.2</v>
+      </c>
+      <c r="BF147">
+        <v>2.39</v>
+      </c>
+      <c r="BG147">
+        <v>1.32</v>
+      </c>
+      <c r="BH147">
+        <v>2.98</v>
+      </c>
+      <c r="BI147">
+        <v>1.67</v>
+      </c>
+      <c r="BJ147">
+        <v>2.16</v>
+      </c>
+      <c r="BK147">
+        <v>2.09</v>
+      </c>
+      <c r="BL147">
+        <v>1.71</v>
+      </c>
+      <c r="BM147">
+        <v>2.67</v>
+      </c>
+      <c r="BN147">
+        <v>1.39</v>
+      </c>
+      <c r="BO147">
+        <v>3.74</v>
+      </c>
+      <c r="BP147">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -31389,28 +31389,28 @@
         <v>2</v>
       </c>
       <c r="AV147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW147">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>7</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
         <v>3</v>
       </c>
-      <c r="AZ147">
-        <v>2</v>
-      </c>
-      <c r="BA147">
-        <v>3</v>
-      </c>
-      <c r="BB147">
-        <v>1</v>
-      </c>
       <c r="BC147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD147">
         <v>1.86</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,15 @@
     <t>['62', '77', '90+2']</t>
   </si>
   <si>
+    <t>['46', '88']</t>
+  </si>
+  <si>
+    <t>['57', '70', '77']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -803,6 +812,18 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['18', '51']</t>
+  </si>
+  <si>
+    <t>['24', '29', '67']</t>
+  </si>
+  <si>
+    <t>['53', '85']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1444,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1835,7 +1856,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1916,7 +1937,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2247,7 +2268,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2453,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2531,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2680,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2737,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ8">
         <v>2.09</v>
@@ -2943,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3277,7 +3298,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3358,7 +3379,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3483,7 +3504,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3564,7 +3585,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3689,7 +3710,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4182,7 +4203,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4307,7 +4328,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4385,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4513,7 +4534,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4591,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4719,7 +4740,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4925,7 +4946,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5006,7 +5027,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ19">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5212,7 +5233,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5337,7 +5358,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5543,7 +5564,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6033,10 +6054,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ24">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6161,7 +6182,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6573,7 +6594,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6779,7 +6800,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6985,7 +7006,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7191,7 +7212,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7269,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>2.27</v>
@@ -7397,7 +7418,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7478,7 +7499,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ31">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7603,7 +7624,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8015,7 +8036,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8096,7 +8117,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ34">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8633,7 +8654,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8917,10 +8938,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9045,7 +9066,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9123,7 +9144,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>1.91</v>
@@ -9251,7 +9272,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9457,7 +9478,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9535,7 +9556,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9663,7 +9684,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9744,7 +9765,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9869,7 +9890,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10075,7 +10096,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10281,7 +10302,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10362,7 +10383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10487,7 +10508,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10568,7 +10589,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10693,7 +10714,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10977,10 +10998,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ48">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11517,7 +11538,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11595,7 +11616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11723,7 +11744,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11929,7 +11950,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12135,7 +12156,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12213,7 +12234,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54">
         <v>1.91</v>
@@ -12547,7 +12568,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12625,7 +12646,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
         <v>1.64</v>
@@ -12753,7 +12774,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12959,7 +12980,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13040,7 +13061,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ58">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13165,7 +13186,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13243,7 +13264,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13371,7 +13392,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13658,7 +13679,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13783,7 +13804,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13861,7 +13882,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -13989,7 +14010,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14070,7 +14091,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ63">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14195,7 +14216,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14276,7 +14297,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14401,7 +14422,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14479,7 +14500,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
         <v>0.91</v>
@@ -14813,7 +14834,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15303,7 +15324,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ69">
         <v>0.91</v>
@@ -15431,7 +15452,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -16049,7 +16070,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16130,7 +16151,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ73">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16336,7 +16357,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16461,7 +16482,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16667,7 +16688,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17285,7 +17306,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17363,7 +17384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17569,10 +17590,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17778,7 +17799,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17903,7 +17924,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18109,7 +18130,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18187,10 +18208,10 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18393,7 +18414,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ84">
         <v>0.91</v>
@@ -18599,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
         <v>0.83</v>
@@ -18727,7 +18748,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18808,7 +18829,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ86">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -19139,7 +19160,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19345,7 +19366,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19426,7 +19447,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ89">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19963,7 +19984,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20041,7 +20062,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ92">
         <v>2.27</v>
@@ -20169,7 +20190,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20581,7 +20602,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20659,10 +20680,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20868,7 +20889,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ96">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -20993,7 +21014,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21277,10 +21298,10 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ98">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21405,7 +21426,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21483,7 +21504,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99">
         <v>1.64</v>
@@ -21611,7 +21632,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21895,7 +21916,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22023,7 +22044,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22104,7 +22125,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22928,7 +22949,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ106">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23131,7 +23152,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ107">
         <v>2.09</v>
@@ -23259,7 +23280,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23340,7 +23361,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.47</v>
@@ -23465,7 +23486,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23546,7 +23567,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ109">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23749,7 +23770,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ110">
         <v>1.91</v>
@@ -23877,7 +23898,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -23955,10 +23976,10 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ111">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24083,7 +24104,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24367,10 +24388,10 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24495,7 +24516,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24701,7 +24722,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24907,7 +24928,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24985,10 +25006,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ116">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25113,7 +25134,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25191,7 +25212,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ117">
         <v>0.91</v>
@@ -25319,7 +25340,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25525,7 +25546,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25731,7 +25752,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25809,7 +25830,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120">
         <v>2.27</v>
@@ -26018,7 +26039,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26143,7 +26164,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26221,7 +26242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26349,7 +26370,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26427,7 +26448,7 @@
         <v>1.63</v>
       </c>
       <c r="AP123">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123">
         <v>1.64</v>
@@ -26555,7 +26576,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26636,7 +26657,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26761,7 +26782,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27048,7 +27069,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ126">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR126">
         <v>1.85</v>
@@ -27173,7 +27194,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27379,7 +27400,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27457,7 +27478,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27791,7 +27812,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27872,7 +27893,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ130">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
@@ -28203,7 +28224,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28615,7 +28636,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28693,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ134">
         <v>2.09</v>
@@ -28821,7 +28842,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28899,7 +28920,7 @@
         <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ135">
         <v>1.64</v>
@@ -29108,7 +29129,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.88</v>
@@ -29233,7 +29254,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29311,7 +29332,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
         <v>1.91</v>
@@ -29645,7 +29666,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29726,7 +29747,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ139">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -29851,7 +29872,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -29929,7 +29950,7 @@
         <v>1.1</v>
       </c>
       <c r="AP140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30057,7 +30078,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30138,7 +30159,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30263,7 +30284,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30469,7 +30490,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30547,10 +30568,10 @@
         <v>1.6</v>
       </c>
       <c r="AP143">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ143">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30675,7 +30696,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30881,7 +30902,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31293,7 +31314,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31450,6 +31471,830 @@
       </c>
       <c r="BP147">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7332503</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45501.29166666666</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>77</v>
+      </c>
+      <c r="H148" t="s">
+        <v>79</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>178</v>
+      </c>
+      <c r="P148" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q148">
+        <v>3.1</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3.25</v>
+      </c>
+      <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>2.85</v>
+      </c>
+      <c r="W148">
+        <v>1.35</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>2.55</v>
+      </c>
+      <c r="AA148">
+        <v>3.3</v>
+      </c>
+      <c r="AB148">
+        <v>2.45</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>7.2</v>
+      </c>
+      <c r="AE148">
+        <v>1.3</v>
+      </c>
+      <c r="AF148">
+        <v>3.3</v>
+      </c>
+      <c r="AG148">
+        <v>1.73</v>
+      </c>
+      <c r="AH148">
+        <v>2.05</v>
+      </c>
+      <c r="AI148">
+        <v>1.75</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>1.44</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.5</v>
+      </c>
+      <c r="AN148">
+        <v>1.45</v>
+      </c>
+      <c r="AO148">
+        <v>1.73</v>
+      </c>
+      <c r="AP148">
+        <v>1.42</v>
+      </c>
+      <c r="AQ148">
+        <v>1.67</v>
+      </c>
+      <c r="AR148">
+        <v>1.56</v>
+      </c>
+      <c r="AS148">
+        <v>1.64</v>
+      </c>
+      <c r="AT148">
+        <v>3.2</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>7</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>13</v>
+      </c>
+      <c r="BA148">
+        <v>3</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>2.11</v>
+      </c>
+      <c r="BE148">
+        <v>6.15</v>
+      </c>
+      <c r="BF148">
+        <v>2.08</v>
+      </c>
+      <c r="BG148">
+        <v>1.35</v>
+      </c>
+      <c r="BH148">
+        <v>2.84</v>
+      </c>
+      <c r="BI148">
+        <v>1.69</v>
+      </c>
+      <c r="BJ148">
+        <v>2.13</v>
+      </c>
+      <c r="BK148">
+        <v>2.12</v>
+      </c>
+      <c r="BL148">
+        <v>1.69</v>
+      </c>
+      <c r="BM148">
+        <v>2.79</v>
+      </c>
+      <c r="BN148">
+        <v>1.36</v>
+      </c>
+      <c r="BO148">
+        <v>3.92</v>
+      </c>
+      <c r="BP148">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7332502</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45501.29166666666</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149" t="s">
+        <v>179</v>
+      </c>
+      <c r="P149" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q149">
+        <v>2.42</v>
+      </c>
+      <c r="R149">
+        <v>2.3</v>
+      </c>
+      <c r="S149">
+        <v>4.7</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3.09</v>
+      </c>
+      <c r="V149">
+        <v>2.83</v>
+      </c>
+      <c r="W149">
+        <v>1.42</v>
+      </c>
+      <c r="X149">
+        <v>6.85</v>
+      </c>
+      <c r="Y149">
+        <v>1.08</v>
+      </c>
+      <c r="Z149">
+        <v>1.75</v>
+      </c>
+      <c r="AA149">
+        <v>3.5</v>
+      </c>
+      <c r="AB149">
+        <v>4.2</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.28</v>
+      </c>
+      <c r="AF149">
+        <v>3.5</v>
+      </c>
+      <c r="AG149">
+        <v>1.85</v>
+      </c>
+      <c r="AH149">
+        <v>1.9</v>
+      </c>
+      <c r="AI149">
+        <v>1.8</v>
+      </c>
+      <c r="AJ149">
+        <v>1.95</v>
+      </c>
+      <c r="AK149">
+        <v>1.18</v>
+      </c>
+      <c r="AL149">
+        <v>1.2</v>
+      </c>
+      <c r="AM149">
+        <v>1.95</v>
+      </c>
+      <c r="AN149">
+        <v>0.91</v>
+      </c>
+      <c r="AO149">
+        <v>1.91</v>
+      </c>
+      <c r="AP149">
+        <v>0.92</v>
+      </c>
+      <c r="AQ149">
+        <v>1.83</v>
+      </c>
+      <c r="AR149">
+        <v>1.65</v>
+      </c>
+      <c r="AS149">
+        <v>1.33</v>
+      </c>
+      <c r="AT149">
+        <v>2.98</v>
+      </c>
+      <c r="AU149">
+        <v>9</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>7</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>11</v>
+      </c>
+      <c r="BA149">
+        <v>11</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>15</v>
+      </c>
+      <c r="BD149">
+        <v>1.35</v>
+      </c>
+      <c r="BE149">
+        <v>7.4</v>
+      </c>
+      <c r="BF149">
+        <v>4.15</v>
+      </c>
+      <c r="BG149">
+        <v>1.25</v>
+      </c>
+      <c r="BH149">
+        <v>3.42</v>
+      </c>
+      <c r="BI149">
+        <v>1.52</v>
+      </c>
+      <c r="BJ149">
+        <v>2.45</v>
+      </c>
+      <c r="BK149">
+        <v>1.88</v>
+      </c>
+      <c r="BL149">
+        <v>1.91</v>
+      </c>
+      <c r="BM149">
+        <v>2.39</v>
+      </c>
+      <c r="BN149">
+        <v>1.55</v>
+      </c>
+      <c r="BO149">
+        <v>3.2</v>
+      </c>
+      <c r="BP149">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7332504</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45502.3125</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>73</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>88</v>
+      </c>
+      <c r="P150" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q150">
+        <v>2.5</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>4.5</v>
+      </c>
+      <c r="T150">
+        <v>1.45</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.12</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>1.74</v>
+      </c>
+      <c r="AA150">
+        <v>3.46</v>
+      </c>
+      <c r="AB150">
+        <v>4.36</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>7.9</v>
+      </c>
+      <c r="AE150">
+        <v>1.34</v>
+      </c>
+      <c r="AF150">
+        <v>2.88</v>
+      </c>
+      <c r="AG150">
+        <v>2.15</v>
+      </c>
+      <c r="AH150">
+        <v>1.66</v>
+      </c>
+      <c r="AI150">
+        <v>2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.72</v>
+      </c>
+      <c r="AK150">
+        <v>1.17</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.93</v>
+      </c>
+      <c r="AN150">
+        <v>0.82</v>
+      </c>
+      <c r="AO150">
+        <v>1.36</v>
+      </c>
+      <c r="AP150">
+        <v>0.75</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
+        <v>1.79</v>
+      </c>
+      <c r="AS150">
+        <v>1.34</v>
+      </c>
+      <c r="AT150">
+        <v>3.13</v>
+      </c>
+      <c r="AU150">
+        <v>0</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>2</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>2</v>
+      </c>
+      <c r="AZ150">
+        <v>5</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>1</v>
+      </c>
+      <c r="BC150">
+        <v>1</v>
+      </c>
+      <c r="BD150">
+        <v>1.44</v>
+      </c>
+      <c r="BE150">
+        <v>6.7</v>
+      </c>
+      <c r="BF150">
+        <v>3.64</v>
+      </c>
+      <c r="BG150">
+        <v>1.39</v>
+      </c>
+      <c r="BH150">
+        <v>2.67</v>
+      </c>
+      <c r="BI150">
+        <v>1.76</v>
+      </c>
+      <c r="BJ150">
+        <v>2.02</v>
+      </c>
+      <c r="BK150">
+        <v>2.26</v>
+      </c>
+      <c r="BL150">
+        <v>1.62</v>
+      </c>
+      <c r="BM150">
+        <v>2.98</v>
+      </c>
+      <c r="BN150">
+        <v>1.32</v>
+      </c>
+      <c r="BO150">
+        <v>3.9</v>
+      </c>
+      <c r="BP150">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7332505</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45502.3125</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>180</v>
+      </c>
+      <c r="P151" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>1.97</v>
+      </c>
+      <c r="S151">
+        <v>2.7</v>
+      </c>
+      <c r="T151">
+        <v>1.45</v>
+      </c>
+      <c r="U151">
+        <v>2.5</v>
+      </c>
+      <c r="V151">
+        <v>3.1</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>7.2</v>
+      </c>
+      <c r="Y151">
+        <v>1.05</v>
+      </c>
+      <c r="Z151">
+        <v>3.36</v>
+      </c>
+      <c r="AA151">
+        <v>3.21</v>
+      </c>
+      <c r="AB151">
+        <v>2.09</v>
+      </c>
+      <c r="AC151">
+        <v>1.08</v>
+      </c>
+      <c r="AD151">
+        <v>6.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.37</v>
+      </c>
+      <c r="AF151">
+        <v>2.8</v>
+      </c>
+      <c r="AG151">
+        <v>2.15</v>
+      </c>
+      <c r="AH151">
+        <v>1.65</v>
+      </c>
+      <c r="AI151">
+        <v>1.93</v>
+      </c>
+      <c r="AJ151">
+        <v>1.75</v>
+      </c>
+      <c r="AK151">
+        <v>1.6</v>
+      </c>
+      <c r="AL151">
+        <v>1.32</v>
+      </c>
+      <c r="AM151">
+        <v>1.22</v>
+      </c>
+      <c r="AN151">
+        <v>1.2</v>
+      </c>
+      <c r="AO151">
+        <v>1.64</v>
+      </c>
+      <c r="AP151">
+        <v>1.18</v>
+      </c>
+      <c r="AQ151">
+        <v>1.58</v>
+      </c>
+      <c r="AR151">
+        <v>1.33</v>
+      </c>
+      <c r="AS151">
+        <v>1.6</v>
+      </c>
+      <c r="AT151">
+        <v>2.93</v>
+      </c>
+      <c r="AU151">
+        <v>2</v>
+      </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>1</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>3</v>
+      </c>
+      <c r="AZ151">
+        <v>2</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>2.41</v>
+      </c>
+      <c r="BE151">
+        <v>6.05</v>
+      </c>
+      <c r="BF151">
+        <v>1.86</v>
+      </c>
+      <c r="BG151">
+        <v>1.49</v>
+      </c>
+      <c r="BH151">
+        <v>2.55</v>
+      </c>
+      <c r="BI151">
+        <v>1.84</v>
+      </c>
+      <c r="BJ151">
+        <v>1.96</v>
+      </c>
+      <c r="BK151">
+        <v>2.33</v>
+      </c>
+      <c r="BL151">
+        <v>1.58</v>
+      </c>
+      <c r="BM151">
+        <v>3.2</v>
+      </c>
+      <c r="BN151">
+        <v>1.28</v>
+      </c>
+      <c r="BO151">
+        <v>4.2</v>
+      </c>
+      <c r="BP151">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -32031,25 +32031,25 @@
         <v>3</v>
       </c>
       <c r="AW150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ150">
+        <v>7</v>
+      </c>
+      <c r="BA150">
+        <v>2</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
         <v>5</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>1</v>
-      </c>
-      <c r="BC150">
-        <v>1</v>
       </c>
       <c r="BD150">
         <v>1.44</v>
@@ -32231,31 +32231,31 @@
         <v>2.93</v>
       </c>
       <c r="AU151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX151">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>14</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
         <v>3</v>
       </c>
-      <c r="AZ151">
-        <v>2</v>
-      </c>
-      <c r="BA151">
-        <v>0</v>
-      </c>
-      <c r="BB151">
-        <v>0</v>
-      </c>
       <c r="BC151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD151">
         <v>2.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+6']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1447,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1856,7 +1859,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2268,7 +2271,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2474,7 +2477,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2680,7 +2683,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3173,7 +3176,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3298,7 +3301,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3504,7 +3507,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3710,7 +3713,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4328,7 +4331,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4534,7 +4537,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4740,7 +4743,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4946,7 +4949,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5024,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19">
         <v>1.58</v>
@@ -5358,7 +5361,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5564,7 +5567,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6182,7 +6185,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6594,7 +6597,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6800,7 +6803,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7006,7 +7009,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7212,7 +7215,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7418,7 +7421,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7624,7 +7627,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8036,7 +8039,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8323,7 +8326,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ35">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8526,7 +8529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8654,7 +8657,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9066,7 +9069,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9272,7 +9275,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9478,7 +9481,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9684,7 +9687,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9890,7 +9893,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10096,7 +10099,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10302,7 +10305,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10508,7 +10511,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10714,7 +10717,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10792,7 +10795,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11538,7 +11541,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11744,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11950,7 +11953,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12156,7 +12159,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12443,7 +12446,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12568,7 +12571,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12649,7 +12652,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12774,7 +12777,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12980,7 +12983,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13186,7 +13189,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13392,7 +13395,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13804,7 +13807,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14010,7 +14013,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14216,7 +14219,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14294,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14422,7 +14425,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14834,7 +14837,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15452,7 +15455,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -16070,7 +16073,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16354,7 +16357,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16482,7 +16485,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16563,7 +16566,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16688,7 +16691,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17306,7 +17309,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17924,7 +17927,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18005,7 +18008,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ82">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18130,7 +18133,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18748,7 +18751,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19160,7 +19163,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19366,7 +19369,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19856,7 +19859,7 @@
         <v>2.67</v>
       </c>
       <c r="AP91">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ91">
         <v>2.09</v>
@@ -19984,7 +19987,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20190,7 +20193,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20474,7 +20477,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94">
         <v>0.91</v>
@@ -20602,7 +20605,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21014,7 +21017,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21426,7 +21429,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21507,7 +21510,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ99">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21632,7 +21635,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22044,7 +22047,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -23280,7 +23283,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23486,7 +23489,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23564,7 +23567,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>1.83</v>
@@ -23898,7 +23901,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24104,7 +24107,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24516,7 +24519,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24722,7 +24725,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24803,7 +24806,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ115">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24928,7 +24931,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25134,7 +25137,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25340,7 +25343,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25546,7 +25549,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25752,7 +25755,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26164,7 +26167,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26370,7 +26373,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26451,7 +26454,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ123">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26576,7 +26579,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26782,7 +26785,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26860,7 +26863,7 @@
         <v>2.11</v>
       </c>
       <c r="AP125">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ125">
         <v>2.27</v>
@@ -27194,7 +27197,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27400,7 +27403,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27812,7 +27815,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28224,7 +28227,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28636,7 +28639,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28842,7 +28845,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28923,7 +28926,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
         <v>1.7</v>
@@ -29254,7 +29257,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29666,7 +29669,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29872,7 +29875,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30078,7 +30081,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30284,7 +30287,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30490,7 +30493,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30696,7 +30699,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30902,7 +30905,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -30980,7 +30983,7 @@
         <v>2.1</v>
       </c>
       <c r="AP145">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ145">
         <v>1.91</v>
@@ -31314,7 +31317,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31395,7 +31398,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ147">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.61</v>
@@ -31520,7 +31523,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31726,7 +31729,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31932,7 +31935,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32138,7 +32141,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32295,6 +32298,212 @@
       </c>
       <c r="BP151">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7332506</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45514.29166666666</v>
+      </c>
+      <c r="F152">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>70</v>
+      </c>
+      <c r="H152" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>181</v>
+      </c>
+      <c r="P152" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q152">
+        <v>3.75</v>
+      </c>
+      <c r="R152">
+        <v>2.05</v>
+      </c>
+      <c r="S152">
+        <v>2.7</v>
+      </c>
+      <c r="T152">
+        <v>1.45</v>
+      </c>
+      <c r="U152">
+        <v>2.6</v>
+      </c>
+      <c r="V152">
+        <v>3.1</v>
+      </c>
+      <c r="W152">
+        <v>1.34</v>
+      </c>
+      <c r="X152">
+        <v>8.1</v>
+      </c>
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>3.25</v>
+      </c>
+      <c r="AA152">
+        <v>3.1</v>
+      </c>
+      <c r="AB152">
+        <v>2</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>7.8</v>
+      </c>
+      <c r="AE152">
+        <v>1.32</v>
+      </c>
+      <c r="AF152">
+        <v>3.1</v>
+      </c>
+      <c r="AG152">
+        <v>2.1</v>
+      </c>
+      <c r="AH152">
+        <v>1.67</v>
+      </c>
+      <c r="AI152">
+        <v>1.87</v>
+      </c>
+      <c r="AJ152">
+        <v>1.87</v>
+      </c>
+      <c r="AK152">
+        <v>1.72</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.28</v>
+      </c>
+      <c r="AN152">
+        <v>0.91</v>
+      </c>
+      <c r="AO152">
+        <v>1.64</v>
+      </c>
+      <c r="AP152">
+        <v>1.08</v>
+      </c>
+      <c r="AQ152">
+        <v>1.5</v>
+      </c>
+      <c r="AR152">
+        <v>1.14</v>
+      </c>
+      <c r="AS152">
+        <v>1.39</v>
+      </c>
+      <c r="AT152">
+        <v>2.53</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
+      <c r="AZ152">
+        <v>10</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>7</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>2.71</v>
+      </c>
+      <c r="BE152">
+        <v>6.2</v>
+      </c>
+      <c r="BF152">
+        <v>1.7</v>
+      </c>
+      <c r="BG152">
+        <v>1.38</v>
+      </c>
+      <c r="BH152">
+        <v>2.71</v>
+      </c>
+      <c r="BI152">
+        <v>1.76</v>
+      </c>
+      <c r="BJ152">
+        <v>2.05</v>
+      </c>
+      <c r="BK152">
+        <v>2.22</v>
+      </c>
+      <c r="BL152">
+        <v>1.65</v>
+      </c>
+      <c r="BM152">
+        <v>2.93</v>
+      </c>
+      <c r="BN152">
+        <v>1.33</v>
+      </c>
+      <c r="BO152">
+        <v>3.9</v>
+      </c>
+      <c r="BP152">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,15 @@
     <t>['45+3', '90+6']</t>
   </si>
   <si>
+    <t>['79', '82']</t>
+  </si>
+  <si>
+    <t>['34', '47']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -827,6 +836,12 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['55', '80']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1462,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1859,7 +1874,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2146,7 +2161,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ5">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2271,7 +2286,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2477,7 +2492,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2683,7 +2698,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2764,7 +2779,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ8">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3301,7 +3316,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3379,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.58</v>
@@ -3507,7 +3522,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3585,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3713,7 +3728,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3997,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>0.91</v>
@@ -4331,7 +4346,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4537,7 +4552,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4743,7 +4758,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4949,7 +4964,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5361,7 +5376,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5567,7 +5582,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5645,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.91</v>
@@ -6185,7 +6200,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6266,7 +6281,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6597,7 +6612,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6803,7 +6818,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6881,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7009,7 +7024,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7087,7 +7102,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7215,7 +7230,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7296,7 +7311,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7421,7 +7436,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7627,7 +7642,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7708,7 +7723,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8039,7 +8054,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8657,7 +8672,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8735,10 +8750,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9069,7 +9084,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9275,7 +9290,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9481,7 +9496,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9687,7 +9702,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9893,7 +9908,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10099,7 +10114,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10180,7 +10195,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10305,7 +10320,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10511,7 +10526,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10717,7 +10732,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11210,7 +11225,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11413,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11541,7 +11556,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11747,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11825,7 +11840,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11953,7 +11968,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12159,7 +12174,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12571,7 +12586,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12649,7 +12664,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12777,7 +12792,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12983,7 +12998,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13189,7 +13204,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13395,7 +13410,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13473,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60">
         <v>0.83</v>
@@ -13679,7 +13694,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13807,7 +13822,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14013,7 +14028,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14219,7 +14234,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14425,7 +14440,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14837,7 +14852,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14918,7 +14933,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15455,7 +15470,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15948,7 +15963,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ72">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -16073,7 +16088,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16151,7 +16166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16485,7 +16500,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16691,7 +16706,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16769,10 +16784,10 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -16978,7 +16993,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17181,7 +17196,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ78">
         <v>1.91</v>
@@ -17309,7 +17324,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17927,7 +17942,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18005,7 +18020,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18133,7 +18148,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18417,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>0.91</v>
@@ -18751,7 +18766,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19163,7 +19178,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19244,7 +19259,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ88">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19369,7 +19384,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19862,7 +19877,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ91">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19987,7 +20002,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20065,10 +20080,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20193,7 +20208,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20271,7 +20286,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20605,7 +20620,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21017,7 +21032,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21095,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21429,7 +21444,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21635,7 +21650,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21919,7 +21934,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22047,7 +22062,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22334,7 +22349,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -23155,10 +23170,10 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ107">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23283,7 +23298,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23489,7 +23504,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23901,7 +23916,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24107,7 +24122,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24391,7 +24406,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ113">
         <v>1.5</v>
@@ -24519,7 +24534,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24597,7 +24612,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
         <v>0.83</v>
@@ -24725,7 +24740,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24803,7 +24818,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -24931,7 +24946,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25009,7 +25024,7 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ116">
         <v>1.83</v>
@@ -25137,7 +25152,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25343,7 +25358,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25549,7 +25564,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25755,7 +25770,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25836,7 +25851,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26167,7 +26182,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26245,7 +26260,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26373,7 +26388,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26579,7 +26594,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26785,7 +26800,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26866,7 +26881,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27197,7 +27212,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27403,7 +27418,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27815,7 +27830,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27893,7 +27908,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AQ130">
         <v>1.58</v>
@@ -28227,7 +28242,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28308,7 +28323,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ132">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR132">
         <v>1.87</v>
@@ -28511,7 +28526,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
         <v>0.91</v>
@@ -28639,7 +28654,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28720,7 +28735,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ134">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR134">
         <v>1.5</v>
@@ -28845,7 +28860,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29257,7 +29272,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29335,7 +29350,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>1.91</v>
@@ -29669,7 +29684,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29747,7 +29762,7 @@
         <v>1.8</v>
       </c>
       <c r="AP139">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>1.83</v>
@@ -29875,7 +29890,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30081,7 +30096,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30287,7 +30302,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30368,7 +30383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ142">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR142">
         <v>1.6</v>
@@ -30493,7 +30508,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30571,7 +30586,7 @@
         <v>1.6</v>
       </c>
       <c r="AP143">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ143">
         <v>1.67</v>
@@ -30699,7 +30714,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30905,7 +30920,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31317,7 +31332,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31523,7 +31538,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31729,7 +31744,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31935,7 +31950,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32141,7 +32156,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32219,7 +32234,7 @@
         <v>1.64</v>
       </c>
       <c r="AP151">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ151">
         <v>1.58</v>
@@ -32449,13 +32464,13 @@
         <v>4</v>
       </c>
       <c r="AX152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY152">
         <v>9</v>
       </c>
       <c r="AZ152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32503,6 +32518,624 @@
         <v>3.9</v>
       </c>
       <c r="BP152">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7332507</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45514.3125</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>182</v>
+      </c>
+      <c r="P153" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q153">
+        <v>3.09</v>
+      </c>
+      <c r="R153">
+        <v>2.32</v>
+      </c>
+      <c r="S153">
+        <v>3.28</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.28</v>
+      </c>
+      <c r="V153">
+        <v>2.65</v>
+      </c>
+      <c r="W153">
+        <v>1.47</v>
+      </c>
+      <c r="X153">
+        <v>6.3</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>2.25</v>
+      </c>
+      <c r="AA153">
+        <v>3.3</v>
+      </c>
+      <c r="AB153">
+        <v>2.62</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.2</v>
+      </c>
+      <c r="AF153">
+        <v>3.9</v>
+      </c>
+      <c r="AG153">
+        <v>1.75</v>
+      </c>
+      <c r="AH153">
+        <v>1.95</v>
+      </c>
+      <c r="AI153">
+        <v>1.62</v>
+      </c>
+      <c r="AJ153">
+        <v>2.2</v>
+      </c>
+      <c r="AK153">
+        <v>1.42</v>
+      </c>
+      <c r="AL153">
+        <v>1.26</v>
+      </c>
+      <c r="AM153">
+        <v>1.5</v>
+      </c>
+      <c r="AN153">
+        <v>1.36</v>
+      </c>
+      <c r="AO153">
+        <v>2.09</v>
+      </c>
+      <c r="AP153">
+        <v>1.5</v>
+      </c>
+      <c r="AQ153">
+        <v>1.92</v>
+      </c>
+      <c r="AR153">
+        <v>1.57</v>
+      </c>
+      <c r="AS153">
+        <v>1.67</v>
+      </c>
+      <c r="AT153">
+        <v>3.24</v>
+      </c>
+      <c r="AU153">
+        <v>6</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>7</v>
+      </c>
+      <c r="AY153">
+        <v>12</v>
+      </c>
+      <c r="AZ153">
+        <v>10</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.61</v>
+      </c>
+      <c r="BE153">
+        <v>6.45</v>
+      </c>
+      <c r="BF153">
+        <v>2.93</v>
+      </c>
+      <c r="BG153">
+        <v>1.32</v>
+      </c>
+      <c r="BH153">
+        <v>2.98</v>
+      </c>
+      <c r="BI153">
+        <v>1.64</v>
+      </c>
+      <c r="BJ153">
+        <v>2.22</v>
+      </c>
+      <c r="BK153">
+        <v>2.06</v>
+      </c>
+      <c r="BL153">
+        <v>1.75</v>
+      </c>
+      <c r="BM153">
+        <v>2.67</v>
+      </c>
+      <c r="BN153">
+        <v>1.39</v>
+      </c>
+      <c r="BO153">
+        <v>3.65</v>
+      </c>
+      <c r="BP153">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7332508</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F154">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>183</v>
+      </c>
+      <c r="P154" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q154">
+        <v>3.2</v>
+      </c>
+      <c r="R154">
+        <v>2.1</v>
+      </c>
+      <c r="S154">
+        <v>3.5</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>9</v>
+      </c>
+      <c r="Y154">
+        <v>1.07</v>
+      </c>
+      <c r="Z154">
+        <v>2.47</v>
+      </c>
+      <c r="AA154">
+        <v>3.3</v>
+      </c>
+      <c r="AB154">
+        <v>2.75</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>8.1</v>
+      </c>
+      <c r="AE154">
+        <v>1.33</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>1.79</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.42</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.52</v>
+      </c>
+      <c r="AN154">
+        <v>1.18</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.17</v>
+      </c>
+      <c r="AQ154">
+        <v>1</v>
+      </c>
+      <c r="AR154">
+        <v>1.34</v>
+      </c>
+      <c r="AS154">
+        <v>1.59</v>
+      </c>
+      <c r="AT154">
+        <v>2.93</v>
+      </c>
+      <c r="AU154">
+        <v>7</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>13</v>
+      </c>
+      <c r="AZ154">
+        <v>8</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>4</v>
+      </c>
+      <c r="BD154">
+        <v>1.98</v>
+      </c>
+      <c r="BE154">
+        <v>5.95</v>
+      </c>
+      <c r="BF154">
+        <v>2.25</v>
+      </c>
+      <c r="BG154">
+        <v>1.53</v>
+      </c>
+      <c r="BH154">
+        <v>2.46</v>
+      </c>
+      <c r="BI154">
+        <v>1.95</v>
+      </c>
+      <c r="BJ154">
+        <v>1.85</v>
+      </c>
+      <c r="BK154">
+        <v>2.43</v>
+      </c>
+      <c r="BL154">
+        <v>1.54</v>
+      </c>
+      <c r="BM154">
+        <v>3.34</v>
+      </c>
+      <c r="BN154">
+        <v>1.26</v>
+      </c>
+      <c r="BO154">
+        <v>4.4</v>
+      </c>
+      <c r="BP154">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7332509</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>184</v>
+      </c>
+      <c r="P155" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q155">
+        <v>3.5</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
+        <v>1.33</v>
+      </c>
+      <c r="U155">
+        <v>3.25</v>
+      </c>
+      <c r="V155">
+        <v>2.63</v>
+      </c>
+      <c r="W155">
+        <v>1.44</v>
+      </c>
+      <c r="X155">
+        <v>6.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.11</v>
+      </c>
+      <c r="Z155">
+        <v>3.1</v>
+      </c>
+      <c r="AA155">
+        <v>3.55</v>
+      </c>
+      <c r="AB155">
+        <v>2.14</v>
+      </c>
+      <c r="AC155">
+        <v>1.02</v>
+      </c>
+      <c r="AD155">
+        <v>10.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.22</v>
+      </c>
+      <c r="AF155">
+        <v>4</v>
+      </c>
+      <c r="AG155">
+        <v>1.68</v>
+      </c>
+      <c r="AH155">
+        <v>1.98</v>
+      </c>
+      <c r="AI155">
+        <v>1.62</v>
+      </c>
+      <c r="AJ155">
+        <v>2.2</v>
+      </c>
+      <c r="AK155">
+        <v>1.68</v>
+      </c>
+      <c r="AL155">
+        <v>1.22</v>
+      </c>
+      <c r="AM155">
+        <v>1.35</v>
+      </c>
+      <c r="AN155">
+        <v>0.27</v>
+      </c>
+      <c r="AO155">
+        <v>2.27</v>
+      </c>
+      <c r="AP155">
+        <v>0.5</v>
+      </c>
+      <c r="AQ155">
+        <v>2.08</v>
+      </c>
+      <c r="AR155">
+        <v>1.31</v>
+      </c>
+      <c r="AS155">
+        <v>1.51</v>
+      </c>
+      <c r="AT155">
+        <v>2.82</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>8</v>
+      </c>
+      <c r="AY155">
+        <v>11</v>
+      </c>
+      <c r="AZ155">
+        <v>12</v>
+      </c>
+      <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>5</v>
+      </c>
+      <c r="BD155">
+        <v>2.27</v>
+      </c>
+      <c r="BE155">
+        <v>6.2</v>
+      </c>
+      <c r="BF155">
+        <v>1.94</v>
+      </c>
+      <c r="BG155">
+        <v>1.32</v>
+      </c>
+      <c r="BH155">
+        <v>2.98</v>
+      </c>
+      <c r="BI155">
+        <v>1.63</v>
+      </c>
+      <c r="BJ155">
+        <v>2.23</v>
+      </c>
+      <c r="BK155">
+        <v>2.03</v>
+      </c>
+      <c r="BL155">
+        <v>1.76</v>
+      </c>
+      <c r="BM155">
+        <v>2.64</v>
+      </c>
+      <c r="BN155">
+        <v>1.4</v>
+      </c>
+      <c r="BO155">
+        <v>3.65</v>
+      </c>
+      <c r="BP155">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['44', '49']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -842,6 +845,9 @@
   </si>
   <si>
     <t>['55', '80']</t>
+  </si>
+  <si>
+    <t>['45+9']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1468,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1749,7 +1755,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1874,7 +1880,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2158,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>2.08</v>
@@ -2286,7 +2292,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2364,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2492,7 +2498,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2698,7 +2704,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3316,7 +3322,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3522,7 +3528,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3728,7 +3734,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4015,7 +4021,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4346,7 +4352,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4552,7 +4558,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4758,7 +4764,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4836,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4964,7 +4970,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5376,7 +5382,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5582,7 +5588,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5663,7 +5669,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6200,7 +6206,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6278,7 +6284,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.92</v>
@@ -6612,7 +6618,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6693,7 +6699,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6818,7 +6824,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7024,7 +7030,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7230,7 +7236,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7436,7 +7442,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7514,7 +7520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1.58</v>
@@ -7642,7 +7648,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7720,7 +7726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>2.08</v>
@@ -7926,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8054,7 +8060,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8672,7 +8678,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9084,7 +9090,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9165,7 +9171,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9290,7 +9296,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9371,7 +9377,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ40">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9496,7 +9502,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9702,7 +9708,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9908,7 +9914,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9986,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10114,7 +10120,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10320,7 +10326,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10526,7 +10532,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10732,7 +10738,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11556,7 +11562,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11762,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11968,7 +11974,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12046,7 +12052,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12174,7 +12180,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12255,7 +12261,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ54">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12458,7 +12464,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12586,7 +12592,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12792,7 +12798,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12873,7 +12879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -12998,7 +13004,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13204,7 +13210,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13410,7 +13416,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13822,7 +13828,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14028,7 +14034,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14106,7 +14112,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1.83</v>
@@ -14234,7 +14240,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14440,7 +14446,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14521,7 +14527,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14852,7 +14858,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15345,7 +15351,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ69">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15470,7 +15476,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15960,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.92</v>
@@ -16088,7 +16094,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16500,7 +16506,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16578,7 +16584,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16706,7 +16712,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17199,7 +17205,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ78">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17324,7 +17330,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17942,7 +17948,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18148,7 +18154,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18435,7 +18441,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR84">
         <v>1.36</v>
@@ -18766,7 +18772,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18844,7 +18850,7 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1.67</v>
@@ -19050,7 +19056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19178,7 +19184,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19384,7 +19390,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -20002,7 +20008,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20208,7 +20214,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20495,7 +20501,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -20620,7 +20626,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21032,7 +21038,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21444,7 +21450,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21650,7 +21656,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21731,7 +21737,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ100">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -22062,7 +22068,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22140,7 +22146,7 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
         <v>1.83</v>
@@ -22758,10 +22764,10 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23298,7 +23304,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23504,7 +23510,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23791,7 +23797,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ110">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23916,7 +23922,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24122,7 +24128,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24534,7 +24540,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24740,7 +24746,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24946,7 +24952,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25152,7 +25158,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25233,7 +25239,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR117">
         <v>1.84</v>
@@ -25358,7 +25364,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25439,7 +25445,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ118">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25564,7 +25570,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25642,7 +25648,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>0.83</v>
@@ -25770,7 +25776,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26182,7 +26188,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26388,7 +26394,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26594,7 +26600,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26672,7 +26678,7 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
         <v>1.67</v>
@@ -26800,7 +26806,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27212,7 +27218,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27418,7 +27424,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27702,7 +27708,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27830,7 +27836,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28242,7 +28248,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28529,7 +28535,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
@@ -28654,7 +28660,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28860,7 +28866,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29144,7 +29150,7 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29272,7 +29278,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29353,7 +29359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29684,7 +29690,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29890,7 +29896,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30096,7 +30102,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30302,7 +30308,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30508,7 +30514,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30714,7 +30720,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30792,7 +30798,7 @@
         <v>1.3</v>
       </c>
       <c r="AP144">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -30920,7 +30926,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31001,7 +31007,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ145">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR145">
         <v>1.12</v>
@@ -31332,7 +31338,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31538,7 +31544,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31744,7 +31750,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31950,7 +31956,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32156,7 +32162,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32568,7 +32574,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32774,7 +32780,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32885,13 +32891,13 @@
         <v>8</v>
       </c>
       <c r="BA154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB154">
         <v>2</v>
       </c>
       <c r="BC154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD154">
         <v>1.98</v>
@@ -33137,6 +33143,418 @@
       </c>
       <c r="BP155">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7332510</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45516.3125</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>185</v>
+      </c>
+      <c r="P156" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q156">
+        <v>2.65</v>
+      </c>
+      <c r="R156">
+        <v>1.96</v>
+      </c>
+      <c r="S156">
+        <v>3.53</v>
+      </c>
+      <c r="T156">
+        <v>1.41</v>
+      </c>
+      <c r="U156">
+        <v>2.87</v>
+      </c>
+      <c r="V156">
+        <v>3.07</v>
+      </c>
+      <c r="W156">
+        <v>1.37</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>2.24</v>
+      </c>
+      <c r="AA156">
+        <v>3.16</v>
+      </c>
+      <c r="AB156">
+        <v>3.3</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE156">
+        <v>1.33</v>
+      </c>
+      <c r="AF156">
+        <v>3.1</v>
+      </c>
+      <c r="AG156">
+        <v>2.25</v>
+      </c>
+      <c r="AH156">
+        <v>1.57</v>
+      </c>
+      <c r="AI156">
+        <v>1.79</v>
+      </c>
+      <c r="AJ156">
+        <v>1.87</v>
+      </c>
+      <c r="AK156">
+        <v>1.26</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.53</v>
+      </c>
+      <c r="AN156">
+        <v>1.36</v>
+      </c>
+      <c r="AO156">
+        <v>1.91</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>1.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.83</v>
+      </c>
+      <c r="AS156">
+        <v>1.42</v>
+      </c>
+      <c r="AT156">
+        <v>3.25</v>
+      </c>
+      <c r="AU156">
+        <v>10</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>19</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>8</v>
+      </c>
+      <c r="BB156">
+        <v>8</v>
+      </c>
+      <c r="BC156">
+        <v>16</v>
+      </c>
+      <c r="BD156">
+        <v>1.7</v>
+      </c>
+      <c r="BE156">
+        <v>6.35</v>
+      </c>
+      <c r="BF156">
+        <v>2.69</v>
+      </c>
+      <c r="BG156">
+        <v>1.31</v>
+      </c>
+      <c r="BH156">
+        <v>3.04</v>
+      </c>
+      <c r="BI156">
+        <v>1.65</v>
+      </c>
+      <c r="BJ156">
+        <v>2.2</v>
+      </c>
+      <c r="BK156">
+        <v>2.06</v>
+      </c>
+      <c r="BL156">
+        <v>1.74</v>
+      </c>
+      <c r="BM156">
+        <v>2.64</v>
+      </c>
+      <c r="BN156">
+        <v>1.4</v>
+      </c>
+      <c r="BO156">
+        <v>3.65</v>
+      </c>
+      <c r="BP156">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7332511</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45516.3125</v>
+      </c>
+      <c r="F157">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>81</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>156</v>
+      </c>
+      <c r="P157" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q157">
+        <v>2.9</v>
+      </c>
+      <c r="R157">
+        <v>1.92</v>
+      </c>
+      <c r="S157">
+        <v>3.26</v>
+      </c>
+      <c r="T157">
+        <v>1.45</v>
+      </c>
+      <c r="U157">
+        <v>2.63</v>
+      </c>
+      <c r="V157">
+        <v>3.12</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y157">
+        <v>1.06</v>
+      </c>
+      <c r="Z157">
+        <v>2.37</v>
+      </c>
+      <c r="AA157">
+        <v>3.23</v>
+      </c>
+      <c r="AB157">
+        <v>2.99</v>
+      </c>
+      <c r="AC157">
+        <v>1.04</v>
+      </c>
+      <c r="AD157">
+        <v>7.8</v>
+      </c>
+      <c r="AE157">
+        <v>1.36</v>
+      </c>
+      <c r="AF157">
+        <v>2.95</v>
+      </c>
+      <c r="AG157">
+        <v>1.9</v>
+      </c>
+      <c r="AH157">
+        <v>1.8</v>
+      </c>
+      <c r="AI157">
+        <v>1.85</v>
+      </c>
+      <c r="AJ157">
+        <v>1.9</v>
+      </c>
+      <c r="AK157">
+        <v>1.31</v>
+      </c>
+      <c r="AL157">
+        <v>1.27</v>
+      </c>
+      <c r="AM157">
+        <v>1.46</v>
+      </c>
+      <c r="AN157">
+        <v>1.27</v>
+      </c>
+      <c r="AO157">
+        <v>0.91</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>0.92</v>
+      </c>
+      <c r="AR157">
+        <v>1.3</v>
+      </c>
+      <c r="AS157">
+        <v>1.35</v>
+      </c>
+      <c r="AT157">
+        <v>2.65</v>
+      </c>
+      <c r="AU157">
+        <v>2</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>3</v>
+      </c>
+      <c r="AY157">
+        <v>6</v>
+      </c>
+      <c r="AZ157">
+        <v>5</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>6</v>
+      </c>
+      <c r="BD157">
+        <v>1.87</v>
+      </c>
+      <c r="BE157">
+        <v>6</v>
+      </c>
+      <c r="BF157">
+        <v>2.4</v>
+      </c>
+      <c r="BG157">
+        <v>1.5</v>
+      </c>
+      <c r="BH157">
+        <v>2.54</v>
+      </c>
+      <c r="BI157">
+        <v>1.85</v>
+      </c>
+      <c r="BJ157">
+        <v>1.94</v>
+      </c>
+      <c r="BK157">
+        <v>2.36</v>
+      </c>
+      <c r="BL157">
+        <v>1.57</v>
+      </c>
+      <c r="BM157">
+        <v>3.2</v>
+      </c>
+      <c r="BN157">
+        <v>1.28</v>
+      </c>
+      <c r="BO157">
+        <v>4.2</v>
+      </c>
+      <c r="BP157">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['44', '49']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['45+3', '63']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -647,9 +653,6 @@
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['59', '71']</t>
@@ -848,6 +851,9 @@
   </si>
   <si>
     <t>['45+9']</t>
+  </si>
+  <si>
+    <t>['44', '76']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1474,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1880,7 +1886,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1961,7 +1967,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2292,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2498,7 +2504,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2704,7 +2710,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3322,7 +3328,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3528,7 +3534,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3609,7 +3615,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3734,7 +3740,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3812,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4352,7 +4358,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4558,7 +4564,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4764,7 +4770,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4970,7 +4976,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5257,7 +5263,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5382,7 +5388,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5460,7 +5466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5588,7 +5594,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6081,7 +6087,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6206,7 +6212,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6493,7 +6499,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6618,7 +6624,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6824,7 +6830,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7030,7 +7036,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7236,7 +7242,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7442,7 +7448,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7648,7 +7654,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8060,7 +8066,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8138,7 +8144,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8678,7 +8684,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8965,7 +8971,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9090,7 +9096,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9296,7 +9302,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9502,7 +9508,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.1</v>
@@ -9583,7 +9589,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9708,7 +9714,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9789,7 +9795,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9914,7 +9920,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10120,7 +10126,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10326,7 +10332,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10404,10 +10410,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10532,7 +10538,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10738,7 +10744,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11562,7 +11568,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11643,7 +11649,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11768,7 +11774,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11974,7 +11980,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12180,7 +12186,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12592,7 +12598,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12670,7 +12676,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12798,7 +12804,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13004,7 +13010,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13082,7 +13088,7 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ58">
         <v>1.58</v>
@@ -13210,7 +13216,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13416,7 +13422,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13497,7 +13503,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13703,7 +13709,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13828,7 +13834,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14034,7 +14040,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14115,7 +14121,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14240,7 +14246,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14446,7 +14452,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14858,7 +14864,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15145,7 +15151,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15476,7 +15482,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -16094,7 +16100,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16381,7 +16387,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16506,7 +16512,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16712,7 +16718,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16996,7 +17002,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ77">
         <v>1.92</v>
@@ -17330,7 +17336,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17617,7 +17623,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17948,7 +17954,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18154,7 +18160,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18235,7 +18241,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18438,7 +18444,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ84">
         <v>0.92</v>
@@ -18647,7 +18653,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18772,7 +18778,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19184,7 +19190,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19390,7 +19396,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19468,10 +19474,10 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ89">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -20008,7 +20014,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20086,7 +20092,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ92">
         <v>2.08</v>
@@ -20214,7 +20220,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20626,7 +20632,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20913,7 +20919,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21038,7 +21044,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21450,7 +21456,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21656,7 +21662,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21734,7 +21740,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -21940,10 +21946,10 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -22068,7 +22074,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22149,7 +22155,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -23176,7 +23182,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ107">
         <v>1.92</v>
@@ -23304,7 +23310,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23385,7 +23391,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR108">
         <v>1.47</v>
@@ -23510,7 +23516,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23591,7 +23597,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23922,7 +23928,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24128,7 +24134,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24206,7 +24212,7 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ112">
         <v>1.33</v>
@@ -24412,10 +24418,10 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24540,7 +24546,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24621,7 +24627,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24746,7 +24752,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24952,7 +24958,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25030,10 +25036,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ116">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25158,7 +25164,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25364,7 +25370,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25570,7 +25576,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25651,7 +25657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25776,7 +25782,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26188,7 +26194,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26266,7 +26272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26394,7 +26400,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26600,7 +26606,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26806,7 +26812,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27093,7 +27099,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ126">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR126">
         <v>1.85</v>
@@ -27218,7 +27224,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27296,7 +27302,7 @@
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27424,7 +27430,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27711,7 +27717,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -27836,7 +27842,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28248,7 +28254,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28660,7 +28666,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28866,7 +28872,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29153,7 +29159,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR136">
         <v>1.88</v>
@@ -29278,7 +29284,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29356,7 +29362,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137">
         <v>1.75</v>
@@ -29565,7 +29571,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR138">
         <v>1.58</v>
@@ -29690,7 +29696,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29771,7 +29777,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -29896,7 +29902,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30102,7 +30108,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30308,7 +30314,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30386,7 +30392,7 @@
         <v>2.2</v>
       </c>
       <c r="AP142">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ142">
         <v>2.08</v>
@@ -30514,7 +30520,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30592,7 +30598,7 @@
         <v>1.6</v>
       </c>
       <c r="AP143">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ143">
         <v>1.67</v>
@@ -30720,7 +30726,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30926,7 +30932,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31338,7 +31344,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31416,7 +31422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ147">
         <v>1.5</v>
@@ -31544,7 +31550,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31750,7 +31756,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31831,7 +31837,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR149">
         <v>1.65</v>
@@ -31956,7 +31962,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32037,7 +32043,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32162,7 +32168,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32240,7 +32246,7 @@
         <v>1.64</v>
       </c>
       <c r="AP151">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
         <v>1.58</v>
@@ -32574,7 +32580,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32780,7 +32786,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32858,7 +32864,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -33398,7 +33404,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33555,6 +33561,624 @@
       </c>
       <c r="BP157">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7332512</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F158">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
+        <v>73</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>88</v>
+      </c>
+      <c r="P158" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q158">
+        <v>2.9</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>3.6</v>
+      </c>
+      <c r="T158">
+        <v>1.46</v>
+      </c>
+      <c r="U158">
+        <v>2.55</v>
+      </c>
+      <c r="V158">
+        <v>3</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>9.5</v>
+      </c>
+      <c r="Y158">
+        <v>1.05</v>
+      </c>
+      <c r="Z158">
+        <v>2.12</v>
+      </c>
+      <c r="AA158">
+        <v>2.99</v>
+      </c>
+      <c r="AB158">
+        <v>2.99</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>6.8</v>
+      </c>
+      <c r="AE158">
+        <v>1.38</v>
+      </c>
+      <c r="AF158">
+        <v>2.9</v>
+      </c>
+      <c r="AG158">
+        <v>2.05</v>
+      </c>
+      <c r="AH158">
+        <v>1.73</v>
+      </c>
+      <c r="AI158">
+        <v>1.9</v>
+      </c>
+      <c r="AJ158">
+        <v>1.83</v>
+      </c>
+      <c r="AK158">
+        <v>1.35</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.62</v>
+      </c>
+      <c r="AN158">
+        <v>0.92</v>
+      </c>
+      <c r="AO158">
+        <v>1.5</v>
+      </c>
+      <c r="AP158">
+        <v>0.92</v>
+      </c>
+      <c r="AQ158">
+        <v>1.46</v>
+      </c>
+      <c r="AR158">
+        <v>1.69</v>
+      </c>
+      <c r="AS158">
+        <v>1.34</v>
+      </c>
+      <c r="AT158">
+        <v>3.03</v>
+      </c>
+      <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>6</v>
+      </c>
+      <c r="AW158">
+        <v>10</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>16</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>3</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>7</v>
+      </c>
+      <c r="BD158">
+        <v>1.6</v>
+      </c>
+      <c r="BE158">
+        <v>6.4</v>
+      </c>
+      <c r="BF158">
+        <v>2.97</v>
+      </c>
+      <c r="BG158">
+        <v>1.34</v>
+      </c>
+      <c r="BH158">
+        <v>2.88</v>
+      </c>
+      <c r="BI158">
+        <v>1.68</v>
+      </c>
+      <c r="BJ158">
+        <v>2.13</v>
+      </c>
+      <c r="BK158">
+        <v>2.12</v>
+      </c>
+      <c r="BL158">
+        <v>1.69</v>
+      </c>
+      <c r="BM158">
+        <v>2.78</v>
+      </c>
+      <c r="BN158">
+        <v>1.36</v>
+      </c>
+      <c r="BO158">
+        <v>3.9</v>
+      </c>
+      <c r="BP158">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7332513</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45521.3125</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>70</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>186</v>
+      </c>
+      <c r="P159" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q159">
+        <v>2.38</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>5.25</v>
+      </c>
+      <c r="T159">
+        <v>1.48</v>
+      </c>
+      <c r="U159">
+        <v>2.5</v>
+      </c>
+      <c r="V159">
+        <v>3.2</v>
+      </c>
+      <c r="W159">
+        <v>1.3</v>
+      </c>
+      <c r="X159">
+        <v>7.8</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>1.63</v>
+      </c>
+      <c r="AA159">
+        <v>3.17</v>
+      </c>
+      <c r="AB159">
+        <v>4.13</v>
+      </c>
+      <c r="AC159">
+        <v>1.03</v>
+      </c>
+      <c r="AD159">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE159">
+        <v>1.32</v>
+      </c>
+      <c r="AF159">
+        <v>2.98</v>
+      </c>
+      <c r="AG159">
+        <v>2.07</v>
+      </c>
+      <c r="AH159">
+        <v>1.72</v>
+      </c>
+      <c r="AI159">
+        <v>2.1</v>
+      </c>
+      <c r="AJ159">
+        <v>1.67</v>
+      </c>
+      <c r="AK159">
+        <v>1.2</v>
+      </c>
+      <c r="AL159">
+        <v>1.29</v>
+      </c>
+      <c r="AM159">
+        <v>2.05</v>
+      </c>
+      <c r="AN159">
+        <v>1.17</v>
+      </c>
+      <c r="AO159">
+        <v>0.83</v>
+      </c>
+      <c r="AP159">
+        <v>1.31</v>
+      </c>
+      <c r="AQ159">
+        <v>0.77</v>
+      </c>
+      <c r="AR159">
+        <v>1.36</v>
+      </c>
+      <c r="AS159">
+        <v>1.14</v>
+      </c>
+      <c r="AT159">
+        <v>2.5</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>1</v>
+      </c>
+      <c r="BD159">
+        <v>1.43</v>
+      </c>
+      <c r="BE159">
+        <v>6.6</v>
+      </c>
+      <c r="BF159">
+        <v>3.74</v>
+      </c>
+      <c r="BG159">
+        <v>1.62</v>
+      </c>
+      <c r="BH159">
+        <v>2.27</v>
+      </c>
+      <c r="BI159">
+        <v>2.05</v>
+      </c>
+      <c r="BJ159">
+        <v>1.75</v>
+      </c>
+      <c r="BK159">
+        <v>2.71</v>
+      </c>
+      <c r="BL159">
+        <v>1.38</v>
+      </c>
+      <c r="BM159">
+        <v>3.86</v>
+      </c>
+      <c r="BN159">
+        <v>1.2</v>
+      </c>
+      <c r="BO159">
+        <v>5.1</v>
+      </c>
+      <c r="BP159">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7332514</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45521.3125</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+      <c r="H160" t="s">
+        <v>80</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>187</v>
+      </c>
+      <c r="P160" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q160">
+        <v>2.65</v>
+      </c>
+      <c r="R160">
+        <v>2.1</v>
+      </c>
+      <c r="S160">
+        <v>3.75</v>
+      </c>
+      <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>2.75</v>
+      </c>
+      <c r="V160">
+        <v>2.85</v>
+      </c>
+      <c r="W160">
+        <v>1.39</v>
+      </c>
+      <c r="X160">
+        <v>7.3</v>
+      </c>
+      <c r="Y160">
+        <v>1.07</v>
+      </c>
+      <c r="Z160">
+        <v>2.02</v>
+      </c>
+      <c r="AA160">
+        <v>3.04</v>
+      </c>
+      <c r="AB160">
+        <v>3.16</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE160">
+        <v>1.3</v>
+      </c>
+      <c r="AF160">
+        <v>3.3</v>
+      </c>
+      <c r="AG160">
+        <v>1.98</v>
+      </c>
+      <c r="AH160">
+        <v>1.82</v>
+      </c>
+      <c r="AI160">
+        <v>1.8</v>
+      </c>
+      <c r="AJ160">
+        <v>1.95</v>
+      </c>
+      <c r="AK160">
+        <v>1.28</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.75</v>
+      </c>
+      <c r="AN160">
+        <v>0.83</v>
+      </c>
+      <c r="AO160">
+        <v>1.83</v>
+      </c>
+      <c r="AP160">
+        <v>0.85</v>
+      </c>
+      <c r="AQ160">
+        <v>1.77</v>
+      </c>
+      <c r="AR160">
+        <v>1.6</v>
+      </c>
+      <c r="AS160">
+        <v>1.34</v>
+      </c>
+      <c r="AT160">
+        <v>2.94</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>7</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>11</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>8</v>
+      </c>
+      <c r="BC160">
+        <v>16</v>
+      </c>
+      <c r="BD160">
+        <v>1.49</v>
+      </c>
+      <c r="BE160">
+        <v>6.75</v>
+      </c>
+      <c r="BF160">
+        <v>3.35</v>
+      </c>
+      <c r="BG160">
+        <v>1.29</v>
+      </c>
+      <c r="BH160">
+        <v>3.3</v>
+      </c>
+      <c r="BI160">
+        <v>1.64</v>
+      </c>
+      <c r="BJ160">
+        <v>2.23</v>
+      </c>
+      <c r="BK160">
+        <v>2.05</v>
+      </c>
+      <c r="BL160">
+        <v>1.76</v>
+      </c>
+      <c r="BM160">
+        <v>2.62</v>
+      </c>
+      <c r="BN160">
+        <v>1.43</v>
+      </c>
+      <c r="BO160">
+        <v>3.56</v>
+      </c>
+      <c r="BP160">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>['45+3', '63']</t>
+  </si>
+  <si>
+    <t>['6', '15']</t>
+  </si>
+  <si>
+    <t>['5', '69']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -1215,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1480,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1886,7 +1892,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1964,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ4">
         <v>1.77</v>
@@ -2173,7 +2179,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2298,7 +2304,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2504,7 +2510,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2585,7 +2591,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2710,7 +2716,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2791,7 +2797,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ8">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3328,7 +3334,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3534,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3740,7 +3746,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4230,10 +4236,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4358,7 +4364,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4564,7 +4570,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4770,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4976,7 +4982,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5260,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ20">
         <v>1.46</v>
@@ -5388,7 +5394,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5594,7 +5600,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5878,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6212,7 +6218,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6290,10 +6296,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6624,7 +6630,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6702,7 +6708,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ27">
         <v>0.92</v>
@@ -6830,7 +6836,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7036,7 +7042,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7242,7 +7248,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7323,7 +7329,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7448,7 +7454,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7654,7 +7660,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7732,10 +7738,10 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ32">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8066,7 +8072,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8147,7 +8153,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8684,7 +8690,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8765,7 +8771,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9096,7 +9102,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9302,7 +9308,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9380,7 +9386,7 @@
         <v>0.67</v>
       </c>
       <c r="AP40">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ40">
         <v>0.92</v>
@@ -9714,7 +9720,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9792,7 +9798,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
         <v>1.77</v>
@@ -9920,7 +9926,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9998,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10126,7 +10132,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10204,10 +10210,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10332,7 +10338,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10538,7 +10544,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10744,7 +10750,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11031,7 +11037,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11234,10 +11240,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ49">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11568,7 +11574,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11774,7 +11780,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11980,7 +11986,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12058,7 +12064,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12186,7 +12192,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12598,7 +12604,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12804,7 +12810,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12882,7 +12888,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ57">
         <v>1.75</v>
@@ -13010,7 +13016,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13216,7 +13222,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13422,7 +13428,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13834,7 +13840,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14040,7 +14046,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14118,7 +14124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
         <v>1.77</v>
@@ -14246,7 +14252,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14327,7 +14333,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14452,7 +14458,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14864,7 +14870,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14942,10 +14948,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15148,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ68">
         <v>0.77</v>
@@ -15482,7 +15488,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15560,7 +15566,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15975,7 +15981,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -16100,7 +16106,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16181,7 +16187,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16512,7 +16518,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16590,7 +16596,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16718,7 +16724,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16799,7 +16805,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17005,7 +17011,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ77">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17336,7 +17342,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17826,7 +17832,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ81">
         <v>1.58</v>
@@ -17954,7 +17960,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18160,7 +18166,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18778,7 +18784,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18856,10 +18862,10 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -19190,7 +19196,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19271,7 +19277,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ88">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19396,7 +19402,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19680,7 +19686,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19889,7 +19895,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ91">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20014,7 +20020,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20095,7 +20101,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20220,7 +20226,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20632,7 +20638,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21044,7 +21050,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21456,7 +21462,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21662,7 +21668,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22074,7 +22080,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22358,10 +22364,10 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ103">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22564,7 +22570,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22770,7 +22776,7 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ105">
         <v>0.92</v>
@@ -22979,7 +22985,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23185,7 +23191,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ107">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23310,7 +23316,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23388,7 +23394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108">
         <v>1.46</v>
@@ -23516,7 +23522,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23928,7 +23934,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24134,7 +24140,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24546,7 +24552,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24752,7 +24758,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24958,7 +24964,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25164,7 +25170,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25370,7 +25376,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25448,7 +25454,7 @@
         <v>1.88</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ118">
         <v>1.75</v>
@@ -25576,7 +25582,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25654,7 +25660,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ119">
         <v>0.77</v>
@@ -25782,7 +25788,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25863,7 +25869,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26066,10 +26072,10 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26194,7 +26200,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26400,7 +26406,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26606,7 +26612,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26687,7 +26693,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26812,7 +26818,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26893,7 +26899,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27224,7 +27230,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27430,7 +27436,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27842,7 +27848,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28126,7 +28132,7 @@
         <v>1.64</v>
       </c>
       <c r="AP131">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28254,7 +28260,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28335,7 +28341,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ132">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.87</v>
@@ -28666,7 +28672,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28747,7 +28753,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ134">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR134">
         <v>1.5</v>
@@ -28872,7 +28878,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29156,7 +29162,7 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ136">
         <v>1.46</v>
@@ -29284,7 +29290,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29568,7 +29574,7 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ138">
         <v>0.77</v>
@@ -29696,7 +29702,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29902,7 +29908,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30108,7 +30114,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30186,7 +30192,7 @@
         <v>1.5</v>
       </c>
       <c r="AP141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ141">
         <v>1.58</v>
@@ -30314,7 +30320,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30395,7 +30401,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ142">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR142">
         <v>1.6</v>
@@ -30520,7 +30526,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30601,7 +30607,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ143">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30726,7 +30732,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30932,7 +30938,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31344,7 +31350,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31550,7 +31556,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31631,7 +31637,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ148">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31756,7 +31762,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31962,7 +31968,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32168,7 +32174,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32580,7 +32586,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32661,7 +32667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR153">
         <v>1.57</v>
@@ -32786,7 +32792,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33073,7 +33079,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ155">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33276,7 +33282,7 @@
         <v>1.91</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ156">
         <v>1.75</v>
@@ -33404,7 +33410,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34022,7 +34028,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34179,6 +34185,624 @@
       </c>
       <c r="BP160">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7332516</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F161">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>188</v>
+      </c>
+      <c r="P161" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q161">
+        <v>3.72</v>
+      </c>
+      <c r="R161">
+        <v>2.22</v>
+      </c>
+      <c r="S161">
+        <v>2.92</v>
+      </c>
+      <c r="T161">
+        <v>1.38</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.91</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>7.2</v>
+      </c>
+      <c r="Y161">
+        <v>1.08</v>
+      </c>
+      <c r="Z161">
+        <v>4.33</v>
+      </c>
+      <c r="AA161">
+        <v>1.78</v>
+      </c>
+      <c r="AB161">
+        <v>3.17</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.3</v>
+      </c>
+      <c r="AF161">
+        <v>3.2</v>
+      </c>
+      <c r="AG161">
+        <v>1.99</v>
+      </c>
+      <c r="AH161">
+        <v>1.8</v>
+      </c>
+      <c r="AI161">
+        <v>1.73</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>1.62</v>
+      </c>
+      <c r="AL161">
+        <v>1.33</v>
+      </c>
+      <c r="AM161">
+        <v>1.38</v>
+      </c>
+      <c r="AN161">
+        <v>1.17</v>
+      </c>
+      <c r="AO161">
+        <v>1.67</v>
+      </c>
+      <c r="AP161">
+        <v>1.31</v>
+      </c>
+      <c r="AQ161">
+        <v>1.54</v>
+      </c>
+      <c r="AR161">
+        <v>1.4</v>
+      </c>
+      <c r="AS161">
+        <v>1.66</v>
+      </c>
+      <c r="AT161">
+        <v>3.06</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>0</v>
+      </c>
+      <c r="AW161">
+        <v>0</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>3</v>
+      </c>
+      <c r="AZ161">
+        <v>2</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>3</v>
+      </c>
+      <c r="BD161">
+        <v>2.26</v>
+      </c>
+      <c r="BE161">
+        <v>6.15</v>
+      </c>
+      <c r="BF161">
+        <v>1.95</v>
+      </c>
+      <c r="BG161">
+        <v>1.33</v>
+      </c>
+      <c r="BH161">
+        <v>2.93</v>
+      </c>
+      <c r="BI161">
+        <v>1.68</v>
+      </c>
+      <c r="BJ161">
+        <v>2.16</v>
+      </c>
+      <c r="BK161">
+        <v>2.1</v>
+      </c>
+      <c r="BL161">
+        <v>1.72</v>
+      </c>
+      <c r="BM161">
+        <v>2.67</v>
+      </c>
+      <c r="BN161">
+        <v>1.39</v>
+      </c>
+      <c r="BO161">
+        <v>3.74</v>
+      </c>
+      <c r="BP161">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7332517</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F162">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>88</v>
+      </c>
+      <c r="P162" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q162">
+        <v>3.07</v>
+      </c>
+      <c r="R162">
+        <v>2.24</v>
+      </c>
+      <c r="S162">
+        <v>3.46</v>
+      </c>
+      <c r="T162">
+        <v>1.37</v>
+      </c>
+      <c r="U162">
+        <v>3.06</v>
+      </c>
+      <c r="V162">
+        <v>2.85</v>
+      </c>
+      <c r="W162">
+        <v>1.42</v>
+      </c>
+      <c r="X162">
+        <v>6</v>
+      </c>
+      <c r="Y162">
+        <v>1.09</v>
+      </c>
+      <c r="Z162">
+        <v>3.56</v>
+      </c>
+      <c r="AA162">
+        <v>1.74</v>
+      </c>
+      <c r="AB162">
+        <v>3.94</v>
+      </c>
+      <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE162">
+        <v>1.26</v>
+      </c>
+      <c r="AF162">
+        <v>3.34</v>
+      </c>
+      <c r="AG162">
+        <v>1.97</v>
+      </c>
+      <c r="AH162">
+        <v>1.82</v>
+      </c>
+      <c r="AI162">
+        <v>1.73</v>
+      </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
+      <c r="AK162">
+        <v>1.44</v>
+      </c>
+      <c r="AL162">
+        <v>1.3</v>
+      </c>
+      <c r="AM162">
+        <v>1.57</v>
+      </c>
+      <c r="AN162">
+        <v>1.75</v>
+      </c>
+      <c r="AO162">
+        <v>1.92</v>
+      </c>
+      <c r="AP162">
+        <v>1.62</v>
+      </c>
+      <c r="AQ162">
+        <v>2</v>
+      </c>
+      <c r="AR162">
+        <v>1.58</v>
+      </c>
+      <c r="AS162">
+        <v>1.66</v>
+      </c>
+      <c r="AT162">
+        <v>3.24</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>2</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>6</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>11</v>
+      </c>
+      <c r="BD162">
+        <v>2.02</v>
+      </c>
+      <c r="BE162">
+        <v>6.1</v>
+      </c>
+      <c r="BF162">
+        <v>2.18</v>
+      </c>
+      <c r="BG162">
+        <v>1.39</v>
+      </c>
+      <c r="BH162">
+        <v>2.67</v>
+      </c>
+      <c r="BI162">
+        <v>1.78</v>
+      </c>
+      <c r="BJ162">
+        <v>2.03</v>
+      </c>
+      <c r="BK162">
+        <v>2.25</v>
+      </c>
+      <c r="BL162">
+        <v>1.63</v>
+      </c>
+      <c r="BM162">
+        <v>2.98</v>
+      </c>
+      <c r="BN162">
+        <v>1.32</v>
+      </c>
+      <c r="BO162">
+        <v>3.9</v>
+      </c>
+      <c r="BP162">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7332515</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F163">
+        <v>27</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>77</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>189</v>
+      </c>
+      <c r="P163" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q163">
+        <v>2.65</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.5</v>
+      </c>
+      <c r="T163">
+        <v>1.32</v>
+      </c>
+      <c r="U163">
+        <v>3.24</v>
+      </c>
+      <c r="V163">
+        <v>2.5</v>
+      </c>
+      <c r="W163">
+        <v>1.48</v>
+      </c>
+      <c r="X163">
+        <v>5.9</v>
+      </c>
+      <c r="Y163">
+        <v>1.11</v>
+      </c>
+      <c r="Z163">
+        <v>4.28</v>
+      </c>
+      <c r="AA163">
+        <v>7.01</v>
+      </c>
+      <c r="AB163">
+        <v>1.36</v>
+      </c>
+      <c r="AC163">
+        <v>1.02</v>
+      </c>
+      <c r="AD163">
+        <v>10</v>
+      </c>
+      <c r="AE163">
+        <v>1.22</v>
+      </c>
+      <c r="AF163">
+        <v>4</v>
+      </c>
+      <c r="AG163">
+        <v>1.67</v>
+      </c>
+      <c r="AH163">
+        <v>2.14</v>
+      </c>
+      <c r="AI163">
+        <v>1.6</v>
+      </c>
+      <c r="AJ163">
+        <v>2.25</v>
+      </c>
+      <c r="AK163">
+        <v>1.35</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.68</v>
+      </c>
+      <c r="AN163">
+        <v>1.5</v>
+      </c>
+      <c r="AO163">
+        <v>2.08</v>
+      </c>
+      <c r="AP163">
+        <v>1.62</v>
+      </c>
+      <c r="AQ163">
+        <v>1.92</v>
+      </c>
+      <c r="AR163">
+        <v>1.89</v>
+      </c>
+      <c r="AS163">
+        <v>1.5</v>
+      </c>
+      <c r="AT163">
+        <v>3.39</v>
+      </c>
+      <c r="AU163">
+        <v>7</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>2</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>9</v>
+      </c>
+      <c r="BA163">
+        <v>4</v>
+      </c>
+      <c r="BB163">
+        <v>1</v>
+      </c>
+      <c r="BC163">
+        <v>5</v>
+      </c>
+      <c r="BD163">
+        <v>1.49</v>
+      </c>
+      <c r="BE163">
+        <v>6.8</v>
+      </c>
+      <c r="BF163">
+        <v>3.34</v>
+      </c>
+      <c r="BG163">
+        <v>1.26</v>
+      </c>
+      <c r="BH163">
+        <v>3.34</v>
+      </c>
+      <c r="BI163">
+        <v>1.53</v>
+      </c>
+      <c r="BJ163">
+        <v>2.42</v>
+      </c>
+      <c r="BK163">
+        <v>1.9</v>
+      </c>
+      <c r="BL163">
+        <v>1.89</v>
+      </c>
+      <c r="BM163">
+        <v>2.41</v>
+      </c>
+      <c r="BN163">
+        <v>1.54</v>
+      </c>
+      <c r="BO163">
+        <v>3.2</v>
+      </c>
+      <c r="BP163">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['5', '69']</t>
   </si>
   <si>
+    <t>['16', '64']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -860,6 +863,9 @@
   </si>
   <si>
     <t>['44', '76']</t>
+  </si>
+  <si>
+    <t>['21', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1486,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1892,7 +1898,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2304,7 +2310,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2510,7 +2516,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2588,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ7">
         <v>1.54</v>
@@ -2716,7 +2722,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3000,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3206,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3334,7 +3340,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3540,7 +3546,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3746,7 +3752,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4364,7 +4370,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4570,7 +4576,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4648,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR17">
         <v>1.92</v>
@@ -4776,7 +4782,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4982,7 +4988,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5266,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20">
         <v>1.46</v>
@@ -5394,7 +5400,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5475,7 +5481,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5600,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6090,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1.77</v>
@@ -6218,7 +6224,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6630,7 +6636,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6708,7 +6714,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
         <v>0.92</v>
@@ -6836,7 +6842,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6917,7 +6923,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -7042,7 +7048,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7248,7 +7254,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7326,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ30">
         <v>1.92</v>
@@ -7454,7 +7460,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7660,7 +7666,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7947,7 +7953,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR33">
         <v>1.05</v>
@@ -8072,7 +8078,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8359,7 +8365,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8690,7 +8696,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9102,7 +9108,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9180,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9308,7 +9314,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9592,7 +9598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
         <v>0.77</v>
@@ -9720,7 +9726,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9798,7 +9804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
         <v>1.77</v>
@@ -9926,7 +9932,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10007,7 +10013,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR43">
         <v>1.95</v>
@@ -10132,7 +10138,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10338,7 +10344,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10544,7 +10550,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10750,7 +10756,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10831,7 +10837,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR47">
         <v>1.04</v>
@@ -11240,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>1.92</v>
@@ -11574,7 +11580,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11652,7 +11658,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ51">
         <v>0.77</v>
@@ -11780,7 +11786,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11861,7 +11867,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR52">
         <v>1.73</v>
@@ -11986,7 +11992,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12192,7 +12198,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12270,7 +12276,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12479,7 +12485,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12604,7 +12610,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12685,7 +12691,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12810,7 +12816,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12888,7 +12894,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>1.75</v>
@@ -13016,7 +13022,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13222,7 +13228,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13300,7 +13306,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13428,7 +13434,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13840,7 +13846,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13918,7 +13924,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14046,7 +14052,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14252,7 +14258,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14458,7 +14464,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14745,7 +14751,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14870,7 +14876,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15360,7 +15366,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>0.92</v>
@@ -15488,7 +15494,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15566,10 +15572,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR70">
         <v>1.59</v>
@@ -16106,7 +16112,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16518,7 +16524,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16599,7 +16605,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16724,7 +16730,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17342,7 +17348,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17423,7 +17429,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR79">
         <v>1.97</v>
@@ -17626,7 +17632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.46</v>
@@ -17832,7 +17838,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ81">
         <v>1.58</v>
@@ -17960,7 +17966,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18041,7 +18047,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18166,7 +18172,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18244,7 +18250,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ83">
         <v>1.77</v>
@@ -18784,7 +18790,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19196,7 +19202,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19402,7 +19408,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -20020,7 +20026,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20226,7 +20232,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20638,7 +20644,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20716,7 +20722,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ95">
         <v>1.58</v>
@@ -21050,7 +21056,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21462,7 +21468,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21540,10 +21546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21668,7 +21674,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22080,7 +22086,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22364,7 +22370,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22570,7 +22576,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -23316,7 +23322,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23522,7 +23528,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23934,7 +23940,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24012,7 +24018,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
         <v>1.58</v>
@@ -24140,7 +24146,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24552,7 +24558,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24758,7 +24764,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24839,7 +24845,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -24964,7 +24970,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25170,7 +25176,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25248,7 +25254,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25376,7 +25382,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25582,7 +25588,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25788,7 +25794,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26072,7 +26078,7 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
         <v>1.54</v>
@@ -26200,7 +26206,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26406,7 +26412,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26484,10 +26490,10 @@
         <v>1.63</v>
       </c>
       <c r="AP123">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26612,7 +26618,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26818,7 +26824,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27230,7 +27236,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27436,7 +27442,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27514,7 +27520,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27848,7 +27854,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28135,7 +28141,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR131">
         <v>1.41</v>
@@ -28260,7 +28266,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28672,7 +28678,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28750,7 +28756,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -28878,7 +28884,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28959,7 +28965,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
         <v>1.7</v>
@@ -29290,7 +29296,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29574,7 +29580,7 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ138">
         <v>0.77</v>
@@ -29702,7 +29708,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29908,7 +29914,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -29986,7 +29992,7 @@
         <v>1.1</v>
       </c>
       <c r="AP140">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30114,7 +30120,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30320,7 +30326,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30526,7 +30532,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30732,7 +30738,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30938,7 +30944,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31350,7 +31356,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31431,7 +31437,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR147">
         <v>1.61</v>
@@ -31556,7 +31562,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31634,7 +31640,7 @@
         <v>1.73</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>1.54</v>
@@ -31762,7 +31768,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31968,7 +31974,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32046,7 +32052,7 @@
         <v>1.36</v>
       </c>
       <c r="AP150">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ150">
         <v>1.46</v>
@@ -32174,7 +32180,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32461,7 +32467,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR152">
         <v>1.14</v>
@@ -32586,7 +32592,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32792,7 +32798,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33410,7 +33416,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34028,7 +34034,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34518,7 +34524,7 @@
         <v>1.92</v>
       </c>
       <c r="AP162">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -34646,7 +34652,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q163">
         <v>2.65</v>
@@ -34803,6 +34809,624 @@
       </c>
       <c r="BP163">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7332518</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>88</v>
+      </c>
+      <c r="P164" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q164">
+        <v>2.68</v>
+      </c>
+      <c r="R164">
+        <v>2.23</v>
+      </c>
+      <c r="S164">
+        <v>3.38</v>
+      </c>
+      <c r="T164">
+        <v>1.31</v>
+      </c>
+      <c r="U164">
+        <v>3.26</v>
+      </c>
+      <c r="V164">
+        <v>2.45</v>
+      </c>
+      <c r="W164">
+        <v>1.51</v>
+      </c>
+      <c r="X164">
+        <v>5.8</v>
+      </c>
+      <c r="Y164">
+        <v>1.11</v>
+      </c>
+      <c r="Z164">
+        <v>2.15</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>2.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>11</v>
+      </c>
+      <c r="AE164">
+        <v>1.18</v>
+      </c>
+      <c r="AF164">
+        <v>4.05</v>
+      </c>
+      <c r="AG164">
+        <v>1.65</v>
+      </c>
+      <c r="AH164">
+        <v>2</v>
+      </c>
+      <c r="AI164">
+        <v>1.54</v>
+      </c>
+      <c r="AJ164">
+        <v>2.25</v>
+      </c>
+      <c r="AK164">
+        <v>1.36</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>1.59</v>
+      </c>
+      <c r="AN164">
+        <v>1.42</v>
+      </c>
+      <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1.38</v>
+      </c>
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="AR164">
+        <v>1.57</v>
+      </c>
+      <c r="AS164">
+        <v>1.58</v>
+      </c>
+      <c r="AT164">
+        <v>3.15</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>14</v>
+      </c>
+      <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>18</v>
+      </c>
+      <c r="AZ164">
+        <v>6</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>1</v>
+      </c>
+      <c r="BC164">
+        <v>6</v>
+      </c>
+      <c r="BD164">
+        <v>1.86</v>
+      </c>
+      <c r="BE164">
+        <v>6.3</v>
+      </c>
+      <c r="BF164">
+        <v>2.38</v>
+      </c>
+      <c r="BG164">
+        <v>1.28</v>
+      </c>
+      <c r="BH164">
+        <v>3.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.57</v>
+      </c>
+      <c r="BJ164">
+        <v>2.3</v>
+      </c>
+      <c r="BK164">
+        <v>1.89</v>
+      </c>
+      <c r="BL164">
+        <v>1.83</v>
+      </c>
+      <c r="BM164">
+        <v>2.49</v>
+      </c>
+      <c r="BN164">
+        <v>1.5</v>
+      </c>
+      <c r="BO164">
+        <v>3.42</v>
+      </c>
+      <c r="BP164">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7332519</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45528.3125</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" t="s">
+        <v>82</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>88</v>
+      </c>
+      <c r="P165" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q165">
+        <v>2.55</v>
+      </c>
+      <c r="R165">
+        <v>2.15</v>
+      </c>
+      <c r="S165">
+        <v>3.75</v>
+      </c>
+      <c r="T165">
+        <v>1.37</v>
+      </c>
+      <c r="U165">
+        <v>2.94</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>6.8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>1.91</v>
+      </c>
+      <c r="AA165">
+        <v>3.3</v>
+      </c>
+      <c r="AB165">
+        <v>3.4</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>9.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.28</v>
+      </c>
+      <c r="AF165">
+        <v>3.5</v>
+      </c>
+      <c r="AG165">
+        <v>1.8</v>
+      </c>
+      <c r="AH165">
+        <v>1.83</v>
+      </c>
+      <c r="AI165">
+        <v>1.75</v>
+      </c>
+      <c r="AJ165">
+        <v>2</v>
+      </c>
+      <c r="AK165">
+        <v>1.28</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>1.78</v>
+      </c>
+      <c r="AN165">
+        <v>0.75</v>
+      </c>
+      <c r="AO165">
+        <v>1.5</v>
+      </c>
+      <c r="AP165">
+        <v>0.77</v>
+      </c>
+      <c r="AQ165">
+        <v>1.46</v>
+      </c>
+      <c r="AR165">
+        <v>1.72</v>
+      </c>
+      <c r="AS165">
+        <v>1.18</v>
+      </c>
+      <c r="AT165">
+        <v>2.9</v>
+      </c>
+      <c r="AU165">
+        <v>2</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>9</v>
+      </c>
+      <c r="AZ165">
+        <v>11</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>1.5</v>
+      </c>
+      <c r="BE165">
+        <v>6.45</v>
+      </c>
+      <c r="BF165">
+        <v>3.38</v>
+      </c>
+      <c r="BG165">
+        <v>1.52</v>
+      </c>
+      <c r="BH165">
+        <v>2.3</v>
+      </c>
+      <c r="BI165">
+        <v>1.92</v>
+      </c>
+      <c r="BJ165">
+        <v>1.75</v>
+      </c>
+      <c r="BK165">
+        <v>2.57</v>
+      </c>
+      <c r="BL165">
+        <v>1.42</v>
+      </c>
+      <c r="BM165">
+        <v>3.64</v>
+      </c>
+      <c r="BN165">
+        <v>1.22</v>
+      </c>
+      <c r="BO165">
+        <v>4.8</v>
+      </c>
+      <c r="BP165">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7332520</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45528.3125</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>190</v>
+      </c>
+      <c r="P166" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q166">
+        <v>2.85</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>3.75</v>
+      </c>
+      <c r="T166">
+        <v>1.48</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.14</v>
+      </c>
+      <c r="W166">
+        <v>1.33</v>
+      </c>
+      <c r="X166">
+        <v>8.4</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>2.16</v>
+      </c>
+      <c r="AA166">
+        <v>3.27</v>
+      </c>
+      <c r="AB166">
+        <v>3.48</v>
+      </c>
+      <c r="AC166">
+        <v>1.05</v>
+      </c>
+      <c r="AD166">
+        <v>7.3</v>
+      </c>
+      <c r="AE166">
+        <v>1.38</v>
+      </c>
+      <c r="AF166">
+        <v>2.9</v>
+      </c>
+      <c r="AG166">
+        <v>2.15</v>
+      </c>
+      <c r="AH166">
+        <v>1.62</v>
+      </c>
+      <c r="AI166">
+        <v>1.9</v>
+      </c>
+      <c r="AJ166">
+        <v>1.83</v>
+      </c>
+      <c r="AK166">
+        <v>1.3</v>
+      </c>
+      <c r="AL166">
+        <v>1.28</v>
+      </c>
+      <c r="AM166">
+        <v>1.63</v>
+      </c>
+      <c r="AN166">
+        <v>1.62</v>
+      </c>
+      <c r="AO166">
+        <v>1.5</v>
+      </c>
+      <c r="AP166">
+        <v>1.57</v>
+      </c>
+      <c r="AQ166">
+        <v>1.46</v>
+      </c>
+      <c r="AR166">
+        <v>1.58</v>
+      </c>
+      <c r="AS166">
+        <v>1.38</v>
+      </c>
+      <c r="AT166">
+        <v>2.96</v>
+      </c>
+      <c r="AU166">
+        <v>3</v>
+      </c>
+      <c r="AV166">
+        <v>7</v>
+      </c>
+      <c r="AW166">
+        <v>4</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>7</v>
+      </c>
+      <c r="AZ166">
+        <v>11</v>
+      </c>
+      <c r="BA166">
+        <v>1</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>4</v>
+      </c>
+      <c r="BD166">
+        <v>1.62</v>
+      </c>
+      <c r="BE166">
+        <v>6.3</v>
+      </c>
+      <c r="BF166">
+        <v>2.92</v>
+      </c>
+      <c r="BG166">
+        <v>1.41</v>
+      </c>
+      <c r="BH166">
+        <v>2.6</v>
+      </c>
+      <c r="BI166">
+        <v>1.75</v>
+      </c>
+      <c r="BJ166">
+        <v>1.92</v>
+      </c>
+      <c r="BK166">
+        <v>2.27</v>
+      </c>
+      <c r="BL166">
+        <v>1.53</v>
+      </c>
+      <c r="BM166">
+        <v>3.08</v>
+      </c>
+      <c r="BN166">
+        <v>1.3</v>
+      </c>
+      <c r="BO166">
+        <v>4</v>
+      </c>
+      <c r="BP166">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['16', '64']</t>
   </si>
   <si>
+    <t>['54', '90+5']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>['21', '90+3']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1492,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1898,7 +1904,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2310,7 +2316,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2516,7 +2522,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2722,7 +2728,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3340,7 +3346,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3418,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3546,7 +3552,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3752,7 +3758,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3830,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ13">
         <v>0.77</v>
@@ -4370,7 +4376,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4576,7 +4582,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4782,7 +4788,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4863,7 +4869,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -4988,7 +4994,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5069,7 +5075,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5400,7 +5406,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5478,7 +5484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>1.46</v>
@@ -5606,7 +5612,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5684,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6224,7 +6230,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6636,7 +6642,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6842,7 +6848,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6920,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ28">
         <v>1.46</v>
@@ -7048,7 +7054,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7254,7 +7260,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7460,7 +7466,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7541,7 +7547,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7666,7 +7672,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8078,7 +8084,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8156,7 +8162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>1.54</v>
@@ -8696,7 +8702,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9108,7 +9114,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9189,7 +9195,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9314,7 +9320,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9726,7 +9732,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9932,7 +9938,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10138,7 +10144,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10344,7 +10350,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10422,7 +10428,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ45">
         <v>1.46</v>
@@ -10550,7 +10556,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10631,7 +10637,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10756,7 +10762,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11452,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11580,7 +11586,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11786,7 +11792,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11992,7 +11998,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12198,7 +12204,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12279,7 +12285,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12610,7 +12616,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12816,7 +12822,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12897,7 +12903,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -13022,7 +13028,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13100,10 +13106,10 @@
         <v>2.25</v>
       </c>
       <c r="AP58">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13228,7 +13234,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13434,7 +13440,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13718,7 +13724,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ61">
         <v>1.46</v>
@@ -13846,7 +13852,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14052,7 +14058,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14258,7 +14264,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14464,7 +14470,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14876,7 +14882,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15494,7 +15500,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -16112,7 +16118,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16524,7 +16530,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16730,7 +16736,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16808,7 +16814,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ76">
         <v>1.92</v>
@@ -17014,7 +17020,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17223,7 +17229,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17348,7 +17354,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17841,7 +17847,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ81">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17966,7 +17972,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18044,7 +18050,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ82">
         <v>1.46</v>
@@ -18172,7 +18178,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18790,7 +18796,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19202,7 +19208,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19408,7 +19414,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19486,7 +19492,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
         <v>1.77</v>
@@ -20026,7 +20032,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20232,7 +20238,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20310,7 +20316,7 @@
         <v>1.14</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20644,7 +20650,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20725,7 +20731,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ95">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -21056,7 +21062,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21343,7 +21349,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ98">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21468,7 +21474,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21674,7 +21680,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21752,10 +21758,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -22086,7 +22092,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -23322,7 +23328,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23528,7 +23534,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23815,7 +23821,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23940,7 +23946,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24021,7 +24027,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24146,7 +24152,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24224,7 +24230,7 @@
         <v>1.29</v>
       </c>
       <c r="AP112">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ112">
         <v>1.33</v>
@@ -24558,7 +24564,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24636,7 +24642,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ114">
         <v>0.77</v>
@@ -24764,7 +24770,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24970,7 +24976,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25176,7 +25182,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25382,7 +25388,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25463,7 +25469,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25588,7 +25594,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25794,7 +25800,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26206,7 +26212,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26412,7 +26418,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26618,7 +26624,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26824,7 +26830,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27236,7 +27242,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27314,7 +27320,7 @@
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27442,7 +27448,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27854,7 +27860,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27935,7 +27941,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ130">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
@@ -28266,7 +28272,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28550,7 +28556,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133">
         <v>0.92</v>
@@ -28678,7 +28684,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28884,7 +28890,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29296,7 +29302,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29377,7 +29383,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29708,7 +29714,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29786,7 +29792,7 @@
         <v>1.8</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ139">
         <v>1.77</v>
@@ -29914,7 +29920,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30120,7 +30126,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30201,7 +30207,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30326,7 +30332,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30404,7 +30410,7 @@
         <v>2.2</v>
       </c>
       <c r="AP142">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ142">
         <v>1.92</v>
@@ -30532,7 +30538,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30738,7 +30744,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30944,7 +30950,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31025,7 +31031,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ145">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR145">
         <v>1.12</v>
@@ -31356,7 +31362,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31434,7 +31440,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ147">
         <v>1.46</v>
@@ -31562,7 +31568,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31768,7 +31774,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31974,7 +31980,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32180,7 +32186,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32261,7 +32267,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR151">
         <v>1.33</v>
@@ -32592,7 +32598,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32670,7 +32676,7 @@
         <v>2.09</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ153">
         <v>2</v>
@@ -32798,7 +32804,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33291,7 +33297,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ156">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR156">
         <v>1.83</v>
@@ -33416,7 +33422,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34034,7 +34040,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34112,7 +34118,7 @@
         <v>1.83</v>
       </c>
       <c r="AP160">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ160">
         <v>1.77</v>
@@ -34652,7 +34658,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q163">
         <v>2.65</v>
@@ -35270,7 +35276,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35427,6 +35433,418 @@
       </c>
       <c r="BP166">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7332523</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F167">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>85</v>
+      </c>
+      <c r="P167" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q167">
+        <v>3.8</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>2.55</v>
+      </c>
+      <c r="T167">
+        <v>1.35</v>
+      </c>
+      <c r="U167">
+        <v>2.8</v>
+      </c>
+      <c r="V167">
+        <v>2.85</v>
+      </c>
+      <c r="W167">
+        <v>1.35</v>
+      </c>
+      <c r="X167">
+        <v>6.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.07</v>
+      </c>
+      <c r="Z167">
+        <v>3.5</v>
+      </c>
+      <c r="AA167">
+        <v>3.4</v>
+      </c>
+      <c r="AB167">
+        <v>2</v>
+      </c>
+      <c r="AC167">
+        <v>1.06</v>
+      </c>
+      <c r="AD167">
+        <v>7.2</v>
+      </c>
+      <c r="AE167">
+        <v>1.27</v>
+      </c>
+      <c r="AF167">
+        <v>3.4</v>
+      </c>
+      <c r="AG167">
+        <v>1.95</v>
+      </c>
+      <c r="AH167">
+        <v>1.8</v>
+      </c>
+      <c r="AI167">
+        <v>1.7</v>
+      </c>
+      <c r="AJ167">
+        <v>1.97</v>
+      </c>
+      <c r="AK167">
+        <v>1.55</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.27</v>
+      </c>
+      <c r="AN167">
+        <v>0.85</v>
+      </c>
+      <c r="AO167">
+        <v>1.75</v>
+      </c>
+      <c r="AP167">
+        <v>0.86</v>
+      </c>
+      <c r="AQ167">
+        <v>1.69</v>
+      </c>
+      <c r="AR167">
+        <v>1.59</v>
+      </c>
+      <c r="AS167">
+        <v>1.44</v>
+      </c>
+      <c r="AT167">
+        <v>3.03</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>2.16</v>
+      </c>
+      <c r="BE167">
+        <v>6.15</v>
+      </c>
+      <c r="BF167">
+        <v>2.03</v>
+      </c>
+      <c r="BG167">
+        <v>1.33</v>
+      </c>
+      <c r="BH167">
+        <v>2.93</v>
+      </c>
+      <c r="BI167">
+        <v>1.61</v>
+      </c>
+      <c r="BJ167">
+        <v>2.12</v>
+      </c>
+      <c r="BK167">
+        <v>2.04</v>
+      </c>
+      <c r="BL167">
+        <v>1.66</v>
+      </c>
+      <c r="BM167">
+        <v>2.71</v>
+      </c>
+      <c r="BN167">
+        <v>1.38</v>
+      </c>
+      <c r="BO167">
+        <v>3.74</v>
+      </c>
+      <c r="BP167">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7332524</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F168">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s">
+        <v>74</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>191</v>
+      </c>
+      <c r="P168" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>2.15</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>2.9</v>
+      </c>
+      <c r="V168">
+        <v>2.65</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>6.5</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>2.5</v>
+      </c>
+      <c r="AA168">
+        <v>3.4</v>
+      </c>
+      <c r="AB168">
+        <v>2.6</v>
+      </c>
+      <c r="AC168">
+        <v>1.05</v>
+      </c>
+      <c r="AD168">
+        <v>7.8</v>
+      </c>
+      <c r="AE168">
+        <v>1.25</v>
+      </c>
+      <c r="AF168">
+        <v>3.5</v>
+      </c>
+      <c r="AG168">
+        <v>1.85</v>
+      </c>
+      <c r="AH168">
+        <v>1.9</v>
+      </c>
+      <c r="AI168">
+        <v>1.62</v>
+      </c>
+      <c r="AJ168">
+        <v>2.1</v>
+      </c>
+      <c r="AK168">
+        <v>1.35</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.45</v>
+      </c>
+      <c r="AN168">
+        <v>1.5</v>
+      </c>
+      <c r="AO168">
+        <v>1.58</v>
+      </c>
+      <c r="AP168">
+        <v>1.62</v>
+      </c>
+      <c r="AQ168">
+        <v>1.46</v>
+      </c>
+      <c r="AR168">
+        <v>1.58</v>
+      </c>
+      <c r="AS168">
+        <v>1.61</v>
+      </c>
+      <c r="AT168">
+        <v>3.19</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>1</v>
+      </c>
+      <c r="AX168">
+        <v>7</v>
+      </c>
+      <c r="AY168">
+        <v>4</v>
+      </c>
+      <c r="AZ168">
+        <v>11</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>11</v>
+      </c>
+      <c r="BD168">
+        <v>2.06</v>
+      </c>
+      <c r="BE168">
+        <v>6.2</v>
+      </c>
+      <c r="BF168">
+        <v>2.12</v>
+      </c>
+      <c r="BG168">
+        <v>1.28</v>
+      </c>
+      <c r="BH168">
+        <v>3.2</v>
+      </c>
+      <c r="BI168">
+        <v>1.59</v>
+      </c>
+      <c r="BJ168">
+        <v>2.28</v>
+      </c>
+      <c r="BK168">
+        <v>1.98</v>
+      </c>
+      <c r="BL168">
+        <v>1.81</v>
+      </c>
+      <c r="BM168">
+        <v>2.53</v>
+      </c>
+      <c r="BN168">
+        <v>1.49</v>
+      </c>
+      <c r="BO168">
+        <v>3.42</v>
+      </c>
+      <c r="BP168">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['54', '90+5']</t>
   </si>
   <si>
+    <t>['34', '48']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['5', '45+1', '75']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1498,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1904,7 +1910,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2316,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2522,7 +2528,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2728,7 +2734,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3346,7 +3352,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3552,7 +3558,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ12">
         <v>1.46</v>
@@ -3758,7 +3764,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3839,7 +3845,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ14">
         <v>0.92</v>
@@ -4376,7 +4382,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4582,7 +4588,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4788,7 +4794,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4994,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5406,7 +5412,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5612,7 +5618,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6230,7 +6236,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6517,7 +6523,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ26">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6642,7 +6648,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6848,7 +6854,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7054,7 +7060,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7132,7 +7138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7260,7 +7266,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7466,7 +7472,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7672,7 +7678,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -8084,7 +8090,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8702,7 +8708,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8780,7 +8786,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9114,7 +9120,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9320,7 +9326,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9607,7 +9613,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9732,7 +9738,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9938,7 +9944,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10144,7 +10150,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10350,7 +10356,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10556,7 +10562,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10762,7 +10768,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11586,7 +11592,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11667,7 +11673,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ51">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11792,7 +11798,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11870,7 +11876,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ52">
         <v>1.46</v>
@@ -11998,7 +12004,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12204,7 +12210,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12616,7 +12622,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12822,7 +12828,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13028,7 +13034,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13234,7 +13240,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13440,7 +13446,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13518,10 +13524,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ60">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13852,7 +13858,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14058,7 +14064,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14264,7 +14270,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14470,7 +14476,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14882,7 +14888,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15169,7 +15175,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ68">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15500,7 +15506,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -16118,7 +16124,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16196,7 +16202,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ73">
         <v>1.54</v>
@@ -16530,7 +16536,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16736,7 +16742,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17226,7 +17232,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ78">
         <v>1.69</v>
@@ -17354,7 +17360,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17972,7 +17978,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18178,7 +18184,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18671,7 +18677,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ85">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18796,7 +18802,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19208,7 +19214,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19414,7 +19420,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -20032,7 +20038,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20238,7 +20244,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20650,7 +20656,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21062,7 +21068,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21140,7 +21146,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21474,7 +21480,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21680,7 +21686,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21967,7 +21973,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ101">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -22092,7 +22098,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -23328,7 +23334,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23534,7 +23540,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23946,7 +23952,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24152,7 +24158,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24564,7 +24570,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24645,7 +24651,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ114">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24770,7 +24776,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24848,7 +24854,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ115">
         <v>1.46</v>
@@ -24976,7 +24982,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25182,7 +25188,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25388,7 +25394,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25594,7 +25600,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25675,7 +25681,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ119">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25800,7 +25806,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26212,7 +26218,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26418,7 +26424,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26624,7 +26630,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26830,7 +26836,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27242,7 +27248,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27448,7 +27454,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27735,7 +27741,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -27860,7 +27866,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27938,7 +27944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ130">
         <v>1.46</v>
@@ -28272,7 +28278,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28684,7 +28690,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28890,7 +28896,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29302,7 +29308,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29589,7 +29595,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ138">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR138">
         <v>1.58</v>
@@ -29714,7 +29720,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29920,7 +29926,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30126,7 +30132,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30332,7 +30338,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30538,7 +30544,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30744,7 +30750,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30950,7 +30956,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31362,7 +31368,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31568,7 +31574,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31774,7 +31780,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31980,7 +31986,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32186,7 +32192,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32598,7 +32604,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32804,7 +32810,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33088,7 +33094,7 @@
         <v>2.27</v>
       </c>
       <c r="AP155">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ155">
         <v>1.92</v>
@@ -33422,7 +33428,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33915,7 +33921,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ159">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34040,7 +34046,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34658,7 +34664,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q163">
         <v>2.65</v>
@@ -35276,7 +35282,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35482,7 +35488,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35845,6 +35851,212 @@
       </c>
       <c r="BP168">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7332525</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45530.3125</v>
+      </c>
+      <c r="F169">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>80</v>
+      </c>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>192</v>
+      </c>
+      <c r="P169" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q169">
+        <v>2.5</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>4.33</v>
+      </c>
+      <c r="T169">
+        <v>1.37</v>
+      </c>
+      <c r="U169">
+        <v>2.94</v>
+      </c>
+      <c r="V169">
+        <v>2.73</v>
+      </c>
+      <c r="W169">
+        <v>1.42</v>
+      </c>
+      <c r="X169">
+        <v>6.8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>1.91</v>
+      </c>
+      <c r="AA169">
+        <v>3.4</v>
+      </c>
+      <c r="AB169">
+        <v>3.5</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>9.4</v>
+      </c>
+      <c r="AE169">
+        <v>1.25</v>
+      </c>
+      <c r="AF169">
+        <v>3.42</v>
+      </c>
+      <c r="AG169">
+        <v>1.93</v>
+      </c>
+      <c r="AH169">
+        <v>1.88</v>
+      </c>
+      <c r="AI169">
+        <v>1.72</v>
+      </c>
+      <c r="AJ169">
+        <v>1.95</v>
+      </c>
+      <c r="AK169">
+        <v>1.23</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.82</v>
+      </c>
+      <c r="AN169">
+        <v>0.5</v>
+      </c>
+      <c r="AO169">
+        <v>0.77</v>
+      </c>
+      <c r="AP169">
+        <v>0.46</v>
+      </c>
+      <c r="AQ169">
+        <v>0.93</v>
+      </c>
+      <c r="AR169">
+        <v>1.3</v>
+      </c>
+      <c r="AS169">
+        <v>1.13</v>
+      </c>
+      <c r="AT169">
+        <v>2.43</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>5</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>10</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
+        <v>7</v>
+      </c>
+      <c r="BD169">
+        <v>1.63</v>
+      </c>
+      <c r="BE169">
+        <v>6.3</v>
+      </c>
+      <c r="BF169">
+        <v>2.89</v>
+      </c>
+      <c r="BG169">
+        <v>1.38</v>
+      </c>
+      <c r="BH169">
+        <v>2.71</v>
+      </c>
+      <c r="BI169">
+        <v>1.69</v>
+      </c>
+      <c r="BJ169">
+        <v>2</v>
+      </c>
+      <c r="BK169">
+        <v>2.17</v>
+      </c>
+      <c r="BL169">
+        <v>1.58</v>
+      </c>
+      <c r="BM169">
+        <v>2.93</v>
+      </c>
+      <c r="BN169">
+        <v>1.33</v>
+      </c>
+      <c r="BO169">
+        <v>3.8</v>
+      </c>
+      <c r="BP169">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,21 @@
     <t>['34', '48']</t>
   </si>
   <si>
+    <t>['41', '44']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['4', '45+3', '80']</t>
+  </si>
+  <si>
+    <t>['17', '45+1', '48', '54']</t>
+  </si>
+  <si>
+    <t>['39', '53', '77']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -665,9 +680,6 @@
   </si>
   <si>
     <t>['12', '27', '30', '90+1']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['59', '71']</t>
@@ -878,6 +890,15 @@
   </si>
   <si>
     <t>['5', '45+1', '75']</t>
+  </si>
+  <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['45+3', '66', '77']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1519,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1579,7 +1600,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1782,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1910,7 +1931,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1991,7 +2012,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ4">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2194,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ5">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2322,7 +2343,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2528,7 +2549,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2606,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ7">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2734,7 +2755,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3224,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1.46</v>
@@ -3352,7 +3373,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3433,7 +3454,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3579,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3764,7 +3785,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4051,7 +4072,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ14">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR14">
         <v>0.9</v>
@@ -4257,7 +4278,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4382,7 +4403,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4588,7 +4609,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4666,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ17">
         <v>1.46</v>
@@ -4794,7 +4815,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4872,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ18">
         <v>1.69</v>
@@ -5000,7 +5021,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5081,7 +5102,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>1.09</v>
@@ -5284,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1.46</v>
@@ -5412,7 +5433,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5618,7 +5639,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5905,7 +5926,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR23">
         <v>2.18</v>
@@ -6111,7 +6132,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6236,7 +6257,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6520,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.93</v>
@@ -6648,7 +6669,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6726,10 +6747,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6854,7 +6875,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7060,7 +7081,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7141,7 +7162,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR29">
         <v>1.23</v>
@@ -7266,7 +7287,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7344,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7472,7 +7493,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7550,10 +7571,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ31">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7678,7 +7699,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7759,7 +7780,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ32">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -7962,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ33">
         <v>1.46</v>
@@ -8090,7 +8111,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8171,7 +8192,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8374,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.46</v>
@@ -8708,7 +8729,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9120,7 +9141,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9198,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ39">
         <v>1.69</v>
@@ -9326,7 +9347,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9407,7 +9428,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ40">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR40">
         <v>1.79</v>
@@ -9738,7 +9759,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9816,10 +9837,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9944,7 +9965,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10150,7 +10171,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10356,7 +10377,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10562,7 +10583,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10640,10 +10661,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.63</v>
@@ -10768,7 +10789,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11055,7 +11076,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11258,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11592,7 +11613,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11670,7 +11691,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ51">
         <v>0.93</v>
@@ -11798,7 +11819,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -12004,7 +12025,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12085,7 +12106,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>2</v>
@@ -12210,7 +12231,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12494,7 +12515,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ55">
         <v>1.46</v>
@@ -12622,7 +12643,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12700,7 +12721,7 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>1.46</v>
@@ -12828,7 +12849,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12906,7 +12927,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>1.69</v>
@@ -13034,7 +13055,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13115,7 +13136,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13240,7 +13261,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13321,7 +13342,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13446,7 +13467,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13858,7 +13879,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13936,7 +13957,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14064,7 +14085,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14145,7 +14166,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14270,7 +14291,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14351,7 +14372,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14476,7 +14497,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14557,7 +14578,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR65">
         <v>1.9</v>
@@ -14760,7 +14781,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.46</v>
@@ -14888,7 +14909,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -14969,7 +14990,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15381,7 +15402,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR69">
         <v>1.66</v>
@@ -15506,7 +15527,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15584,7 +15605,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>1.46</v>
@@ -15790,10 +15811,10 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR71">
         <v>2.08</v>
@@ -15996,7 +16017,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16124,7 +16145,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16205,7 +16226,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ73">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16536,7 +16557,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16742,7 +16763,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16823,7 +16844,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ76">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17360,7 +17381,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17850,10 +17871,10 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17978,7 +17999,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18184,7 +18205,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18262,10 +18283,10 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ83">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18468,10 +18489,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR84">
         <v>1.36</v>
@@ -18802,7 +18823,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18883,7 +18904,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -19086,10 +19107,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19214,7 +19235,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19292,10 +19313,10 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19420,7 +19441,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19501,7 +19522,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -20038,7 +20059,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20116,10 +20137,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20244,7 +20265,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20325,7 +20346,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR93">
         <v>1.53</v>
@@ -20531,7 +20552,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -20656,7 +20677,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -20734,10 +20755,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ95">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20940,7 +20961,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.46</v>
@@ -21068,7 +21089,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21355,7 +21376,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ98">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR98">
         <v>1.78</v>
@@ -21480,7 +21501,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21686,7 +21707,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21970,7 +21991,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22098,7 +22119,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22176,10 +22197,10 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ102">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22382,7 +22403,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22588,10 +22609,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.62</v>
@@ -22797,7 +22818,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ105">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -23000,10 +23021,10 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23206,7 +23227,7 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>2</v>
@@ -23334,7 +23355,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23540,7 +23561,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23621,7 +23642,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23952,7 +23973,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24033,7 +24054,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR111">
         <v>1.52</v>
@@ -24158,7 +24179,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24442,7 +24463,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ113">
         <v>1.46</v>
@@ -24570,7 +24591,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24776,7 +24797,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24982,7 +25003,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25060,10 +25081,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25188,7 +25209,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25266,10 +25287,10 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ117">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR117">
         <v>1.84</v>
@@ -25394,7 +25415,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25600,7 +25621,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25806,7 +25827,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25887,7 +25908,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26090,10 +26111,10 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26218,7 +26239,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26296,7 +26317,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26424,7 +26445,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26502,7 +26523,7 @@
         <v>1.63</v>
       </c>
       <c r="AP123">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ123">
         <v>1.46</v>
@@ -26630,7 +26651,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26708,10 +26729,10 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ124">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26836,7 +26857,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26917,7 +26938,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27120,10 +27141,10 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR126">
         <v>1.85</v>
@@ -27248,7 +27269,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27329,7 +27350,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR127">
         <v>1.57</v>
@@ -27454,7 +27475,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27738,7 +27759,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ129">
         <v>0.93</v>
@@ -27866,7 +27887,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27947,7 +27968,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ130">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
@@ -28278,7 +28299,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28356,7 +28377,7 @@
         <v>1.89</v>
       </c>
       <c r="AP132">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -28565,7 +28586,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ133">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
@@ -28690,7 +28711,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28896,7 +28917,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29308,7 +29329,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29386,7 +29407,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
         <v>1.69</v>
@@ -29592,7 +29613,7 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
         <v>0.93</v>
@@ -29720,7 +29741,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29801,7 +29822,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ139">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -29926,7 +29947,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30004,10 +30025,10 @@
         <v>1.1</v>
       </c>
       <c r="AP140">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR140">
         <v>1.85</v>
@@ -30132,7 +30153,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30213,7 +30234,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ141">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30338,7 +30359,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30419,7 +30440,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ142">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR142">
         <v>1.6</v>
@@ -30544,7 +30565,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30622,10 +30643,10 @@
         <v>1.6</v>
       </c>
       <c r="AP143">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ143">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30750,7 +30771,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30828,7 +30849,7 @@
         <v>1.3</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -30956,7 +30977,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31240,7 +31261,7 @@
         <v>1.45</v>
       </c>
       <c r="AP146">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>1.33</v>
@@ -31368,7 +31389,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31574,7 +31595,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31655,7 +31676,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31780,7 +31801,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31861,7 +31882,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR149">
         <v>1.65</v>
@@ -31986,7 +32007,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32064,7 +32085,7 @@
         <v>1.36</v>
       </c>
       <c r="AP150">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ150">
         <v>1.46</v>
@@ -32192,7 +32213,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32270,10 +32291,10 @@
         <v>1.64</v>
       </c>
       <c r="AP151">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ151">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR151">
         <v>1.33</v>
@@ -32604,7 +32625,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32810,7 +32831,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32888,10 +32909,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR154">
         <v>1.34</v>
@@ -33097,7 +33118,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ155">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33428,7 +33449,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33506,10 +33527,10 @@
         <v>0.91</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ157">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33918,7 +33939,7 @@
         <v>0.83</v>
       </c>
       <c r="AP159">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ159">
         <v>0.93</v>
@@ -34046,7 +34067,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34127,7 +34148,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ160">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.6</v>
@@ -34333,7 +34354,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR161">
         <v>1.4</v>
@@ -34536,7 +34557,7 @@
         <v>1.92</v>
       </c>
       <c r="AP162">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -34664,7 +34685,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q163">
         <v>2.65</v>
@@ -34745,7 +34766,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ163">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR163">
         <v>1.89</v>
@@ -34951,7 +34972,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR164">
         <v>1.57</v>
@@ -35154,7 +35175,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ165">
         <v>1.46</v>
@@ -35282,7 +35303,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35360,7 +35381,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166">
         <v>1.46</v>
@@ -35488,7 +35509,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35775,7 +35796,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ168">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -35900,7 +35921,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36057,6 +36078,1242 @@
       </c>
       <c r="BP169">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7332526</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F170">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>193</v>
+      </c>
+      <c r="P170" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q170">
+        <v>4.3</v>
+      </c>
+      <c r="R170">
+        <v>2.01</v>
+      </c>
+      <c r="S170">
+        <v>2.59</v>
+      </c>
+      <c r="T170">
+        <v>1.45</v>
+      </c>
+      <c r="U170">
+        <v>2.63</v>
+      </c>
+      <c r="V170">
+        <v>3.12</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>3.5</v>
+      </c>
+      <c r="AA170">
+        <v>3.1</v>
+      </c>
+      <c r="AB170">
+        <v>1.95</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>7.8</v>
+      </c>
+      <c r="AE170">
+        <v>1.35</v>
+      </c>
+      <c r="AF170">
+        <v>2.84</v>
+      </c>
+      <c r="AG170">
+        <v>2.05</v>
+      </c>
+      <c r="AH170">
+        <v>1.73</v>
+      </c>
+      <c r="AI170">
+        <v>1.88</v>
+      </c>
+      <c r="AJ170">
+        <v>1.78</v>
+      </c>
+      <c r="AK170">
+        <v>1.73</v>
+      </c>
+      <c r="AL170">
+        <v>1.28</v>
+      </c>
+      <c r="AM170">
+        <v>1.24</v>
+      </c>
+      <c r="AN170">
+        <v>1.25</v>
+      </c>
+      <c r="AO170">
+        <v>1.46</v>
+      </c>
+      <c r="AP170">
+        <v>1.23</v>
+      </c>
+      <c r="AQ170">
+        <v>1.43</v>
+      </c>
+      <c r="AR170">
+        <v>1.28</v>
+      </c>
+      <c r="AS170">
+        <v>1.59</v>
+      </c>
+      <c r="AT170">
+        <v>2.87</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>2</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>9</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>1</v>
+      </c>
+      <c r="BC170">
+        <v>3</v>
+      </c>
+      <c r="BD170">
+        <v>2.42</v>
+      </c>
+      <c r="BE170">
+        <v>6.55</v>
+      </c>
+      <c r="BF170">
+        <v>1.81</v>
+      </c>
+      <c r="BG170">
+        <v>1.36</v>
+      </c>
+      <c r="BH170">
+        <v>2.78</v>
+      </c>
+      <c r="BI170">
+        <v>1.75</v>
+      </c>
+      <c r="BJ170">
+        <v>2.06</v>
+      </c>
+      <c r="BK170">
+        <v>2.2</v>
+      </c>
+      <c r="BL170">
+        <v>1.66</v>
+      </c>
+      <c r="BM170">
+        <v>2.91</v>
+      </c>
+      <c r="BN170">
+        <v>1.33</v>
+      </c>
+      <c r="BO170">
+        <v>3.8</v>
+      </c>
+      <c r="BP170">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7332527</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="F171">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>194</v>
+      </c>
+      <c r="P171" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q171">
+        <v>2.1</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>1.35</v>
+      </c>
+      <c r="U171">
+        <v>2.85</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.37</v>
+      </c>
+      <c r="X171">
+        <v>5.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.57</v>
+      </c>
+      <c r="AA171">
+        <v>3.6</v>
+      </c>
+      <c r="AB171">
+        <v>4.8</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>10.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.27</v>
+      </c>
+      <c r="AF171">
+        <v>3.4</v>
+      </c>
+      <c r="AG171">
+        <v>1.85</v>
+      </c>
+      <c r="AH171">
+        <v>1.9</v>
+      </c>
+      <c r="AI171">
+        <v>1.8</v>
+      </c>
+      <c r="AJ171">
+        <v>1.87</v>
+      </c>
+      <c r="AK171">
+        <v>1.07</v>
+      </c>
+      <c r="AL171">
+        <v>1.22</v>
+      </c>
+      <c r="AM171">
+        <v>2.2</v>
+      </c>
+      <c r="AN171">
+        <v>2.08</v>
+      </c>
+      <c r="AO171">
+        <v>1.77</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+      <c r="AQ171">
+        <v>1.71</v>
+      </c>
+      <c r="AR171">
+        <v>1.82</v>
+      </c>
+      <c r="AS171">
+        <v>1.35</v>
+      </c>
+      <c r="AT171">
+        <v>3.17</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>2</v>
+      </c>
+      <c r="AW171">
+        <v>10</v>
+      </c>
+      <c r="AX171">
+        <v>4</v>
+      </c>
+      <c r="AY171">
+        <v>16</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>8</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>11</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>1.58</v>
+      </c>
+      <c r="BJ171">
+        <v>2.3</v>
+      </c>
+      <c r="BK171">
+        <v>1.99</v>
+      </c>
+      <c r="BL171">
+        <v>1.81</v>
+      </c>
+      <c r="BM171">
+        <v>2.54</v>
+      </c>
+      <c r="BN171">
+        <v>1.49</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7332528</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="F172">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s">
+        <v>79</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>88</v>
+      </c>
+      <c r="P172" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q172">
+        <v>4.7</v>
+      </c>
+      <c r="R172">
+        <v>2.15</v>
+      </c>
+      <c r="S172">
+        <v>2.2</v>
+      </c>
+      <c r="T172">
+        <v>1.32</v>
+      </c>
+      <c r="U172">
+        <v>3</v>
+      </c>
+      <c r="V172">
+        <v>2.6</v>
+      </c>
+      <c r="W172">
+        <v>1.42</v>
+      </c>
+      <c r="X172">
+        <v>5.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>4.2</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>1.66</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>10</v>
+      </c>
+      <c r="AE172">
+        <v>1.22</v>
+      </c>
+      <c r="AF172">
+        <v>3.8</v>
+      </c>
+      <c r="AG172">
+        <v>1.8</v>
+      </c>
+      <c r="AH172">
+        <v>2</v>
+      </c>
+      <c r="AI172">
+        <v>1.65</v>
+      </c>
+      <c r="AJ172">
+        <v>2.05</v>
+      </c>
+      <c r="AK172">
+        <v>2.05</v>
+      </c>
+      <c r="AL172">
+        <v>1.2</v>
+      </c>
+      <c r="AM172">
+        <v>1.14</v>
+      </c>
+      <c r="AN172">
+        <v>1.08</v>
+      </c>
+      <c r="AO172">
+        <v>1.54</v>
+      </c>
+      <c r="AP172">
+        <v>1.08</v>
+      </c>
+      <c r="AQ172">
+        <v>1.5</v>
+      </c>
+      <c r="AR172">
+        <v>1.15</v>
+      </c>
+      <c r="AS172">
+        <v>1.58</v>
+      </c>
+      <c r="AT172">
+        <v>2.73</v>
+      </c>
+      <c r="AU172">
+        <v>0</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>7</v>
+      </c>
+      <c r="AY172">
+        <v>6</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>4</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>1.72</v>
+      </c>
+      <c r="BJ172">
+        <v>2.09</v>
+      </c>
+      <c r="BK172">
+        <v>2.16</v>
+      </c>
+      <c r="BL172">
+        <v>1.68</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7332529</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F173">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>81</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>195</v>
+      </c>
+      <c r="P173" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q173">
+        <v>2.37</v>
+      </c>
+      <c r="R173">
+        <v>2.17</v>
+      </c>
+      <c r="S173">
+        <v>3.48</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3.27</v>
+      </c>
+      <c r="V173">
+        <v>2.66</v>
+      </c>
+      <c r="W173">
+        <v>1.47</v>
+      </c>
+      <c r="X173">
+        <v>5.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.12</v>
+      </c>
+      <c r="Z173">
+        <v>1.81</v>
+      </c>
+      <c r="AA173">
+        <v>3.67</v>
+      </c>
+      <c r="AB173">
+        <v>3.74</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>10.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.21</v>
+      </c>
+      <c r="AF173">
+        <v>3.74</v>
+      </c>
+      <c r="AG173">
+        <v>1.75</v>
+      </c>
+      <c r="AH173">
+        <v>1.96</v>
+      </c>
+      <c r="AI173">
+        <v>1.57</v>
+      </c>
+      <c r="AJ173">
+        <v>2.2</v>
+      </c>
+      <c r="AK173">
+        <v>1.14</v>
+      </c>
+      <c r="AL173">
+        <v>1.17</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>0.77</v>
+      </c>
+      <c r="AO173">
+        <v>0.92</v>
+      </c>
+      <c r="AP173">
+        <v>0.93</v>
+      </c>
+      <c r="AQ173">
+        <v>0.85</v>
+      </c>
+      <c r="AR173">
+        <v>1.68</v>
+      </c>
+      <c r="AS173">
+        <v>1.32</v>
+      </c>
+      <c r="AT173">
+        <v>3</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>10</v>
+      </c>
+      <c r="BA173">
+        <v>9</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>11</v>
+      </c>
+      <c r="BD173">
+        <v>1.63</v>
+      </c>
+      <c r="BE173">
+        <v>7.9</v>
+      </c>
+      <c r="BF173">
+        <v>2.65</v>
+      </c>
+      <c r="BG173">
+        <v>1.31</v>
+      </c>
+      <c r="BH173">
+        <v>3.04</v>
+      </c>
+      <c r="BI173">
+        <v>1.62</v>
+      </c>
+      <c r="BJ173">
+        <v>2.25</v>
+      </c>
+      <c r="BK173">
+        <v>2.02</v>
+      </c>
+      <c r="BL173">
+        <v>1.77</v>
+      </c>
+      <c r="BM173">
+        <v>2.6</v>
+      </c>
+      <c r="BN173">
+        <v>1.41</v>
+      </c>
+      <c r="BO173">
+        <v>3.56</v>
+      </c>
+      <c r="BP173">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7332530</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F174">
+        <v>29</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>7</v>
+      </c>
+      <c r="O174" t="s">
+        <v>196</v>
+      </c>
+      <c r="P174" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q174">
+        <v>2.94</v>
+      </c>
+      <c r="R174">
+        <v>2.09</v>
+      </c>
+      <c r="S174">
+        <v>2.84</v>
+      </c>
+      <c r="T174">
+        <v>1.35</v>
+      </c>
+      <c r="U174">
+        <v>2.85</v>
+      </c>
+      <c r="V174">
+        <v>2.6</v>
+      </c>
+      <c r="W174">
+        <v>1.42</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>2.52</v>
+      </c>
+      <c r="AA174">
+        <v>3.42</v>
+      </c>
+      <c r="AB174">
+        <v>2.51</v>
+      </c>
+      <c r="AC174">
+        <v>1.04</v>
+      </c>
+      <c r="AD174">
+        <v>12</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.6</v>
+      </c>
+      <c r="AG174">
+        <v>1.85</v>
+      </c>
+      <c r="AH174">
+        <v>1.85</v>
+      </c>
+      <c r="AI174">
+        <v>1.62</v>
+      </c>
+      <c r="AJ174">
+        <v>2.15</v>
+      </c>
+      <c r="AK174">
+        <v>1.4</v>
+      </c>
+      <c r="AL174">
+        <v>1.24</v>
+      </c>
+      <c r="AM174">
+        <v>1.39</v>
+      </c>
+      <c r="AN174">
+        <v>1.31</v>
+      </c>
+      <c r="AO174">
+        <v>1.92</v>
+      </c>
+      <c r="AP174">
+        <v>1.43</v>
+      </c>
+      <c r="AQ174">
+        <v>1.79</v>
+      </c>
+      <c r="AR174">
+        <v>1.35</v>
+      </c>
+      <c r="AS174">
+        <v>1.49</v>
+      </c>
+      <c r="AT174">
+        <v>2.84</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>5</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>6</v>
+      </c>
+      <c r="AY174">
+        <v>10</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>1</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.99</v>
+      </c>
+      <c r="BE174">
+        <v>6.3</v>
+      </c>
+      <c r="BF174">
+        <v>2.19</v>
+      </c>
+      <c r="BG174">
+        <v>1.66</v>
+      </c>
+      <c r="BH174">
+        <v>2.19</v>
+      </c>
+      <c r="BI174">
+        <v>2.1</v>
+      </c>
+      <c r="BJ174">
+        <v>1.72</v>
+      </c>
+      <c r="BK174">
+        <v>2.84</v>
+      </c>
+      <c r="BL174">
+        <v>1.35</v>
+      </c>
+      <c r="BM174">
+        <v>4.1</v>
+      </c>
+      <c r="BN174">
+        <v>1.18</v>
+      </c>
+      <c r="BO174">
+        <v>5.3</v>
+      </c>
+      <c r="BP174">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7332531</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F175">
+        <v>29</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>197</v>
+      </c>
+      <c r="P175" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q175">
+        <v>2.47</v>
+      </c>
+      <c r="R175">
+        <v>2.08</v>
+      </c>
+      <c r="S175">
+        <v>3.53</v>
+      </c>
+      <c r="T175">
+        <v>1.37</v>
+      </c>
+      <c r="U175">
+        <v>2.94</v>
+      </c>
+      <c r="V175">
+        <v>2.73</v>
+      </c>
+      <c r="W175">
+        <v>1.42</v>
+      </c>
+      <c r="X175">
+        <v>6.75</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2</v>
+      </c>
+      <c r="AA175">
+        <v>3.46</v>
+      </c>
+      <c r="AB175">
+        <v>3.33</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>9.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.25</v>
+      </c>
+      <c r="AF175">
+        <v>3.42</v>
+      </c>
+      <c r="AG175">
+        <v>1.85</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175">
+        <v>2.05</v>
+      </c>
+      <c r="AK175">
+        <v>1.22</v>
+      </c>
+      <c r="AL175">
+        <v>1.23</v>
+      </c>
+      <c r="AM175">
+        <v>1.65</v>
+      </c>
+      <c r="AN175">
+        <v>1.57</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.67</v>
+      </c>
+      <c r="AQ175">
+        <v>0.93</v>
+      </c>
+      <c r="AR175">
+        <v>1.53</v>
+      </c>
+      <c r="AS175">
+        <v>1.54</v>
+      </c>
+      <c r="AT175">
+        <v>3.07</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>9</v>
+      </c>
+      <c r="AY175">
+        <v>9</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>1</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>6</v>
+      </c>
+      <c r="BD175">
+        <v>1.64</v>
+      </c>
+      <c r="BE175">
+        <v>6.75</v>
+      </c>
+      <c r="BF175">
+        <v>2.78</v>
+      </c>
+      <c r="BG175">
+        <v>1.46</v>
+      </c>
+      <c r="BH175">
+        <v>2.65</v>
+      </c>
+      <c r="BI175">
+        <v>1.8</v>
+      </c>
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>2.28</v>
+      </c>
+      <c r="BL175">
+        <v>1.61</v>
+      </c>
+      <c r="BM175">
+        <v>3.04</v>
+      </c>
+      <c r="BN175">
+        <v>1.31</v>
+      </c>
+      <c r="BO175">
+        <v>4</v>
+      </c>
+      <c r="BP175">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,21 @@
     <t>['39', '53', '77']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -637,9 +652,6 @@
     <t>['27', '43']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['71']</t>
   </si>
   <si>
@@ -652,13 +664,7 @@
     <t>['45+3', '77']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['84']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['37', '63']</t>
@@ -722,9 +728,6 @@
   </si>
   <si>
     <t>['34', '52', '71']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['35', '75', '88']</t>
@@ -899,6 +902,21 @@
   </si>
   <si>
     <t>['45+3', '66', '77']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['15', '90+5']</t>
+  </si>
+  <si>
+    <t>['1', '8', '16', '79']</t>
+  </si>
+  <si>
+    <t>['72', '90+5']</t>
+  </si>
+  <si>
+    <t>['53', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1931,7 +1949,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2012,7 +2030,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ4">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2215,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>1.79</v>
@@ -2343,7 +2361,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2421,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2549,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2630,7 +2648,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2755,7 +2773,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2833,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3039,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
         <v>1.46</v>
@@ -3245,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3373,7 +3391,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3579,7 +3597,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3785,7 +3803,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4278,7 +4296,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>2.89</v>
@@ -4403,7 +4421,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4481,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4609,7 +4627,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4815,7 +4833,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4893,10 +4911,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR18">
         <v>1.18</v>
@@ -5021,7 +5039,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5305,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1.46</v>
@@ -5433,7 +5451,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5639,7 +5657,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5720,7 +5738,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ22">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6129,10 +6147,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>1.63</v>
@@ -6257,7 +6275,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>2.75</v>
@@ -6335,10 +6353,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR25">
         <v>1.19</v>
@@ -6669,7 +6687,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6747,7 +6765,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
         <v>0.85</v>
@@ -6875,7 +6893,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7081,7 +7099,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7287,7 +7305,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7493,7 +7511,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7571,7 +7589,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>1.43</v>
@@ -7699,7 +7717,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7777,7 +7795,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.79</v>
@@ -7983,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
         <v>1.46</v>
@@ -8111,7 +8129,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8192,7 +8210,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.77</v>
@@ -8398,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8729,7 +8747,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8810,7 +8828,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR37">
         <v>1.44</v>
@@ -9013,7 +9031,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>1.46</v>
@@ -9141,7 +9159,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9222,7 +9240,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ39">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR39">
         <v>2.06</v>
@@ -9631,7 +9649,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
         <v>0.93</v>
@@ -9759,7 +9777,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9837,10 +9855,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -9965,7 +9983,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10043,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.46</v>
@@ -10171,7 +10189,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10252,7 +10270,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10377,7 +10395,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10583,7 +10601,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10789,7 +10807,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11073,10 +11091,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
         <v>2.02</v>
@@ -11279,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>1.79</v>
@@ -11613,7 +11631,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11819,7 +11837,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -12025,7 +12043,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12103,7 +12121,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12231,7 +12249,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12309,10 +12327,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR54">
         <v>1.62</v>
@@ -12515,10 +12533,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.11</v>
@@ -12643,7 +12661,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12721,10 +12739,10 @@
         <v>0.67</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12849,7 +12867,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12927,10 +12945,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -13055,7 +13073,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13261,7 +13279,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13339,7 +13357,7 @@
         <v>1.25</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
         <v>0.93</v>
@@ -13467,7 +13485,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.6</v>
@@ -13879,7 +13897,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14085,7 +14103,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14163,10 +14181,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>2.02</v>
@@ -14291,7 +14309,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14372,7 +14390,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14497,7 +14515,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14575,7 +14593,7 @@
         <v>0.75</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>0.85</v>
@@ -14909,7 +14927,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15399,7 +15417,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
         <v>0.85</v>
@@ -15527,7 +15545,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15605,7 +15623,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
         <v>1.46</v>
@@ -16017,10 +16035,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR72">
         <v>1.07</v>
@@ -16145,7 +16163,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16226,7 +16244,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16557,7 +16575,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16635,10 +16653,10 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.96</v>
@@ -16763,7 +16781,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -17050,7 +17068,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17256,7 +17274,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ78">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR78">
         <v>1.37</v>
@@ -17381,7 +17399,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17459,7 +17477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79">
         <v>1.46</v>
@@ -17665,7 +17683,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>1.46</v>
@@ -17871,7 +17889,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ81">
         <v>1.43</v>
@@ -17999,7 +18017,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18080,7 +18098,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ82">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18205,7 +18223,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18286,7 +18304,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ83">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.88</v>
@@ -18489,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>0.85</v>
@@ -18695,7 +18713,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>0.93</v>
@@ -18823,7 +18841,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18901,10 +18919,10 @@
         <v>1.67</v>
       </c>
       <c r="AP86">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.87</v>
@@ -19107,7 +19125,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>0.93</v>
@@ -19235,7 +19253,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19441,7 +19459,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19522,7 +19540,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19934,7 +19952,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20059,7 +20077,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20137,7 +20155,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>1.79</v>
@@ -20265,7 +20283,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20677,7 +20695,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>3.25</v>
@@ -21089,7 +21107,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21373,7 +21391,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ98">
         <v>1.43</v>
@@ -21501,7 +21519,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21579,10 +21597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR99">
         <v>1.51</v>
@@ -21707,7 +21725,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21788,7 +21806,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ100">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21991,7 +22009,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22197,10 +22215,10 @@
         <v>2.17</v>
       </c>
       <c r="AP102">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22403,10 +22421,10 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR103">
         <v>1.71</v>
@@ -22609,7 +22627,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -22815,7 +22833,7 @@
         <v>1.13</v>
       </c>
       <c r="AP105">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>0.85</v>
@@ -23024,7 +23042,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR106">
         <v>1.9</v>
@@ -23227,10 +23245,10 @@
         <v>2.13</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23355,7 +23373,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23561,7 +23579,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23642,7 +23660,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -23845,10 +23863,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR110">
         <v>1.72</v>
@@ -23973,7 +23991,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24051,7 +24069,7 @@
         <v>1.38</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>1.43</v>
@@ -24179,7 +24197,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24463,7 +24481,7 @@
         <v>1.44</v>
       </c>
       <c r="AP113">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.46</v>
@@ -24591,7 +24609,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24797,7 +24815,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24878,7 +24896,7 @@
         <v>0.46</v>
       </c>
       <c r="AQ115">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25003,7 +25021,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25081,10 +25099,10 @@
         <v>2.13</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25209,7 +25227,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25415,7 +25433,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25496,7 +25514,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ118">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25621,7 +25639,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25699,7 +25717,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>0.93</v>
@@ -25827,7 +25845,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25905,7 +25923,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
         <v>1.79</v>
@@ -26111,10 +26129,10 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26239,7 +26257,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26317,7 +26335,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26445,7 +26463,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26526,7 +26544,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ123">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26651,7 +26669,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26729,10 +26747,10 @@
         <v>1.44</v>
       </c>
       <c r="AP124">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26857,7 +26875,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -27144,7 +27162,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR126">
         <v>1.85</v>
@@ -27269,7 +27287,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27475,7 +27493,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27553,7 +27571,7 @@
         <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27759,7 +27777,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ129">
         <v>0.93</v>
@@ -27887,7 +27905,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28299,7 +28317,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28380,7 +28398,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR132">
         <v>1.87</v>
@@ -28711,7 +28729,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28789,10 +28807,10 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR134">
         <v>1.5</v>
@@ -28917,7 +28935,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -28995,10 +29013,10 @@
         <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ135">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR135">
         <v>1.7</v>
@@ -29201,7 +29219,7 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>1.46</v>
@@ -29329,7 +29347,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29407,10 +29425,10 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR137">
         <v>1.39</v>
@@ -29613,7 +29631,7 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138">
         <v>0.93</v>
@@ -29741,7 +29759,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29822,7 +29840,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ139">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -29947,7 +29965,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30153,7 +30171,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30359,7 +30377,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30565,7 +30583,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30643,10 +30661,10 @@
         <v>1.6</v>
       </c>
       <c r="AP143">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30771,7 +30789,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30849,7 +30867,7 @@
         <v>1.3</v>
       </c>
       <c r="AP144">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -30977,7 +30995,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31058,7 +31076,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ145">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR145">
         <v>1.12</v>
@@ -31389,7 +31407,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31470,7 +31488,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ147">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR147">
         <v>1.61</v>
@@ -31595,7 +31613,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31673,10 +31691,10 @@
         <v>1.73</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31801,7 +31819,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31879,10 +31897,10 @@
         <v>1.91</v>
       </c>
       <c r="AP149">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ149">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR149">
         <v>1.65</v>
@@ -32007,7 +32025,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32213,7 +32231,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32291,7 +32309,7 @@
         <v>1.64</v>
       </c>
       <c r="AP151">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
         <v>1.43</v>
@@ -32500,7 +32518,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR152">
         <v>1.14</v>
@@ -32625,7 +32643,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32706,7 +32724,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR153">
         <v>1.57</v>
@@ -32831,7 +32849,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32909,7 +32927,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>0.93</v>
@@ -33321,10 +33339,10 @@
         <v>1.91</v>
       </c>
       <c r="AP156">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR156">
         <v>1.83</v>
@@ -33449,7 +33467,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33527,7 +33545,7 @@
         <v>0.91</v>
       </c>
       <c r="AP157">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ157">
         <v>0.85</v>
@@ -33733,7 +33751,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ158">
         <v>1.46</v>
@@ -33939,7 +33957,7 @@
         <v>0.83</v>
       </c>
       <c r="AP159">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
         <v>0.93</v>
@@ -34067,7 +34085,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34148,7 +34166,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ160">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR160">
         <v>1.6</v>
@@ -34354,7 +34372,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.4</v>
@@ -34557,10 +34575,10 @@
         <v>1.92</v>
       </c>
       <c r="AP162">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -34685,7 +34703,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="Q163">
         <v>2.65</v>
@@ -34763,7 +34781,7 @@
         <v>2.08</v>
       </c>
       <c r="AP163">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
         <v>1.79</v>
@@ -34969,7 +34987,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
         <v>0.93</v>
@@ -35303,7 +35321,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35381,10 +35399,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR166">
         <v>1.58</v>
@@ -35509,7 +35527,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35590,7 +35608,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ167">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR167">
         <v>1.59</v>
@@ -35921,7 +35939,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36127,7 +36145,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36205,7 +36223,7 @@
         <v>1.46</v>
       </c>
       <c r="AP170">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ170">
         <v>1.43</v>
@@ -36333,7 +36351,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36414,7 +36432,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR171">
         <v>1.82</v>
@@ -36620,7 +36638,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ172">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR172">
         <v>1.15</v>
@@ -36951,7 +36969,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37029,7 +37047,7 @@
         <v>1.92</v>
       </c>
       <c r="AP174">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
         <v>1.79</v>
@@ -37235,7 +37253,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ175">
         <v>0.93</v>
@@ -37314,6 +37332,1242 @@
       </c>
       <c r="BP175">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7332532</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45549.1875</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>73</v>
+      </c>
+      <c r="H176" t="s">
+        <v>79</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>198</v>
+      </c>
+      <c r="P176" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q176">
+        <v>3.6</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>2.85</v>
+      </c>
+      <c r="T176">
+        <v>1.43</v>
+      </c>
+      <c r="U176">
+        <v>2.65</v>
+      </c>
+      <c r="V176">
+        <v>3</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>7</v>
+      </c>
+      <c r="Y176">
+        <v>1.08</v>
+      </c>
+      <c r="Z176">
+        <v>3.1</v>
+      </c>
+      <c r="AA176">
+        <v>3.1</v>
+      </c>
+      <c r="AB176">
+        <v>2.25</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE176">
+        <v>1.33</v>
+      </c>
+      <c r="AF176">
+        <v>3.1</v>
+      </c>
+      <c r="AG176">
+        <v>2</v>
+      </c>
+      <c r="AH176">
+        <v>1.7</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.95</v>
+      </c>
+      <c r="AK176">
+        <v>1.62</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.35</v>
+      </c>
+      <c r="AN176">
+        <v>1.23</v>
+      </c>
+      <c r="AO176">
+        <v>1.5</v>
+      </c>
+      <c r="AP176">
+        <v>1.14</v>
+      </c>
+      <c r="AQ176">
+        <v>1.6</v>
+      </c>
+      <c r="AR176">
+        <v>1.29</v>
+      </c>
+      <c r="AS176">
+        <v>1.57</v>
+      </c>
+      <c r="AT176">
+        <v>2.86</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>9</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>1</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>2.39</v>
+      </c>
+      <c r="BE176">
+        <v>5.95</v>
+      </c>
+      <c r="BF176">
+        <v>1.88</v>
+      </c>
+      <c r="BG176">
+        <v>1.48</v>
+      </c>
+      <c r="BH176">
+        <v>2.4</v>
+      </c>
+      <c r="BI176">
+        <v>2.1</v>
+      </c>
+      <c r="BJ176">
+        <v>1.7</v>
+      </c>
+      <c r="BK176">
+        <v>2.45</v>
+      </c>
+      <c r="BL176">
+        <v>1.46</v>
+      </c>
+      <c r="BM176">
+        <v>3.42</v>
+      </c>
+      <c r="BN176">
+        <v>1.25</v>
+      </c>
+      <c r="BO176">
+        <v>4.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7332534</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45549.29166666666</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>199</v>
+      </c>
+      <c r="P177" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q177">
+        <v>2.15</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>5</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>6.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.1</v>
+      </c>
+      <c r="Z177">
+        <v>1.6</v>
+      </c>
+      <c r="AA177">
+        <v>3.75</v>
+      </c>
+      <c r="AB177">
+        <v>5</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>9.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.28</v>
+      </c>
+      <c r="AF177">
+        <v>3.5</v>
+      </c>
+      <c r="AG177">
+        <v>1.93</v>
+      </c>
+      <c r="AH177">
+        <v>1.86</v>
+      </c>
+      <c r="AI177">
+        <v>1.87</v>
+      </c>
+      <c r="AJ177">
+        <v>1.87</v>
+      </c>
+      <c r="AK177">
+        <v>1.11</v>
+      </c>
+      <c r="AL177">
+        <v>1.2</v>
+      </c>
+      <c r="AM177">
+        <v>2.2</v>
+      </c>
+      <c r="AN177">
+        <v>1.67</v>
+      </c>
+      <c r="AO177">
+        <v>0.93</v>
+      </c>
+      <c r="AP177">
+        <v>1.63</v>
+      </c>
+      <c r="AQ177">
+        <v>0.93</v>
+      </c>
+      <c r="AR177">
+        <v>1.5</v>
+      </c>
+      <c r="AS177">
+        <v>1.14</v>
+      </c>
+      <c r="AT177">
+        <v>2.64</v>
+      </c>
+      <c r="AU177">
+        <v>6</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>4</v>
+      </c>
+      <c r="AY177">
+        <v>9</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>1.41</v>
+      </c>
+      <c r="BE177">
+        <v>8.1</v>
+      </c>
+      <c r="BF177">
+        <v>3.5</v>
+      </c>
+      <c r="BG177">
+        <v>1.53</v>
+      </c>
+      <c r="BH177">
+        <v>2.28</v>
+      </c>
+      <c r="BI177">
+        <v>2</v>
+      </c>
+      <c r="BJ177">
+        <v>1.8</v>
+      </c>
+      <c r="BK177">
+        <v>2.57</v>
+      </c>
+      <c r="BL177">
+        <v>1.42</v>
+      </c>
+      <c r="BM177">
+        <v>3.65</v>
+      </c>
+      <c r="BN177">
+        <v>1.22</v>
+      </c>
+      <c r="BO177">
+        <v>4.8</v>
+      </c>
+      <c r="BP177">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7332533</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45549.29166666666</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>200</v>
+      </c>
+      <c r="P178" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q178">
+        <v>2.1</v>
+      </c>
+      <c r="R178">
+        <v>2.3</v>
+      </c>
+      <c r="S178">
+        <v>4.75</v>
+      </c>
+      <c r="T178">
+        <v>1.32</v>
+      </c>
+      <c r="U178">
+        <v>3.1</v>
+      </c>
+      <c r="V178">
+        <v>2.45</v>
+      </c>
+      <c r="W178">
+        <v>1.48</v>
+      </c>
+      <c r="X178">
+        <v>6</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>1.57</v>
+      </c>
+      <c r="AA178">
+        <v>3.95</v>
+      </c>
+      <c r="AB178">
+        <v>5</v>
+      </c>
+      <c r="AC178">
+        <v>1.03</v>
+      </c>
+      <c r="AD178">
+        <v>16</v>
+      </c>
+      <c r="AE178">
+        <v>1.2</v>
+      </c>
+      <c r="AF178">
+        <v>4</v>
+      </c>
+      <c r="AG178">
+        <v>1.65</v>
+      </c>
+      <c r="AH178">
+        <v>2.1</v>
+      </c>
+      <c r="AI178">
+        <v>1.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.11</v>
+      </c>
+      <c r="AL178">
+        <v>1.18</v>
+      </c>
+      <c r="AM178">
+        <v>2.3</v>
+      </c>
+      <c r="AN178">
+        <v>1.62</v>
+      </c>
+      <c r="AO178">
+        <v>1.71</v>
+      </c>
+      <c r="AP178">
+        <v>1.5</v>
+      </c>
+      <c r="AQ178">
+        <v>1.8</v>
+      </c>
+      <c r="AR178">
+        <v>1.85</v>
+      </c>
+      <c r="AS178">
+        <v>1.32</v>
+      </c>
+      <c r="AT178">
+        <v>3.17</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>7</v>
+      </c>
+      <c r="AW178">
+        <v>9</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>12</v>
+      </c>
+      <c r="AZ178">
+        <v>11</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>9</v>
+      </c>
+      <c r="BC178">
+        <v>17</v>
+      </c>
+      <c r="BD178">
+        <v>1.25</v>
+      </c>
+      <c r="BE178">
+        <v>9.9</v>
+      </c>
+      <c r="BF178">
+        <v>4.6</v>
+      </c>
+      <c r="BG178">
+        <v>1.25</v>
+      </c>
+      <c r="BH178">
+        <v>3.5</v>
+      </c>
+      <c r="BI178">
+        <v>1.46</v>
+      </c>
+      <c r="BJ178">
+        <v>2.5</v>
+      </c>
+      <c r="BK178">
+        <v>1.8</v>
+      </c>
+      <c r="BL178">
+        <v>1.91</v>
+      </c>
+      <c r="BM178">
+        <v>2.22</v>
+      </c>
+      <c r="BN178">
+        <v>1.59</v>
+      </c>
+      <c r="BO178">
+        <v>2.85</v>
+      </c>
+      <c r="BP178">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7332535</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45550.1875</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179">
+        <v>4</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>201</v>
+      </c>
+      <c r="P179" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>3.4</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>2.25</v>
+      </c>
+      <c r="AA179">
+        <v>3.25</v>
+      </c>
+      <c r="AB179">
+        <v>2.71</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.29</v>
+      </c>
+      <c r="AF179">
+        <v>3.4</v>
+      </c>
+      <c r="AG179">
+        <v>1.82</v>
+      </c>
+      <c r="AH179">
+        <v>1.94</v>
+      </c>
+      <c r="AI179">
+        <v>1.67</v>
+      </c>
+      <c r="AJ179">
+        <v>2.1</v>
+      </c>
+      <c r="AK179">
+        <v>1.32</v>
+      </c>
+      <c r="AL179">
+        <v>1.24</v>
+      </c>
+      <c r="AM179">
+        <v>1.48</v>
+      </c>
+      <c r="AN179">
+        <v>0.92</v>
+      </c>
+      <c r="AO179">
+        <v>1.46</v>
+      </c>
+      <c r="AP179">
+        <v>0.86</v>
+      </c>
+      <c r="AQ179">
+        <v>1.57</v>
+      </c>
+      <c r="AR179">
+        <v>1.7</v>
+      </c>
+      <c r="AS179">
+        <v>1.39</v>
+      </c>
+      <c r="AT179">
+        <v>3.09</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>8</v>
+      </c>
+      <c r="AW179">
+        <v>4</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>13</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>3</v>
+      </c>
+      <c r="BD179">
+        <v>1.91</v>
+      </c>
+      <c r="BE179">
+        <v>6.15</v>
+      </c>
+      <c r="BF179">
+        <v>2.32</v>
+      </c>
+      <c r="BG179">
+        <v>1.33</v>
+      </c>
+      <c r="BH179">
+        <v>2.93</v>
+      </c>
+      <c r="BI179">
+        <v>1.6</v>
+      </c>
+      <c r="BJ179">
+        <v>2.14</v>
+      </c>
+      <c r="BK179">
+        <v>2.03</v>
+      </c>
+      <c r="BL179">
+        <v>1.67</v>
+      </c>
+      <c r="BM179">
+        <v>2.71</v>
+      </c>
+      <c r="BN179">
+        <v>1.38</v>
+      </c>
+      <c r="BO179">
+        <v>3.74</v>
+      </c>
+      <c r="BP179">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7332536</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45550.1875</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>201</v>
+      </c>
+      <c r="P180" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q180">
+        <v>3.2</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>3.1</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3.25</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>6.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.11</v>
+      </c>
+      <c r="Z180">
+        <v>2.36</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>2.49</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.2</v>
+      </c>
+      <c r="AF180">
+        <v>4</v>
+      </c>
+      <c r="AG180">
+        <v>1.65</v>
+      </c>
+      <c r="AH180">
+        <v>2.1</v>
+      </c>
+      <c r="AI180">
+        <v>1.57</v>
+      </c>
+      <c r="AJ180">
+        <v>2.25</v>
+      </c>
+      <c r="AK180">
+        <v>1.4</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>1.41</v>
+      </c>
+      <c r="AN180">
+        <v>1.38</v>
+      </c>
+      <c r="AO180">
+        <v>2</v>
+      </c>
+      <c r="AP180">
+        <v>1.29</v>
+      </c>
+      <c r="AQ180">
+        <v>2.07</v>
+      </c>
+      <c r="AR180">
+        <v>1.63</v>
+      </c>
+      <c r="AS180">
+        <v>1.61</v>
+      </c>
+      <c r="AT180">
+        <v>3.24</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>1</v>
+      </c>
+      <c r="AX180">
+        <v>9</v>
+      </c>
+      <c r="AY180">
+        <v>4</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>1</v>
+      </c>
+      <c r="BB180">
+        <v>7</v>
+      </c>
+      <c r="BC180">
+        <v>8</v>
+      </c>
+      <c r="BD180">
+        <v>1.93</v>
+      </c>
+      <c r="BE180">
+        <v>6.15</v>
+      </c>
+      <c r="BF180">
+        <v>2.29</v>
+      </c>
+      <c r="BG180">
+        <v>1.34</v>
+      </c>
+      <c r="BH180">
+        <v>2.88</v>
+      </c>
+      <c r="BI180">
+        <v>1.62</v>
+      </c>
+      <c r="BJ180">
+        <v>2.1</v>
+      </c>
+      <c r="BK180">
+        <v>2.05</v>
+      </c>
+      <c r="BL180">
+        <v>1.65</v>
+      </c>
+      <c r="BM180">
+        <v>2.75</v>
+      </c>
+      <c r="BN180">
+        <v>1.37</v>
+      </c>
+      <c r="BO180">
+        <v>3.88</v>
+      </c>
+      <c r="BP180">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7332537</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45550.29166666666</v>
+      </c>
+      <c r="F181">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s">
+        <v>82</v>
+      </c>
+      <c r="H181" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>202</v>
+      </c>
+      <c r="P181" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>3</v>
+      </c>
+      <c r="T181">
+        <v>1.5</v>
+      </c>
+      <c r="U181">
+        <v>2.5</v>
+      </c>
+      <c r="V181">
+        <v>3.4</v>
+      </c>
+      <c r="W181">
+        <v>1.3</v>
+      </c>
+      <c r="X181">
+        <v>10</v>
+      </c>
+      <c r="Y181">
+        <v>1.06</v>
+      </c>
+      <c r="Z181">
+        <v>3.15</v>
+      </c>
+      <c r="AA181">
+        <v>3.2</v>
+      </c>
+      <c r="AB181">
+        <v>2.08</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>8</v>
+      </c>
+      <c r="AE181">
+        <v>1.36</v>
+      </c>
+      <c r="AF181">
+        <v>2.9</v>
+      </c>
+      <c r="AG181">
+        <v>2.1</v>
+      </c>
+      <c r="AH181">
+        <v>1.65</v>
+      </c>
+      <c r="AI181">
+        <v>1.91</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>1.52</v>
+      </c>
+      <c r="AL181">
+        <v>1.26</v>
+      </c>
+      <c r="AM181">
+        <v>1.27</v>
+      </c>
+      <c r="AN181">
+        <v>1.43</v>
+      </c>
+      <c r="AO181">
+        <v>1.69</v>
+      </c>
+      <c r="AP181">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181">
+        <v>1.79</v>
+      </c>
+      <c r="AR181">
+        <v>1.34</v>
+      </c>
+      <c r="AS181">
+        <v>1.43</v>
+      </c>
+      <c r="AT181">
+        <v>2.77</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>9</v>
+      </c>
+      <c r="AZ181">
+        <v>9</v>
+      </c>
+      <c r="BA181">
+        <v>7</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>12</v>
+      </c>
+      <c r="BD181">
+        <v>2.41</v>
+      </c>
+      <c r="BE181">
+        <v>5.85</v>
+      </c>
+      <c r="BF181">
+        <v>1.88</v>
+      </c>
+      <c r="BG181">
+        <v>1.59</v>
+      </c>
+      <c r="BH181">
+        <v>2.16</v>
+      </c>
+      <c r="BI181">
+        <v>2.04</v>
+      </c>
+      <c r="BJ181">
+        <v>1.66</v>
+      </c>
+      <c r="BK181">
+        <v>2.79</v>
+      </c>
+      <c r="BL181">
+        <v>1.36</v>
+      </c>
+      <c r="BM181">
+        <v>3.98</v>
+      </c>
+      <c r="BN181">
+        <v>1.19</v>
+      </c>
+      <c r="BO181">
+        <v>5.2</v>
+      </c>
+      <c r="BP181">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -37701,10 +37701,10 @@
         <v>4</v>
       </c>
       <c r="BB177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD177">
         <v>1.41</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -623,6 +623,12 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['51', '57']</t>
+  </si>
+  <si>
+    <t>['35', '59']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1821,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ3">
         <v>0.85</v>
@@ -1949,7 +1955,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2236,7 +2242,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2361,7 +2367,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2567,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2773,7 +2779,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
         <v>1.57</v>
@@ -3391,7 +3397,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3597,7 +3603,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3675,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ12">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3803,7 +3809,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3884,7 +3890,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ13">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ14">
         <v>0.85</v>
@@ -4421,7 +4427,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4833,7 +4839,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -5039,7 +5045,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5323,10 +5329,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5451,7 +5457,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5657,7 +5663,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6559,10 +6565,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ26">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6687,7 +6693,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6765,7 +6771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
         <v>0.85</v>
@@ -7099,7 +7105,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7177,7 +7183,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -7305,7 +7311,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7386,7 +7392,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>2.29</v>
@@ -7511,7 +7517,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7717,7 +7723,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7798,7 +7804,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8129,7 +8135,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8413,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -8747,7 +8753,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8825,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ37">
         <v>2.07</v>
@@ -9034,7 +9040,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9159,7 +9165,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9652,7 +9658,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.77</v>
@@ -9777,7 +9783,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9855,7 +9861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1.8</v>
@@ -9983,7 +9989,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10189,7 +10195,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10395,7 +10401,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10476,7 +10482,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.67</v>
@@ -10601,7 +10607,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10679,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ46">
         <v>1.43</v>
@@ -10807,7 +10813,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -11297,10 +11303,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.54</v>
@@ -11631,7 +11637,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11712,7 +11718,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11837,7 +11843,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11915,7 +11921,7 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ52">
         <v>1.46</v>
@@ -12043,7 +12049,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12249,7 +12255,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12661,7 +12667,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12867,7 +12873,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12945,7 +12951,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
         <v>1.79</v>
@@ -13073,7 +13079,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13279,7 +13285,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13563,10 +13569,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ60">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13772,7 +13778,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ61">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.45</v>
@@ -13897,7 +13903,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14103,7 +14109,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14309,7 +14315,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14515,7 +14521,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14799,7 +14805,7 @@
         <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ66">
         <v>1.46</v>
@@ -14927,7 +14933,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15008,7 +15014,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -15214,7 +15220,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ68">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15545,7 +15551,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15623,7 +15629,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
         <v>1.46</v>
@@ -15829,7 +15835,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ71">
         <v>0.93</v>
@@ -16163,7 +16169,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16241,7 +16247,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16450,7 +16456,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16575,7 +16581,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16781,7 +16787,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16862,7 +16868,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ76">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17271,7 +17277,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ78">
         <v>1.79</v>
@@ -17399,7 +17405,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17686,7 +17692,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.59</v>
@@ -17889,7 +17895,7 @@
         <v>1.8</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>1.43</v>
@@ -18017,7 +18023,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18223,7 +18229,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18716,7 +18722,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18841,7 +18847,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -19253,7 +19259,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19331,10 +19337,10 @@
         <v>1.67</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ88">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>1.94</v>
@@ -19459,7 +19465,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -20077,7 +20083,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20158,7 +20164,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20283,7 +20289,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20979,10 +20985,10 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21107,7 +21113,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21185,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21519,7 +21525,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21725,7 +21731,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22012,7 +22018,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.38</v>
@@ -22421,7 +22427,7 @@
         <v>2.29</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ103">
         <v>2.07</v>
@@ -22627,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -23039,7 +23045,7 @@
         <v>1.86</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ106">
         <v>1.6</v>
@@ -23373,7 +23379,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23454,7 +23460,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.47</v>
@@ -23579,7 +23585,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23991,7 +23997,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24197,7 +24203,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24484,7 +24490,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
         <v>1.35</v>
@@ -24609,7 +24615,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24690,7 +24696,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ114">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.6</v>
@@ -24815,7 +24821,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24893,7 +24899,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ115">
         <v>1.57</v>
@@ -25021,7 +25027,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25227,7 +25233,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25433,7 +25439,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25639,7 +25645,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25720,7 +25726,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.8</v>
@@ -25845,7 +25851,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25926,7 +25932,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ120">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26129,7 +26135,7 @@
         <v>1.63</v>
       </c>
       <c r="AP121">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121">
         <v>1.6</v>
@@ -26257,7 +26263,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26463,7 +26469,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26669,7 +26675,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26875,7 +26881,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26956,7 +26962,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27159,7 +27165,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ126">
         <v>1.8</v>
@@ -27287,7 +27293,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27493,7 +27499,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27780,7 +27786,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ129">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -27905,7 +27911,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27983,7 +27989,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ130">
         <v>1.43</v>
@@ -28317,7 +28323,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28395,7 +28401,7 @@
         <v>1.89</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ132">
         <v>2.07</v>
@@ -28729,7 +28735,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28935,7 +28941,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29222,7 +29228,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR136">
         <v>1.88</v>
@@ -29347,7 +29353,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29631,10 +29637,10 @@
         <v>0.91</v>
       </c>
       <c r="AP138">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR138">
         <v>1.58</v>
@@ -29759,7 +29765,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29965,7 +29971,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30171,7 +30177,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30377,7 +30383,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30458,7 +30464,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ142">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
         <v>1.6</v>
@@ -30583,7 +30589,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30789,7 +30795,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30995,7 +31001,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31279,7 +31285,7 @@
         <v>1.45</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ146">
         <v>1.33</v>
@@ -31407,7 +31413,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31613,7 +31619,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31819,7 +31825,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -32025,7 +32031,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32106,7 +32112,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ150">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR150">
         <v>1.79</v>
@@ -32231,7 +32237,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32643,7 +32649,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32849,7 +32855,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33133,10 +33139,10 @@
         <v>2.27</v>
       </c>
       <c r="AP155">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ155">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33467,7 +33473,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33754,7 +33760,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ158">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR158">
         <v>1.69</v>
@@ -33960,7 +33966,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ159">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34085,7 +34091,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34575,7 +34581,7 @@
         <v>1.92</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ162">
         <v>2.07</v>
@@ -34784,7 +34790,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR163">
         <v>1.89</v>
@@ -35321,7 +35327,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35399,7 +35405,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ166">
         <v>1.57</v>
@@ -35527,7 +35533,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35939,7 +35945,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36017,10 +36023,10 @@
         <v>0.77</v>
       </c>
       <c r="AP169">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AQ169">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.3</v>
@@ -36145,7 +36151,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36351,7 +36357,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36429,7 +36435,7 @@
         <v>1.77</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ171">
         <v>1.8</v>
@@ -36969,7 +36975,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37050,7 +37056,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ174">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37253,7 +37259,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ175">
         <v>0.93</v>
@@ -37381,7 +37387,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37587,7 +37593,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q177">
         <v>2.15</v>
@@ -37665,10 +37671,10 @@
         <v>0.93</v>
       </c>
       <c r="AP177">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ177">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR177">
         <v>1.5</v>
@@ -37793,7 +37799,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -37999,7 +38005,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38205,7 +38211,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38411,7 +38417,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38568,6 +38574,624 @@
       </c>
       <c r="BP181">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7332538</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45556.1875</v>
+      </c>
+      <c r="F182">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>77</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q182">
+        <v>2.9</v>
+      </c>
+      <c r="R182">
+        <v>2.32</v>
+      </c>
+      <c r="S182">
+        <v>3.51</v>
+      </c>
+      <c r="T182">
+        <v>1.33</v>
+      </c>
+      <c r="U182">
+        <v>3.29</v>
+      </c>
+      <c r="V182">
+        <v>2.64</v>
+      </c>
+      <c r="W182">
+        <v>1.47</v>
+      </c>
+      <c r="X182">
+        <v>6.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.11</v>
+      </c>
+      <c r="Z182">
+        <v>2.25</v>
+      </c>
+      <c r="AA182">
+        <v>3.3</v>
+      </c>
+      <c r="AB182">
+        <v>2.8</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>11</v>
+      </c>
+      <c r="AE182">
+        <v>1.2</v>
+      </c>
+      <c r="AF182">
+        <v>4</v>
+      </c>
+      <c r="AG182">
+        <v>1.73</v>
+      </c>
+      <c r="AH182">
+        <v>2</v>
+      </c>
+      <c r="AI182">
+        <v>1.57</v>
+      </c>
+      <c r="AJ182">
+        <v>2.25</v>
+      </c>
+      <c r="AK182">
+        <v>1.38</v>
+      </c>
+      <c r="AL182">
+        <v>1.26</v>
+      </c>
+      <c r="AM182">
+        <v>1.6</v>
+      </c>
+      <c r="AN182">
+        <v>1.63</v>
+      </c>
+      <c r="AO182">
+        <v>1.79</v>
+      </c>
+      <c r="AP182">
+        <v>1.71</v>
+      </c>
+      <c r="AQ182">
+        <v>1.67</v>
+      </c>
+      <c r="AR182">
+        <v>1.51</v>
+      </c>
+      <c r="AS182">
+        <v>1.48</v>
+      </c>
+      <c r="AT182">
+        <v>2.99</v>
+      </c>
+      <c r="AU182">
+        <v>10</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>9</v>
+      </c>
+      <c r="AX182">
+        <v>5</v>
+      </c>
+      <c r="AY182">
+        <v>19</v>
+      </c>
+      <c r="AZ182">
+        <v>8</v>
+      </c>
+      <c r="BA182">
+        <v>8</v>
+      </c>
+      <c r="BB182">
+        <v>2</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>1.67</v>
+      </c>
+      <c r="BE182">
+        <v>7</v>
+      </c>
+      <c r="BF182">
+        <v>2.86</v>
+      </c>
+      <c r="BG182">
+        <v>1.55</v>
+      </c>
+      <c r="BH182">
+        <v>2.37</v>
+      </c>
+      <c r="BI182">
+        <v>1.98</v>
+      </c>
+      <c r="BJ182">
+        <v>1.82</v>
+      </c>
+      <c r="BK182">
+        <v>2.52</v>
+      </c>
+      <c r="BL182">
+        <v>1.5</v>
+      </c>
+      <c r="BM182">
+        <v>3.3</v>
+      </c>
+      <c r="BN182">
+        <v>1.29</v>
+      </c>
+      <c r="BO182">
+        <v>4.6</v>
+      </c>
+      <c r="BP182">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7332539</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45556.29166666666</v>
+      </c>
+      <c r="F183">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>70</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>204</v>
+      </c>
+      <c r="P183" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q183">
+        <v>2</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>5.75</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.62</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>7</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.5</v>
+      </c>
+      <c r="AA183">
+        <v>3.95</v>
+      </c>
+      <c r="AB183">
+        <v>5.75</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>14</v>
+      </c>
+      <c r="AE183">
+        <v>1.24</v>
+      </c>
+      <c r="AF183">
+        <v>3.6</v>
+      </c>
+      <c r="AG183">
+        <v>1.75</v>
+      </c>
+      <c r="AH183">
+        <v>1.95</v>
+      </c>
+      <c r="AI183">
+        <v>1.9</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.12</v>
+      </c>
+      <c r="AL183">
+        <v>1.18</v>
+      </c>
+      <c r="AM183">
+        <v>2.5</v>
+      </c>
+      <c r="AN183">
+        <v>2</v>
+      </c>
+      <c r="AO183">
+        <v>0.93</v>
+      </c>
+      <c r="AP183">
+        <v>2.07</v>
+      </c>
+      <c r="AQ183">
+        <v>0.88</v>
+      </c>
+      <c r="AR183">
+        <v>1.83</v>
+      </c>
+      <c r="AS183">
+        <v>1.15</v>
+      </c>
+      <c r="AT183">
+        <v>2.98</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>10</v>
+      </c>
+      <c r="AW183">
+        <v>2</v>
+      </c>
+      <c r="AX183">
+        <v>6</v>
+      </c>
+      <c r="AY183">
+        <v>5</v>
+      </c>
+      <c r="AZ183">
+        <v>16</v>
+      </c>
+      <c r="BA183">
+        <v>4</v>
+      </c>
+      <c r="BB183">
+        <v>5</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>1.39</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>4.26</v>
+      </c>
+      <c r="BG183">
+        <v>1.45</v>
+      </c>
+      <c r="BH183">
+        <v>2.66</v>
+      </c>
+      <c r="BI183">
+        <v>2.05</v>
+      </c>
+      <c r="BJ183">
+        <v>1.75</v>
+      </c>
+      <c r="BK183">
+        <v>2.26</v>
+      </c>
+      <c r="BL183">
+        <v>1.6</v>
+      </c>
+      <c r="BM183">
+        <v>2.85</v>
+      </c>
+      <c r="BN183">
+        <v>1.36</v>
+      </c>
+      <c r="BO183">
+        <v>4</v>
+      </c>
+      <c r="BP183">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7332540</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45556.29166666666</v>
+      </c>
+      <c r="F184">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>80</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>156</v>
+      </c>
+      <c r="P184" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q184">
+        <v>3.61</v>
+      </c>
+      <c r="R184">
+        <v>2.12</v>
+      </c>
+      <c r="S184">
+        <v>3.2</v>
+      </c>
+      <c r="T184">
+        <v>1.44</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
+        <v>3.24</v>
+      </c>
+      <c r="W184">
+        <v>1.34</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>2.8</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>2.4</v>
+      </c>
+      <c r="AC184">
+        <v>1.05</v>
+      </c>
+      <c r="AD184">
+        <v>8</v>
+      </c>
+      <c r="AE184">
+        <v>1.36</v>
+      </c>
+      <c r="AF184">
+        <v>2.95</v>
+      </c>
+      <c r="AG184">
+        <v>2.1</v>
+      </c>
+      <c r="AH184">
+        <v>1.65</v>
+      </c>
+      <c r="AI184">
+        <v>1.83</v>
+      </c>
+      <c r="AJ184">
+        <v>1.9</v>
+      </c>
+      <c r="AK184">
+        <v>1.5</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.4</v>
+      </c>
+      <c r="AN184">
+        <v>0.46</v>
+      </c>
+      <c r="AO184">
+        <v>1.46</v>
+      </c>
+      <c r="AP184">
+        <v>0.64</v>
+      </c>
+      <c r="AQ184">
+        <v>1.36</v>
+      </c>
+      <c r="AR184">
+        <v>1.32</v>
+      </c>
+      <c r="AS184">
+        <v>1.34</v>
+      </c>
+      <c r="AT184">
+        <v>2.66</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>7</v>
+      </c>
+      <c r="AY184">
+        <v>8</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>13</v>
+      </c>
+      <c r="BC184">
+        <v>19</v>
+      </c>
+      <c r="BD184">
+        <v>2.02</v>
+      </c>
+      <c r="BE184">
+        <v>5.95</v>
+      </c>
+      <c r="BF184">
+        <v>2.2</v>
+      </c>
+      <c r="BG184">
+        <v>1.48</v>
+      </c>
+      <c r="BH184">
+        <v>2.57</v>
+      </c>
+      <c r="BI184">
+        <v>1.82</v>
+      </c>
+      <c r="BJ184">
+        <v>1.98</v>
+      </c>
+      <c r="BK184">
+        <v>2.31</v>
+      </c>
+      <c r="BL184">
+        <v>1.58</v>
+      </c>
+      <c r="BM184">
+        <v>3.02</v>
+      </c>
+      <c r="BN184">
+        <v>1.27</v>
+      </c>
+      <c r="BO184">
+        <v>0</v>
+      </c>
+      <c r="BP184">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,15 @@
     <t>['35', '59']</t>
   </si>
   <si>
+    <t>['69', '90+3']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -865,9 +874,6 @@
     <t>['65', '88']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
     <t>['18', '51']</t>
   </si>
   <si>
@@ -923,6 +929,9 @@
   </si>
   <si>
     <t>['53', '90+8']</t>
+  </si>
+  <si>
+    <t>['70', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1552,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1621,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1955,7 +1964,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2033,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2239,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2367,7 +2376,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2445,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2573,7 +2582,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2651,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2779,7 +2788,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2851,25 +2860,25 @@
         <v>1.67</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -3063,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ9">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3269,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3397,7 +3406,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3469,25 +3478,25 @@
         <v>1.44</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3603,7 +3612,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3675,25 +3684,25 @@
         <v>1.44</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ12">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3809,7 +3818,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3887,19 +3896,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4087,25 +4096,25 @@
         <v>1.3</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ14">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="AS14">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AT14">
-        <v>2.57</v>
+        <v>2.94</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4293,25 +4302,25 @@
         <v>1.4</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR15">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="AS15">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AT15">
-        <v>4.72</v>
+        <v>3.69</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4427,7 +4436,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4499,22 +4508,22 @@
         <v>1.57</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR16">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="AS16">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AT16">
         <v>3.94</v>
@@ -4705,25 +4714,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ17">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR17">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="AS17">
         <v>0.48</v>
       </c>
       <c r="AT17">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4839,7 +4848,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4914,22 +4923,22 @@
         <v>3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
-        <v>1.18</v>
+        <v>1.86</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>3.67</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -5045,7 +5054,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5117,25 +5126,25 @@
         <v>1.22</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR19">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AT19">
-        <v>2.69</v>
+        <v>2.53</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5323,25 +5332,25 @@
         <v>1.49</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AS20">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
-        <v>4.02</v>
+        <v>3.18</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5457,7 +5466,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5529,25 +5538,25 @@
         <v>1.5</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ21">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR21">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS21">
         <v>0.67</v>
       </c>
       <c r="AT21">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -5663,7 +5672,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5735,25 +5744,25 @@
         <v>1.43</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ22">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR22">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AS22">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AT22">
-        <v>2.22</v>
+        <v>3.03</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5941,25 +5950,25 @@
         <v>1.4</v>
       </c>
       <c r="AN23">
+        <v>1.33</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
         <v>1.5</v>
       </c>
-      <c r="AO23">
-        <v>3</v>
-      </c>
-      <c r="AP23">
-        <v>1.31</v>
-      </c>
       <c r="AQ23">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR23">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="AS23">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AT23">
-        <v>4.62</v>
+        <v>4.11</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6147,25 +6156,25 @@
         <v>1.9</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR24">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AS24">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
-        <v>3.31</v>
+        <v>2.71</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -6353,25 +6362,25 @@
         <v>1.67</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ25">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR25">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AS25">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AT25">
-        <v>3.75</v>
+        <v>3.93</v>
       </c>
       <c r="AU25">
         <v>8</v>
@@ -6559,25 +6568,25 @@
         <v>2.45</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ26">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR26">
-        <v>1.81</v>
+        <v>1.47</v>
       </c>
       <c r="AS26">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -6693,7 +6702,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6765,25 +6774,25 @@
         <v>1.62</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AT27">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6977,19 +6986,19 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ28">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR28">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS28">
         <v>0.82</v>
       </c>
       <c r="AT28">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU28">
         <v>7</v>
@@ -7105,7 +7114,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7177,25 +7186,25 @@
         <v>1.22</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR29">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="AT29">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7311,7 +7320,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7383,25 +7392,25 @@
         <v>1.8</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR30">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="AS30">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
-        <v>3.32</v>
+        <v>3.87</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7517,7 +7526,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7589,25 +7598,25 @@
         <v>1.3</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO31">
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR31">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AT31">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7723,7 +7732,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7795,25 +7804,25 @@
         <v>1.73</v>
       </c>
       <c r="AN32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO32">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR32">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AS32">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AT32">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8001,25 +8010,25 @@
         <v>1.6</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO33">
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR33">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="AS33">
         <v>0.88</v>
       </c>
       <c r="AT33">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8135,7 +8144,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8207,25 +8216,25 @@
         <v>1.61</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR34">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
-        <v>3.52</v>
+        <v>3.02</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8413,25 +8422,25 @@
         <v>1.7</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP35">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AS35">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT35">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="AU35">
         <v>11</v>
@@ -8619,25 +8628,25 @@
         <v>1.27</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AT36">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8753,7 +8762,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8825,25 +8834,25 @@
         <v>1.28</v>
       </c>
       <c r="AN37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AP37">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ37">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR37">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AS37">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AT37">
-        <v>3.82</v>
+        <v>3.66</v>
       </c>
       <c r="AU37">
         <v>12</v>
@@ -9031,25 +9040,25 @@
         <v>1.78</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
+        <v>1.25</v>
+      </c>
+      <c r="AR38">
+        <v>1.91</v>
+      </c>
+      <c r="AS38">
         <v>1.36</v>
       </c>
-      <c r="AR38">
-        <v>1.9</v>
-      </c>
-      <c r="AS38">
-        <v>1.84</v>
-      </c>
       <c r="AT38">
-        <v>3.74</v>
+        <v>3.27</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9165,7 +9174,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9237,25 +9246,25 @@
         <v>1.57</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AP39">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ39">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR39">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="AS39">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9443,25 +9452,25 @@
         <v>1.55</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR40">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AT40">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9649,25 +9658,25 @@
         <v>2.25</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR41">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AS41">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9783,7 +9792,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9855,25 +9864,25 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="AT42">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="AU42">
         <v>8</v>
@@ -9989,7 +9998,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10067,19 +10076,19 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ43">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR43">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS43">
         <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -10195,7 +10204,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10267,25 +10276,25 @@
         <v>1.32</v>
       </c>
       <c r="AN44">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="AP44">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR44">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AS44">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10401,7 +10410,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10473,25 +10482,25 @@
         <v>1.5</v>
       </c>
       <c r="AN45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP45">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AT45">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10607,7 +10616,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10679,25 +10688,25 @@
         <v>1.38</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP46">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR46">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AS46">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10813,7 +10822,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10885,25 +10894,25 @@
         <v>1.28</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO47">
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ47">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR47">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
         <v>1.07</v>
       </c>
       <c r="AT47">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="AU47">
         <v>7</v>
@@ -11091,25 +11100,25 @@
         <v>1.67</v>
       </c>
       <c r="AN48">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO48">
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR48">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AT48">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11297,25 +11306,25 @@
         <v>1.46</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR49">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11503,25 +11512,25 @@
         <v>1.51</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
+        <v>1.61</v>
+      </c>
+      <c r="AQ50">
+        <v>1.55</v>
+      </c>
+      <c r="AR50">
         <v>1.62</v>
       </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
-      <c r="AR50">
-        <v>1.43</v>
-      </c>
       <c r="AS50">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>2.72</v>
+        <v>3.08</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11637,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11709,25 +11718,25 @@
         <v>2.48</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
       </c>
       <c r="AS51">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11843,7 +11852,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11915,25 +11924,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ52">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AS52">
         <v>1.13</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU52">
         <v>2</v>
@@ -12049,7 +12058,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12124,22 +12133,22 @@
         <v>2.25</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ53">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR53">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AS53">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AT53">
-        <v>3.92</v>
+        <v>3.83</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12255,7 +12264,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12327,25 +12336,25 @@
         <v>1.36</v>
       </c>
       <c r="AN54">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO54">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ54">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR54">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>2.95</v>
+        <v>3.17</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12533,25 +12542,25 @@
         <v>1.5</v>
       </c>
       <c r="AN55">
+        <v>1.5</v>
+      </c>
+      <c r="AO55">
+        <v>1.14</v>
+      </c>
+      <c r="AP55">
         <v>1.25</v>
       </c>
-      <c r="AO55">
-        <v>0.5</v>
-      </c>
-      <c r="AP55">
-        <v>1.14</v>
-      </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="AS55">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>2.74</v>
+        <v>3.07</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12667,7 +12676,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12739,25 +12748,25 @@
         <v>1.45</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AO56">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ56">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS56">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12873,7 +12882,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12945,25 +12954,25 @@
         <v>1.44</v>
       </c>
       <c r="AN57">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ57">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR57">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AT57">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -13079,7 +13088,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13151,25 +13160,25 @@
         <v>1.24</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO58">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP58">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS58">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AT58">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="AU58">
         <v>5</v>
@@ -13285,7 +13294,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13357,25 +13366,25 @@
         <v>1.42</v>
       </c>
       <c r="AN59">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO59">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ59">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR59">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS59">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AT59">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13563,25 +13572,25 @@
         <v>1.63</v>
       </c>
       <c r="AN60">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP60">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR60">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AS60">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT60">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13769,25 +13778,25 @@
         <v>1.71</v>
       </c>
       <c r="AN61">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP61">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AT61">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13903,7 +13912,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13975,25 +13984,25 @@
         <v>1.85</v>
       </c>
       <c r="AN62">
-        <v>0.6</v>
+        <v>1.67</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AP62">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR62">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AT62">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14109,7 +14118,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14181,25 +14190,25 @@
         <v>2.64</v>
       </c>
       <c r="AN63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AO63">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR63">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
       <c r="AU63">
         <v>3</v>
@@ -14315,7 +14324,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14387,25 +14396,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ64">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR64">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="AT64">
-        <v>3.01</v>
+        <v>2.78</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14521,7 +14530,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14593,25 +14602,25 @@
         <v>1.69</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO65">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AS65">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -14799,25 +14808,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AO66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AP66">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR66">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AT66">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -14933,7 +14942,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15005,25 +15014,25 @@
         <v>1.58</v>
       </c>
       <c r="AN67">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR67">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AS67">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15211,25 +15220,25 @@
         <v>2.09</v>
       </c>
       <c r="AN68">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR68">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS68">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT68">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15420,22 +15429,22 @@
         <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ69">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR69">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT69">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15551,7 +15560,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15623,25 +15632,25 @@
         <v>1.61</v>
       </c>
       <c r="AN70">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ70">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR70">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AS70">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT70">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15829,25 +15838,25 @@
         <v>1.75</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP71">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ71">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="AS71">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AT71">
-        <v>3.96</v>
+        <v>3.65</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16035,25 +16044,25 @@
         <v>1.28</v>
       </c>
       <c r="AN72">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO72">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR72">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="AS72">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="AT72">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16169,7 +16178,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16241,25 +16250,25 @@
         <v>1.3</v>
       </c>
       <c r="AN73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ73">
+        <v>1.61</v>
+      </c>
+      <c r="AR73">
+        <v>1.46</v>
+      </c>
+      <c r="AS73">
         <v>1.6</v>
       </c>
-      <c r="AR73">
-        <v>1.53</v>
-      </c>
-      <c r="AS73">
-        <v>1.72</v>
-      </c>
       <c r="AT73">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="AU73">
         <v>2</v>
@@ -16447,25 +16456,25 @@
         <v>1.31</v>
       </c>
       <c r="AN74">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AO74">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS74">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="AT74">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16581,7 +16590,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16653,25 +16662,25 @@
         <v>1.95</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AO75">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP75">
+        <v>1.52</v>
+      </c>
+      <c r="AQ75">
         <v>1.5</v>
       </c>
-      <c r="AQ75">
-        <v>1.57</v>
-      </c>
       <c r="AR75">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AS75">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AT75">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16787,7 +16796,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16859,25 +16868,25 @@
         <v>1.61</v>
       </c>
       <c r="AN76">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AO76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP76">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ76">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR76">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AT76">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17065,25 +17074,25 @@
         <v>1.27</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AO77">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP77">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ77">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR77">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AS77">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AT77">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17271,25 +17280,25 @@
         <v>1.21</v>
       </c>
       <c r="AN78">
-        <v>0.43</v>
+        <v>0.91</v>
       </c>
       <c r="AO78">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AP78">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ78">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR78">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AT78">
-        <v>2.73</v>
+        <v>3.04</v>
       </c>
       <c r="AU78">
         <v>2</v>
@@ -17405,7 +17414,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17477,25 +17486,25 @@
         <v>1.7</v>
       </c>
       <c r="AN79">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR79">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="AS79">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AT79">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17686,22 +17695,22 @@
         <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AT80">
-        <v>3.19</v>
+        <v>2.92</v>
       </c>
       <c r="AU80">
         <v>2</v>
@@ -17889,25 +17898,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AO81">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ81">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR81">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AS81">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -18023,7 +18032,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18095,25 +18104,25 @@
         <v>1.62</v>
       </c>
       <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
         <v>1.33</v>
       </c>
-      <c r="AO82">
-        <v>1.6</v>
-      </c>
       <c r="AP82">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AS82">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT82">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18229,7 +18238,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18301,25 +18310,25 @@
         <v>2.4</v>
       </c>
       <c r="AN83">
-        <v>0.5</v>
+        <v>1.58</v>
       </c>
       <c r="AO83">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AS83">
         <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18507,25 +18516,25 @@
         <v>1.5</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ84">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AS84">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18713,25 +18722,25 @@
         <v>1.83</v>
       </c>
       <c r="AN85">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
       </c>
       <c r="AS85">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT85">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18847,7 +18856,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18919,25 +18928,25 @@
         <v>1.8</v>
       </c>
       <c r="AN86">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AO86">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR86">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT86">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -19125,25 +19134,25 @@
         <v>1.4</v>
       </c>
       <c r="AN87">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO87">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR87">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS87">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT87">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="AU87">
         <v>4</v>
@@ -19259,7 +19268,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19331,25 +19340,25 @@
         <v>1.75</v>
       </c>
       <c r="AN88">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AP88">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR88">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AS88">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AT88">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19465,7 +19474,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19537,25 +19546,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ89">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AS89">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT89">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19743,25 +19752,25 @@
         <v>1.57</v>
       </c>
       <c r="AN90">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AO90">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AP90">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR90">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS90">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19949,25 +19958,25 @@
         <v>1.2</v>
       </c>
       <c r="AN91">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="AO91">
-        <v>2.67</v>
+        <v>1.46</v>
       </c>
       <c r="AP91">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ91">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR91">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20083,7 +20092,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20155,25 +20164,25 @@
         <v>1.4</v>
       </c>
       <c r="AN92">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AO92">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR92">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS92">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT92">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU92">
         <v>5</v>
@@ -20289,7 +20298,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20361,22 +20370,22 @@
         <v>1.67</v>
       </c>
       <c r="AN93">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO93">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP93">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ93">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR93">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS93">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT93">
         <v>3.32</v>
@@ -20567,25 +20576,25 @@
         <v>1.38</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO94">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP94">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ94">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR94">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS94">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AT94">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU94">
         <v>2</v>
@@ -20773,25 +20782,25 @@
         <v>1.5</v>
       </c>
       <c r="AN95">
-        <v>0.43</v>
+        <v>1.36</v>
       </c>
       <c r="AO95">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP95">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR95">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AS95">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT95">
-        <v>3.57</v>
+        <v>3.67</v>
       </c>
       <c r="AU95">
         <v>6</v>
@@ -20979,25 +20988,25 @@
         <v>1.83</v>
       </c>
       <c r="AN96">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AO96">
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ96">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AT96">
-        <v>3.43</v>
+        <v>2.99</v>
       </c>
       <c r="AU96">
         <v>8</v>
@@ -21113,7 +21122,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21185,25 +21194,25 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>0.38</v>
+        <v>1.14</v>
       </c>
       <c r="AO97">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP97">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR97">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS97">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -21394,22 +21403,22 @@
         <v>1</v>
       </c>
       <c r="AO98">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR98">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AS98">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AT98">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -21525,7 +21534,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21597,25 +21606,25 @@
         <v>1.62</v>
       </c>
       <c r="AN99">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO99">
+        <v>1.43</v>
+      </c>
+      <c r="AP99">
+        <v>1.48</v>
+      </c>
+      <c r="AQ99">
         <v>1.5</v>
       </c>
-      <c r="AP99">
-        <v>1.29</v>
-      </c>
-      <c r="AQ99">
-        <v>1.57</v>
-      </c>
       <c r="AR99">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS99">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -21731,7 +21740,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21803,25 +21812,25 @@
         <v>1.44</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO100">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP100">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ100">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR100">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -22009,25 +22018,25 @@
         <v>1.7</v>
       </c>
       <c r="AN101">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO101">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR101">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS101">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AT101">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22215,25 +22224,25 @@
         <v>1.67</v>
       </c>
       <c r="AN102">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO102">
-        <v>2.17</v>
+        <v>1.07</v>
       </c>
       <c r="AP102">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR102">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AS102">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="AU102">
         <v>8</v>
@@ -22421,25 +22430,25 @@
         <v>1.36</v>
       </c>
       <c r="AN103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>2.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ103">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR103">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AS103">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AT103">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="AU103">
         <v>3</v>
@@ -22627,25 +22636,25 @@
         <v>1.5</v>
       </c>
       <c r="AN104">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AO104">
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR104">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AS104">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="AT104">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22833,25 +22842,25 @@
         <v>1.97</v>
       </c>
       <c r="AN105">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AO105">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AP105">
+        <v>1.52</v>
+      </c>
+      <c r="AQ105">
+        <v>0.82</v>
+      </c>
+      <c r="AR105">
+        <v>1.7</v>
+      </c>
+      <c r="AS105">
         <v>1.5</v>
       </c>
-      <c r="AQ105">
-        <v>0.85</v>
-      </c>
-      <c r="AR105">
-        <v>1.76</v>
-      </c>
-      <c r="AS105">
-        <v>1.46</v>
-      </c>
       <c r="AT105">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="AU105">
         <v>7</v>
@@ -23042,22 +23051,22 @@
         <v>2</v>
       </c>
       <c r="AO106">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR106">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="AS106">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="AU106">
         <v>7</v>
@@ -23245,25 +23254,25 @@
         <v>1.22</v>
       </c>
       <c r="AN107">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO107">
-        <v>2.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ107">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR107">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AS107">
         <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23379,7 +23388,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23451,25 +23460,25 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AO108">
+        <v>1.31</v>
+      </c>
+      <c r="AP108">
+        <v>1.5</v>
+      </c>
+      <c r="AQ108">
         <v>1.25</v>
       </c>
-      <c r="AP108">
-        <v>1.31</v>
-      </c>
-      <c r="AQ108">
+      <c r="AR108">
+        <v>1.4</v>
+      </c>
+      <c r="AS108">
         <v>1.36</v>
       </c>
-      <c r="AR108">
-        <v>1.47</v>
-      </c>
-      <c r="AS108">
-        <v>1.5</v>
-      </c>
       <c r="AT108">
-        <v>2.97</v>
+        <v>2.76</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -23585,7 +23594,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23657,25 +23666,25 @@
         <v>1.5</v>
       </c>
       <c r="AN109">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO109">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ109">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR109">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS109">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -23863,25 +23872,25 @@
         <v>1.45</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO110">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ110">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR110">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS110">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="AT110">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -23997,7 +24006,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24069,25 +24078,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO111">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ111">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR111">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AT111">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24203,7 +24212,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24275,25 +24284,25 @@
         <v>1.59</v>
       </c>
       <c r="AN112">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AO112">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AP112">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24481,25 +24490,25 @@
         <v>1.42</v>
       </c>
       <c r="AN113">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AO113">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="AU113">
         <v>3</v>
@@ -24615,7 +24624,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24687,25 +24696,25 @@
         <v>2.05</v>
       </c>
       <c r="AN114">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO114">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AP114">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR114">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AS114">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT114">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24821,7 +24830,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24893,25 +24902,25 @@
         <v>1.33</v>
       </c>
       <c r="AN115">
-        <v>0.33</v>
+        <v>1.18</v>
       </c>
       <c r="AO115">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AP115">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ115">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
       </c>
       <c r="AS115">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AT115">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU115">
         <v>5</v>
@@ -25027,7 +25036,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25099,25 +25108,25 @@
         <v>1.53</v>
       </c>
       <c r="AN116">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AO116">
-        <v>2.13</v>
+        <v>1.11</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ116">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AS116">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT116">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AU116">
         <v>6</v>
@@ -25233,7 +25242,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25305,25 +25314,25 @@
         <v>1.91</v>
       </c>
       <c r="AN117">
-        <v>0.5</v>
+        <v>1.24</v>
       </c>
       <c r="AO117">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AP117">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ117">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR117">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS117">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AT117">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25439,7 +25448,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25511,25 +25520,25 @@
         <v>1.33</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AO118">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR118">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS118">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AT118">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25645,7 +25654,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25717,25 +25726,25 @@
         <v>2.37</v>
       </c>
       <c r="AN119">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ119">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR119">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AS119">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="AU119">
         <v>9</v>
@@ -25851,7 +25860,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25923,25 +25932,25 @@
         <v>1.5</v>
       </c>
       <c r="AN120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO120">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR120">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AS120">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT120">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="AU120">
         <v>4</v>
@@ -26132,22 +26141,22 @@
         <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AP121">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR121">
+        <v>1.48</v>
+      </c>
+      <c r="AS121">
         <v>1.57</v>
       </c>
-      <c r="AS121">
-        <v>1.54</v>
-      </c>
       <c r="AT121">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="AU121">
         <v>7</v>
@@ -26263,7 +26272,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26335,25 +26344,25 @@
         <v>1.38</v>
       </c>
       <c r="AN122">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AS122">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AT122">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26469,7 +26478,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26541,25 +26550,25 @@
         <v>1.82</v>
       </c>
       <c r="AN123">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AO123">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP123">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ123">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT123">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="AU123">
         <v>6</v>
@@ -26675,7 +26684,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26747,25 +26756,25 @@
         <v>1.35</v>
       </c>
       <c r="AN124">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AO124">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR124">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AS124">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT124">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU124">
         <v>5</v>
@@ -26881,7 +26890,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26953,22 +26962,22 @@
         <v>1.24</v>
       </c>
       <c r="AN125">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AO125">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AP125">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR125">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AS125">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
         <v>2.69</v>
@@ -27159,25 +27168,25 @@
         <v>2.2</v>
       </c>
       <c r="AN126">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AO126">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR126">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AS126">
         <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27293,7 +27302,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27365,25 +27374,25 @@
         <v>1.5</v>
       </c>
       <c r="AN127">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AO127">
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ127">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR127">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AS127">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT127">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27499,7 +27508,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27571,25 +27580,25 @@
         <v>1.53</v>
       </c>
       <c r="AN128">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="AO128">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS128">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AT128">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27777,25 +27786,25 @@
         <v>1.75</v>
       </c>
       <c r="AN129">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AP129">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR129">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS129">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AT129">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27911,7 +27920,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27983,25 +27992,25 @@
         <v>1.18</v>
       </c>
       <c r="AN130">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO130">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AP130">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
       </c>
       <c r="AS130">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="AT130">
-        <v>2.93</v>
+        <v>3.07</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28189,25 +28198,25 @@
         <v>1.55</v>
       </c>
       <c r="AN131">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AO131">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR131">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS131">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT131">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28323,7 +28332,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28395,25 +28404,25 @@
         <v>1.51</v>
       </c>
       <c r="AN132">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AO132">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP132">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ132">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR132">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS132">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AT132">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28601,25 +28610,25 @@
         <v>1.79</v>
       </c>
       <c r="AN133">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AO133">
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT133">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28735,7 +28744,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28807,25 +28816,25 @@
         <v>1.46</v>
       </c>
       <c r="AN134">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO134">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ134">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR134">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS134">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AT134">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="AU134">
         <v>6</v>
@@ -28941,7 +28950,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29013,25 +29022,25 @@
         <v>1.52</v>
       </c>
       <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
+        <v>1.4</v>
+      </c>
+      <c r="AP135">
         <v>0.9</v>
       </c>
-      <c r="AO135">
-        <v>1.56</v>
-      </c>
-      <c r="AP135">
-        <v>0.86</v>
-      </c>
       <c r="AQ135">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AS135">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AT135">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU135">
         <v>4</v>
@@ -29219,25 +29228,25 @@
         <v>2.1</v>
       </c>
       <c r="AN136">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AO136">
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT136">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="AU136">
         <v>3</v>
@@ -29353,7 +29362,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29431,19 +29440,19 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ137">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR137">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS137">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29631,25 +29640,25 @@
         <v>2.15</v>
       </c>
       <c r="AN138">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AO138">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR138">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS138">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29765,7 +29774,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29837,25 +29846,25 @@
         <v>2.25</v>
       </c>
       <c r="AN139">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO139">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR139">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AS139">
         <v>1.3</v>
       </c>
       <c r="AT139">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -29971,7 +29980,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30043,25 +30052,25 @@
         <v>1.85</v>
       </c>
       <c r="AN140">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="AO140">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ140">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS140">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AT140">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="AU140">
         <v>5</v>
@@ -30177,7 +30186,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30249,25 +30258,25 @@
         <v>1.25</v>
       </c>
       <c r="AN141">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AO141">
+        <v>1.43</v>
+      </c>
+      <c r="AP141">
         <v>1.5</v>
       </c>
-      <c r="AP141">
-        <v>1.31</v>
-      </c>
       <c r="AQ141">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
       </c>
       <c r="AS141">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AT141">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30383,7 +30392,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30455,25 +30464,25 @@
         <v>1.42</v>
       </c>
       <c r="AN142">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AO142">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="AP142">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR142">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AS142">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AT142">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30589,7 +30598,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30661,25 +30670,25 @@
         <v>1.3</v>
       </c>
       <c r="AN143">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO143">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AP143">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ143">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR143">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AS143">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AT143">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU143">
         <v>4</v>
@@ -30795,7 +30804,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30867,25 +30876,25 @@
         <v>1.4</v>
       </c>
       <c r="AN144">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AO144">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
       </c>
       <c r="AS144">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT144">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="AU144">
         <v>2</v>
@@ -31001,7 +31010,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31073,25 +31082,25 @@
         <v>1.15</v>
       </c>
       <c r="AN145">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AO145">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AP145">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ145">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR145">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31279,25 +31288,25 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AO146">
+        <v>1.61</v>
+      </c>
+      <c r="AP146">
+        <v>1.93</v>
+      </c>
+      <c r="AQ146">
+        <v>1.55</v>
+      </c>
+      <c r="AR146">
+        <v>1.66</v>
+      </c>
+      <c r="AS146">
         <v>1.45</v>
       </c>
-      <c r="AP146">
-        <v>2.07</v>
-      </c>
-      <c r="AQ146">
-        <v>1.33</v>
-      </c>
-      <c r="AR146">
-        <v>1.9</v>
-      </c>
-      <c r="AS146">
-        <v>1.32</v>
-      </c>
       <c r="AT146">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31413,7 +31422,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31488,22 +31497,22 @@
         <v>0.91</v>
       </c>
       <c r="AO147">
+        <v>1.32</v>
+      </c>
+      <c r="AP147">
+        <v>0.82</v>
+      </c>
+      <c r="AQ147">
         <v>1.5</v>
       </c>
-      <c r="AP147">
-        <v>0.86</v>
-      </c>
-      <c r="AQ147">
-        <v>1.57</v>
-      </c>
       <c r="AR147">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS147">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AT147">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU147">
         <v>2</v>
@@ -31619,7 +31628,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31691,25 +31700,25 @@
         <v>1.5</v>
       </c>
       <c r="AN148">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="AO148">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ148">
+        <v>1.61</v>
+      </c>
+      <c r="AR148">
+        <v>1.54</v>
+      </c>
+      <c r="AS148">
         <v>1.6</v>
       </c>
-      <c r="AR148">
-        <v>1.56</v>
-      </c>
-      <c r="AS148">
-        <v>1.64</v>
-      </c>
       <c r="AT148">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -31825,7 +31834,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31897,25 +31906,25 @@
         <v>1.95</v>
       </c>
       <c r="AN149">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AO149">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
       <c r="AP149">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ149">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR149">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS149">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT149">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AU149">
         <v>9</v>
@@ -32031,7 +32040,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32103,25 +32112,25 @@
         <v>1.93</v>
       </c>
       <c r="AN150">
-        <v>0.82</v>
+        <v>1.45</v>
       </c>
       <c r="AO150">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AP150">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ150">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR150">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AS150">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT150">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU150">
         <v>0</v>
@@ -32237,7 +32246,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32309,25 +32318,25 @@
         <v>1.22</v>
       </c>
       <c r="AN151">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AO151">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ151">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR151">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AT151">
-        <v>2.93</v>
+        <v>2.97</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32515,25 +32524,25 @@
         <v>1.28</v>
       </c>
       <c r="AN152">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AO152">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ152">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.14</v>
       </c>
       <c r="AS152">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT152">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -32649,7 +32658,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32721,25 +32730,25 @@
         <v>1.5</v>
       </c>
       <c r="AN153">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AO153">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="AP153">
+        <v>1.61</v>
+      </c>
+      <c r="AQ153">
+        <v>1.48</v>
+      </c>
+      <c r="AR153">
         <v>1.62</v>
       </c>
-      <c r="AQ153">
-        <v>2.07</v>
-      </c>
-      <c r="AR153">
-        <v>1.57</v>
-      </c>
       <c r="AS153">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AT153">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="AU153">
         <v>6</v>
@@ -32855,7 +32864,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32927,25 +32936,25 @@
         <v>1.52</v>
       </c>
       <c r="AN154">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AO154">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ154">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR154">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AS154">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AT154">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33133,25 +33142,25 @@
         <v>1.35</v>
       </c>
       <c r="AN155">
-        <v>0.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO155">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="AP155">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR155">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS155">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT155">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33339,25 +33348,25 @@
         <v>1.53</v>
       </c>
       <c r="AN156">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AO156">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ156">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR156">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AS156">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AT156">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU156">
         <v>10</v>
@@ -33473,7 +33482,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33545,25 +33554,25 @@
         <v>1.46</v>
       </c>
       <c r="AN157">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AO157">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AP157">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR157">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS157">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AT157">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="AU157">
         <v>2</v>
@@ -33751,25 +33760,25 @@
         <v>1.62</v>
       </c>
       <c r="AN158">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AO158">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP158">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ158">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AS158">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT158">
-        <v>3.03</v>
+        <v>2.95</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -33957,25 +33966,25 @@
         <v>2.05</v>
       </c>
       <c r="AN159">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO159">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR159">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AS159">
         <v>1.14</v>
       </c>
       <c r="AT159">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34091,7 +34100,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34163,25 +34172,25 @@
         <v>1.75</v>
       </c>
       <c r="AN160">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AO160">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ160">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR160">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AS160">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT160">
-        <v>2.94</v>
+        <v>2.77</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34369,25 +34378,25 @@
         <v>1.38</v>
       </c>
       <c r="AN161">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO161">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR161">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS161">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT161">
-        <v>3.06</v>
+        <v>3.01</v>
       </c>
       <c r="AU161">
         <v>3</v>
@@ -34575,25 +34584,25 @@
         <v>1.57</v>
       </c>
       <c r="AN162">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="AO162">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ162">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR162">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AS162">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT162">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34781,25 +34790,25 @@
         <v>1.68</v>
       </c>
       <c r="AN163">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AO163">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ163">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR163">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AT163">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="AU163">
         <v>7</v>
@@ -34987,25 +34996,25 @@
         <v>1.59</v>
       </c>
       <c r="AN164">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ164">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR164">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AS164">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AT164">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU164">
         <v>4</v>
@@ -35193,25 +35202,25 @@
         <v>1.78</v>
       </c>
       <c r="AN165">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AO165">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP165">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ165">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AR165">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AS165">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35327,7 +35336,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35399,25 +35408,25 @@
         <v>1.63</v>
       </c>
       <c r="AN166">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AO166">
+        <v>1.4</v>
+      </c>
+      <c r="AP166">
+        <v>1.55</v>
+      </c>
+      <c r="AQ166">
         <v>1.5</v>
       </c>
-      <c r="AP166">
-        <v>1.71</v>
-      </c>
-      <c r="AQ166">
-        <v>1.57</v>
-      </c>
       <c r="AR166">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AS166">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT166">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU166">
         <v>3</v>
@@ -35533,7 +35542,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35605,25 +35614,25 @@
         <v>1.27</v>
       </c>
       <c r="AN167">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="AO167">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AP167">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ167">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR167">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AS167">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AT167">
-        <v>3.03</v>
+        <v>3.09</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35811,25 +35820,25 @@
         <v>1.45</v>
       </c>
       <c r="AN168">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AO168">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ168">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
       </c>
       <c r="AS168">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT168">
-        <v>3.19</v>
+        <v>3.32</v>
       </c>
       <c r="AU168">
         <v>3</v>
@@ -35945,7 +35954,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36017,25 +36026,25 @@
         <v>1.82</v>
       </c>
       <c r="AN169">
-        <v>0.5</v>
+        <v>1.16</v>
       </c>
       <c r="AO169">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR169">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT169">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AU169">
         <v>7</v>
@@ -36151,7 +36160,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36223,25 +36232,25 @@
         <v>1.24</v>
       </c>
       <c r="AN170">
+        <v>1.36</v>
+      </c>
+      <c r="AO170">
+        <v>1.54</v>
+      </c>
+      <c r="AP170">
         <v>1.25</v>
       </c>
-      <c r="AO170">
-        <v>1.46</v>
-      </c>
-      <c r="AP170">
-        <v>1.14</v>
-      </c>
       <c r="AQ170">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AR170">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AS170">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AT170">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="AU170">
         <v>6</v>
@@ -36357,7 +36366,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36429,25 +36438,25 @@
         <v>2.2</v>
       </c>
       <c r="AN171">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AO171">
-        <v>1.77</v>
+        <v>1.12</v>
       </c>
       <c r="AP171">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR171">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AS171">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT171">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU171">
         <v>6</v>
@@ -36635,25 +36644,25 @@
         <v>1.14</v>
       </c>
       <c r="AN172">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AO172">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AP172">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AQ172">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR172">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS172">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT172">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="AU172">
         <v>0</v>
@@ -36841,25 +36850,25 @@
         <v>1.95</v>
       </c>
       <c r="AN173">
-        <v>0.77</v>
+        <v>1.38</v>
       </c>
       <c r="AO173">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AP173">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AQ173">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR173">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AS173">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AT173">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -36975,7 +36984,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37047,22 +37056,22 @@
         <v>1.39</v>
       </c>
       <c r="AN174">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AO174">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ174">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR174">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AS174">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT174">
         <v>2.84</v>
@@ -37253,25 +37262,25 @@
         <v>1.65</v>
       </c>
       <c r="AN175">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AP175">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ175">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AR175">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AS175">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AT175">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37387,7 +37396,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37459,22 +37468,22 @@
         <v>1.35</v>
       </c>
       <c r="AN176">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AO176">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AP176">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AQ176">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AR176">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS176">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AT176">
         <v>2.86</v>
@@ -37593,7 +37602,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q177">
         <v>2.15</v>
@@ -37665,25 +37674,25 @@
         <v>2.2</v>
       </c>
       <c r="AN177">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="AO177">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ177">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR177">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AS177">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT177">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -37799,7 +37808,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -37871,25 +37880,25 @@
         <v>2.3</v>
       </c>
       <c r="AN178">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AO178">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="AP178">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AQ178">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="AR178">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AS178">
         <v>1.32</v>
       </c>
       <c r="AT178">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38005,7 +38014,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38077,25 +38086,25 @@
         <v>1.48</v>
       </c>
       <c r="AN179">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AO179">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AP179">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AQ179">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AS179">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT179">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38211,7 +38220,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38283,25 +38292,25 @@
         <v>1.41</v>
       </c>
       <c r="AN180">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AO180">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AQ180">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="AR180">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT180">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38417,7 +38426,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38489,25 +38498,25 @@
         <v>1.27</v>
       </c>
       <c r="AN181">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AO181">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AQ181">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR181">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS181">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT181">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38623,7 +38632,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="Q182">
         <v>2.9</v>
@@ -38695,25 +38704,25 @@
         <v>1.6</v>
       </c>
       <c r="AN182">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO182">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AP182">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AQ182">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR182">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AT182">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="AU182">
         <v>10</v>
@@ -38901,25 +38910,25 @@
         <v>2.5</v>
       </c>
       <c r="AN183">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO183">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP183">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ183">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AR183">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="AS183">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AT183">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="AU183">
         <v>3</v>
@@ -39107,25 +39116,25 @@
         <v>1.4</v>
       </c>
       <c r="AN184">
-        <v>0.46</v>
+        <v>1.18</v>
       </c>
       <c r="AO184">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AP184">
-        <v>0.64</v>
+        <v>1.24</v>
       </c>
       <c r="AQ184">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
+        <v>1.33</v>
+      </c>
+      <c r="AS184">
         <v>1.32</v>
       </c>
-      <c r="AS184">
-        <v>1.34</v>
-      </c>
       <c r="AT184">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="AU184">
         <v>3</v>
@@ -39192,6 +39201,624 @@
       </c>
       <c r="BP184">
         <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7332541</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45557.1875</v>
+      </c>
+      <c r="F185">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>205</v>
+      </c>
+      <c r="P185" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q185">
+        <v>2.85</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>3.75</v>
+      </c>
+      <c r="T185">
+        <v>1.45</v>
+      </c>
+      <c r="U185">
+        <v>2.55</v>
+      </c>
+      <c r="V185">
+        <v>3</v>
+      </c>
+      <c r="W185">
+        <v>1.35</v>
+      </c>
+      <c r="X185">
+        <v>8.75</v>
+      </c>
+      <c r="Y185">
+        <v>1.07</v>
+      </c>
+      <c r="Z185">
+        <v>2.24</v>
+      </c>
+      <c r="AA185">
+        <v>3.25</v>
+      </c>
+      <c r="AB185">
+        <v>3.15</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>9.75</v>
+      </c>
+      <c r="AE185">
+        <v>1.32</v>
+      </c>
+      <c r="AF185">
+        <v>3.05</v>
+      </c>
+      <c r="AG185">
+        <v>2</v>
+      </c>
+      <c r="AH185">
+        <v>1.76</v>
+      </c>
+      <c r="AI185">
+        <v>1.83</v>
+      </c>
+      <c r="AJ185">
+        <v>1.83</v>
+      </c>
+      <c r="AK185">
+        <v>1.32</v>
+      </c>
+      <c r="AL185">
+        <v>1.28</v>
+      </c>
+      <c r="AM185">
+        <v>1.6</v>
+      </c>
+      <c r="AN185">
+        <v>1.44</v>
+      </c>
+      <c r="AO185">
+        <v>1.39</v>
+      </c>
+      <c r="AP185">
+        <v>1.5</v>
+      </c>
+      <c r="AQ185">
+        <v>1.34</v>
+      </c>
+      <c r="AR185">
+        <v>1.38</v>
+      </c>
+      <c r="AS185">
+        <v>1.27</v>
+      </c>
+      <c r="AT185">
+        <v>2.65</v>
+      </c>
+      <c r="AU185">
+        <v>11</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>4</v>
+      </c>
+      <c r="AX185">
+        <v>3</v>
+      </c>
+      <c r="AY185">
+        <v>15</v>
+      </c>
+      <c r="AZ185">
+        <v>8</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>4</v>
+      </c>
+      <c r="BC185">
+        <v>9</v>
+      </c>
+      <c r="BD185">
+        <v>1.87</v>
+      </c>
+      <c r="BE185">
+        <v>5.75</v>
+      </c>
+      <c r="BF185">
+        <v>2.44</v>
+      </c>
+      <c r="BG185">
+        <v>1.75</v>
+      </c>
+      <c r="BH185">
+        <v>2.04</v>
+      </c>
+      <c r="BI185">
+        <v>2</v>
+      </c>
+      <c r="BJ185">
+        <v>1.8</v>
+      </c>
+      <c r="BK185">
+        <v>2.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.37</v>
+      </c>
+      <c r="BM185">
+        <v>4</v>
+      </c>
+      <c r="BN185">
+        <v>1.2</v>
+      </c>
+      <c r="BO185">
+        <v>5.8</v>
+      </c>
+      <c r="BP185">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7332542</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45557.1875</v>
+      </c>
+      <c r="F186">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>206</v>
+      </c>
+      <c r="P186" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q186">
+        <v>4</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
+        <v>2.6</v>
+      </c>
+      <c r="T186">
+        <v>1.33</v>
+      </c>
+      <c r="U186">
+        <v>3.25</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>3.5</v>
+      </c>
+      <c r="AA186">
+        <v>3.65</v>
+      </c>
+      <c r="AB186">
+        <v>1.96</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>14</v>
+      </c>
+      <c r="AE186">
+        <v>1.23</v>
+      </c>
+      <c r="AF186">
+        <v>3.8</v>
+      </c>
+      <c r="AG186">
+        <v>1.78</v>
+      </c>
+      <c r="AH186">
+        <v>1.97</v>
+      </c>
+      <c r="AI186">
+        <v>1.67</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.78</v>
+      </c>
+      <c r="AL186">
+        <v>1.24</v>
+      </c>
+      <c r="AM186">
+        <v>1.28</v>
+      </c>
+      <c r="AN186">
+        <v>0.85</v>
+      </c>
+      <c r="AO186">
+        <v>1.46</v>
+      </c>
+      <c r="AP186">
+        <v>0.82</v>
+      </c>
+      <c r="AQ186">
+        <v>1.52</v>
+      </c>
+      <c r="AR186">
+        <v>1.44</v>
+      </c>
+      <c r="AS186">
+        <v>1.72</v>
+      </c>
+      <c r="AT186">
+        <v>3.16</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>7</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>16</v>
+      </c>
+      <c r="AY186">
+        <v>4</v>
+      </c>
+      <c r="AZ186">
+        <v>23</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>7</v>
+      </c>
+      <c r="BD186">
+        <v>2.4</v>
+      </c>
+      <c r="BE186">
+        <v>6.2</v>
+      </c>
+      <c r="BF186">
+        <v>1.85</v>
+      </c>
+      <c r="BG186">
+        <v>1.29</v>
+      </c>
+      <c r="BH186">
+        <v>3.3</v>
+      </c>
+      <c r="BI186">
+        <v>1.52</v>
+      </c>
+      <c r="BJ186">
+        <v>2.37</v>
+      </c>
+      <c r="BK186">
+        <v>1.86</v>
+      </c>
+      <c r="BL186">
+        <v>1.84</v>
+      </c>
+      <c r="BM186">
+        <v>2.35</v>
+      </c>
+      <c r="BN186">
+        <v>1.53</v>
+      </c>
+      <c r="BO186">
+        <v>3.1</v>
+      </c>
+      <c r="BP186">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7332543</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45557.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>207</v>
+      </c>
+      <c r="P187" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q187">
+        <v>2.6</v>
+      </c>
+      <c r="R187">
+        <v>2.3</v>
+      </c>
+      <c r="S187">
+        <v>3.75</v>
+      </c>
+      <c r="T187">
+        <v>1.32</v>
+      </c>
+      <c r="U187">
+        <v>3.1</v>
+      </c>
+      <c r="V187">
+        <v>2.45</v>
+      </c>
+      <c r="W187">
+        <v>1.5</v>
+      </c>
+      <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.12</v>
+      </c>
+      <c r="Z187">
+        <v>1.95</v>
+      </c>
+      <c r="AA187">
+        <v>3.4</v>
+      </c>
+      <c r="AB187">
+        <v>3.2</v>
+      </c>
+      <c r="AC187">
+        <v>1.03</v>
+      </c>
+      <c r="AD187">
+        <v>16</v>
+      </c>
+      <c r="AE187">
+        <v>1.2</v>
+      </c>
+      <c r="AF187">
+        <v>4.1</v>
+      </c>
+      <c r="AG187">
+        <v>1.68</v>
+      </c>
+      <c r="AH187">
+        <v>2.05</v>
+      </c>
+      <c r="AI187">
+        <v>1.62</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>1.75</v>
+      </c>
+      <c r="AN187">
+        <v>1.5</v>
+      </c>
+      <c r="AO187">
+        <v>0.89</v>
+      </c>
+      <c r="AP187">
+        <v>1.48</v>
+      </c>
+      <c r="AQ187">
+        <v>0.9</v>
+      </c>
+      <c r="AR187">
+        <v>1.65</v>
+      </c>
+      <c r="AS187">
+        <v>1.6</v>
+      </c>
+      <c r="AT187">
+        <v>3.25</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>10</v>
+      </c>
+      <c r="AX187">
+        <v>7</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>6</v>
+      </c>
+      <c r="BC187">
+        <v>13</v>
+      </c>
+      <c r="BD187">
+        <v>1.49</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>3.35</v>
+      </c>
+      <c r="BG187">
+        <v>1.37</v>
+      </c>
+      <c r="BH187">
+        <v>2.85</v>
+      </c>
+      <c r="BI187">
+        <v>1.66</v>
+      </c>
+      <c r="BJ187">
+        <v>2.2</v>
+      </c>
+      <c r="BK187">
+        <v>2.08</v>
+      </c>
+      <c r="BL187">
+        <v>1.74</v>
+      </c>
+      <c r="BM187">
+        <v>2.6</v>
+      </c>
+      <c r="BN187">
+        <v>1.43</v>
+      </c>
+      <c r="BO187">
+        <v>3.5</v>
+      </c>
+      <c r="BP187">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,15 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['86', '89']</t>
+  </si>
+  <si>
+    <t>['23', '45', '84']</t>
+  </si>
+  <si>
+    <t>['7', '57', '61']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
@@ -932,6 +941,12 @@
   </si>
   <si>
     <t>['70', '90+2']</t>
+  </si>
+  <si>
+    <t>['40', '45+1']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1630,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
         <v>0.9</v>
@@ -1836,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1964,7 +1979,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2042,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ5">
         <v>1.48</v>
@@ -2376,7 +2391,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2454,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,7 +2597,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2660,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ7">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2788,7 +2803,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2869,7 +2884,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR8">
         <v>2.44</v>
@@ -3075,7 +3090,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ9">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>1.03</v>
@@ -3278,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>1.6</v>
+      </c>
+      <c r="AQ10">
         <v>1.55</v>
-      </c>
-      <c r="AQ10">
-        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>2.05</v>
@@ -3406,7 +3421,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3484,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ11">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR11">
         <v>1.83</v>
@@ -3612,7 +3627,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3690,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR12">
         <v>1.68</v>
@@ -3818,7 +3833,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -3896,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ13">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR13">
         <v>1.67</v>
@@ -4102,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4308,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR15">
         <v>2.31</v>
@@ -4436,7 +4451,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4517,7 +4532,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR16">
         <v>2.17</v>
@@ -4720,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ17">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>2.24</v>
@@ -4848,7 +4863,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -4926,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>1.86</v>
@@ -5054,7 +5069,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5132,10 +5147,10 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ19">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR19">
         <v>1.14</v>
@@ -5338,10 +5353,10 @@
         <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
         <v>1.63</v>
@@ -5466,7 +5481,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5544,10 +5559,10 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ21">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.43</v>
@@ -5672,7 +5687,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5750,10 +5765,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ22">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR22">
         <v>1.48</v>
@@ -5956,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23">
         <v>0.9</v>
@@ -6165,7 +6180,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ24">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.33</v>
@@ -6368,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ25">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR25">
         <v>1.55</v>
@@ -6574,10 +6589,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR26">
         <v>1.47</v>
@@ -6702,7 +6717,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6780,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6986,10 +7001,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ28">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.6</v>
@@ -7114,7 +7129,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7192,7 +7207,7 @@
         <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
         <v>0.9</v>
@@ -7320,7 +7335,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7398,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30">
         <v>1.48</v>
@@ -7526,7 +7541,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7604,10 +7619,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ31">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR31">
         <v>1.45</v>
@@ -7732,7 +7747,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7810,7 +7825,7 @@
         <v>2.25</v>
       </c>
       <c r="AP32">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ32">
         <v>1.48</v>
@@ -8016,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ33">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.37</v>
@@ -8144,7 +8159,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8222,10 +8237,10 @@
         <v>1.4</v>
       </c>
       <c r="AP34">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ34">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8428,10 +8443,10 @@
         <v>1.75</v>
       </c>
       <c r="AP35">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR35">
         <v>1.4</v>
@@ -8634,10 +8649,10 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ36">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -8762,7 +8777,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8840,10 +8855,10 @@
         <v>1.2</v>
       </c>
       <c r="AP37">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9049,7 +9064,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9174,7 +9189,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9252,10 +9267,10 @@
         <v>2.6</v>
       </c>
       <c r="AP39">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
         <v>2.21</v>
@@ -9458,10 +9473,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR40">
         <v>1.73</v>
@@ -9667,7 +9682,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ41">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR41">
         <v>1.61</v>
@@ -9792,7 +9807,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -9870,10 +9885,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9998,7 +10013,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10076,10 +10091,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.88</v>
@@ -10204,7 +10219,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10282,10 +10297,10 @@
         <v>1.29</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ44">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10410,7 +10425,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10488,10 +10503,10 @@
         <v>1.29</v>
       </c>
       <c r="AP45">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
         <v>1.44</v>
@@ -10616,7 +10631,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10694,10 +10709,10 @@
         <v>2.14</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR46">
         <v>1.48</v>
@@ -10822,7 +10837,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10900,10 +10915,10 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ47">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -11109,7 +11124,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR48">
         <v>1.97</v>
@@ -11312,7 +11327,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>1.48</v>
@@ -11518,10 +11533,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.62</v>
@@ -11646,7 +11661,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11724,10 +11739,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ51">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -11852,7 +11867,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11930,10 +11945,10 @@
         <v>1.14</v>
       </c>
       <c r="AP52">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12058,7 +12073,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12136,7 +12151,7 @@
         <v>1.14</v>
       </c>
       <c r="AP53">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
         <v>0.9</v>
@@ -12264,7 +12279,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12345,7 +12360,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ54">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12548,10 +12563,10 @@
         <v>1.14</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12676,7 +12691,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12754,10 +12769,10 @@
         <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12882,7 +12897,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12960,10 +12975,10 @@
         <v>2.38</v>
       </c>
       <c r="AP57">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13088,7 +13103,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13166,10 +13181,10 @@
         <v>2.11</v>
       </c>
       <c r="AP58">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ58">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR58">
         <v>1.41</v>
@@ -13294,7 +13309,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13578,10 +13593,10 @@
         <v>0.88</v>
       </c>
       <c r="AP60">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13784,10 +13799,10 @@
         <v>1.44</v>
       </c>
       <c r="AP61">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR61">
         <v>1.61</v>
@@ -13912,7 +13927,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -13990,10 +14005,10 @@
         <v>1.1</v>
       </c>
       <c r="AP62">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ62">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
         <v>2.04</v>
@@ -14118,7 +14133,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14196,10 +14211,10 @@
         <v>0.78</v>
       </c>
       <c r="AP63">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.94</v>
@@ -14324,7 +14339,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14402,10 +14417,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ64">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14530,7 +14545,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14611,7 +14626,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR65">
         <v>1.89</v>
@@ -14814,10 +14829,10 @@
         <v>1.22</v>
       </c>
       <c r="AP66">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14942,7 +14957,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15020,7 +15035,7 @@
         <v>1.22</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ67">
         <v>1.48</v>
@@ -15226,10 +15241,10 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ68">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15435,7 +15450,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ69">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15560,7 +15575,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15638,10 +15653,10 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -15844,7 +15859,7 @@
         <v>1.2</v>
       </c>
       <c r="AP71">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
         <v>0.9</v>
@@ -16050,10 +16065,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ72">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR72">
         <v>1.37</v>
@@ -16178,7 +16193,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16256,10 +16271,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -16462,10 +16477,10 @@
         <v>1.36</v>
       </c>
       <c r="AP74">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16590,7 +16605,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16668,10 +16683,10 @@
         <v>1.18</v>
       </c>
       <c r="AP75">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16796,7 +16811,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16874,7 +16889,7 @@
         <v>1.55</v>
       </c>
       <c r="AP76">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ76">
         <v>1.48</v>
@@ -17080,10 +17095,10 @@
         <v>1.45</v>
       </c>
       <c r="AP77">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ77">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17286,10 +17301,10 @@
         <v>2.18</v>
       </c>
       <c r="AP78">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>1.36</v>
@@ -17414,7 +17429,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17495,7 +17510,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17701,7 +17716,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17904,10 +17919,10 @@
         <v>1.58</v>
       </c>
       <c r="AP81">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -18032,7 +18047,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18110,10 +18125,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR82">
         <v>1.58</v>
@@ -18238,7 +18253,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18316,10 +18331,10 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.94</v>
@@ -18522,10 +18537,10 @@
         <v>1.08</v>
       </c>
       <c r="AP84">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR84">
         <v>1.16</v>
@@ -18731,7 +18746,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18856,7 +18871,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18934,10 +18949,10 @@
         <v>1.46</v>
       </c>
       <c r="AP86">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19140,7 +19155,7 @@
         <v>1.15</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19268,7 +19283,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19346,7 +19361,7 @@
         <v>1.62</v>
       </c>
       <c r="AP88">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ88">
         <v>1.48</v>
@@ -19474,7 +19489,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19552,10 +19567,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ89">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -19758,10 +19773,10 @@
         <v>1.31</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ90">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -19964,10 +19979,10 @@
         <v>1.46</v>
       </c>
       <c r="AP91">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ91">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20092,7 +20107,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20170,7 +20185,7 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>1.48</v>
@@ -20298,7 +20313,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20376,7 +20391,7 @@
         <v>1.07</v>
       </c>
       <c r="AP93">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ93">
         <v>0.9</v>
@@ -20582,10 +20597,10 @@
         <v>0.93</v>
       </c>
       <c r="AP94">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ94">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR94">
         <v>1.15</v>
@@ -20788,10 +20803,10 @@
         <v>1.36</v>
       </c>
       <c r="AP95">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ95">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -20994,10 +21009,10 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21122,7 +21137,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21200,10 +21215,10 @@
         <v>1.21</v>
       </c>
       <c r="AP97">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR97">
         <v>1.34</v>
@@ -21409,7 +21424,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR98">
         <v>1.76</v>
@@ -21534,7 +21549,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21615,7 +21630,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR99">
         <v>1.56</v>
@@ -21740,7 +21755,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21818,10 +21833,10 @@
         <v>2.14</v>
       </c>
       <c r="AP100">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ100">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -22024,10 +22039,10 @@
         <v>0.87</v>
       </c>
       <c r="AP101">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22230,10 +22245,10 @@
         <v>1.07</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ102">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
         <v>1.34</v>
@@ -22436,10 +22451,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22642,7 +22657,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ104">
         <v>0.9</v>
@@ -22848,10 +22863,10 @@
         <v>1.19</v>
       </c>
       <c r="AP105">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR105">
         <v>1.7</v>
@@ -23054,10 +23069,10 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR106">
         <v>1.71</v>
@@ -23260,10 +23275,10 @@
         <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23388,7 +23403,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23466,10 +23481,10 @@
         <v>1.31</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR108">
         <v>1.4</v>
@@ -23594,7 +23609,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -23672,10 +23687,10 @@
         <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR109">
         <v>1.14</v>
@@ -23881,7 +23896,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ110">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR110">
         <v>1.66</v>
@@ -24006,7 +24021,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24087,7 +24102,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ111">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR111">
         <v>1.56</v>
@@ -24212,7 +24227,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24290,10 +24305,10 @@
         <v>1.41</v>
       </c>
       <c r="AP112">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24496,10 +24511,10 @@
         <v>1.41</v>
       </c>
       <c r="AP113">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR113">
         <v>1.2</v>
@@ -24624,7 +24639,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24702,10 +24717,10 @@
         <v>0.76</v>
       </c>
       <c r="AP114">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ114">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -24830,7 +24845,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24908,10 +24923,10 @@
         <v>1.31</v>
       </c>
       <c r="AP115">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25036,7 +25051,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25114,10 +25129,10 @@
         <v>1.11</v>
       </c>
       <c r="AP116">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.21</v>
@@ -25242,7 +25257,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25320,10 +25335,10 @@
         <v>1.06</v>
       </c>
       <c r="AP117">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR117">
         <v>1.8</v>
@@ -25448,7 +25463,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25526,10 +25541,10 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ118">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR118">
         <v>1.4</v>
@@ -25654,7 +25669,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25732,10 +25747,10 @@
         <v>0.89</v>
       </c>
       <c r="AP119">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR119">
         <v>1.72</v>
@@ -25860,7 +25875,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26144,10 +26159,10 @@
         <v>1.47</v>
       </c>
       <c r="AP121">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26272,7 +26287,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26350,10 +26365,10 @@
         <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR122">
         <v>1.22</v>
@@ -26478,7 +26493,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26556,10 +26571,10 @@
         <v>1.33</v>
       </c>
       <c r="AP123">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26684,7 +26699,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26762,10 +26777,10 @@
         <v>1.39</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ124">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR124">
         <v>1.34</v>
@@ -26890,7 +26905,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26968,7 +26983,7 @@
         <v>1.78</v>
       </c>
       <c r="AP125">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ125">
         <v>1.48</v>
@@ -27174,10 +27189,10 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ126">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR126">
         <v>1.66</v>
@@ -27302,7 +27317,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27380,7 +27395,7 @@
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
         <v>0.9</v>
@@ -27508,7 +27523,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27589,7 +27604,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ128">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR128">
         <v>1.52</v>
@@ -27792,10 +27807,10 @@
         <v>0.85</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ129">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -27920,7 +27935,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -27998,10 +28013,10 @@
         <v>1.37</v>
       </c>
       <c r="AP130">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
@@ -28204,10 +28219,10 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.39</v>
@@ -28332,7 +28347,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28410,10 +28425,10 @@
         <v>1.21</v>
       </c>
       <c r="AP132">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ132">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR132">
         <v>1.68</v>
@@ -28616,10 +28631,10 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ133">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
@@ -28744,7 +28759,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28825,7 +28840,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ134">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -28950,7 +28965,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29031,7 +29046,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR135">
         <v>1.66</v>
@@ -29234,10 +29249,10 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR136">
         <v>1.78</v>
@@ -29362,7 +29377,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29440,10 +29455,10 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR137">
         <v>1.26</v>
@@ -29646,10 +29661,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29774,7 +29789,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29852,10 +29867,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ139">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR139">
         <v>1.57</v>
@@ -29980,7 +29995,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30058,7 +30073,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30186,7 +30201,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30264,10 +30279,10 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ141">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30392,7 +30407,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30470,7 +30485,7 @@
         <v>1.81</v>
       </c>
       <c r="AP142">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ142">
         <v>1.48</v>
@@ -30598,7 +30613,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30676,10 +30691,10 @@
         <v>1.48</v>
       </c>
       <c r="AP143">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR143">
         <v>1.26</v>
@@ -30804,7 +30819,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -30882,10 +30897,10 @@
         <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ144">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31010,7 +31025,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31088,10 +31103,10 @@
         <v>2.05</v>
       </c>
       <c r="AP145">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ145">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR145">
         <v>1.13</v>
@@ -31294,10 +31309,10 @@
         <v>1.61</v>
       </c>
       <c r="AP146">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ146">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR146">
         <v>1.66</v>
@@ -31500,10 +31515,10 @@
         <v>1.32</v>
       </c>
       <c r="AP147">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR147">
         <v>1.47</v>
@@ -31628,7 +31643,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31709,7 +31724,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ148">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR148">
         <v>1.54</v>
@@ -31834,7 +31849,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -31915,7 +31930,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ149">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>1.62</v>
@@ -32040,7 +32055,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32118,10 +32133,10 @@
         <v>1.32</v>
       </c>
       <c r="AP150">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR150">
         <v>1.73</v>
@@ -32246,7 +32261,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32324,10 +32339,10 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32530,10 +32545,10 @@
         <v>1.39</v>
       </c>
       <c r="AP152">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR152">
         <v>1.14</v>
@@ -32658,7 +32673,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32736,10 +32751,10 @@
         <v>1.39</v>
       </c>
       <c r="AP153">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ153">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR153">
         <v>1.62</v>
@@ -32864,7 +32879,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32942,7 +32957,7 @@
         <v>0.96</v>
       </c>
       <c r="AP154">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ154">
         <v>0.9</v>
@@ -33148,7 +33163,7 @@
         <v>1.83</v>
       </c>
       <c r="AP155">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
         <v>1.48</v>
@@ -33354,10 +33369,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -33482,7 +33497,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33560,10 +33575,10 @@
         <v>0.87</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ157">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
         <v>1.32</v>
@@ -33769,7 +33784,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -33972,10 +33987,10 @@
         <v>0.96</v>
       </c>
       <c r="AP159">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR159">
         <v>1.27</v>
@@ -34100,7 +34115,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34178,10 +34193,10 @@
         <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ160">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34384,10 +34399,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ161">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR161">
         <v>1.39</v>
@@ -34590,10 +34605,10 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ162">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34796,7 +34811,7 @@
         <v>1.75</v>
       </c>
       <c r="AP163">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ163">
         <v>1.48</v>
@@ -35208,10 +35223,10 @@
         <v>1.4</v>
       </c>
       <c r="AP165">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ165">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35336,7 +35351,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35414,10 +35429,10 @@
         <v>1.4</v>
       </c>
       <c r="AP166">
+        <v>1.6</v>
+      </c>
+      <c r="AQ166">
         <v>1.55</v>
-      </c>
-      <c r="AQ166">
-        <v>1.5</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35542,7 +35557,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35620,10 +35635,10 @@
         <v>1.92</v>
       </c>
       <c r="AP167">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ167">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -35826,10 +35841,10 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AQ168">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -35954,7 +35969,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36032,10 +36047,10 @@
         <v>0.92</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -36160,7 +36175,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36238,10 +36253,10 @@
         <v>1.54</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36366,7 +36381,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36444,10 +36459,10 @@
         <v>1.12</v>
       </c>
       <c r="AP171">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ171">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR171">
         <v>1.62</v>
@@ -36650,10 +36665,10 @@
         <v>1.58</v>
       </c>
       <c r="AP172">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AQ172">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR172">
         <v>1.14</v>
@@ -36856,10 +36871,10 @@
         <v>0.88</v>
       </c>
       <c r="AP173">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ173">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AR173">
         <v>1.64</v>
@@ -36984,7 +36999,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37062,7 +37077,7 @@
         <v>1.65</v>
       </c>
       <c r="AP174">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
         <v>1.48</v>
@@ -37268,7 +37283,7 @@
         <v>0.96</v>
       </c>
       <c r="AP175">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ175">
         <v>0.9</v>
@@ -37396,7 +37411,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37474,10 +37489,10 @@
         <v>1.56</v>
       </c>
       <c r="AP176">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ176">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AR176">
         <v>1.31</v>
@@ -37602,7 +37617,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q177">
         <v>2.15</v>
@@ -37680,10 +37695,10 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ177">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37808,7 +37823,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -37886,10 +37901,10 @@
         <v>1.11</v>
       </c>
       <c r="AP178">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AR178">
         <v>1.72</v>
@@ -38014,7 +38029,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38095,7 +38110,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR179">
         <v>1.62</v>
@@ -38220,7 +38235,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38301,7 +38316,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ180">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR180">
         <v>1.55</v>
@@ -38426,7 +38441,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38504,10 +38519,10 @@
         <v>1.85</v>
       </c>
       <c r="AP181">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AQ181">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR181">
         <v>1.28</v>
@@ -38710,7 +38725,7 @@
         <v>1.54</v>
       </c>
       <c r="AP182">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ182">
         <v>1.48</v>
@@ -38916,10 +38931,10 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AQ183">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AR183">
         <v>1.61</v>
@@ -39122,10 +39137,10 @@
         <v>1.3</v>
       </c>
       <c r="AP184">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AR184">
         <v>1.33</v>
@@ -39328,10 +39343,10 @@
         <v>1.39</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ185">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39456,7 +39471,7 @@
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>4</v>
@@ -39534,10 +39549,10 @@
         <v>1.46</v>
       </c>
       <c r="AP186">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AQ186">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39662,7 +39677,7 @@
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q187">
         <v>2.6</v>
@@ -39740,7 +39755,7 @@
         <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ187">
         <v>0.9</v>
@@ -39819,6 +39834,1242 @@
       </c>
       <c r="BP187">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7332544</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45559.3125</v>
+      </c>
+      <c r="F188">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>78</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>208</v>
+      </c>
+      <c r="P188" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q188">
+        <v>2.35</v>
+      </c>
+      <c r="R188">
+        <v>2.1</v>
+      </c>
+      <c r="S188">
+        <v>4.5</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.75</v>
+      </c>
+      <c r="V188">
+        <v>2.88</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>6.1</v>
+      </c>
+      <c r="Y188">
+        <v>1.09</v>
+      </c>
+      <c r="Z188">
+        <v>1.85</v>
+      </c>
+      <c r="AA188">
+        <v>3.65</v>
+      </c>
+      <c r="AB188">
+        <v>3.9</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.3</v>
+      </c>
+      <c r="AF188">
+        <v>3.35</v>
+      </c>
+      <c r="AG188">
+        <v>1.92</v>
+      </c>
+      <c r="AH188">
+        <v>1.9</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.15</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>2</v>
+      </c>
+      <c r="AN188">
+        <v>1.55</v>
+      </c>
+      <c r="AO188">
+        <v>1.24</v>
+      </c>
+      <c r="AP188">
+        <v>1.6</v>
+      </c>
+      <c r="AQ188">
+        <v>1.2</v>
+      </c>
+      <c r="AR188">
+        <v>1.47</v>
+      </c>
+      <c r="AS188">
+        <v>1.32</v>
+      </c>
+      <c r="AT188">
+        <v>2.79</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>8</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>12</v>
+      </c>
+      <c r="AZ188">
+        <v>5</v>
+      </c>
+      <c r="BA188">
+        <v>3</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>5</v>
+      </c>
+      <c r="BD188">
+        <v>1.42</v>
+      </c>
+      <c r="BE188">
+        <v>6.8</v>
+      </c>
+      <c r="BF188">
+        <v>3.75</v>
+      </c>
+      <c r="BG188">
+        <v>1.38</v>
+      </c>
+      <c r="BH188">
+        <v>2.8</v>
+      </c>
+      <c r="BI188">
+        <v>1.73</v>
+      </c>
+      <c r="BJ188">
+        <v>1.99</v>
+      </c>
+      <c r="BK188">
+        <v>2.23</v>
+      </c>
+      <c r="BL188">
+        <v>1.58</v>
+      </c>
+      <c r="BM188">
+        <v>3.05</v>
+      </c>
+      <c r="BN188">
+        <v>1.33</v>
+      </c>
+      <c r="BO188">
+        <v>0</v>
+      </c>
+      <c r="BP188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7332545</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45559.3125</v>
+      </c>
+      <c r="F189">
+        <v>32</v>
+      </c>
+      <c r="G189" t="s">
+        <v>79</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>168</v>
+      </c>
+      <c r="P189" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q189">
+        <v>3.1</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>3.3</v>
+      </c>
+      <c r="T189">
+        <v>1.42</v>
+      </c>
+      <c r="U189">
+        <v>2.65</v>
+      </c>
+      <c r="V189">
+        <v>2.8</v>
+      </c>
+      <c r="W189">
+        <v>1.38</v>
+      </c>
+      <c r="X189">
+        <v>6.8</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.5</v>
+      </c>
+      <c r="AA189">
+        <v>3.4</v>
+      </c>
+      <c r="AB189">
+        <v>2.7</v>
+      </c>
+      <c r="AC189">
+        <v>1.06</v>
+      </c>
+      <c r="AD189">
+        <v>8</v>
+      </c>
+      <c r="AE189">
+        <v>1.33</v>
+      </c>
+      <c r="AF189">
+        <v>3.2</v>
+      </c>
+      <c r="AG189">
+        <v>1.89</v>
+      </c>
+      <c r="AH189">
+        <v>1.94</v>
+      </c>
+      <c r="AI189">
+        <v>1.7</v>
+      </c>
+      <c r="AJ189">
+        <v>1.95</v>
+      </c>
+      <c r="AK189">
+        <v>1.42</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>1.61</v>
+      </c>
+      <c r="AO189">
+        <v>1.93</v>
+      </c>
+      <c r="AP189">
+        <v>1.66</v>
+      </c>
+      <c r="AQ189">
+        <v>1.86</v>
+      </c>
+      <c r="AR189">
+        <v>1.54</v>
+      </c>
+      <c r="AS189">
+        <v>1.58</v>
+      </c>
+      <c r="AT189">
+        <v>3.12</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>4</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>6</v>
+      </c>
+      <c r="AZ189">
+        <v>6</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>8</v>
+      </c>
+      <c r="BC189">
+        <v>10</v>
+      </c>
+      <c r="BD189">
+        <v>1.68</v>
+      </c>
+      <c r="BE189">
+        <v>6.3</v>
+      </c>
+      <c r="BF189">
+        <v>2.75</v>
+      </c>
+      <c r="BG189">
+        <v>1.39</v>
+      </c>
+      <c r="BH189">
+        <v>2.77</v>
+      </c>
+      <c r="BI189">
+        <v>1.73</v>
+      </c>
+      <c r="BJ189">
+        <v>1.99</v>
+      </c>
+      <c r="BK189">
+        <v>2.23</v>
+      </c>
+      <c r="BL189">
+        <v>1.58</v>
+      </c>
+      <c r="BM189">
+        <v>3</v>
+      </c>
+      <c r="BN189">
+        <v>1.34</v>
+      </c>
+      <c r="BO189">
+        <v>3.8</v>
+      </c>
+      <c r="BP189">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7332546</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45559.3125</v>
+      </c>
+      <c r="F190">
+        <v>32</v>
+      </c>
+      <c r="G190" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" t="s">
+        <v>73</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>4</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>209</v>
+      </c>
+      <c r="P190" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q190">
+        <v>3.8</v>
+      </c>
+      <c r="R190">
+        <v>1.93</v>
+      </c>
+      <c r="S190">
+        <v>2.95</v>
+      </c>
+      <c r="T190">
+        <v>1.5</v>
+      </c>
+      <c r="U190">
+        <v>2.4</v>
+      </c>
+      <c r="V190">
+        <v>3.25</v>
+      </c>
+      <c r="W190">
+        <v>1.3</v>
+      </c>
+      <c r="X190">
+        <v>8.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.04</v>
+      </c>
+      <c r="Z190">
+        <v>3.1</v>
+      </c>
+      <c r="AA190">
+        <v>3.2</v>
+      </c>
+      <c r="AB190">
+        <v>2.3</v>
+      </c>
+      <c r="AC190">
+        <v>1.08</v>
+      </c>
+      <c r="AD190">
+        <v>7</v>
+      </c>
+      <c r="AE190">
+        <v>1.42</v>
+      </c>
+      <c r="AF190">
+        <v>2.75</v>
+      </c>
+      <c r="AG190">
+        <v>2.12</v>
+      </c>
+      <c r="AH190">
+        <v>1.67</v>
+      </c>
+      <c r="AI190">
+        <v>1.85</v>
+      </c>
+      <c r="AJ190">
+        <v>1.77</v>
+      </c>
+      <c r="AK190">
+        <v>1.6</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.33</v>
+      </c>
+      <c r="AN190">
+        <v>0.97</v>
+      </c>
+      <c r="AO190">
+        <v>1.25</v>
+      </c>
+      <c r="AP190">
+        <v>1.03</v>
+      </c>
+      <c r="AQ190">
+        <v>1.21</v>
+      </c>
+      <c r="AR190">
+        <v>1.18</v>
+      </c>
+      <c r="AS190">
+        <v>1.32</v>
+      </c>
+      <c r="AT190">
+        <v>2.5</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>9</v>
+      </c>
+      <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
+        <v>3</v>
+      </c>
+      <c r="BD190">
+        <v>2.19</v>
+      </c>
+      <c r="BE190">
+        <v>5.85</v>
+      </c>
+      <c r="BF190">
+        <v>2.04</v>
+      </c>
+      <c r="BG190">
+        <v>1.57</v>
+      </c>
+      <c r="BH190">
+        <v>2.08</v>
+      </c>
+      <c r="BI190">
+        <v>2.05</v>
+      </c>
+      <c r="BJ190">
+        <v>1.65</v>
+      </c>
+      <c r="BK190">
+        <v>2.73</v>
+      </c>
+      <c r="BL190">
+        <v>1.33</v>
+      </c>
+      <c r="BM190">
+        <v>3.88</v>
+      </c>
+      <c r="BN190">
+        <v>1.16</v>
+      </c>
+      <c r="BO190">
+        <v>5.1</v>
+      </c>
+      <c r="BP190">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7332548</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45560.3125</v>
+      </c>
+      <c r="F191">
+        <v>32</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>82</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>151</v>
+      </c>
+      <c r="P191" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q191">
+        <v>2.95</v>
+      </c>
+      <c r="R191">
+        <v>2.05</v>
+      </c>
+      <c r="S191">
+        <v>3.35</v>
+      </c>
+      <c r="T191">
+        <v>1.38</v>
+      </c>
+      <c r="U191">
+        <v>2.8</v>
+      </c>
+      <c r="V191">
+        <v>2.75</v>
+      </c>
+      <c r="W191">
+        <v>1.4</v>
+      </c>
+      <c r="X191">
+        <v>6.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>2.2</v>
+      </c>
+      <c r="AA191">
+        <v>3.2</v>
+      </c>
+      <c r="AB191">
+        <v>2.8</v>
+      </c>
+      <c r="AC191">
+        <v>1.05</v>
+      </c>
+      <c r="AD191">
+        <v>8.5</v>
+      </c>
+      <c r="AE191">
+        <v>1.28</v>
+      </c>
+      <c r="AF191">
+        <v>3.4</v>
+      </c>
+      <c r="AG191">
+        <v>1.8</v>
+      </c>
+      <c r="AH191">
+        <v>1.83</v>
+      </c>
+      <c r="AI191">
+        <v>1.65</v>
+      </c>
+      <c r="AJ191">
+        <v>2.05</v>
+      </c>
+      <c r="AK191">
+        <v>1.4</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.57</v>
+      </c>
+      <c r="AN191">
+        <v>0.9</v>
+      </c>
+      <c r="AO191">
+        <v>1.34</v>
+      </c>
+      <c r="AP191">
+        <v>0.9</v>
+      </c>
+      <c r="AQ191">
+        <v>1.33</v>
+      </c>
+      <c r="AR191">
+        <v>1.58</v>
+      </c>
+      <c r="AS191">
+        <v>1.27</v>
+      </c>
+      <c r="AT191">
+        <v>2.85</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>11</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>16</v>
+      </c>
+      <c r="BA191">
+        <v>4</v>
+      </c>
+      <c r="BB191">
+        <v>6</v>
+      </c>
+      <c r="BC191">
+        <v>10</v>
+      </c>
+      <c r="BD191">
+        <v>1.82</v>
+      </c>
+      <c r="BE191">
+        <v>5.95</v>
+      </c>
+      <c r="BF191">
+        <v>2.5</v>
+      </c>
+      <c r="BG191">
+        <v>1.61</v>
+      </c>
+      <c r="BH191">
+        <v>2.27</v>
+      </c>
+      <c r="BI191">
+        <v>2.03</v>
+      </c>
+      <c r="BJ191">
+        <v>1.76</v>
+      </c>
+      <c r="BK191">
+        <v>2.58</v>
+      </c>
+      <c r="BL191">
+        <v>1.37</v>
+      </c>
+      <c r="BM191">
+        <v>3.62</v>
+      </c>
+      <c r="BN191">
+        <v>1.19</v>
+      </c>
+      <c r="BO191">
+        <v>0</v>
+      </c>
+      <c r="BP191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7332549</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45560.3125</v>
+      </c>
+      <c r="F192">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192" t="s">
+        <v>81</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q192">
+        <v>2.79</v>
+      </c>
+      <c r="R192">
+        <v>2.27</v>
+      </c>
+      <c r="S192">
+        <v>3.82</v>
+      </c>
+      <c r="T192">
+        <v>1.35</v>
+      </c>
+      <c r="U192">
+        <v>3.08</v>
+      </c>
+      <c r="V192">
+        <v>2.77</v>
+      </c>
+      <c r="W192">
+        <v>1.42</v>
+      </c>
+      <c r="X192">
+        <v>6.7</v>
+      </c>
+      <c r="Y192">
+        <v>1.09</v>
+      </c>
+      <c r="Z192">
+        <v>2.05</v>
+      </c>
+      <c r="AA192">
+        <v>3.25</v>
+      </c>
+      <c r="AB192">
+        <v>3</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>9</v>
+      </c>
+      <c r="AE192">
+        <v>1.22</v>
+      </c>
+      <c r="AF192">
+        <v>3.35</v>
+      </c>
+      <c r="AG192">
+        <v>1.8</v>
+      </c>
+      <c r="AH192">
+        <v>1.85</v>
+      </c>
+      <c r="AI192">
+        <v>1.66</v>
+      </c>
+      <c r="AJ192">
+        <v>2.04</v>
+      </c>
+      <c r="AK192">
+        <v>1.31</v>
+      </c>
+      <c r="AL192">
+        <v>1.27</v>
+      </c>
+      <c r="AM192">
+        <v>1.64</v>
+      </c>
+      <c r="AN192">
+        <v>1.5</v>
+      </c>
+      <c r="AO192">
+        <v>0.82</v>
+      </c>
+      <c r="AP192">
+        <v>1.55</v>
+      </c>
+      <c r="AQ192">
+        <v>0.79</v>
+      </c>
+      <c r="AR192">
+        <v>1.4</v>
+      </c>
+      <c r="AS192">
+        <v>1.42</v>
+      </c>
+      <c r="AT192">
+        <v>2.82</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>2</v>
+      </c>
+      <c r="AW192">
+        <v>12</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>18</v>
+      </c>
+      <c r="AZ192">
+        <v>7</v>
+      </c>
+      <c r="BA192">
+        <v>4</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>5</v>
+      </c>
+      <c r="BD192">
+        <v>1.67</v>
+      </c>
+      <c r="BE192">
+        <v>7.8</v>
+      </c>
+      <c r="BF192">
+        <v>2.55</v>
+      </c>
+      <c r="BG192">
+        <v>1.36</v>
+      </c>
+      <c r="BH192">
+        <v>2.61</v>
+      </c>
+      <c r="BI192">
+        <v>1.71</v>
+      </c>
+      <c r="BJ192">
+        <v>2.11</v>
+      </c>
+      <c r="BK192">
+        <v>2.17</v>
+      </c>
+      <c r="BL192">
+        <v>1.68</v>
+      </c>
+      <c r="BM192">
+        <v>2.88</v>
+      </c>
+      <c r="BN192">
+        <v>1.3</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7332547</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45560.3125</v>
+      </c>
+      <c r="F193">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>88</v>
+      </c>
+      <c r="P193" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.16</v>
+      </c>
+      <c r="S193">
+        <v>3.6</v>
+      </c>
+      <c r="T193">
+        <v>1.35</v>
+      </c>
+      <c r="U193">
+        <v>2.88</v>
+      </c>
+      <c r="V193">
+        <v>2.62</v>
+      </c>
+      <c r="W193">
+        <v>1.45</v>
+      </c>
+      <c r="X193">
+        <v>6.4</v>
+      </c>
+      <c r="Y193">
+        <v>1.09</v>
+      </c>
+      <c r="Z193">
+        <v>2.05</v>
+      </c>
+      <c r="AA193">
+        <v>3.3</v>
+      </c>
+      <c r="AB193">
+        <v>3</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>8.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.25</v>
+      </c>
+      <c r="AF193">
+        <v>3.6</v>
+      </c>
+      <c r="AG193">
+        <v>1.75</v>
+      </c>
+      <c r="AH193">
+        <v>1.93</v>
+      </c>
+      <c r="AI193">
+        <v>1.65</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>1.33</v>
+      </c>
+      <c r="AL193">
+        <v>1.26</v>
+      </c>
+      <c r="AM193">
+        <v>1.7</v>
+      </c>
+      <c r="AN193">
+        <v>1.52</v>
+      </c>
+      <c r="AO193">
+        <v>1.48</v>
+      </c>
+      <c r="AP193">
+        <v>1.47</v>
+      </c>
+      <c r="AQ193">
+        <v>1.53</v>
+      </c>
+      <c r="AR193">
+        <v>1.75</v>
+      </c>
+      <c r="AS193">
+        <v>1.66</v>
+      </c>
+      <c r="AT193">
+        <v>3.41</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>11</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>13</v>
+      </c>
+      <c r="AZ193">
+        <v>7</v>
+      </c>
+      <c r="BA193">
+        <v>8</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>1.62</v>
+      </c>
+      <c r="BE193">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF193">
+        <v>2.64</v>
+      </c>
+      <c r="BG193">
+        <v>1.23</v>
+      </c>
+      <c r="BH193">
+        <v>3.28</v>
+      </c>
+      <c r="BI193">
+        <v>1.53</v>
+      </c>
+      <c r="BJ193">
+        <v>2.46</v>
+      </c>
+      <c r="BK193">
+        <v>1.88</v>
+      </c>
+      <c r="BL193">
+        <v>1.91</v>
+      </c>
+      <c r="BM193">
+        <v>2.39</v>
+      </c>
+      <c r="BN193">
+        <v>1.56</v>
+      </c>
+      <c r="BO193">
+        <v>3.08</v>
+      </c>
+      <c r="BP193">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -948,6 +948,9 @@
   <si>
     <t>['20']</t>
   </si>
+  <si>
+    <t>['48']</t>
+  </si>
 </sst>
 </file>
 
@@ -1308,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>0.79</v>
@@ -2472,7 +2475,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3293,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ10">
         <v>1.55</v>
@@ -4532,7 +4535,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR16">
         <v>2.17</v>
@@ -4944,7 +4947,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>1.86</v>
@@ -5353,7 +5356,7 @@
         <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ20">
         <v>1.21</v>
@@ -5768,7 +5771,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ22">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>1.48</v>
@@ -6589,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>1.03</v>
@@ -6795,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ27">
         <v>0.79</v>
@@ -8443,7 +8446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>1.55</v>
@@ -8652,7 +8655,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR36">
         <v>1.09</v>
@@ -9270,7 +9273,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>2.21</v>
@@ -9885,7 +9888,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -10709,7 +10712,7 @@
         <v>2.14</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
         <v>1.47</v>
@@ -11327,7 +11330,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ49">
         <v>1.48</v>
@@ -11536,7 +11539,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR50">
         <v>1.62</v>
@@ -12360,7 +12363,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12975,10 +12978,10 @@
         <v>2.38</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -14008,7 +14011,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR62">
         <v>2.04</v>
@@ -14829,7 +14832,7 @@
         <v>1.22</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -15653,7 +15656,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15859,7 +15862,7 @@
         <v>1.2</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
         <v>0.9</v>
@@ -17304,7 +17307,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.36</v>
@@ -17919,7 +17922,7 @@
         <v>1.58</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ81">
         <v>1.47</v>
@@ -19361,7 +19364,7 @@
         <v>1.62</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ88">
         <v>1.48</v>
@@ -19776,7 +19779,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR90">
         <v>1.43</v>
@@ -21009,7 +21012,7 @@
         <v>1.43</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
         <v>1.21</v>
@@ -21218,7 +21221,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ97">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR97">
         <v>1.34</v>
@@ -21836,7 +21839,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ100">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -22451,7 +22454,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
         <v>1.53</v>
@@ -22657,7 +22660,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104">
         <v>0.9</v>
@@ -23069,7 +23072,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ106">
         <v>1.66</v>
@@ -23896,7 +23899,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ110">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR110">
         <v>1.66</v>
@@ -24308,7 +24311,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -25544,7 +25547,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ118">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR118">
         <v>1.4</v>
@@ -26159,7 +26162,7 @@
         <v>1.47</v>
       </c>
       <c r="AP121">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ121">
         <v>1.66</v>
@@ -26368,7 +26371,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR122">
         <v>1.22</v>
@@ -27189,7 +27192,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126">
         <v>1.2</v>
@@ -27604,7 +27607,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ128">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR128">
         <v>1.52</v>
@@ -28425,7 +28428,7 @@
         <v>1.21</v>
       </c>
       <c r="AP132">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
         <v>1.53</v>
@@ -29458,7 +29461,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR137">
         <v>1.26</v>
@@ -29661,7 +29664,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ138">
         <v>1.03</v>
@@ -30900,7 +30903,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ144">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31106,7 +31109,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ145">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR145">
         <v>1.13</v>
@@ -31309,10 +31312,10 @@
         <v>1.61</v>
       </c>
       <c r="AP146">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR146">
         <v>1.66</v>
@@ -33372,7 +33375,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR156">
         <v>1.72</v>
@@ -34605,7 +34608,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ162">
         <v>1.53</v>
@@ -35429,7 +35432,7 @@
         <v>1.4</v>
       </c>
       <c r="AP166">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ166">
         <v>1.55</v>
@@ -35638,7 +35641,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ167">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR167">
         <v>1.46</v>
@@ -36459,7 +36462,7 @@
         <v>1.12</v>
       </c>
       <c r="AP171">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ171">
         <v>1.2</v>
@@ -37283,7 +37286,7 @@
         <v>0.96</v>
       </c>
       <c r="AP175">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ175">
         <v>0.9</v>
@@ -37695,7 +37698,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
         <v>1.03</v>
@@ -38522,7 +38525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ181">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR181">
         <v>1.28</v>
@@ -38725,7 +38728,7 @@
         <v>1.54</v>
       </c>
       <c r="AP182">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ182">
         <v>1.48</v>
@@ -38931,7 +38934,7 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ183">
         <v>1.03</v>
@@ -39961,7 +39964,7 @@
         <v>1.24</v>
       </c>
       <c r="AP188">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ188">
         <v>1.2</v>
@@ -40170,7 +40173,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ189">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -41070,6 +41073,212 @@
       </c>
       <c r="BP193">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7332550</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45563.1875</v>
+      </c>
+      <c r="F194">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>78</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>88</v>
+      </c>
+      <c r="P194" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q194">
+        <v>2.69</v>
+      </c>
+      <c r="R194">
+        <v>2.02</v>
+      </c>
+      <c r="S194">
+        <v>4.21</v>
+      </c>
+      <c r="T194">
+        <v>1.44</v>
+      </c>
+      <c r="U194">
+        <v>2.66</v>
+      </c>
+      <c r="V194">
+        <v>3.04</v>
+      </c>
+      <c r="W194">
+        <v>1.35</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>2.13</v>
+      </c>
+      <c r="AA194">
+        <v>3.28</v>
+      </c>
+      <c r="AB194">
+        <v>3.18</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>7.4</v>
+      </c>
+      <c r="AE194">
+        <v>1.33</v>
+      </c>
+      <c r="AF194">
+        <v>3</v>
+      </c>
+      <c r="AG194">
+        <v>2.05</v>
+      </c>
+      <c r="AH194">
+        <v>1.68</v>
+      </c>
+      <c r="AI194">
+        <v>1.88</v>
+      </c>
+      <c r="AJ194">
+        <v>1.83</v>
+      </c>
+      <c r="AK194">
+        <v>1.28</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.63</v>
+      </c>
+      <c r="AN194">
+        <v>1.86</v>
+      </c>
+      <c r="AO194">
+        <v>1.6</v>
+      </c>
+      <c r="AP194">
+        <v>1.8</v>
+      </c>
+      <c r="AQ194">
+        <v>1.65</v>
+      </c>
+      <c r="AR194">
+        <v>1.56</v>
+      </c>
+      <c r="AS194">
+        <v>1.49</v>
+      </c>
+      <c r="AT194">
+        <v>3.05</v>
+      </c>
+      <c r="AU194">
+        <v>2</v>
+      </c>
+      <c r="AV194">
+        <v>2</v>
+      </c>
+      <c r="AW194">
+        <v>10</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>12</v>
+      </c>
+      <c r="AZ194">
+        <v>7</v>
+      </c>
+      <c r="BA194">
+        <v>9</v>
+      </c>
+      <c r="BB194">
+        <v>2</v>
+      </c>
+      <c r="BC194">
+        <v>11</v>
+      </c>
+      <c r="BD194">
+        <v>1.55</v>
+      </c>
+      <c r="BE194">
+        <v>7.8</v>
+      </c>
+      <c r="BF194">
+        <v>2.91</v>
+      </c>
+      <c r="BG194">
+        <v>1.45</v>
+      </c>
+      <c r="BH194">
+        <v>2.55</v>
+      </c>
+      <c r="BI194">
+        <v>1.85</v>
+      </c>
+      <c r="BJ194">
+        <v>1.95</v>
+      </c>
+      <c r="BK194">
+        <v>2.45</v>
+      </c>
+      <c r="BL194">
+        <v>1.49</v>
+      </c>
+      <c r="BM194">
+        <v>3.6</v>
+      </c>
+      <c r="BN194">
+        <v>1.19</v>
+      </c>
+      <c r="BO194">
+        <v>4.3</v>
+      </c>
+      <c r="BP194">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,10 +634,10 @@
     <t>['69', '90+3']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['44']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['86', '89']</t>
@@ -649,13 +649,13 @@
     <t>['7', '57', '61']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['36', '83']</t>
   </si>
   <si>
     <t>['17', '83', '90+10']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['5', '90+5', '90+8']</t>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['6', '13', '23', '64', '75']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1573,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.9</v>
@@ -1857,7 +1860,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,7 +1985,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.48</v>
@@ -2394,7 +2397,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>2.5</v>
@@ -2472,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
         <v>1.65</v>
@@ -2678,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ7">
         <v>1.66</v>
@@ -2887,7 +2890,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR8">
         <v>2.44</v>
@@ -3505,7 +3508,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ11">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR11">
         <v>1.83</v>
@@ -3711,7 +3714,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>1.68</v>
@@ -3914,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.67</v>
@@ -4123,7 +4126,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4738,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4944,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>1.8</v>
@@ -5150,10 +5153,10 @@
         <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR19">
         <v>1.14</v>
@@ -5359,7 +5362,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ20">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1.63</v>
@@ -5562,7 +5565,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -6386,10 +6389,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
         <v>1.55</v>
@@ -6595,7 +6598,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.47</v>
@@ -6801,7 +6804,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ27">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7416,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30">
         <v>1.48</v>
@@ -7622,10 +7625,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR31">
         <v>1.45</v>
@@ -7828,7 +7831,7 @@
         <v>2.25</v>
       </c>
       <c r="AP32">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ32">
         <v>1.48</v>
@@ -8034,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -8240,7 +8243,7 @@
         <v>1.4</v>
       </c>
       <c r="AP34">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34">
         <v>1.66</v>
@@ -8652,7 +8655,7 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.65</v>
@@ -8861,7 +8864,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9067,7 +9070,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9270,7 +9273,7 @@
         <v>2.6</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -9479,7 +9482,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.73</v>
@@ -9685,7 +9688,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ41">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.61</v>
@@ -10094,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10303,7 +10306,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ44">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10506,10 +10509,10 @@
         <v>1.29</v>
       </c>
       <c r="AP45">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.44</v>
@@ -10715,7 +10718,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR46">
         <v>1.48</v>
@@ -10918,7 +10921,7 @@
         <v>0.83</v>
       </c>
       <c r="AP47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -11742,10 +11745,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ51">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>2.16</v>
@@ -12154,7 +12157,7 @@
         <v>1.14</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53">
         <v>0.9</v>
@@ -12566,7 +12569,7 @@
         <v>1.14</v>
       </c>
       <c r="AP55">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
         <v>1.55</v>
@@ -13184,10 +13187,10 @@
         <v>2.11</v>
       </c>
       <c r="AP58">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR58">
         <v>1.41</v>
@@ -13599,7 +13602,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13805,7 +13808,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ61">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.61</v>
@@ -14008,7 +14011,7 @@
         <v>1.1</v>
       </c>
       <c r="AP62">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ62">
         <v>1.65</v>
@@ -14214,7 +14217,7 @@
         <v>0.78</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -14420,7 +14423,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.66</v>
@@ -14629,7 +14632,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.89</v>
@@ -15247,7 +15250,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ68">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15453,7 +15456,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ69">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -16068,10 +16071,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
         <v>1.37</v>
@@ -16480,10 +16483,10 @@
         <v>1.36</v>
       </c>
       <c r="AP74">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16686,7 +16689,7 @@
         <v>1.18</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
         <v>1.55</v>
@@ -17098,10 +17101,10 @@
         <v>1.45</v>
       </c>
       <c r="AP77">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17719,7 +17722,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ80">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.55</v>
@@ -17925,7 +17928,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ81">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -18334,7 +18337,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18543,7 +18546,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.16</v>
@@ -18749,7 +18752,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18952,7 +18955,7 @@
         <v>1.46</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ86">
         <v>1.66</v>
@@ -19158,7 +19161,7 @@
         <v>1.15</v>
       </c>
       <c r="AP87">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
         <v>0.9</v>
@@ -19570,7 +19573,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ89">
         <v>1.2</v>
@@ -19982,10 +19985,10 @@
         <v>1.46</v>
       </c>
       <c r="AP91">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20600,10 +20603,10 @@
         <v>0.93</v>
       </c>
       <c r="AP94">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR94">
         <v>1.15</v>
@@ -20806,10 +20809,10 @@
         <v>1.36</v>
       </c>
       <c r="AP95">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ95">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR95">
         <v>1.93</v>
@@ -21015,7 +21018,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21427,7 +21430,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR98">
         <v>1.76</v>
@@ -21836,7 +21839,7 @@
         <v>2.14</v>
       </c>
       <c r="AP100">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ100">
         <v>1.8</v>
@@ -22045,7 +22048,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.19</v>
@@ -22248,7 +22251,7 @@
         <v>1.07</v>
       </c>
       <c r="AP102">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ102">
         <v>1.2</v>
@@ -22457,7 +22460,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR103">
         <v>1.56</v>
@@ -22866,10 +22869,10 @@
         <v>1.19</v>
       </c>
       <c r="AP105">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ105">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR105">
         <v>1.7</v>
@@ -23281,7 +23284,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23487,7 +23490,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ108">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR108">
         <v>1.4</v>
@@ -23690,7 +23693,7 @@
         <v>1.06</v>
       </c>
       <c r="AP109">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.2</v>
@@ -24105,7 +24108,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ111">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR111">
         <v>1.56</v>
@@ -24308,7 +24311,7 @@
         <v>1.41</v>
       </c>
       <c r="AP112">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ112">
         <v>1.65</v>
@@ -24517,7 +24520,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.2</v>
@@ -24723,7 +24726,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ114">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -25338,10 +25341,10 @@
         <v>1.06</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ117">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR117">
         <v>1.8</v>
@@ -25750,10 +25753,10 @@
         <v>0.89</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ119">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.72</v>
@@ -26574,7 +26577,7 @@
         <v>1.33</v>
       </c>
       <c r="AP123">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ123">
         <v>1.55</v>
@@ -26780,7 +26783,7 @@
         <v>1.39</v>
       </c>
       <c r="AP124">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124">
         <v>1.66</v>
@@ -26986,7 +26989,7 @@
         <v>1.78</v>
       </c>
       <c r="AP125">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.48</v>
@@ -27398,7 +27401,7 @@
         <v>0.89</v>
       </c>
       <c r="AP127">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ127">
         <v>0.9</v>
@@ -27810,10 +27813,10 @@
         <v>0.85</v>
       </c>
       <c r="AP129">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -28019,7 +28022,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR130">
         <v>1.3</v>
@@ -28431,7 +28434,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR132">
         <v>1.68</v>
@@ -28637,7 +28640,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ133">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
         <v>1.6</v>
@@ -28843,7 +28846,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ134">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -29252,10 +29255,10 @@
         <v>1.4</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR136">
         <v>1.78</v>
@@ -29667,7 +29670,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ138">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -30076,7 +30079,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30285,7 +30288,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30488,7 +30491,7 @@
         <v>1.81</v>
       </c>
       <c r="AP142">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ142">
         <v>1.48</v>
@@ -30900,7 +30903,7 @@
         <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
         <v>1.65</v>
@@ -31106,7 +31109,7 @@
         <v>2.05</v>
       </c>
       <c r="AP145">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
         <v>1.8</v>
@@ -31440,7 +31443,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31518,7 +31521,7 @@
         <v>1.32</v>
       </c>
       <c r="AP147">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ147">
         <v>1.55</v>
@@ -32136,10 +32139,10 @@
         <v>1.32</v>
       </c>
       <c r="AP150">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ150">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.73</v>
@@ -32345,7 +32348,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32548,7 +32551,7 @@
         <v>1.39</v>
       </c>
       <c r="AP152">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>1.55</v>
@@ -32757,7 +32760,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ153">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR153">
         <v>1.62</v>
@@ -33372,7 +33375,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ156">
         <v>1.8</v>
@@ -33578,10 +33581,10 @@
         <v>0.87</v>
       </c>
       <c r="AP157">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR157">
         <v>1.32</v>
@@ -33787,7 +33790,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ158">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -33993,7 +33996,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ159">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.27</v>
@@ -34196,7 +34199,7 @@
         <v>1.17</v>
       </c>
       <c r="AP160">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ160">
         <v>1.2</v>
@@ -34611,7 +34614,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ162">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34814,7 +34817,7 @@
         <v>1.75</v>
       </c>
       <c r="AP163">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ163">
         <v>1.48</v>
@@ -35226,7 +35229,7 @@
         <v>1.4</v>
       </c>
       <c r="AP165">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ165">
         <v>1.33</v>
@@ -35638,7 +35641,7 @@
         <v>1.92</v>
       </c>
       <c r="AP167">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ167">
         <v>1.8</v>
@@ -35847,7 +35850,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ168">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -36053,7 +36056,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.33</v>
@@ -36256,10 +36259,10 @@
         <v>1.54</v>
       </c>
       <c r="AP170">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36668,7 +36671,7 @@
         <v>1.58</v>
       </c>
       <c r="AP172">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ172">
         <v>1.66</v>
@@ -36874,10 +36877,10 @@
         <v>0.88</v>
       </c>
       <c r="AP173">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ173">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR173">
         <v>1.64</v>
@@ -37492,7 +37495,7 @@
         <v>1.56</v>
       </c>
       <c r="AP176">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ176">
         <v>1.66</v>
@@ -37701,7 +37704,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ177">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37904,7 +37907,7 @@
         <v>1.11</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ178">
         <v>1.2</v>
@@ -38319,7 +38322,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ180">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR180">
         <v>1.55</v>
@@ -38650,7 +38653,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q182">
         <v>2.9</v>
@@ -38937,7 +38940,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ183">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.61</v>
@@ -39143,7 +39146,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ184">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR184">
         <v>1.33</v>
@@ -39235,7 +39238,7 @@
         <v>69</v>
       </c>
       <c r="E185" s="2">
-        <v>45557.1875</v>
+        <v>45556.875</v>
       </c>
       <c r="F185">
         <v>31</v>
@@ -39361,19 +39364,19 @@
         <v>2.65</v>
       </c>
       <c r="AU185">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV185">
         <v>5</v>
       </c>
       <c r="AW185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX185">
         <v>3</v>
       </c>
       <c r="AY185">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ185">
         <v>8</v>
@@ -39432,7 +39435,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7332542</v>
+        <v>7332543</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39441,16 +39444,16 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45557.1875</v>
+        <v>45556.875</v>
       </c>
       <c r="F186">
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H186" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -39465,172 +39468,172 @@
         <v>1</v>
       </c>
       <c r="M186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O186" t="s">
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="Q186">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R186">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S186">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="T186">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U186">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V186">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="W186">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X186">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y186">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z186">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA186">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AB186">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="AC186">
         <v>1.03</v>
       </c>
       <c r="AD186">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE186">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AF186">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AG186">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AH186">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AI186">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ186">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK186">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AL186">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM186">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="AN186">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO186">
-        <v>1.46</v>
+        <v>0.89</v>
       </c>
       <c r="AP186">
-        <v>0.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ186">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="AR186">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS186">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT186">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU186">
         <v>3</v>
       </c>
       <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
         <v>7</v>
       </c>
-      <c r="AW186">
-        <v>1</v>
-      </c>
       <c r="AX186">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AY186">
+        <v>10</v>
+      </c>
+      <c r="AZ186">
         <v>4</v>
       </c>
-      <c r="AZ186">
-        <v>23</v>
-      </c>
       <c r="BA186">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB186">
         <v>6</v>
       </c>
       <c r="BC186">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD186">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="BE186">
-        <v>6.2</v>
+        <v>6.75</v>
       </c>
       <c r="BF186">
-        <v>1.85</v>
+        <v>3.35</v>
       </c>
       <c r="BG186">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BH186">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BI186">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BJ186">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="BK186">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BL186">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BM186">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BN186">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP186">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39638,7 +39641,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7332543</v>
+        <v>7332542</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39647,16 +39650,16 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45557.29166666666</v>
+        <v>45557.1875</v>
       </c>
       <c r="F187">
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -39671,172 +39674,172 @@
         <v>1</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O187" t="s">
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>2.25</v>
+      </c>
+      <c r="S187">
         <v>2.6</v>
       </c>
-      <c r="R187">
-        <v>2.3</v>
-      </c>
-      <c r="S187">
-        <v>3.75</v>
-      </c>
       <c r="T187">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U187">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V187">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="W187">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X187">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y187">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z187">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="AA187">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AB187">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="AC187">
         <v>1.03</v>
       </c>
       <c r="AD187">
+        <v>14</v>
+      </c>
+      <c r="AE187">
+        <v>1.23</v>
+      </c>
+      <c r="AF187">
+        <v>3.8</v>
+      </c>
+      <c r="AG187">
+        <v>1.78</v>
+      </c>
+      <c r="AH187">
+        <v>1.97</v>
+      </c>
+      <c r="AI187">
+        <v>1.67</v>
+      </c>
+      <c r="AJ187">
+        <v>2.1</v>
+      </c>
+      <c r="AK187">
+        <v>1.78</v>
+      </c>
+      <c r="AL187">
+        <v>1.24</v>
+      </c>
+      <c r="AM187">
+        <v>1.28</v>
+      </c>
+      <c r="AN187">
+        <v>0.85</v>
+      </c>
+      <c r="AO187">
+        <v>1.46</v>
+      </c>
+      <c r="AP187">
+        <v>0.8</v>
+      </c>
+      <c r="AQ187">
+        <v>1.45</v>
+      </c>
+      <c r="AR187">
+        <v>1.44</v>
+      </c>
+      <c r="AS187">
+        <v>1.72</v>
+      </c>
+      <c r="AT187">
+        <v>3.16</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
         <v>16</v>
       </c>
-      <c r="AE187">
-        <v>1.2</v>
-      </c>
-      <c r="AF187">
-        <v>4.1</v>
-      </c>
-      <c r="AG187">
-        <v>1.68</v>
-      </c>
-      <c r="AH187">
-        <v>2.05</v>
-      </c>
-      <c r="AI187">
-        <v>1.62</v>
-      </c>
-      <c r="AJ187">
-        <v>2.2</v>
-      </c>
-      <c r="AK187">
-        <v>1.33</v>
-      </c>
-      <c r="AL187">
-        <v>1.2</v>
-      </c>
-      <c r="AM187">
-        <v>1.75</v>
-      </c>
-      <c r="AN187">
-        <v>1.5</v>
-      </c>
-      <c r="AO187">
-        <v>0.89</v>
-      </c>
-      <c r="AP187">
-        <v>1.53</v>
-      </c>
-      <c r="AQ187">
-        <v>0.9</v>
-      </c>
-      <c r="AR187">
-        <v>1.65</v>
-      </c>
-      <c r="AS187">
-        <v>1.6</v>
-      </c>
-      <c r="AT187">
-        <v>3.25</v>
-      </c>
-      <c r="AU187">
-        <v>5</v>
-      </c>
-      <c r="AV187">
-        <v>2</v>
-      </c>
-      <c r="AW187">
-        <v>10</v>
-      </c>
-      <c r="AX187">
-        <v>7</v>
-      </c>
       <c r="AY187">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AZ187">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="BA187">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB187">
         <v>6</v>
       </c>
       <c r="BC187">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD187">
-        <v>1.49</v>
+        <v>2.4</v>
       </c>
       <c r="BE187">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="BF187">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="BG187">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BH187">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BI187">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BJ187">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="BK187">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BL187">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="BM187">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BN187">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BP187">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39844,7 +39847,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7332544</v>
+        <v>7332545</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39853,172 +39856,172 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45559.3125</v>
+        <v>45558.875</v>
       </c>
       <c r="F188">
         <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H188" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O188" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="P188" t="s">
         <v>88</v>
       </c>
       <c r="Q188">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="R188">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T188">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U188">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V188">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="W188">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X188">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="Y188">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z188">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="AA188">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AB188">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD188">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE188">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF188">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AG188">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AH188">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AI188">
+        <v>1.7</v>
+      </c>
+      <c r="AJ188">
+        <v>1.95</v>
+      </c>
+      <c r="AK188">
+        <v>1.42</v>
+      </c>
+      <c r="AL188">
+        <v>1.28</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>1.61</v>
+      </c>
+      <c r="AO188">
+        <v>1.93</v>
+      </c>
+      <c r="AP188">
+        <v>1.66</v>
+      </c>
+      <c r="AQ188">
         <v>1.8</v>
       </c>
-      <c r="AJ188">
-        <v>1.83</v>
-      </c>
-      <c r="AK188">
-        <v>1.15</v>
-      </c>
-      <c r="AL188">
-        <v>1.22</v>
-      </c>
-      <c r="AM188">
-        <v>2</v>
-      </c>
-      <c r="AN188">
-        <v>1.55</v>
-      </c>
-      <c r="AO188">
-        <v>1.24</v>
-      </c>
-      <c r="AP188">
-        <v>1.65</v>
-      </c>
-      <c r="AQ188">
-        <v>1.2</v>
-      </c>
       <c r="AR188">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS188">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AT188">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="AU188">
         <v>4</v>
       </c>
       <c r="AV188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW188">
+        <v>4</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
         <v>8</v>
-      </c>
-      <c r="AX188">
-        <v>3</v>
-      </c>
-      <c r="AY188">
-        <v>12</v>
       </c>
       <c r="AZ188">
         <v>5</v>
       </c>
       <c r="BA188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB188">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC188">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD188">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="BE188">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="BF188">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="BG188">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BH188">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="BI188">
         <v>1.73</v>
@@ -40033,16 +40036,16 @@
         <v>1.58</v>
       </c>
       <c r="BM188">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BN188">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BO188">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP188">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40050,7 +40053,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7332545</v>
+        <v>7332544</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40065,166 +40068,166 @@
         <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H189" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189">
         <v>0</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O189" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="P189" t="s">
         <v>88</v>
       </c>
       <c r="Q189">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S189">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>2.88</v>
+      </c>
+      <c r="W189">
+        <v>1.36</v>
+      </c>
+      <c r="X189">
+        <v>6.1</v>
+      </c>
+      <c r="Y189">
+        <v>1.09</v>
+      </c>
+      <c r="Z189">
+        <v>1.85</v>
+      </c>
+      <c r="AA189">
+        <v>3.65</v>
+      </c>
+      <c r="AB189">
+        <v>3.9</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>8.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.35</v>
+      </c>
+      <c r="AG189">
+        <v>1.92</v>
+      </c>
+      <c r="AH189">
+        <v>1.9</v>
+      </c>
+      <c r="AI189">
+        <v>1.8</v>
+      </c>
+      <c r="AJ189">
+        <v>1.83</v>
+      </c>
+      <c r="AK189">
+        <v>1.15</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>2</v>
+      </c>
+      <c r="AN189">
+        <v>1.55</v>
+      </c>
+      <c r="AO189">
+        <v>1.24</v>
+      </c>
+      <c r="AP189">
+        <v>1.65</v>
+      </c>
+      <c r="AQ189">
+        <v>1.2</v>
+      </c>
+      <c r="AR189">
+        <v>1.47</v>
+      </c>
+      <c r="AS189">
+        <v>1.32</v>
+      </c>
+      <c r="AT189">
+        <v>2.79</v>
+      </c>
+      <c r="AU189">
+        <v>4</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>8</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>12</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>5</v>
+      </c>
+      <c r="BD189">
         <v>1.42</v>
       </c>
-      <c r="U189">
-        <v>2.65</v>
-      </c>
-      <c r="V189">
+      <c r="BE189">
+        <v>6.8</v>
+      </c>
+      <c r="BF189">
+        <v>3.75</v>
+      </c>
+      <c r="BG189">
+        <v>1.38</v>
+      </c>
+      <c r="BH189">
         <v>2.8</v>
-      </c>
-      <c r="W189">
-        <v>1.38</v>
-      </c>
-      <c r="X189">
-        <v>6.8</v>
-      </c>
-      <c r="Y189">
-        <v>1.07</v>
-      </c>
-      <c r="Z189">
-        <v>2.5</v>
-      </c>
-      <c r="AA189">
-        <v>3.4</v>
-      </c>
-      <c r="AB189">
-        <v>2.7</v>
-      </c>
-      <c r="AC189">
-        <v>1.06</v>
-      </c>
-      <c r="AD189">
-        <v>8</v>
-      </c>
-      <c r="AE189">
-        <v>1.33</v>
-      </c>
-      <c r="AF189">
-        <v>3.2</v>
-      </c>
-      <c r="AG189">
-        <v>1.89</v>
-      </c>
-      <c r="AH189">
-        <v>1.94</v>
-      </c>
-      <c r="AI189">
-        <v>1.7</v>
-      </c>
-      <c r="AJ189">
-        <v>1.95</v>
-      </c>
-      <c r="AK189">
-        <v>1.42</v>
-      </c>
-      <c r="AL189">
-        <v>1.28</v>
-      </c>
-      <c r="AM189">
-        <v>1.5</v>
-      </c>
-      <c r="AN189">
-        <v>1.61</v>
-      </c>
-      <c r="AO189">
-        <v>1.93</v>
-      </c>
-      <c r="AP189">
-        <v>1.66</v>
-      </c>
-      <c r="AQ189">
-        <v>1.8</v>
-      </c>
-      <c r="AR189">
-        <v>1.54</v>
-      </c>
-      <c r="AS189">
-        <v>1.58</v>
-      </c>
-      <c r="AT189">
-        <v>3.12</v>
-      </c>
-      <c r="AU189">
-        <v>2</v>
-      </c>
-      <c r="AV189">
-        <v>2</v>
-      </c>
-      <c r="AW189">
-        <v>4</v>
-      </c>
-      <c r="AX189">
-        <v>4</v>
-      </c>
-      <c r="AY189">
-        <v>6</v>
-      </c>
-      <c r="AZ189">
-        <v>6</v>
-      </c>
-      <c r="BA189">
-        <v>2</v>
-      </c>
-      <c r="BB189">
-        <v>8</v>
-      </c>
-      <c r="BC189">
-        <v>10</v>
-      </c>
-      <c r="BD189">
-        <v>1.68</v>
-      </c>
-      <c r="BE189">
-        <v>6.3</v>
-      </c>
-      <c r="BF189">
-        <v>2.75</v>
-      </c>
-      <c r="BG189">
-        <v>1.39</v>
-      </c>
-      <c r="BH189">
-        <v>2.77</v>
       </c>
       <c r="BI189">
         <v>1.73</v>
@@ -40239,16 +40242,16 @@
         <v>1.58</v>
       </c>
       <c r="BM189">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BN189">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BO189">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP189">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40376,10 +40379,10 @@
         <v>1.25</v>
       </c>
       <c r="AP190">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR190">
         <v>1.18</v>
@@ -40588,13 +40591,13 @@
         <v>1.33</v>
       </c>
       <c r="AR191">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS191">
         <v>1.27</v>
       </c>
       <c r="AT191">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40791,16 +40794,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ192">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR192">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS192">
         <v>1.42</v>
       </c>
       <c r="AT192">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU192">
         <v>6</v>
@@ -40994,19 +40997,19 @@
         <v>1.48</v>
       </c>
       <c r="AP193">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ193">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR193">
         <v>1.75</v>
       </c>
       <c r="AS193">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="AU193">
         <v>2</v>
@@ -41279,6 +41282,624 @@
       </c>
       <c r="BP194">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7332551</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45563.29166666666</v>
+      </c>
+      <c r="F195">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>74</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>165</v>
+      </c>
+      <c r="P195" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q195">
+        <v>4</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>2.75</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>3.34</v>
+      </c>
+      <c r="AA195">
+        <v>3.44</v>
+      </c>
+      <c r="AB195">
+        <v>2</v>
+      </c>
+      <c r="AC195">
+        <v>1.03</v>
+      </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
+      <c r="AE195">
+        <v>1.3</v>
+      </c>
+      <c r="AF195">
+        <v>3.2</v>
+      </c>
+      <c r="AG195">
+        <v>1.95</v>
+      </c>
+      <c r="AH195">
+        <v>1.75</v>
+      </c>
+      <c r="AI195">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.91</v>
+      </c>
+      <c r="AK195">
+        <v>1.73</v>
+      </c>
+      <c r="AL195">
+        <v>1.3</v>
+      </c>
+      <c r="AM195">
+        <v>1.33</v>
+      </c>
+      <c r="AN195">
+        <v>0.9</v>
+      </c>
+      <c r="AO195">
+        <v>1.47</v>
+      </c>
+      <c r="AP195">
+        <v>0.9</v>
+      </c>
+      <c r="AQ195">
+        <v>1.45</v>
+      </c>
+      <c r="AR195">
+        <v>1.56</v>
+      </c>
+      <c r="AS195">
+        <v>1.75</v>
+      </c>
+      <c r="AT195">
+        <v>3.31</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>8</v>
+      </c>
+      <c r="AW195">
+        <v>2</v>
+      </c>
+      <c r="AX195">
+        <v>11</v>
+      </c>
+      <c r="AY195">
+        <v>6</v>
+      </c>
+      <c r="AZ195">
+        <v>19</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>2</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>0</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>1.58</v>
+      </c>
+      <c r="BJ195">
+        <v>2.31</v>
+      </c>
+      <c r="BK195">
+        <v>1.96</v>
+      </c>
+      <c r="BL195">
+        <v>1.83</v>
+      </c>
+      <c r="BM195">
+        <v>2.48</v>
+      </c>
+      <c r="BN195">
+        <v>1.51</v>
+      </c>
+      <c r="BO195">
+        <v>0</v>
+      </c>
+      <c r="BP195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7332552</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45564.1875</v>
+      </c>
+      <c r="F196">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>70</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>3</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>5</v>
+      </c>
+      <c r="N196">
+        <v>5</v>
+      </c>
+      <c r="O196" t="s">
+        <v>88</v>
+      </c>
+      <c r="P196" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q196">
+        <v>4.5</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>2.4</v>
+      </c>
+      <c r="T196">
+        <v>1.36</v>
+      </c>
+      <c r="U196">
+        <v>3</v>
+      </c>
+      <c r="V196">
+        <v>2.75</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>1.1</v>
+      </c>
+      <c r="Z196">
+        <v>3.6</v>
+      </c>
+      <c r="AA196">
+        <v>3.2</v>
+      </c>
+      <c r="AB196">
+        <v>1.91</v>
+      </c>
+      <c r="AC196">
+        <v>1.03</v>
+      </c>
+      <c r="AD196">
+        <v>9</v>
+      </c>
+      <c r="AE196">
+        <v>1.25</v>
+      </c>
+      <c r="AF196">
+        <v>3.6</v>
+      </c>
+      <c r="AG196">
+        <v>2.05</v>
+      </c>
+      <c r="AH196">
+        <v>1.61</v>
+      </c>
+      <c r="AI196">
+        <v>1.73</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>2</v>
+      </c>
+      <c r="AL196">
+        <v>1.29</v>
+      </c>
+      <c r="AM196">
+        <v>1.22</v>
+      </c>
+      <c r="AN196">
+        <v>1.03</v>
+      </c>
+      <c r="AO196">
+        <v>1.53</v>
+      </c>
+      <c r="AP196">
+        <v>1</v>
+      </c>
+      <c r="AQ196">
+        <v>1.58</v>
+      </c>
+      <c r="AR196">
+        <v>1.18</v>
+      </c>
+      <c r="AS196">
+        <v>1.62</v>
+      </c>
+      <c r="AT196">
+        <v>2.8</v>
+      </c>
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>9</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>11</v>
+      </c>
+      <c r="AZ196">
+        <v>12</v>
+      </c>
+      <c r="BA196">
+        <v>5</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>8</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>0</v>
+      </c>
+      <c r="BG196">
+        <v>1.49</v>
+      </c>
+      <c r="BH196">
+        <v>2.56</v>
+      </c>
+      <c r="BI196">
+        <v>1.83</v>
+      </c>
+      <c r="BJ196">
+        <v>1.96</v>
+      </c>
+      <c r="BK196">
+        <v>2.31</v>
+      </c>
+      <c r="BL196">
+        <v>1.59</v>
+      </c>
+      <c r="BM196">
+        <v>3.3</v>
+      </c>
+      <c r="BN196">
+        <v>1.3</v>
+      </c>
+      <c r="BO196">
+        <v>4.8</v>
+      </c>
+      <c r="BP196">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7332553</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45564.29166666666</v>
+      </c>
+      <c r="F197">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>73</v>
+      </c>
+      <c r="H197" t="s">
+        <v>81</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>211</v>
+      </c>
+      <c r="P197" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q197">
+        <v>3.1</v>
+      </c>
+      <c r="R197">
+        <v>1.91</v>
+      </c>
+      <c r="S197">
+        <v>3.6</v>
+      </c>
+      <c r="T197">
+        <v>1.5</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>3.4</v>
+      </c>
+      <c r="W197">
+        <v>1.3</v>
+      </c>
+      <c r="X197">
+        <v>10</v>
+      </c>
+      <c r="Y197">
+        <v>1.06</v>
+      </c>
+      <c r="Z197">
+        <v>2.37</v>
+      </c>
+      <c r="AA197">
+        <v>3</v>
+      </c>
+      <c r="AB197">
+        <v>2.75</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>7.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.36</v>
+      </c>
+      <c r="AF197">
+        <v>2.88</v>
+      </c>
+      <c r="AG197">
+        <v>2.15</v>
+      </c>
+      <c r="AH197">
+        <v>1.57</v>
+      </c>
+      <c r="AI197">
+        <v>1.91</v>
+      </c>
+      <c r="AJ197">
+        <v>1.8</v>
+      </c>
+      <c r="AK197">
+        <v>1.37</v>
+      </c>
+      <c r="AL197">
+        <v>1.31</v>
+      </c>
+      <c r="AM197">
+        <v>1.48</v>
+      </c>
+      <c r="AN197">
+        <v>1.21</v>
+      </c>
+      <c r="AO197">
+        <v>0.79</v>
+      </c>
+      <c r="AP197">
+        <v>1.2</v>
+      </c>
+      <c r="AQ197">
+        <v>0.8</v>
+      </c>
+      <c r="AR197">
+        <v>1.31</v>
+      </c>
+      <c r="AS197">
+        <v>1.39</v>
+      </c>
+      <c r="AT197">
+        <v>2.7</v>
+      </c>
+      <c r="AU197">
+        <v>3</v>
+      </c>
+      <c r="AV197">
+        <v>3</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>6</v>
+      </c>
+      <c r="AY197">
+        <v>6</v>
+      </c>
+      <c r="AZ197">
+        <v>9</v>
+      </c>
+      <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>5</v>
+      </c>
+      <c r="BD197">
+        <v>1.9</v>
+      </c>
+      <c r="BE197">
+        <v>6.7</v>
+      </c>
+      <c r="BF197">
+        <v>2.42</v>
+      </c>
+      <c r="BG197">
+        <v>1.49</v>
+      </c>
+      <c r="BH197">
+        <v>2.52</v>
+      </c>
+      <c r="BI197">
+        <v>2</v>
+      </c>
+      <c r="BJ197">
+        <v>1.8</v>
+      </c>
+      <c r="BK197">
+        <v>2.36</v>
+      </c>
+      <c r="BL197">
+        <v>1.56</v>
+      </c>
+      <c r="BM197">
+        <v>3.35</v>
+      </c>
+      <c r="BN197">
+        <v>1.3</v>
+      </c>
+      <c r="BO197">
+        <v>4.8</v>
+      </c>
+      <c r="BP197">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/South Korea K League 2_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,10 +634,10 @@
     <t>['69', '90+3']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['31']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['44']</t>
   </si>
   <si>
     <t>['86', '89']</t>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['48', '90+1', '90+4']</t>
   </si>
   <si>
     <t>['36', '83']</t>
@@ -953,6 +956,12 @@
   </si>
   <si>
     <t>['6', '13', '23', '64', '75']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['45+3', '51']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1582,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1985,7 +1994,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2063,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -2272,7 +2281,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2603,7 +2612,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2684,7 +2693,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ7">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2809,7 +2818,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -3093,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR9">
         <v>1.03</v>
@@ -3302,7 +3311,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ10">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>2.05</v>
@@ -3427,7 +3436,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>3.2</v>
@@ -3505,7 +3514,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>1.45</v>
@@ -3633,7 +3642,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3839,7 +3848,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>2.15</v>
@@ -4329,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>2.31</v>
@@ -4457,7 +4466,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>2.85</v>
@@ -4744,7 +4753,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR17">
         <v>2.24</v>
@@ -4869,7 +4878,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>3.2</v>
@@ -5075,7 +5084,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5487,7 +5496,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5568,7 +5577,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR21">
         <v>1.43</v>
@@ -5693,7 +5702,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5771,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>1.8</v>
@@ -5977,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.9</v>
@@ -6183,7 +6192,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6723,7 +6732,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -7007,10 +7016,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR28">
         <v>1.6</v>
@@ -7135,7 +7144,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>4.45</v>
@@ -7341,7 +7350,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>2.63</v>
@@ -7422,7 +7431,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ30">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR30">
         <v>2.34</v>
@@ -7547,7 +7556,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7753,7 +7762,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7834,7 +7843,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ32">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>1.85</v>
@@ -8040,7 +8049,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR33">
         <v>1.37</v>
@@ -8165,7 +8174,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8246,7 +8255,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ34">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8452,7 +8461,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.4</v>
@@ -8783,7 +8792,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -9195,7 +9204,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9479,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9685,7 +9694,7 @@
         <v>1.2</v>
       </c>
       <c r="AP41">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9813,7 +9822,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>2.4</v>
@@ -10019,7 +10028,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10100,7 +10109,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
         <v>1.88</v>
@@ -10225,7 +10234,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10303,7 +10312,7 @@
         <v>1.29</v>
       </c>
       <c r="AP44">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.58</v>
@@ -10431,7 +10440,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>3.4</v>
@@ -10637,7 +10646,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10843,7 +10852,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3.9</v>
@@ -10924,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -11130,7 +11139,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ48">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
         <v>1.97</v>
@@ -11336,7 +11345,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ49">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR49">
         <v>1.44</v>
@@ -11539,7 +11548,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>1.65</v>
@@ -11667,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11873,7 +11882,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.87</v>
@@ -11954,7 +11963,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12079,7 +12088,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>2.28</v>
@@ -12285,7 +12294,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>3.3</v>
@@ -12363,7 +12372,7 @@
         <v>2.29</v>
       </c>
       <c r="AP54">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>1.8</v>
@@ -12572,7 +12581,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.43</v>
@@ -12697,7 +12706,7 @@
         <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>3.47</v>
@@ -12775,10 +12784,10 @@
         <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ56">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12903,7 +12912,7 @@
         <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13109,7 +13118,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13315,7 +13324,7 @@
         <v>104</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13393,7 +13402,7 @@
         <v>1.13</v>
       </c>
       <c r="AP59">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ59">
         <v>0.9</v>
@@ -13805,7 +13814,7 @@
         <v>1.44</v>
       </c>
       <c r="AP61">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -13933,7 +13942,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>2.45</v>
@@ -14139,7 +14148,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>1.91</v>
@@ -14345,7 +14354,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14426,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14551,7 +14560,7 @@
         <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>2.58</v>
@@ -14838,7 +14847,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14963,7 +14972,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.84</v>
@@ -15041,10 +15050,10 @@
         <v>1.22</v>
       </c>
       <c r="AP67">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR67">
         <v>1.57</v>
@@ -15247,7 +15256,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15453,7 +15462,7 @@
         <v>1.3</v>
       </c>
       <c r="AP69">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15581,7 +15590,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2.8</v>
@@ -15662,7 +15671,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
         <v>1.48</v>
@@ -16199,7 +16208,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>4.16</v>
@@ -16280,7 +16289,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.46</v>
@@ -16611,7 +16620,7 @@
         <v>88</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16692,7 +16701,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ75">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16817,7 +16826,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>2.82</v>
@@ -16895,10 +16904,10 @@
         <v>1.55</v>
       </c>
       <c r="AP76">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR76">
         <v>1.54</v>
@@ -17435,7 +17444,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>2.69</v>
@@ -17516,7 +17525,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17719,7 +17728,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -18053,7 +18062,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>3.02</v>
@@ -18131,10 +18140,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.58</v>
@@ -18259,7 +18268,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>2.05</v>
@@ -18543,7 +18552,7 @@
         <v>1.08</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ84">
         <v>0.8</v>
@@ -18877,7 +18886,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.55</v>
@@ -18958,7 +18967,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ86">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19289,7 +19298,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19370,7 +19379,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ88">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR88">
         <v>1.65</v>
@@ -19495,7 +19504,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.45</v>
@@ -19779,7 +19788,7 @@
         <v>1.31</v>
       </c>
       <c r="AP90">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>1.65</v>
@@ -20113,7 +20122,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>3.62</v>
@@ -20191,10 +20200,10 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ92">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR92">
         <v>1.16</v>
@@ -20319,7 +20328,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20397,7 +20406,7 @@
         <v>1.07</v>
       </c>
       <c r="AP93">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
         <v>0.9</v>
@@ -21143,7 +21152,7 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>3.7</v>
@@ -21555,7 +21564,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>2.85</v>
@@ -21633,10 +21642,10 @@
         <v>1.43</v>
       </c>
       <c r="AP99">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.56</v>
@@ -21761,7 +21770,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22045,7 +22054,7 @@
         <v>0.87</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -23078,7 +23087,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ106">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR106">
         <v>1.71</v>
@@ -23281,7 +23290,7 @@
         <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ107">
         <v>1.58</v>
@@ -23409,7 +23418,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23487,7 +23496,7 @@
         <v>1.31</v>
       </c>
       <c r="AP108">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
         <v>1.2</v>
@@ -23615,7 +23624,7 @@
         <v>117</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>3.42</v>
@@ -24027,7 +24036,7 @@
         <v>145</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>4.1</v>
@@ -24105,7 +24114,7 @@
         <v>1.41</v>
       </c>
       <c r="AP111">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ111">
         <v>1.45</v>
@@ -24233,7 +24242,7 @@
         <v>88</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>2.77</v>
@@ -24517,7 +24526,7 @@
         <v>1.41</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ113">
         <v>1.2</v>
@@ -24645,7 +24654,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>2.3</v>
@@ -24723,7 +24732,7 @@
         <v>0.76</v>
       </c>
       <c r="AP114">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24851,7 +24860,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>3.65</v>
@@ -24932,7 +24941,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25057,7 +25066,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25135,7 +25144,7 @@
         <v>1.11</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
         <v>1.2</v>
@@ -25263,7 +25272,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.4</v>
@@ -25469,7 +25478,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>3.22</v>
@@ -25547,7 +25556,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.8</v>
@@ -25675,7 +25684,7 @@
         <v>157</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>2.01</v>
@@ -25881,7 +25890,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25962,7 +25971,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ120">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR120">
         <v>1.64</v>
@@ -26168,7 +26177,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ121">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26293,7 +26302,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>3.65</v>
@@ -26371,7 +26380,7 @@
         <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ122">
         <v>1.65</v>
@@ -26499,7 +26508,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.46</v>
@@ -26580,7 +26589,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.8</v>
@@ -26705,7 +26714,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>3.7</v>
@@ -26786,7 +26795,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
         <v>1.34</v>
@@ -26911,7 +26920,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>4.25</v>
@@ -26992,7 +27001,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR125">
         <v>1.14</v>
@@ -27323,7 +27332,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>3.1</v>
@@ -27529,7 +27538,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>3.11</v>
@@ -27607,7 +27616,7 @@
         <v>1.55</v>
       </c>
       <c r="AP128">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ128">
         <v>1.65</v>
@@ -27941,7 +27950,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>4.9</v>
@@ -28225,10 +28234,10 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR131">
         <v>1.39</v>
@@ -28353,7 +28362,7 @@
         <v>88</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>2.98</v>
@@ -28637,7 +28646,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ133">
         <v>0.8</v>
@@ -28765,7 +28774,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3.08</v>
@@ -28843,7 +28852,7 @@
         <v>1.3</v>
       </c>
       <c r="AP134">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
         <v>1.58</v>
@@ -28971,7 +28980,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.99</v>
@@ -29052,7 +29061,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ135">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
         <v>1.66</v>
@@ -29383,7 +29392,7 @@
         <v>88</v>
       </c>
       <c r="P137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29461,7 +29470,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ137">
         <v>1.8</v>
@@ -29795,7 +29804,7 @@
         <v>173</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -29873,7 +29882,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ139">
         <v>1.2</v>
@@ -30001,7 +30010,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q140">
         <v>2.55</v>
@@ -30207,7 +30216,7 @@
         <v>88</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>4.25</v>
@@ -30285,7 +30294,7 @@
         <v>1.43</v>
       </c>
       <c r="AP141">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
         <v>1.45</v>
@@ -30413,7 +30422,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.35</v>
@@ -30494,7 +30503,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ142">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.46</v>
@@ -30619,7 +30628,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>3.85</v>
@@ -30697,10 +30706,10 @@
         <v>1.48</v>
       </c>
       <c r="AP143">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ143">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR143">
         <v>1.26</v>
@@ -30825,7 +30834,7 @@
         <v>88</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.55</v>
@@ -31031,7 +31040,7 @@
         <v>177</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31443,7 +31452,7 @@
         <v>88</v>
       </c>
       <c r="P147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q147">
         <v>3.22</v>
@@ -31524,7 +31533,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ147">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.47</v>
@@ -31649,7 +31658,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31727,10 +31736,10 @@
         <v>1.55</v>
       </c>
       <c r="AP148">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ148">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR148">
         <v>1.54</v>
@@ -31855,7 +31864,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>2.42</v>
@@ -32061,7 +32070,7 @@
         <v>88</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32267,7 +32276,7 @@
         <v>180</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32345,7 +32354,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ151">
         <v>1.45</v>
@@ -32554,7 +32563,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.14</v>
@@ -32679,7 +32688,7 @@
         <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.09</v>
@@ -32757,7 +32766,7 @@
         <v>1.39</v>
       </c>
       <c r="AP153">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ153">
         <v>1.58</v>
@@ -32885,7 +32894,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -32963,7 +32972,7 @@
         <v>0.96</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ154">
         <v>0.9</v>
@@ -33172,7 +33181,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR155">
         <v>1.32</v>
@@ -33503,7 +33512,7 @@
         <v>156</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33993,7 +34002,7 @@
         <v>0.96</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34121,7 +34130,7 @@
         <v>187</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>2.65</v>
@@ -34405,10 +34414,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ161">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.39</v>
@@ -34820,7 +34829,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ163">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR163">
         <v>1.75</v>
@@ -35023,7 +35032,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ164">
         <v>0.9</v>
@@ -35232,7 +35241,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR165">
         <v>1.66</v>
@@ -35357,7 +35366,7 @@
         <v>190</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>2.85</v>
@@ -35438,7 +35447,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ166">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35563,7 +35572,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>3.8</v>
@@ -35847,7 +35856,7 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AQ168">
         <v>1.45</v>
@@ -35975,7 +35984,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36181,7 +36190,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>4.3</v>
@@ -36387,7 +36396,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36674,7 +36683,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR172">
         <v>1.14</v>
@@ -37005,7 +37014,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>2.94</v>
@@ -37083,10 +37092,10 @@
         <v>1.65</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ174">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR174">
         <v>1.28</v>
@@ -37417,7 +37426,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37498,7 +37507,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AR176">
         <v>1.31</v>
@@ -37623,7 +37632,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q177">
         <v>2.15</v>
@@ -37829,7 +37838,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>2.1</v>
@@ -38035,7 +38044,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38116,7 +38125,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ179">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
         <v>1.62</v>
@@ -38241,7 +38250,7 @@
         <v>201</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38319,7 +38328,7 @@
         <v>1.44</v>
       </c>
       <c r="AP180">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ180">
         <v>1.58</v>
@@ -38447,7 +38456,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -38525,7 +38534,7 @@
         <v>1.85</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AQ181">
         <v>1.8</v>
@@ -38653,7 +38662,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q182">
         <v>2.9</v>
@@ -38734,7 +38743,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ182">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -39349,10 +39358,10 @@
         <v>1.39</v>
       </c>
       <c r="AP185">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39435,7 +39444,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>7332543</v>
+        <v>7332542</v>
       </c>
       <c r="C186" t="s">
         <v>68</v>
@@ -39450,10 +39459,10 @@
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -39468,172 +39477,172 @@
         <v>1</v>
       </c>
       <c r="M186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O186" t="s">
         <v>206</v>
       </c>
       <c r="P186" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Q186">
+        <v>4</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
         <v>2.6</v>
       </c>
-      <c r="R186">
-        <v>2.3</v>
-      </c>
-      <c r="S186">
-        <v>3.75</v>
-      </c>
       <c r="T186">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U186">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V186">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="W186">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X186">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y186">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z186">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="AA186">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AB186">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="AC186">
         <v>1.03</v>
       </c>
       <c r="AD186">
+        <v>14</v>
+      </c>
+      <c r="AE186">
+        <v>1.23</v>
+      </c>
+      <c r="AF186">
+        <v>3.8</v>
+      </c>
+      <c r="AG186">
+        <v>1.78</v>
+      </c>
+      <c r="AH186">
+        <v>1.97</v>
+      </c>
+      <c r="AI186">
+        <v>1.67</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.78</v>
+      </c>
+      <c r="AL186">
+        <v>1.24</v>
+      </c>
+      <c r="AM186">
+        <v>1.28</v>
+      </c>
+      <c r="AN186">
+        <v>0.85</v>
+      </c>
+      <c r="AO186">
+        <v>1.46</v>
+      </c>
+      <c r="AP186">
+        <v>0.8</v>
+      </c>
+      <c r="AQ186">
+        <v>1.45</v>
+      </c>
+      <c r="AR186">
+        <v>1.44</v>
+      </c>
+      <c r="AS186">
+        <v>1.72</v>
+      </c>
+      <c r="AT186">
+        <v>3.16</v>
+      </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
         <v>16</v>
       </c>
-      <c r="AE186">
-        <v>1.2</v>
-      </c>
-      <c r="AF186">
-        <v>4.1</v>
-      </c>
-      <c r="AG186">
-        <v>1.68</v>
-      </c>
-      <c r="AH186">
-        <v>2.05</v>
-      </c>
-      <c r="AI186">
-        <v>1.62</v>
-      </c>
-      <c r="AJ186">
-        <v>2.2</v>
-      </c>
-      <c r="AK186">
-        <v>1.33</v>
-      </c>
-      <c r="AL186">
-        <v>1.2</v>
-      </c>
-      <c r="AM186">
-        <v>1.75</v>
-      </c>
-      <c r="AN186">
-        <v>1.5</v>
-      </c>
-      <c r="AO186">
-        <v>0.89</v>
-      </c>
-      <c r="AP186">
-        <v>1.58</v>
-      </c>
-      <c r="AQ186">
-        <v>0.9</v>
-      </c>
-      <c r="AR186">
-        <v>1.65</v>
-      </c>
-      <c r="AS186">
-        <v>1.6</v>
-      </c>
-      <c r="AT186">
-        <v>3.25</v>
-      </c>
-      <c r="AU186">
+      <c r="AY186">
         <v>3</v>
       </c>
-      <c r="AV186">
-        <v>2</v>
-      </c>
-      <c r="AW186">
-        <v>7</v>
-      </c>
-      <c r="AX186">
-        <v>2</v>
-      </c>
-      <c r="AY186">
-        <v>10</v>
-      </c>
       <c r="AZ186">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="BA186">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB186">
         <v>6</v>
       </c>
       <c r="BC186">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD186">
-        <v>1.49</v>
+        <v>2.4</v>
       </c>
       <c r="BE186">
-        <v>6.75</v>
+        <v>6.2</v>
       </c>
       <c r="BF186">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="BG186">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BH186">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BI186">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BJ186">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="BK186">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BL186">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="BM186">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="BN186">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="BO186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BP186">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -39641,7 +39650,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7332542</v>
+        <v>7332543</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39650,16 +39659,16 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45557.1875</v>
+        <v>45556.875</v>
       </c>
       <c r="F187">
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H187" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -39674,172 +39683,172 @@
         <v>1</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O187" t="s">
         <v>207</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="Q187">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R187">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S187">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="T187">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U187">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V187">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="W187">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X187">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y187">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z187">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA187">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AB187">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="AC187">
         <v>1.03</v>
       </c>
       <c r="AD187">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE187">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AF187">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AG187">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AH187">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AI187">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ187">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK187">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AL187">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AM187">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="AN187">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO187">
-        <v>1.46</v>
+        <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>0.8</v>
+        <v>1.58</v>
       </c>
       <c r="AQ187">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AR187">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS187">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT187">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU187">
         <v>3</v>
       </c>
       <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
         <v>7</v>
       </c>
-      <c r="AW187">
-        <v>1</v>
-      </c>
       <c r="AX187">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AY187">
+        <v>10</v>
+      </c>
+      <c r="AZ187">
         <v>4</v>
       </c>
-      <c r="AZ187">
-        <v>23</v>
-      </c>
       <c r="BA187">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB187">
         <v>6</v>
       </c>
       <c r="BC187">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD187">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="BE187">
-        <v>6.2</v>
+        <v>6.75</v>
       </c>
       <c r="BF187">
-        <v>1.85</v>
+        <v>3.35</v>
       </c>
       <c r="BG187">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BH187">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BI187">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BJ187">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="BK187">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BL187">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BM187">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="BN187">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="BO187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP187">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39847,7 +39856,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7332545</v>
+        <v>7332544</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39862,166 +39871,166 @@
         <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H188" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188">
         <v>0</v>
       </c>
       <c r="N188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O188" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="P188" t="s">
         <v>88</v>
       </c>
       <c r="Q188">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S188">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T188">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U188">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V188">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="W188">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X188">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y188">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z188">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AA188">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AB188">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="AC188">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.3</v>
+      </c>
+      <c r="AF188">
+        <v>3.35</v>
+      </c>
+      <c r="AG188">
+        <v>1.92</v>
+      </c>
+      <c r="AH188">
+        <v>1.9</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.15</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>2</v>
+      </c>
+      <c r="AN188">
+        <v>1.55</v>
+      </c>
+      <c r="AO188">
+        <v>1.24</v>
+      </c>
+      <c r="AP188">
+        <v>1.65</v>
+      </c>
+      <c r="AQ188">
+        <v>1.2</v>
+      </c>
+      <c r="AR188">
+        <v>1.47</v>
+      </c>
+      <c r="AS188">
+        <v>1.32</v>
+      </c>
+      <c r="AT188">
+        <v>2.79</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
         <v>8</v>
       </c>
-      <c r="AE188">
-        <v>1.33</v>
-      </c>
-      <c r="AF188">
-        <v>3.2</v>
-      </c>
-      <c r="AG188">
-        <v>1.89</v>
-      </c>
-      <c r="AH188">
-        <v>1.94</v>
-      </c>
-      <c r="AI188">
-        <v>1.7</v>
-      </c>
-      <c r="AJ188">
-        <v>1.95</v>
-      </c>
-      <c r="AK188">
-        <v>1.42</v>
-      </c>
-      <c r="AL188">
-        <v>1.28</v>
-      </c>
-      <c r="AM188">
-        <v>1.5</v>
-      </c>
-      <c r="AN188">
-        <v>1.61</v>
-      </c>
-      <c r="AO188">
-        <v>1.93</v>
-      </c>
-      <c r="AP188">
-        <v>1.66</v>
-      </c>
-      <c r="AQ188">
-        <v>1.8</v>
-      </c>
-      <c r="AR188">
-        <v>1.54</v>
-      </c>
-      <c r="AS188">
-        <v>1.58</v>
-      </c>
-      <c r="AT188">
-        <v>3.12</v>
-      </c>
-      <c r="AU188">
-        <v>4</v>
-      </c>
-      <c r="AV188">
+      <c r="AX188">
         <v>3</v>
       </c>
-      <c r="AW188">
-        <v>4</v>
-      </c>
-      <c r="AX188">
-        <v>2</v>
-      </c>
       <c r="AY188">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ188">
         <v>5</v>
       </c>
       <c r="BA188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB188">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC188">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD188">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="BE188">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="BF188">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="BG188">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="BH188">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="BI188">
         <v>1.73</v>
@@ -40036,16 +40045,16 @@
         <v>1.58</v>
       </c>
       <c r="BM188">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BN188">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BO188">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP188">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40053,7 +40062,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7332544</v>
+        <v>7332545</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40062,172 +40071,172 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45559.3125</v>
+        <v>45558.875</v>
       </c>
       <c r="F189">
         <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H189" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M189">
         <v>0</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O189" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="P189" t="s">
         <v>88</v>
       </c>
       <c r="Q189">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="R189">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T189">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U189">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V189">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="W189">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X189">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="Y189">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z189">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="AA189">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AB189">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD189">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE189">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF189">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AG189">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AH189">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AI189">
+        <v>1.7</v>
+      </c>
+      <c r="AJ189">
+        <v>1.95</v>
+      </c>
+      <c r="AK189">
+        <v>1.42</v>
+      </c>
+      <c r="AL189">
+        <v>1.28</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>1.61</v>
+      </c>
+      <c r="AO189">
+        <v>1.93</v>
+      </c>
+      <c r="AP189">
+        <v>1.6</v>
+      </c>
+      <c r="AQ189">
         <v>1.8</v>
       </c>
-      <c r="AJ189">
-        <v>1.83</v>
-      </c>
-      <c r="AK189">
-        <v>1.15</v>
-      </c>
-      <c r="AL189">
-        <v>1.22</v>
-      </c>
-      <c r="AM189">
-        <v>2</v>
-      </c>
-      <c r="AN189">
-        <v>1.55</v>
-      </c>
-      <c r="AO189">
-        <v>1.24</v>
-      </c>
-      <c r="AP189">
-        <v>1.65</v>
-      </c>
-      <c r="AQ189">
-        <v>1.2</v>
-      </c>
       <c r="AR189">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS189">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="AU189">
         <v>4</v>
       </c>
       <c r="AV189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW189">
+        <v>4</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+      <c r="AY189">
         <v>8</v>
-      </c>
-      <c r="AX189">
-        <v>3</v>
-      </c>
-      <c r="AY189">
-        <v>12</v>
       </c>
       <c r="AZ189">
         <v>5</v>
       </c>
       <c r="BA189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB189">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC189">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD189">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="BE189">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="BF189">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="BG189">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BH189">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="BI189">
         <v>1.73</v>
@@ -40242,16 +40251,16 @@
         <v>1.58</v>
       </c>
       <c r="BM189">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BN189">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BO189">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BP189">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40268,7 +40277,7 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45559.3125</v>
+        <v>45558.875</v>
       </c>
       <c r="F190">
         <v>32</v>
@@ -40301,7 +40310,7 @@
         <v>209</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40397,19 +40406,19 @@
         <v>4</v>
       </c>
       <c r="AV190">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW190">
         <v>5</v>
       </c>
       <c r="AX190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY190">
         <v>9</v>
       </c>
       <c r="AZ190">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA190">
         <v>2</v>
@@ -40465,7 +40474,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7332548</v>
+        <v>7332547</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40474,76 +40483,76 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45560.3125</v>
+        <v>45559.875</v>
       </c>
       <c r="F191">
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H191" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191">
         <v>1</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191">
         <v>1</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="P191" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="Q191">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R191">
+        <v>2.16</v>
+      </c>
+      <c r="S191">
+        <v>3.6</v>
+      </c>
+      <c r="T191">
+        <v>1.35</v>
+      </c>
+      <c r="U191">
+        <v>2.88</v>
+      </c>
+      <c r="V191">
+        <v>2.62</v>
+      </c>
+      <c r="W191">
+        <v>1.45</v>
+      </c>
+      <c r="X191">
+        <v>6.4</v>
+      </c>
+      <c r="Y191">
+        <v>1.09</v>
+      </c>
+      <c r="Z191">
         <v>2.05</v>
       </c>
-      <c r="S191">
-        <v>3.35</v>
-      </c>
-      <c r="T191">
-        <v>1.38</v>
-      </c>
-      <c r="U191">
-        <v>2.8</v>
-      </c>
-      <c r="V191">
-        <v>2.75</v>
-      </c>
-      <c r="W191">
-        <v>1.4</v>
-      </c>
-      <c r="X191">
-        <v>6.5</v>
-      </c>
-      <c r="Y191">
-        <v>1.1</v>
-      </c>
-      <c r="Z191">
-        <v>2.2</v>
-      </c>
       <c r="AA191">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB191">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AC191">
         <v>1.05</v>
@@ -40552,16 +40561,16 @@
         <v>8.5</v>
       </c>
       <c r="AE191">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF191">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG191">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH191">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AI191">
         <v>1.65</v>
@@ -40570,100 +40579,100 @@
         <v>2.05</v>
       </c>
       <c r="AK191">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AL191">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM191">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AN191">
-        <v>0.9</v>
+        <v>1.52</v>
       </c>
       <c r="AO191">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AP191">
-        <v>0.9</v>
+        <v>1.45</v>
       </c>
       <c r="AQ191">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AR191">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AS191">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AT191">
-        <v>2.84</v>
+        <v>3.39</v>
       </c>
       <c r="AU191">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV191">
         <v>5</v>
       </c>
       <c r="AW191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX191">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AY191">
         <v>9</v>
       </c>
       <c r="AZ191">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BA191">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB191">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC191">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD191">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="BE191">
-        <v>5.95</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF191">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="BG191">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="BH191">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="BI191">
-        <v>2.03</v>
+        <v>1.53</v>
       </c>
       <c r="BJ191">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="BK191">
-        <v>2.58</v>
+        <v>1.88</v>
       </c>
       <c r="BL191">
-        <v>1.37</v>
+        <v>1.91</v>
       </c>
       <c r="BM191">
-        <v>3.62</v>
+        <v>2.39</v>
       </c>
       <c r="BN191">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="BO191">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BP191">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40671,7 +40680,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7332549</v>
+        <v>7332548</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40680,16 +40689,16 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45560.3125</v>
+        <v>45559.875</v>
       </c>
       <c r="F192">
         <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H192" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -40701,169 +40710,169 @@
         <v>1</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O192" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="P192" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q192">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="R192">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="S192">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="T192">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U192">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="V192">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="W192">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X192">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y192">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z192">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA192">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB192">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AC192">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD192">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE192">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF192">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AG192">
         <v>1.8</v>
       </c>
       <c r="AH192">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI192">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AJ192">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="AK192">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.57</v>
+      </c>
+      <c r="AN192">
+        <v>0.9</v>
+      </c>
+      <c r="AO192">
+        <v>1.34</v>
+      </c>
+      <c r="AP192">
+        <v>0.9</v>
+      </c>
+      <c r="AQ192">
+        <v>1.39</v>
+      </c>
+      <c r="AR192">
+        <v>1.57</v>
+      </c>
+      <c r="AS192">
         <v>1.27</v>
       </c>
-      <c r="AM192">
-        <v>1.64</v>
-      </c>
-      <c r="AN192">
-        <v>1.5</v>
-      </c>
-      <c r="AO192">
-        <v>0.82</v>
-      </c>
-      <c r="AP192">
-        <v>1.55</v>
-      </c>
-      <c r="AQ192">
-        <v>0.8</v>
-      </c>
-      <c r="AR192">
-        <v>1.38</v>
-      </c>
-      <c r="AS192">
-        <v>1.42</v>
-      </c>
       <c r="AT192">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AU192">
+        <v>2</v>
+      </c>
+      <c r="AV192">
         <v>6</v>
       </c>
-      <c r="AV192">
-        <v>2</v>
-      </c>
       <c r="AW192">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX192">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY192">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AZ192">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA192">
         <v>4</v>
       </c>
       <c r="BB192">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC192">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD192">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BE192">
-        <v>7.8</v>
+        <v>5.95</v>
       </c>
       <c r="BF192">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BG192">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="BH192">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="BI192">
-        <v>1.71</v>
+        <v>2.03</v>
       </c>
       <c r="BJ192">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="BK192">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="BL192">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="BM192">
-        <v>2.88</v>
+        <v>3.62</v>
       </c>
       <c r="BN192">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BO192">
         <v>0</v>
@@ -40877,7 +40886,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7332547</v>
+        <v>7332549</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40892,58 +40901,58 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H193" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O193" t="s">
+        <v>210</v>
+      </c>
+      <c r="P193" t="s">
         <v>88</v>
       </c>
-      <c r="P193" t="s">
-        <v>310</v>
-      </c>
       <c r="Q193">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="R193">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="S193">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="T193">
         <v>1.35</v>
       </c>
       <c r="U193">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="V193">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="W193">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X193">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Y193">
         <v>1.09</v>
@@ -40952,130 +40961,130 @@
         <v>2.05</v>
       </c>
       <c r="AA193">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB193">
         <v>3</v>
       </c>
       <c r="AC193">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD193">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE193">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF193">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AG193">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH193">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AI193">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AJ193">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AK193">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AL193">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AM193">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AN193">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AO193">
-        <v>1.48</v>
+        <v>0.82</v>
       </c>
       <c r="AP193">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>1.58</v>
+        <v>0.8</v>
       </c>
       <c r="AR193">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AS193">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AT193">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="AU193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV193">
         <v>2</v>
       </c>
       <c r="AW193">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX193">
         <v>5</v>
       </c>
       <c r="AY193">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ193">
         <v>7</v>
       </c>
       <c r="BA193">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB193">
         <v>1</v>
       </c>
       <c r="BC193">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD193">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BE193">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="BF193">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="BG193">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="BH193">
-        <v>3.28</v>
+        <v>2.61</v>
       </c>
       <c r="BI193">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="BJ193">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
       <c r="BK193">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="BL193">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="BM193">
-        <v>2.39</v>
+        <v>2.88</v>
       </c>
       <c r="BN193">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="BO193">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="BP193">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41125,7 +41134,7 @@
         <v>88</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -41537,7 +41546,7 @@
         <v>88</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>4.5</v>
@@ -41624,10 +41633,10 @@
         <v>1.18</v>
       </c>
       <c r="AS196">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT196">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41827,13 +41836,13 @@
         <v>0.8</v>
       </c>
       <c r="AR197">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS197">
         <v>1.39</v>
       </c>
       <c r="AT197">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="AU197">
         <v>3</v>
@@ -41900,6 +41909,418 @@
       </c>
       <c r="BP197">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7332554</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45565.3125</v>
+      </c>
+      <c r="F198">
+        <v>33</v>
+      </c>
+      <c r="G198" t="s">
+        <v>77</v>
+      </c>
+      <c r="H198" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>212</v>
+      </c>
+      <c r="P198" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q198">
+        <v>2.88</v>
+      </c>
+      <c r="R198">
+        <v>2.25</v>
+      </c>
+      <c r="S198">
+        <v>3.4</v>
+      </c>
+      <c r="T198">
+        <v>1.33</v>
+      </c>
+      <c r="U198">
+        <v>3.25</v>
+      </c>
+      <c r="V198">
+        <v>2.63</v>
+      </c>
+      <c r="W198">
+        <v>1.44</v>
+      </c>
+      <c r="X198">
+        <v>6.5</v>
+      </c>
+      <c r="Y198">
+        <v>1.11</v>
+      </c>
+      <c r="Z198">
+        <v>2.25</v>
+      </c>
+      <c r="AA198">
+        <v>3.4</v>
+      </c>
+      <c r="AB198">
+        <v>2.65</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>11</v>
+      </c>
+      <c r="AE198">
+        <v>1.2</v>
+      </c>
+      <c r="AF198">
+        <v>4</v>
+      </c>
+      <c r="AG198">
+        <v>1.75</v>
+      </c>
+      <c r="AH198">
+        <v>1.95</v>
+      </c>
+      <c r="AI198">
+        <v>1.62</v>
+      </c>
+      <c r="AJ198">
+        <v>2.2</v>
+      </c>
+      <c r="AK198">
+        <v>1.38</v>
+      </c>
+      <c r="AL198">
+        <v>1.26</v>
+      </c>
+      <c r="AM198">
+        <v>1.57</v>
+      </c>
+      <c r="AN198">
+        <v>1.48</v>
+      </c>
+      <c r="AO198">
+        <v>1.55</v>
+      </c>
+      <c r="AP198">
+        <v>1.53</v>
+      </c>
+      <c r="AQ198">
+        <v>1.5</v>
+      </c>
+      <c r="AR198">
+        <v>1.53</v>
+      </c>
+      <c r="AS198">
+        <v>1.4</v>
+      </c>
+      <c r="AT198">
+        <v>2.93</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>5</v>
+      </c>
+      <c r="AY198">
+        <v>10</v>
+      </c>
+      <c r="AZ198">
+        <v>8</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>4</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>2.17</v>
+      </c>
+      <c r="BE198">
+        <v>6</v>
+      </c>
+      <c r="BF198">
+        <v>2.04</v>
+      </c>
+      <c r="BG198">
+        <v>1.37</v>
+      </c>
+      <c r="BH198">
+        <v>2.58</v>
+      </c>
+      <c r="BI198">
+        <v>1.9</v>
+      </c>
+      <c r="BJ198">
+        <v>1.9</v>
+      </c>
+      <c r="BK198">
+        <v>2.22</v>
+      </c>
+      <c r="BL198">
+        <v>1.63</v>
+      </c>
+      <c r="BM198">
+        <v>2.94</v>
+      </c>
+      <c r="BN198">
+        <v>1.28</v>
+      </c>
+      <c r="BO198">
+        <v>3.9</v>
+      </c>
+      <c r="BP198">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7332555</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45565.3125</v>
+      </c>
+      <c r="F199">
+        <v>33</v>
+      </c>
+      <c r="G199" t="s">
+        <v>79</v>
+      </c>
+      <c r="H199" t="s">
+        <v>82</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>88</v>
+      </c>
+      <c r="P199" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q199">
+        <v>2.5</v>
+      </c>
+      <c r="R199">
+        <v>2.2</v>
+      </c>
+      <c r="S199">
+        <v>4.5</v>
+      </c>
+      <c r="T199">
+        <v>1.4</v>
+      </c>
+      <c r="U199">
+        <v>2.75</v>
+      </c>
+      <c r="V199">
+        <v>2.75</v>
+      </c>
+      <c r="W199">
+        <v>1.4</v>
+      </c>
+      <c r="X199">
+        <v>8</v>
+      </c>
+      <c r="Y199">
+        <v>1.08</v>
+      </c>
+      <c r="Z199">
+        <v>1.73</v>
+      </c>
+      <c r="AA199">
+        <v>3.6</v>
+      </c>
+      <c r="AB199">
+        <v>3.75</v>
+      </c>
+      <c r="AC199">
+        <v>